--- a/doc/android.xlsx
+++ b/doc/android.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10709"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5335CFF8-6B33-C348-ABF0-81A295D3B4A9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EBD0EC5-C46E-2542-984E-D33A7069301B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Today" sheetId="5" r:id="rId1"/>
@@ -14,16 +14,18 @@
     <sheet name="版本控制" sheetId="2" r:id="rId4"/>
     <sheet name="Lessson6_Adapter" sheetId="3" r:id="rId5"/>
     <sheet name="Lessson8_ContentProvider" sheetId="4" r:id="rId6"/>
-    <sheet name="消息机制模型" sheetId="10" r:id="rId7"/>
-    <sheet name="消息机制" sheetId="6" r:id="rId8"/>
-    <sheet name="==与equals" sheetId="7" r:id="rId9"/>
-    <sheet name="hasgCode" sheetId="9" r:id="rId10"/>
+    <sheet name="消息机制" sheetId="6" r:id="rId7"/>
+    <sheet name="消息机制模型" sheetId="10" r:id="rId8"/>
+    <sheet name="基于监听的事件处理机制" sheetId="12" r:id="rId9"/>
+    <sheet name="boradcast_implicit_explicit" sheetId="11" r:id="rId10"/>
+    <sheet name="==与equals" sheetId="7" r:id="rId11"/>
+    <sheet name="hasgCode" sheetId="9" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Today!$A$1:$F$222</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Today!$A$1:$G$225</definedName>
   </definedNames>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
@@ -90,1561 +92,1594 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{840E8405-B3C3-EC47-B8DB-89B556FAF9C4}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">BroadcastQueue: Background execution not allowed: receiving Intent { act=com.hades.android.example.android_about_demos.app_component.broadcast.SimpleReceiver.ONE flg=0x10 (has extras) }
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>to com.hades.android.example.android_about_demos/.app_component.broadcast.SimpleReceiver</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="417">
   <si>
     <t>Activity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>PhoneWindow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>KeyEvent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Context</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>onKeyUp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>RootView</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>RoowView根据Focus位置找到Focus View。
 如果Focus View处理了，则不继续分发，否则继续分发。
 如果FocusView不处理，则把事件上传给父控件（例如ListView负责处理子控件事件）。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>RoowView寻找Focus View。
 如果Focus View处理了，则不继续分发，否则继续分发。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>TouchEvent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ViewTree</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>以后可能要改，不太确定。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>版本控制名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>版本库模式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>SVN（subversion）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Git</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Mercurial水星</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Bitkeeper</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>CVS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>VCS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>本地版本控制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>集中式版本控制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>分布式版本控制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">http，https，svn，SSH
 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>主要协议</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>支持分布式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>支持原子操作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>VSS（微软旧版本控制系统）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>IFS（微软新版本控制系统）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">ClearCase </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Perforce（三星使用）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">http，https，git，SSH，ftp，file，rsync。
 前3中是主要协议。
 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>支持并发操作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>DS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>DataSource数据源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>AD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ADV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>适配器（Adapter）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>使用适配器（Adapter）的适配组件（AdapterView）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>第2步：建立数据源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>第3步：建立创建数据源和适配器的连接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>第4步：绑定适配器到界面组件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>第1步：建立数据源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>继承与BaseAdapter。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>传入数据源DS。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>匹配特定数据类型的传入的数据源。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>AD要做什么？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>如何自定义Adapter？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>131 - 开发自定义组件-自定义呈现2.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>正在</t>
   </si>
   <si>
     <t>状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>132 - 考核目标及总结.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>133 - 存储方式分类及SharedPreference.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>134 - SharedPreference实践及探究1.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>135 - SharedPreference实践及探究2.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>136 - PreferenceScreen做商业的Settings1.mp4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>137 - PreferenceScreen做商业的Settings2.mp4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>138 - 文件存储.mp4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>139 - 网络存储.mp4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>140 - 与其它关系型数据库比较&amp;Sqlite操作步骤.mp4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>141 - 原生实现Sqlite数据操作.mp4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>142 - 使用Sqlite图形化客户端来做实验.mp4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>143 - 实现用户管理的增删改查.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>144 - 实现用户管理的增删改查.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>145 - 使用SqliteOpenHelper类简化管理1.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>146 - 使用SqliteOpenHelper类简化管理2.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>147 - Sqlite3数据库引擎源码及JDBC连接方式1.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>148 - Sqlite3数据库引擎源码及JDBC连接方式2.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>149 - 建立多个复杂表及主外键关联.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>150 - 视图&amp;触发器&amp;存储过程.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>151 - Sqlite3商业应用-事务操作及总结.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>152 - 系统介绍.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>153 - ContentProvider机制.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>154 - ManagingQuery.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>155 - 开发自己的Provider1.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>156 - 开发自己的Provider2.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>157 - 宿主进程生命周期.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>158 - 引入原因及Helloworld.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>159 - 接收哪些系统消息.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>160 - 宿主进程生命周期.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>161 - 应用程序签名及发布-签名步骤.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>162 - 签名原理(数字证书原理).flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>163 - 应用程序签名及发布-发布注意事项.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>结束</t>
   </si>
   <si>
     <t>预开始日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>预结束日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>结束日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Android高级应用开发-深入篇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Android高级应用开发-基础篇</t>
   </si>
   <si>
     <t>001 - Launcher界面元素标准名称及四大操作.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>002 - 解读LauncherApp启动代码.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>3 - Shortcut上.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>4 - Shortcut下.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>5 - 总结Shortcut设计及实现原理.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>6 - LiveFolder上.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>7 - LiveFolder下.mp4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>8 - AppWidget主要框架及类介绍.mp4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>9 - AppWidget箱模型.mp4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>10 - AppWidget布局.mp4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>11 - AppWidget通讯与Binder的关系.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>12 - AppWidgetDemo.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>13 - AppWidgetRemoteView中的Message.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>14 - AppWidget源码分析更新view的过程.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>15 - AppWidgetRemoteViewDemo.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>16 - 我们来做四个实验.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>17 - 如何设计自己的Launcher.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>18 - Android的多线程与异步任务1.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>19 - Android的多线程与异步任务2.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>20 - Android的多线程与异步任务3.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>21 - 高级商业界面开发-Style&amp;Theme.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>22 - 不规则窗体.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>23 - 换肤.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>24 - 优化UI性能1.mp4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>25 - 优化UI性能2.mp4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>26 - 优化UI性能3.mp4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>27 - 优化UI性能4.mp4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>28 - 动画1.mp4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>29 - 动画2.mp4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>30 - 动画3.mp4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>31 - 动画4.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>32 - 动画5.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>33 - 动画6.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>34 - 动画7(Android动画实现原理).flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>35 - 拖动(Drag).flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>36 - ViewAnimator.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>37 - Apple程序列表抖动案例.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>38 - Apple程序列表抖动案例及总结.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>39 - Android多媒体的世界1-视频音频的播放.mp4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>40 - Android多媒体的世界2-MediaPlayer控制状态.mp4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>41 - Android多媒体的世界3-MediaPlayer基本概念.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>42 - Android多媒体的世界4-音频播放的helloworld.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>43 - Android多媒体的世界5-照相及录像.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>44 - Android多媒体的世界6-总结.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>45 - NDK初步1-介绍ndk及JNI应用详解.mp4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>46 - NDK初步2-NDK上手学习.mp4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>47 - NDK初步3-通过demo学习ndk.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>48 - NDK初步4-JAVA的JNI应用详解1.flv</t>
   </si>
   <si>
     <t>49 - NDK初步5-JAVA的JNI应用详解2.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>50 - NDK初步6-ndk应用实例.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>51 - 电话与短信应用1-使用模拟器测试短信功能.mp4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>52 - 电话与短信应用2-发送短信.mp4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>53 - 电话与短信应用3-深入短信功能.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>54 - 电话与短信应用4-电话功能研究.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>55 - 电话与短信应用5-监听拨入拨出状态.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>56 - 电话与短信应用6-电话号码添加前缀及通话录音.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>5、基于Android开发软件工程最佳实践</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>001 - 目标及准备工作.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>002 - 例子入手为何用UML.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>003 - UML三八视图图形架构.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>4 - 用例图1(UsecaseDiagram).mp4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>5 - 用例图2(UsecaseDiagram).mp4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>6 - 用例图3(UsecaseDiagram).mp4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>7 - 状态图1(StatechartDiagram).mp4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>8 - 状态图2(StatechartDiagram).mp4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>9 - 时序图1(SequenceDiagram).mp4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>10 - 时序图2(SequenceDiagram).mp4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>11 - 时序图3(SequenceDiagram).mp4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>13 - 活动图2(ActivityDiagram).mp4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>12 - 活动图1(ActivityDiagram).mp4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>14 - 类图1(ClassDiagram).mp4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>15 - 类图2(ClassDiagram).mp4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>16 - 类图3(ClassDiagram).mp4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>17 - 类图4(ClassDiagram).mp4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>18 - 类图5(ClassDiagram).mp4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>19 - 类图6(ClassDiagram).mp4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>20 - 组件图(ComponentDiagram).flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>21 - 部署图(DeploymentDiagram).flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>22 - 软件工程软件概述及RUP.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>23 - 软件工程软件概述-模型W模型.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>24 - 软件工程软件概述-WRUP最佳实践模型.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>25 - 开发工作流1(9条).flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>26 - 开发工作流2(9条).flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>27 - 开发工作流3(9条).flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>28 - 案例贯穿.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>29 - UML需求分析-项目评估及需求阶段划分.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>30 - 迭代式需求(需求四要素，五原则).flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>31 - 迭代需求步骤1.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>32 - 迭代需求步骤2.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>33 - 界面原型.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>34 - 需求成文.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>35 - 案例展示.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>36 - 移动点菜系统现场需求Case1.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>37 - 移动点菜系统现场需求Case2.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>38 - 移动点菜系统现场需求Case3.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>39 - 移动点菜系统现场需求Case4.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>40 - 移动点菜系统现场需求Case5.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>41 - 移动点菜系统现场需求Case6.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>42 - UML软件设计-设计基本策略.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>43 - 架构架构师的两个层次.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>44 - 设计三轴线.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>45 - 设计的基本武器：高层模式与低层模式.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>46 - 设计矩阵(四要素,五原则).flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>47 - 设计矩阵(数据持久化设计及界面设计).flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>48 - Sample.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>6、Android项目-AA小助手</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>01 - AA小助手项目1-项目引子.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>02 - AA小助手项目2-功能需求.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>03 - AA小助手项目3-项目约定.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>04 - AA小助手项目4-主框架实现.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>05 - AA小助手项目5-实现框架布局.mp4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>06 - AA小助手项目6-回顾布局重要性.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>07 - AA小助手项目7-实现九宫格布局.mp4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>08 - AA小助手项目8-设计布局.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>09 - AA小助手项目9-实现Adapter.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>10 - AA小助手项目10-GridView.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>11 - AA小助手项目11-Selector.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>12 - AA小助手项目12-封装自己的SlideMenu.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>13 - AA小助手项目13-SlideMenuItem.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>14 - AA小助手项目14-SlideMenuItem.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>15 - AA小助手项目15-SlideMenuView.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>16 - AA小助手项目16-SlideMenuView.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>17 - AA小助手项目17-在ActivityFrame进行封装.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>18 - AA小助手项目18-封装数据库操作类.mp4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>19 - AA小助手项目19-总结数据库操作.mp4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>20 - AA小助手项目20-封装实体类.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>21 - AA小助手项目21-封装实体dal.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>22 - AA小助手项目22-制作实体类业务逻辑.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>23 - AA小助手项目23-实现Business实体类.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>24 - AA小助手项目24-实现BusinessDAL操作.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>25 - AA小助手项目25-实现BusinessDAL操作.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>26 - AA小助手项目26-实现Business逻辑.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>27 - AA小助手项目27-总结工作.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>28 - AA小助手项目28-user.xml的实现.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>29 - AA小助手项目29-人员管理模块的增删改查.mp4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>30 - AA小助手项目30-人员管理模块的增删改查.mp4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>31 - AA小助手项目31-人员管理模块的增删改查.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>32 - AA小助手项目32-人员管理模块的增删改查.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>33 - AA小助手项目33-人员管理模块的增删改查.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>34 - AA小助手项目34-人员管理模块的增删改查.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>35 - AA小助手项目35-账本管理模块.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>36 - AA小助手项目36-账本管理模块.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>37 - AA小助手项目37-账本管理模块.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>38 - AA小助手项目38-账本管理模块.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>39 - AA小助手项目39-类别管理.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>40 - AA小助手项目40-类别管理.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>41 - AA小助手项目41-类别管理.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>42 - AA小助手项目42-小总结.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>43 - AA小助手项目43-账本与类别的业务逻辑.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>44 - AA小助手项目44-账本与类别的连接.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>45 - AA小助手项目45-对话框的实现.mp4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>46 - AA小助手项目46-消费功能实现.mp4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>47 - AA小助手项目47-记录消费.mp4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>48 - AA小助手项目48-查询消费.mp4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>49 - AA小助手项目49-统计管理功能.mp4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>50 - AA小助手项目50-使用视图.mp4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>51 - AA小助手项目51-学习复杂数据统计的思路.mp4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>52 - AA小助手项目52-使用多线程和handler设计程序.mp4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>53 - AA小助手项目53-导出excel.mp4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>54 - AA小助手项目54-导出图表.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>55 - AA小助手项目55-总结1.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>56 - AA小助手项目56-总结2.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>7、Android项目-麦可网基于Phonegap的客户端</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>57 - 2012-06-03_Microoh客户端项目启动_1.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>58 - 2012-06-03_Microoh客户端项目启动_2.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>59 - 2012-06-03_Microoh客户端项目启动_3.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>60 - 2012-06-04_项目立项会议.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>61 - 2012-06-07_技术分享会_1.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>62 - 2012-06-07_技术分享会_2.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>63 - 2012-06-07_技术分享会_3.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>64 - 2012-06-07_技术分享会_4.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>65 - 2012-06-07_技术分享会_5.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>66 - 2012-06-07_技术分享会_6.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>67 - 2012-06-07_技术分享会_7.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>68 - 2012-06-11_工作跟进会议-检查大家的原型和WebSer.mp4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>69 - 2012-06-14_概要设计框架及HttpJSON公共类封装_.mp4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>70 - 2012-06-14_概要设计框架及HttpJSON公共类封装_.mp4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>71 - 2012-06-14_概要设计框架及HttpJSON公共类封装_.mp4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>72 - 2012-06-20_工作跟进会议-检查模块概要设计_1.mp4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>73 - 2012-06-20_工作跟进会议-检查模块概要设计_2.mp4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>74 - 2012-06-20_工作跟进会议-检查模块概要设计_3.mp4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>75 - 2012-06-29_功能详细设计及编码实现_1.mp4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>76 - 2012-06-29_功能详细设计及编码实现_2.mp4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>77 - 2012-06-29_功能详细设计及编码实现_3.mp4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>78 - 2012-06-29_功能详细设计及编码实现_4.mp4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>79 - 2012-06-29_功能详细设计及编码实现_5.mp4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>80 - 2012-07-02_WebService设计及实现.mp4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>81 - 2012-07-25_编码实现的检验_1.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>82 - 2012-07-25_编码实现的检验_2.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>83 - 2012-07-25_编码实现的检验_3.flv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>设计模式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>HeadFirst设计模式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>类别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>任务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">ContentResolver </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>APP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>External Storage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Internal Storage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">SQLite  Databases   </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Shared Preferences</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Network Connection</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>→</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Android的DBS包含上面5种方式。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Android DBS提供增删改查方法。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ContentProvider</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>增</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>增</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>删</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>其他APP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>←</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ContentResolver 是调用方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ContentProvider是发布方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>第一层</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>第二层</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>第三层</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>第三方APP使用开放的接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Thread</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>MessageQueue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Looper</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Handler</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Message</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Message</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>handleMessage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>把消息送入消息队列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Looper mLooper</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>MessageQueue mQueue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>mQueue：当前线程对应的Looper，Looper对应的消息队列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Callback mCallback</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>mCallback：当前线程对应的Callback，即Runable接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>所以，Handler只需要关联Looper即可。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Looper.java</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>mLooper：当前线程对应的Looper。新建Looper，把Looper关联到Thread，新建MessageQueue，并把MessageQueue关联到的该Looper。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>.java</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>.class</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>.apk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>.jar</t>
   </si>
   <si>
     <t>dx.bat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>.dex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>javac</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>aapt.exe（打包工具）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>classes.dex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>jd-gui.exe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>.xml（已解码）和.smali</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>dex2jar.bat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>需要反编译的是.xml文件和.dex文件。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>使用apktool反编译.xml。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>使用dex2jar.bat反编译.dex得到.jar，使用各类JD工具查看.jar</t>
   </si>
   <si>
     <t>apktool.bat（解包工具）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>jadclipse插件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>常量池</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>String s1 = "abc"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>String s3 = new String("abc")</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>String s2 = "abc"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>String s4 = newString("efg")</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>String s5 = new String("efg")</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>s1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>s2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>s3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>s5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>s4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>"abc"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>"efg"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ox000021</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ox000022</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ox000024</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ox000025</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ox000023</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ox000024</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ox000025</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>堆内存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>栈内存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>equals()方法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>存储地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>hashCode值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>╳</t>
   </si>
   <si>
     <t>不能插入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>存入不同地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>存入不同地址（链式结构）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>√，表示相等。</t>
   </si>
   <si>
     <t>说明：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1686,14 +1721,78 @@
   <si>
     <t>B  &lt;=  A</t>
   </si>
+  <si>
+    <t>Send an Implicit Broadcast</t>
+  </si>
+  <si>
+    <t>Sending</t>
+  </si>
+  <si>
+    <t>Send an Explicit Broadcast</t>
+  </si>
+  <si>
+    <t>Receiving broadcasts</t>
+  </si>
+  <si>
+    <t>manifest-declared receivers</t>
+  </si>
+  <si>
+    <t>context-registered receivers</t>
+  </si>
+  <si>
+    <t>NO.</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Device = Android O(8.0,26) </t>
+  </si>
+  <si>
+    <t>Sending broadcasts</t>
+  </si>
+  <si>
+    <t>Broadcast don't have sending an Explicit Broadcast</t>
+  </si>
+  <si>
+    <t>targetSdkVersion &gt;=26</t>
+  </si>
+  <si>
+    <t>targetSdkVersion &lt;=25</t>
+  </si>
+  <si>
+    <t>事件源</t>
+  </si>
+  <si>
+    <t>Button</t>
+  </si>
+  <si>
+    <t>Click</t>
+  </si>
+  <si>
+    <t>OnClickListener</t>
+  </si>
+  <si>
+    <t>事件监听器</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="31">
+  <fonts count="38">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1924,8 +2023,49 @@
       <color rgb="FFFF40FF"/>
       <name val="Calibri (Body)_x0000_"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="48"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFA9B7C6"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1950,8 +2090,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="45">
+  <borders count="51">
     <border>
       <left/>
       <right/>
@@ -2437,42 +2595,113 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="170">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -2512,215 +2741,256 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="33" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{66AFF3AD-B4DE-FA4E-AB57-26B45159E82C}"/>
   </cellStyles>
   <dxfs count="8">
     <dxf>
@@ -2783,9 +3053,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
+      <color rgb="FF00FF00"/>
       <color rgb="FFFF40FF"/>
       <color rgb="FF0000FF"/>
-      <color rgb="FF00FF00"/>
     </mruColors>
   </colors>
   <extLst>
@@ -3670,253 +3940,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>215900</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Up Arrow 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{508DACF5-A264-3C4F-B0E3-B7B32231B6BC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3733800" y="2209800"/>
-          <a:ext cx="266700" cy="2120900"/>
-        </a:xfrm>
-        <a:prstGeom prst="upArrow">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF0000"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16233C29-0D65-C44E-AF25-3851FEEB2591}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4330700" y="5029200"/>
-          <a:ext cx="4775200" cy="2108200"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="98425">
-          <a:solidFill>
-            <a:srgbClr val="FF40FF"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>557076</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>587612</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC27279B-CCE7-4645-ADC5-78934A1A2695}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3503476" y="2717800"/>
-          <a:ext cx="703636" cy="749300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="TextBox 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87C0D349-01C0-A142-8C0B-78AD38AF6193}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6769100" y="4914900"/>
-          <a:ext cx="1295400" cy="406400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="2000">
-              <a:solidFill>
-                <a:srgbClr val="FF40FF"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>bHandler</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
       <xdr:row>18</xdr:row>
@@ -4691,7 +4714,360 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Up Arrow 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{508DACF5-A264-3C4F-B0E3-B7B32231B6BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3733800" y="2209800"/>
+          <a:ext cx="266700" cy="2120900"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16233C29-0D65-C44E-AF25-3851FEEB2591}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4330700" y="5029200"/>
+          <a:ext cx="4775200" cy="2108200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="98425">
+          <a:solidFill>
+            <a:srgbClr val="FF40FF"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>557076</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>587612</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC27279B-CCE7-4645-ADC5-78934A1A2695}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3503476" y="2717800"/>
+          <a:ext cx="703636" cy="749300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="TextBox 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87C0D349-01C0-A142-8C0B-78AD38AF6193}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6769100" y="4914900"/>
+          <a:ext cx="1295400" cy="406400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="FF40FF"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>bHandler</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="Straight Arrow Connector 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1768C60B-D562-8341-90D5-FCEEDA73F0BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4114800" y="3619500"/>
+          <a:ext cx="635000" cy="4432300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="914400" cy="914400"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Graphic 2" descr="Right Pointing Backhand Index ">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30BC1560-E41C-444A-A233-868CE62CCFE7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3556000" y="3263900"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -9192,7 +9568,7 @@
       </filters>
     </filterColumn>
   </autoFilter>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C2:F2 A2:A34 A223:F224">
     <cfRule type="expression" dxfId="7" priority="7" stopIfTrue="1">
       <formula>$F2="结束"</formula>
@@ -9236,6 +9612,340 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1265A055-F909-C245-B808-6DD26655AFF9}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="30" customFormat="1" ht="19">
+      <c r="A1" s="134" t="s">
+        <v>408</v>
+      </c>
+      <c r="B1" s="151" t="s">
+        <v>401</v>
+      </c>
+      <c r="C1" s="152"/>
+    </row>
+    <row r="2" spans="1:3" s="30" customFormat="1" ht="19">
+      <c r="A2" s="134" t="s">
+        <v>410</v>
+      </c>
+      <c r="B2" s="134" t="s">
+        <v>402</v>
+      </c>
+      <c r="C2" s="134" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="131" t="s">
+        <v>398</v>
+      </c>
+      <c r="B3" s="132" t="s">
+        <v>404</v>
+      </c>
+      <c r="C3" s="133" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="135" customFormat="1" ht="14">
+      <c r="A4" s="136" t="s">
+        <v>400</v>
+      </c>
+      <c r="B4" s="136" t="s">
+        <v>405</v>
+      </c>
+      <c r="C4" s="136" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="30" customFormat="1" ht="19">
+      <c r="A7" s="134" t="s">
+        <v>399</v>
+      </c>
+      <c r="B7" s="134" t="s">
+        <v>401</v>
+      </c>
+      <c r="C7" s="134"/>
+    </row>
+    <row r="8" spans="1:3" s="30" customFormat="1" ht="19">
+      <c r="A8" s="134" t="s">
+        <v>411</v>
+      </c>
+      <c r="B8" s="134" t="s">
+        <v>402</v>
+      </c>
+      <c r="C8" s="134" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="131" t="s">
+        <v>398</v>
+      </c>
+      <c r="B9" s="131" t="s">
+        <v>405</v>
+      </c>
+      <c r="C9" s="133" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="94" customFormat="1">
+      <c r="A10" s="137" t="s">
+        <v>400</v>
+      </c>
+      <c r="B10" s="137" t="s">
+        <v>405</v>
+      </c>
+      <c r="C10" s="137" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="30" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>409</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="B1:K25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" ht="16" thickBot="1"/>
+    <row r="2" spans="2:11">
+      <c r="H2" s="19"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="21"/>
+    </row>
+    <row r="3" spans="2:11">
+      <c r="H3" s="22"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="24"/>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="H4" s="22"/>
+      <c r="I4" s="23" t="s">
+        <v>368</v>
+      </c>
+      <c r="J4" s="23"/>
+      <c r="K4" s="24"/>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="H5" s="22"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="24"/>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="H6" s="22"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="24"/>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="H7" s="22"/>
+      <c r="K7" s="23" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="H8" s="22"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="24"/>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="H9" s="22"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="24"/>
+    </row>
+    <row r="10" spans="2:11" ht="16" thickBot="1">
+      <c r="B10" t="s">
+        <v>358</v>
+      </c>
+      <c r="H10" s="25"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="27"/>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="B11" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="B12" t="s">
+        <v>359</v>
+      </c>
+      <c r="I12" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11">
+      <c r="B13" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" ht="16" thickBot="1">
+      <c r="B14" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" ht="16" thickBot="1">
+      <c r="D15" s="19"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="23"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="21"/>
+    </row>
+    <row r="16" spans="2:11" ht="16" thickBot="1">
+      <c r="D16" s="22" t="s">
+        <v>363</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>370</v>
+      </c>
+      <c r="F16" s="23"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="82" t="s">
+        <v>374</v>
+      </c>
+      <c r="J16" s="23"/>
+      <c r="K16" s="24"/>
+    </row>
+    <row r="17" spans="4:11" ht="16" thickBot="1">
+      <c r="D17" s="22" t="s">
+        <v>364</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>371</v>
+      </c>
+      <c r="F17" s="23"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="24"/>
+    </row>
+    <row r="18" spans="4:11" ht="16" thickBot="1">
+      <c r="D18" s="22" t="s">
+        <v>365</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>374</v>
+      </c>
+      <c r="F18" s="23"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="82" t="s">
+        <v>375</v>
+      </c>
+      <c r="J18" s="23"/>
+      <c r="K18" s="24"/>
+    </row>
+    <row r="19" spans="4:11" ht="16" thickBot="1">
+      <c r="D19" s="22" t="s">
+        <v>367</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>372</v>
+      </c>
+      <c r="F19" s="23"/>
+      <c r="H19" s="22"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="24"/>
+    </row>
+    <row r="20" spans="4:11" ht="16" thickBot="1">
+      <c r="D20" s="22" t="s">
+        <v>366</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>373</v>
+      </c>
+      <c r="F20" s="23"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="82" t="s">
+        <v>376</v>
+      </c>
+      <c r="J20" s="23"/>
+      <c r="K20" s="24"/>
+    </row>
+    <row r="21" spans="4:11">
+      <c r="D21" s="22"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="23"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="24"/>
+    </row>
+    <row r="22" spans="4:11" ht="16" thickBot="1">
+      <c r="D22" s="25"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="23"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="24"/>
+    </row>
+    <row r="23" spans="4:11" ht="16" thickBot="1">
+      <c r="H23" s="25"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="27"/>
+    </row>
+    <row r="24" spans="4:11">
+      <c r="D24" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="25" spans="4:11">
+      <c r="I25" t="s">
+        <v>377</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A3:E21"/>
   <sheetViews>
@@ -9412,7 +10122,7 @@
       <c r="E21" s="88"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -9524,7 +10234,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -9856,7 +10566,7 @@
       <c r="O39" s="11"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -9919,7 +10629,7 @@
       <c r="G4" s="15"/>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="131" t="s">
+      <c r="B5" s="138" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="15" t="s">
@@ -9939,7 +10649,7 @@
       </c>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="131"/>
+      <c r="B6" s="138"/>
       <c r="C6" s="15" t="s">
         <v>17</v>
       </c>
@@ -9955,7 +10665,7 @@
       </c>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="131"/>
+      <c r="B7" s="138"/>
       <c r="C7" s="16" t="s">
         <v>31</v>
       </c>
@@ -9973,7 +10683,7 @@
       </c>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="131"/>
+      <c r="B8" s="138"/>
       <c r="C8" s="16" t="s">
         <v>32</v>
       </c>
@@ -9991,7 +10701,7 @@
       </c>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="131"/>
+      <c r="B9" s="138"/>
       <c r="C9" s="16" t="s">
         <v>33</v>
       </c>
@@ -10009,7 +10719,7 @@
       </c>
     </row>
     <row r="10" spans="2:7" ht="24">
-      <c r="B10" s="131"/>
+      <c r="B10" s="138"/>
       <c r="C10" s="16" t="s">
         <v>13</v>
       </c>
@@ -10027,7 +10737,7 @@
       </c>
     </row>
     <row r="11" spans="2:7" ht="36">
-      <c r="B11" s="132" t="s">
+      <c r="B11" s="139" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="18" t="s">
@@ -10047,7 +10757,7 @@
       </c>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="133"/>
+      <c r="B12" s="140"/>
       <c r="C12" s="15" t="s">
         <v>15</v>
       </c>
@@ -10061,7 +10771,7 @@
       </c>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="134"/>
+      <c r="B13" s="141"/>
       <c r="C13" s="15" t="s">
         <v>16</v>
       </c>
@@ -10081,7 +10791,7 @@
     <mergeCell ref="B5:B10"/>
     <mergeCell ref="B11:B13"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -10240,7 +10950,7 @@
       <c r="I24" s="36"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -10657,17 +11367,278 @@
       <c r="I30" s="50"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="B2:U32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="3.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:21" ht="16" thickBot="1">
+      <c r="H2" s="70" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="3" spans="2:21">
+      <c r="G3" s="19"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="21"/>
+    </row>
+    <row r="4" spans="2:21">
+      <c r="G4" s="73" t="s">
+        <v>333</v>
+      </c>
+      <c r="H4" s="74"/>
+      <c r="I4" s="75"/>
+    </row>
+    <row r="5" spans="2:21">
+      <c r="G5" s="73" t="s">
+        <v>332</v>
+      </c>
+      <c r="H5" s="74"/>
+      <c r="I5" s="75"/>
+    </row>
+    <row r="6" spans="2:21" ht="16" thickBot="1">
+      <c r="C6" s="71" t="s">
+        <v>324</v>
+      </c>
+      <c r="E6" s="70" t="s">
+        <v>330</v>
+      </c>
+      <c r="G6" s="73" t="s">
+        <v>335</v>
+      </c>
+      <c r="H6" s="74"/>
+      <c r="I6" s="75"/>
+    </row>
+    <row r="7" spans="2:21" ht="16" thickBot="1">
+      <c r="B7" s="19"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="21"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="27"/>
+    </row>
+    <row r="8" spans="2:21">
+      <c r="B8" s="22"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="24"/>
+    </row>
+    <row r="9" spans="2:21">
+      <c r="B9" s="22"/>
+      <c r="C9" s="77" t="s">
+        <v>326</v>
+      </c>
+      <c r="D9" s="24"/>
+    </row>
+    <row r="10" spans="2:21">
+      <c r="B10" s="22"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="24"/>
+      <c r="G10" s="80" t="s">
+        <v>339</v>
+      </c>
+      <c r="H10" s="80"/>
+      <c r="I10" s="80"/>
+      <c r="J10" s="80"/>
+      <c r="K10" s="80"/>
+      <c r="L10" s="80"/>
+      <c r="M10" s="80"/>
+      <c r="N10" s="80"/>
+      <c r="O10" s="80"/>
+      <c r="P10" s="80"/>
+      <c r="Q10" s="80"/>
+      <c r="R10" s="80"/>
+      <c r="S10" s="80"/>
+      <c r="T10" s="80"/>
+      <c r="U10" s="80"/>
+    </row>
+    <row r="11" spans="2:21">
+      <c r="B11" s="22"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="24"/>
+      <c r="G11" s="80" t="s">
+        <v>334</v>
+      </c>
+      <c r="H11" s="80"/>
+      <c r="I11" s="80"/>
+      <c r="J11" s="80"/>
+      <c r="K11" s="80"/>
+      <c r="L11" s="80"/>
+      <c r="M11" s="80"/>
+      <c r="N11" s="80"/>
+      <c r="O11" s="80"/>
+      <c r="P11" s="80"/>
+      <c r="Q11" s="80"/>
+      <c r="R11" s="80"/>
+      <c r="S11" s="80"/>
+      <c r="T11" s="80"/>
+      <c r="U11" s="80"/>
+    </row>
+    <row r="12" spans="2:21">
+      <c r="B12" s="22"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="24"/>
+      <c r="G12" s="80" t="s">
+        <v>336</v>
+      </c>
+      <c r="H12" s="80"/>
+      <c r="I12" s="80"/>
+      <c r="J12" s="80"/>
+      <c r="K12" s="80"/>
+      <c r="L12" s="80"/>
+      <c r="M12" s="80"/>
+      <c r="N12" s="80"/>
+      <c r="O12" s="80"/>
+      <c r="P12" s="80"/>
+      <c r="Q12" s="80"/>
+      <c r="R12" s="80"/>
+      <c r="S12" s="80"/>
+      <c r="T12" s="80"/>
+      <c r="U12" s="80"/>
+    </row>
+    <row r="13" spans="2:21">
+      <c r="B13" s="22"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="24"/>
+    </row>
+    <row r="14" spans="2:21">
+      <c r="B14" s="22"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="24"/>
+    </row>
+    <row r="15" spans="2:21">
+      <c r="B15" s="22"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="24"/>
+      <c r="G15" s="80" t="s">
+        <v>337</v>
+      </c>
+      <c r="H15" s="80"/>
+      <c r="I15" s="80"/>
+      <c r="J15" s="80"/>
+    </row>
+    <row r="16" spans="2:21">
+      <c r="B16" s="22"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="24"/>
+    </row>
+    <row r="17" spans="2:15">
+      <c r="B17" s="22"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="24"/>
+    </row>
+    <row r="18" spans="2:15">
+      <c r="B18" s="22"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="24"/>
+    </row>
+    <row r="19" spans="2:15">
+      <c r="B19" s="22"/>
+      <c r="C19" s="78"/>
+      <c r="D19" s="24"/>
+    </row>
+    <row r="20" spans="2:15">
+      <c r="B20" s="22"/>
+      <c r="C20" s="78"/>
+      <c r="D20" s="24"/>
+    </row>
+    <row r="21" spans="2:15">
+      <c r="B21" s="22"/>
+      <c r="C21" s="78"/>
+      <c r="D21" s="24"/>
+    </row>
+    <row r="22" spans="2:15" ht="16" thickBot="1">
+      <c r="B22" s="22"/>
+      <c r="C22" s="78"/>
+      <c r="D22" s="24"/>
+    </row>
+    <row r="23" spans="2:15" ht="16" thickBot="1">
+      <c r="B23" s="22"/>
+      <c r="C23" s="79"/>
+      <c r="D23" s="24"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="67"/>
+      <c r="J23" s="67"/>
+    </row>
+    <row r="24" spans="2:15" ht="16" thickBot="1">
+      <c r="B24" s="25"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="27"/>
+      <c r="F24" s="68" t="s">
+        <v>328</v>
+      </c>
+      <c r="G24" s="68" t="s">
+        <v>328</v>
+      </c>
+      <c r="H24" s="68" t="s">
+        <v>328</v>
+      </c>
+      <c r="I24" s="68" t="s">
+        <v>328</v>
+      </c>
+      <c r="J24" s="68" t="s">
+        <v>329</v>
+      </c>
+      <c r="K24" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15">
+      <c r="F25" s="68"/>
+      <c r="G25" s="68"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="68"/>
+      <c r="J25" s="68"/>
+    </row>
+    <row r="26" spans="2:15" ht="16" thickBot="1">
+      <c r="F26" s="69"/>
+      <c r="G26" s="69"/>
+      <c r="H26" s="69"/>
+      <c r="I26" s="69"/>
+      <c r="J26" s="69"/>
+    </row>
+    <row r="28" spans="2:15">
+      <c r="K28" s="72" t="s">
+        <v>331</v>
+      </c>
+      <c r="L28" s="72"/>
+      <c r="M28" s="72"/>
+      <c r="N28" s="72"/>
+      <c r="O28" s="66"/>
+    </row>
+    <row r="32" spans="2:15">
+      <c r="H32" s="80" t="s">
+        <v>338</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA80C652-EB11-2747-89DA-E4ABA79A811D}">
   <dimension ref="A2:T38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="W17" sqref="W17"/>
     </sheetView>
   </sheetViews>
@@ -10772,11 +11743,11 @@
       <c r="C6" s="95"/>
       <c r="D6" s="102"/>
       <c r="E6" s="97"/>
-      <c r="F6" s="135" t="s">
+      <c r="F6" s="142" t="s">
         <v>396</v>
       </c>
-      <c r="G6" s="136"/>
-      <c r="H6" s="137"/>
+      <c r="G6" s="143"/>
+      <c r="H6" s="144"/>
       <c r="I6" s="97"/>
       <c r="J6" s="103"/>
       <c r="K6" s="95"/>
@@ -10796,9 +11767,9 @@
       <c r="C7" s="95"/>
       <c r="D7" s="102"/>
       <c r="E7" s="97"/>
-      <c r="F7" s="138"/>
-      <c r="G7" s="139"/>
-      <c r="H7" s="140"/>
+      <c r="F7" s="145"/>
+      <c r="G7" s="146"/>
+      <c r="H7" s="147"/>
       <c r="I7" s="97"/>
       <c r="J7" s="103"/>
       <c r="K7" s="96"/>
@@ -10818,9 +11789,9 @@
       <c r="C8" s="95"/>
       <c r="D8" s="102"/>
       <c r="E8" s="97"/>
-      <c r="F8" s="138"/>
-      <c r="G8" s="139"/>
-      <c r="H8" s="140"/>
+      <c r="F8" s="145"/>
+      <c r="G8" s="146"/>
+      <c r="H8" s="147"/>
       <c r="I8" s="97"/>
       <c r="J8" s="103"/>
       <c r="K8" s="95"/>
@@ -10839,9 +11810,9 @@
       <c r="B9" s="95"/>
       <c r="C9" s="95"/>
       <c r="D9" s="102"/>
-      <c r="F9" s="138"/>
-      <c r="G9" s="139"/>
-      <c r="H9" s="140"/>
+      <c r="F9" s="145"/>
+      <c r="G9" s="146"/>
+      <c r="H9" s="147"/>
       <c r="I9" s="97"/>
       <c r="J9" s="103"/>
       <c r="K9" s="95"/>
@@ -10860,9 +11831,9 @@
       <c r="B10" s="95"/>
       <c r="C10" s="95"/>
       <c r="D10" s="102"/>
-      <c r="F10" s="141"/>
-      <c r="G10" s="142"/>
-      <c r="H10" s="143"/>
+      <c r="F10" s="148"/>
+      <c r="G10" s="149"/>
+      <c r="H10" s="150"/>
       <c r="I10" s="130"/>
       <c r="J10" s="103"/>
       <c r="K10" s="95"/>
@@ -11454,478 +12425,187 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="B2:U32"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E7778B8-D430-A34A-995E-0F83AC473C52}">
+  <dimension ref="E8:K35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" customWidth="1"/>
+    <col min="1" max="16384" width="10.83203125" style="153"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:21" ht="16" thickBot="1">
-      <c r="H2" s="70" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="3" spans="2:21">
-      <c r="G3" s="19"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="21"/>
-    </row>
-    <row r="4" spans="2:21">
-      <c r="G4" s="73" t="s">
-        <v>333</v>
-      </c>
-      <c r="H4" s="74"/>
-      <c r="I4" s="75"/>
-    </row>
-    <row r="5" spans="2:21">
-      <c r="G5" s="73" t="s">
-        <v>332</v>
-      </c>
-      <c r="H5" s="74"/>
-      <c r="I5" s="75"/>
-    </row>
-    <row r="6" spans="2:21" ht="16" thickBot="1">
-      <c r="C6" s="71" t="s">
-        <v>324</v>
-      </c>
-      <c r="E6" s="70" t="s">
-        <v>330</v>
-      </c>
-      <c r="G6" s="73" t="s">
-        <v>335</v>
-      </c>
-      <c r="H6" s="74"/>
-      <c r="I6" s="75"/>
-    </row>
-    <row r="7" spans="2:21" ht="16" thickBot="1">
-      <c r="B7" s="19"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="21"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="27"/>
-    </row>
-    <row r="8" spans="2:21">
-      <c r="B8" s="22"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="24"/>
-    </row>
-    <row r="9" spans="2:21">
-      <c r="B9" s="22"/>
-      <c r="C9" s="77" t="s">
-        <v>326</v>
-      </c>
-      <c r="D9" s="24"/>
-    </row>
-    <row r="10" spans="2:21">
-      <c r="B10" s="22"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="24"/>
-      <c r="G10" s="80" t="s">
-        <v>339</v>
-      </c>
-      <c r="H10" s="80"/>
-      <c r="I10" s="80"/>
-      <c r="J10" s="80"/>
-      <c r="K10" s="80"/>
-      <c r="L10" s="80"/>
-      <c r="M10" s="80"/>
-      <c r="N10" s="80"/>
-      <c r="O10" s="80"/>
-      <c r="P10" s="80"/>
-      <c r="Q10" s="80"/>
-      <c r="R10" s="80"/>
-      <c r="S10" s="80"/>
-      <c r="T10" s="80"/>
-      <c r="U10" s="80"/>
-    </row>
-    <row r="11" spans="2:21">
-      <c r="B11" s="22"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="24"/>
-      <c r="G11" s="80" t="s">
-        <v>334</v>
-      </c>
-      <c r="H11" s="80"/>
-      <c r="I11" s="80"/>
-      <c r="J11" s="80"/>
-      <c r="K11" s="80"/>
-      <c r="L11" s="80"/>
-      <c r="M11" s="80"/>
-      <c r="N11" s="80"/>
-      <c r="O11" s="80"/>
-      <c r="P11" s="80"/>
-      <c r="Q11" s="80"/>
-      <c r="R11" s="80"/>
-      <c r="S11" s="80"/>
-      <c r="T11" s="80"/>
-      <c r="U11" s="80"/>
-    </row>
-    <row r="12" spans="2:21">
-      <c r="B12" s="22"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="24"/>
-      <c r="G12" s="80" t="s">
-        <v>336</v>
-      </c>
-      <c r="H12" s="80"/>
-      <c r="I12" s="80"/>
-      <c r="J12" s="80"/>
-      <c r="K12" s="80"/>
-      <c r="L12" s="80"/>
-      <c r="M12" s="80"/>
-      <c r="N12" s="80"/>
-      <c r="O12" s="80"/>
-      <c r="P12" s="80"/>
-      <c r="Q12" s="80"/>
-      <c r="R12" s="80"/>
-      <c r="S12" s="80"/>
-      <c r="T12" s="80"/>
-      <c r="U12" s="80"/>
-    </row>
-    <row r="13" spans="2:21">
-      <c r="B13" s="22"/>
-      <c r="C13" s="78"/>
-      <c r="D13" s="24"/>
-    </row>
-    <row r="14" spans="2:21">
-      <c r="B14" s="22"/>
-      <c r="C14" s="78"/>
-      <c r="D14" s="24"/>
-    </row>
-    <row r="15" spans="2:21">
-      <c r="B15" s="22"/>
-      <c r="C15" s="78"/>
-      <c r="D15" s="24"/>
-      <c r="G15" s="80" t="s">
-        <v>337</v>
-      </c>
-      <c r="H15" s="80"/>
-      <c r="I15" s="80"/>
-      <c r="J15" s="80"/>
-    </row>
-    <row r="16" spans="2:21">
-      <c r="B16" s="22"/>
-      <c r="C16" s="78"/>
-      <c r="D16" s="24"/>
-    </row>
-    <row r="17" spans="2:15">
-      <c r="B17" s="22"/>
-      <c r="C17" s="78"/>
-      <c r="D17" s="24"/>
-    </row>
-    <row r="18" spans="2:15">
-      <c r="B18" s="22"/>
-      <c r="C18" s="78"/>
-      <c r="D18" s="24"/>
-    </row>
-    <row r="19" spans="2:15">
-      <c r="B19" s="22"/>
-      <c r="C19" s="78"/>
-      <c r="D19" s="24"/>
-    </row>
-    <row r="20" spans="2:15">
-      <c r="B20" s="22"/>
-      <c r="C20" s="78"/>
-      <c r="D20" s="24"/>
-    </row>
-    <row r="21" spans="2:15">
-      <c r="B21" s="22"/>
-      <c r="C21" s="78"/>
-      <c r="D21" s="24"/>
-    </row>
-    <row r="22" spans="2:15" ht="16" thickBot="1">
-      <c r="B22" s="22"/>
-      <c r="C22" s="78"/>
-      <c r="D22" s="24"/>
-    </row>
-    <row r="23" spans="2:15" ht="16" thickBot="1">
-      <c r="B23" s="22"/>
-      <c r="C23" s="79"/>
-      <c r="D23" s="24"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="67"/>
-      <c r="I23" s="67"/>
-      <c r="J23" s="67"/>
-    </row>
-    <row r="24" spans="2:15" ht="16" thickBot="1">
-      <c r="B24" s="25"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="27"/>
-      <c r="F24" s="68" t="s">
-        <v>328</v>
-      </c>
-      <c r="G24" s="68" t="s">
-        <v>328</v>
-      </c>
-      <c r="H24" s="68" t="s">
-        <v>328</v>
-      </c>
-      <c r="I24" s="68" t="s">
-        <v>328</v>
-      </c>
-      <c r="J24" s="68" t="s">
-        <v>329</v>
-      </c>
-      <c r="K24" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="25" spans="2:15">
-      <c r="F25" s="68"/>
-      <c r="G25" s="68"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="68"/>
-      <c r="J25" s="68"/>
-    </row>
-    <row r="26" spans="2:15" ht="16" thickBot="1">
-      <c r="F26" s="69"/>
-      <c r="G26" s="69"/>
-      <c r="H26" s="69"/>
-      <c r="I26" s="69"/>
-      <c r="J26" s="69"/>
-    </row>
-    <row r="28" spans="2:15">
-      <c r="K28" s="72" t="s">
-        <v>331</v>
-      </c>
-      <c r="L28" s="72"/>
-      <c r="M28" s="72"/>
-      <c r="N28" s="72"/>
-      <c r="O28" s="66"/>
-    </row>
-    <row r="32" spans="2:15">
-      <c r="H32" s="80" t="s">
-        <v>338</v>
+    <row r="8" spans="5:11" ht="17" thickBot="1">
+      <c r="J8" s="169"/>
+    </row>
+    <row r="9" spans="5:11">
+      <c r="E9" s="168"/>
+      <c r="F9" s="167"/>
+      <c r="G9" s="167"/>
+      <c r="H9" s="166"/>
+    </row>
+    <row r="10" spans="5:11">
+      <c r="E10" s="160"/>
+      <c r="F10" s="159"/>
+      <c r="G10" s="159"/>
+      <c r="H10" s="158"/>
+      <c r="K10" s="153" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="11" spans="5:11">
+      <c r="E11" s="160"/>
+      <c r="F11" s="159"/>
+      <c r="G11" s="159"/>
+      <c r="H11" s="158"/>
+      <c r="K11" s="153" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="12" spans="5:11">
+      <c r="E12" s="160"/>
+      <c r="F12" s="159"/>
+      <c r="G12" s="159"/>
+      <c r="H12" s="158"/>
+    </row>
+    <row r="13" spans="5:11">
+      <c r="E13" s="160"/>
+      <c r="F13" s="159"/>
+      <c r="G13" s="159"/>
+      <c r="H13" s="158"/>
+    </row>
+    <row r="14" spans="5:11">
+      <c r="E14" s="160"/>
+      <c r="F14" s="159"/>
+      <c r="G14" s="159"/>
+      <c r="H14" s="158"/>
+    </row>
+    <row r="15" spans="5:11" ht="62">
+      <c r="E15" s="160"/>
+      <c r="F15" s="165" t="s">
+        <v>414</v>
+      </c>
+      <c r="G15" s="159"/>
+      <c r="H15" s="158"/>
+    </row>
+    <row r="16" spans="5:11">
+      <c r="E16" s="160"/>
+      <c r="F16" s="159"/>
+      <c r="G16" s="159"/>
+      <c r="H16" s="158"/>
+    </row>
+    <row r="17" spans="5:8">
+      <c r="E17" s="160"/>
+      <c r="F17" s="159"/>
+      <c r="G17" s="159"/>
+      <c r="H17" s="158"/>
+    </row>
+    <row r="18" spans="5:8">
+      <c r="E18" s="160"/>
+      <c r="F18" s="164" t="s">
+        <v>413</v>
+      </c>
+      <c r="G18" s="163"/>
+      <c r="H18" s="158"/>
+    </row>
+    <row r="19" spans="5:8">
+      <c r="E19" s="160"/>
+      <c r="F19" s="162"/>
+      <c r="G19" s="161"/>
+      <c r="H19" s="158"/>
+    </row>
+    <row r="20" spans="5:8">
+      <c r="E20" s="160"/>
+      <c r="F20" s="159"/>
+      <c r="G20" s="159"/>
+      <c r="H20" s="158"/>
+    </row>
+    <row r="21" spans="5:8">
+      <c r="E21" s="160"/>
+      <c r="F21" s="159"/>
+      <c r="G21" s="159"/>
+      <c r="H21" s="158"/>
+    </row>
+    <row r="22" spans="5:8">
+      <c r="E22" s="160"/>
+      <c r="F22" s="159"/>
+      <c r="G22" s="159"/>
+      <c r="H22" s="158"/>
+    </row>
+    <row r="23" spans="5:8">
+      <c r="E23" s="160"/>
+      <c r="F23" s="159"/>
+      <c r="G23" s="159"/>
+      <c r="H23" s="158"/>
+    </row>
+    <row r="24" spans="5:8">
+      <c r="E24" s="160"/>
+      <c r="F24" s="159"/>
+      <c r="G24" s="159"/>
+      <c r="H24" s="158"/>
+    </row>
+    <row r="25" spans="5:8">
+      <c r="E25" s="160"/>
+      <c r="F25" s="159"/>
+      <c r="G25" s="159"/>
+      <c r="H25" s="158"/>
+    </row>
+    <row r="26" spans="5:8">
+      <c r="E26" s="160"/>
+      <c r="F26" s="159"/>
+      <c r="G26" s="159"/>
+      <c r="H26" s="158"/>
+    </row>
+    <row r="27" spans="5:8">
+      <c r="E27" s="160"/>
+      <c r="F27" s="159"/>
+      <c r="G27" s="159"/>
+      <c r="H27" s="158"/>
+    </row>
+    <row r="28" spans="5:8">
+      <c r="E28" s="160"/>
+      <c r="F28" s="159"/>
+      <c r="G28" s="159"/>
+      <c r="H28" s="158"/>
+    </row>
+    <row r="29" spans="5:8">
+      <c r="E29" s="160"/>
+      <c r="F29" s="159"/>
+      <c r="G29" s="159"/>
+      <c r="H29" s="158"/>
+    </row>
+    <row r="30" spans="5:8">
+      <c r="E30" s="160"/>
+      <c r="F30" s="159"/>
+      <c r="G30" s="159"/>
+      <c r="H30" s="158"/>
+    </row>
+    <row r="31" spans="5:8">
+      <c r="E31" s="160"/>
+      <c r="F31" s="159"/>
+      <c r="G31" s="159"/>
+      <c r="H31" s="158"/>
+    </row>
+    <row r="32" spans="5:8" ht="17" thickBot="1">
+      <c r="E32" s="157"/>
+      <c r="F32" s="156"/>
+      <c r="G32" s="156"/>
+      <c r="H32" s="155"/>
+    </row>
+    <row r="35" spans="5:5" ht="47">
+      <c r="E35" s="154" t="s">
+        <v>412</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <mergeCells count="1">
+    <mergeCell ref="F18:G19"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="B1:K25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:11" ht="16" thickBot="1"/>
-    <row r="2" spans="2:11">
-      <c r="H2" s="19"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="21"/>
-    </row>
-    <row r="3" spans="2:11">
-      <c r="H3" s="22"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="24"/>
-    </row>
-    <row r="4" spans="2:11">
-      <c r="H4" s="22"/>
-      <c r="I4" s="23" t="s">
-        <v>368</v>
-      </c>
-      <c r="J4" s="23"/>
-      <c r="K4" s="24"/>
-    </row>
-    <row r="5" spans="2:11">
-      <c r="H5" s="22"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="24"/>
-    </row>
-    <row r="6" spans="2:11">
-      <c r="H6" s="22"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="24"/>
-    </row>
-    <row r="7" spans="2:11">
-      <c r="H7" s="22"/>
-      <c r="K7" s="23" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11">
-      <c r="H8" s="22"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="24"/>
-    </row>
-    <row r="9" spans="2:11">
-      <c r="H9" s="22"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="24"/>
-    </row>
-    <row r="10" spans="2:11" ht="16" thickBot="1">
-      <c r="B10" t="s">
-        <v>358</v>
-      </c>
-      <c r="H10" s="25"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="27"/>
-    </row>
-    <row r="11" spans="2:11">
-      <c r="B11" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11">
-      <c r="B12" t="s">
-        <v>359</v>
-      </c>
-      <c r="I12" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11">
-      <c r="B13" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" ht="16" thickBot="1">
-      <c r="B14" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" ht="16" thickBot="1">
-      <c r="D15" s="19"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="23"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="21"/>
-    </row>
-    <row r="16" spans="2:11" ht="16" thickBot="1">
-      <c r="D16" s="22" t="s">
-        <v>363</v>
-      </c>
-      <c r="E16" s="24" t="s">
-        <v>370</v>
-      </c>
-      <c r="F16" s="23"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="82" t="s">
-        <v>374</v>
-      </c>
-      <c r="J16" s="23"/>
-      <c r="K16" s="24"/>
-    </row>
-    <row r="17" spans="4:11" ht="16" thickBot="1">
-      <c r="D17" s="22" t="s">
-        <v>364</v>
-      </c>
-      <c r="E17" s="24" t="s">
-        <v>371</v>
-      </c>
-      <c r="F17" s="23"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="24"/>
-    </row>
-    <row r="18" spans="4:11" ht="16" thickBot="1">
-      <c r="D18" s="22" t="s">
-        <v>365</v>
-      </c>
-      <c r="E18" s="24" t="s">
-        <v>374</v>
-      </c>
-      <c r="F18" s="23"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="82" t="s">
-        <v>375</v>
-      </c>
-      <c r="J18" s="23"/>
-      <c r="K18" s="24"/>
-    </row>
-    <row r="19" spans="4:11" ht="16" thickBot="1">
-      <c r="D19" s="22" t="s">
-        <v>367</v>
-      </c>
-      <c r="E19" s="24" t="s">
-        <v>372</v>
-      </c>
-      <c r="F19" s="23"/>
-      <c r="H19" s="22"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="24"/>
-    </row>
-    <row r="20" spans="4:11" ht="16" thickBot="1">
-      <c r="D20" s="22" t="s">
-        <v>366</v>
-      </c>
-      <c r="E20" s="24" t="s">
-        <v>373</v>
-      </c>
-      <c r="F20" s="23"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="82" t="s">
-        <v>376</v>
-      </c>
-      <c r="J20" s="23"/>
-      <c r="K20" s="24"/>
-    </row>
-    <row r="21" spans="4:11">
-      <c r="D21" s="22"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="23"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="24"/>
-    </row>
-    <row r="22" spans="4:11" ht="16" thickBot="1">
-      <c r="D22" s="25"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="23"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="24"/>
-    </row>
-    <row r="23" spans="4:11" ht="16" thickBot="1">
-      <c r="H23" s="25"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="27"/>
-    </row>
-    <row r="24" spans="4:11">
-      <c r="D24" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="25" spans="4:11">
-      <c r="I25" t="s">
-        <v>377</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/android.xlsx
+++ b/doc/android.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10814"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EBD0EC5-C46E-2542-984E-D33A7069301B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E39F9518-DE71-9D4A-88C6-6543930E5069}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Today" sheetId="5" r:id="rId1"/>
@@ -17,9 +17,8 @@
     <sheet name="消息机制" sheetId="6" r:id="rId7"/>
     <sheet name="消息机制模型" sheetId="10" r:id="rId8"/>
     <sheet name="基于监听的事件处理机制" sheetId="12" r:id="rId9"/>
-    <sheet name="boradcast_implicit_explicit" sheetId="11" r:id="rId10"/>
-    <sheet name="==与equals" sheetId="7" r:id="rId11"/>
-    <sheet name="hasgCode" sheetId="9" r:id="rId12"/>
+    <sheet name="==与equals" sheetId="7" r:id="rId10"/>
+    <sheet name="hasgCode" sheetId="9" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Today!$A$1:$F$222</definedName>
@@ -92,41 +91,8 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Author</author>
-  </authors>
-  <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{840E8405-B3C3-EC47-B8DB-89B556FAF9C4}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">BroadcastQueue: Background execution not allowed: receiving Intent { act=com.hades.android.example.android_about_demos.app_component.broadcast.SimpleReceiver.ONE flg=0x10 (has extras) }
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>to com.hades.android.example.android_about_demos/.app_component.broadcast.SimpleReceiver</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="403">
   <si>
     <t>Activity</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1722,48 +1688,6 @@
     <t>B  &lt;=  A</t>
   </si>
   <si>
-    <t>Send an Implicit Broadcast</t>
-  </si>
-  <si>
-    <t>Sending</t>
-  </si>
-  <si>
-    <t>Send an Explicit Broadcast</t>
-  </si>
-  <si>
-    <t>Receiving broadcasts</t>
-  </si>
-  <si>
-    <t>manifest-declared receivers</t>
-  </si>
-  <si>
-    <t>context-registered receivers</t>
-  </si>
-  <si>
-    <t>NO.</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Device = Android O(8.0,26) </t>
-  </si>
-  <si>
-    <t>Sending broadcasts</t>
-  </si>
-  <si>
-    <t>Broadcast don't have sending an Explicit Broadcast</t>
-  </si>
-  <si>
-    <t>targetSdkVersion &gt;=26</t>
-  </si>
-  <si>
-    <t>targetSdkVersion &lt;=25</t>
-  </si>
-  <si>
     <t>事件源</t>
   </si>
   <si>
@@ -1783,7 +1707,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="38">
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2024,26 +1948,6 @@
       <name val="Calibri (Body)_x0000_"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="36"/>
       <color theme="1"/>
@@ -2065,7 +1969,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2090,26 +1994,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="51">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -2596,32 +2482,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -2670,7 +2530,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="170">
+  <cellXfs count="161">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2908,15 +2768,19 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="33" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2956,37 +2820,18 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9612,130 +9457,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1265A055-F909-C245-B808-6DD26655AFF9}">
-  <dimension ref="A1:C13"/>
-  <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" s="30" customFormat="1" ht="19">
-      <c r="A1" s="134" t="s">
-        <v>408</v>
-      </c>
-      <c r="B1" s="151" t="s">
-        <v>401</v>
-      </c>
-      <c r="C1" s="152"/>
-    </row>
-    <row r="2" spans="1:3" s="30" customFormat="1" ht="19">
-      <c r="A2" s="134" t="s">
-        <v>410</v>
-      </c>
-      <c r="B2" s="134" t="s">
-        <v>402</v>
-      </c>
-      <c r="C2" s="134" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="131" t="s">
-        <v>398</v>
-      </c>
-      <c r="B3" s="132" t="s">
-        <v>404</v>
-      </c>
-      <c r="C3" s="133" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="135" customFormat="1" ht="14">
-      <c r="A4" s="136" t="s">
-        <v>400</v>
-      </c>
-      <c r="B4" s="136" t="s">
-        <v>405</v>
-      </c>
-      <c r="C4" s="136" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="30" customFormat="1" ht="19">
-      <c r="A7" s="134" t="s">
-        <v>399</v>
-      </c>
-      <c r="B7" s="134" t="s">
-        <v>401</v>
-      </c>
-      <c r="C7" s="134"/>
-    </row>
-    <row r="8" spans="1:3" s="30" customFormat="1" ht="19">
-      <c r="A8" s="134" t="s">
-        <v>411</v>
-      </c>
-      <c r="B8" s="134" t="s">
-        <v>402</v>
-      </c>
-      <c r="C8" s="134" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="131" t="s">
-        <v>398</v>
-      </c>
-      <c r="B9" s="131" t="s">
-        <v>405</v>
-      </c>
-      <c r="C9" s="133" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="94" customFormat="1">
-      <c r="A10" s="137" t="s">
-        <v>400</v>
-      </c>
-      <c r="B10" s="137" t="s">
-        <v>405</v>
-      </c>
-      <c r="C10" s="137" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="30" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>409</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:C1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+      <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -9945,12 +9671,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A3:E21"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12"/>
@@ -10327,7 +10053,7 @@
       <c r="M8" s="6"/>
       <c r="O8" s="7"/>
     </row>
-    <row r="9" spans="2:17" ht="25" thickBot="1">
+    <row r="9" spans="2:17" ht="27" thickBot="1">
       <c r="B9" s="1" t="s">
         <v>2</v>
       </c>
@@ -10481,7 +10207,7 @@
       <c r="M30" s="6"/>
       <c r="O30" s="7"/>
     </row>
-    <row r="31" spans="2:17" ht="36">
+    <row r="31" spans="2:17" ht="39">
       <c r="B31" s="1" t="s">
         <v>8</v>
       </c>
@@ -10629,7 +10355,7 @@
       <c r="G4" s="15"/>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="138" t="s">
+      <c r="B5" s="144" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="15" t="s">
@@ -10649,7 +10375,7 @@
       </c>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="138"/>
+      <c r="B6" s="144"/>
       <c r="C6" s="15" t="s">
         <v>17</v>
       </c>
@@ -10665,7 +10391,7 @@
       </c>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="138"/>
+      <c r="B7" s="144"/>
       <c r="C7" s="16" t="s">
         <v>31</v>
       </c>
@@ -10683,7 +10409,7 @@
       </c>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="138"/>
+      <c r="B8" s="144"/>
       <c r="C8" s="16" t="s">
         <v>32</v>
       </c>
@@ -10701,7 +10427,7 @@
       </c>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="138"/>
+      <c r="B9" s="144"/>
       <c r="C9" s="16" t="s">
         <v>33</v>
       </c>
@@ -10718,8 +10444,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="24">
-      <c r="B10" s="138"/>
+    <row r="10" spans="2:7" ht="26">
+      <c r="B10" s="144"/>
       <c r="C10" s="16" t="s">
         <v>13</v>
       </c>
@@ -10736,8 +10462,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="36">
-      <c r="B11" s="139" t="s">
+    <row r="11" spans="2:7" ht="39">
+      <c r="B11" s="145" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="18" t="s">
@@ -10757,7 +10483,7 @@
       </c>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="140"/>
+      <c r="B12" s="146"/>
       <c r="C12" s="15" t="s">
         <v>15</v>
       </c>
@@ -10771,7 +10497,7 @@
       </c>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="141"/>
+      <c r="B13" s="147"/>
       <c r="C13" s="15" t="s">
         <v>16</v>
       </c>
@@ -11743,11 +11469,11 @@
       <c r="C6" s="95"/>
       <c r="D6" s="102"/>
       <c r="E6" s="97"/>
-      <c r="F6" s="142" t="s">
+      <c r="F6" s="148" t="s">
         <v>396</v>
       </c>
-      <c r="G6" s="143"/>
-      <c r="H6" s="144"/>
+      <c r="G6" s="149"/>
+      <c r="H6" s="150"/>
       <c r="I6" s="97"/>
       <c r="J6" s="103"/>
       <c r="K6" s="95"/>
@@ -11767,9 +11493,9 @@
       <c r="C7" s="95"/>
       <c r="D7" s="102"/>
       <c r="E7" s="97"/>
-      <c r="F7" s="145"/>
-      <c r="G7" s="146"/>
-      <c r="H7" s="147"/>
+      <c r="F7" s="151"/>
+      <c r="G7" s="152"/>
+      <c r="H7" s="153"/>
       <c r="I7" s="97"/>
       <c r="J7" s="103"/>
       <c r="K7" s="96"/>
@@ -11789,9 +11515,9 @@
       <c r="C8" s="95"/>
       <c r="D8" s="102"/>
       <c r="E8" s="97"/>
-      <c r="F8" s="145"/>
-      <c r="G8" s="146"/>
-      <c r="H8" s="147"/>
+      <c r="F8" s="151"/>
+      <c r="G8" s="152"/>
+      <c r="H8" s="153"/>
       <c r="I8" s="97"/>
       <c r="J8" s="103"/>
       <c r="K8" s="95"/>
@@ -11810,9 +11536,9 @@
       <c r="B9" s="95"/>
       <c r="C9" s="95"/>
       <c r="D9" s="102"/>
-      <c r="F9" s="145"/>
-      <c r="G9" s="146"/>
-      <c r="H9" s="147"/>
+      <c r="F9" s="151"/>
+      <c r="G9" s="152"/>
+      <c r="H9" s="153"/>
       <c r="I9" s="97"/>
       <c r="J9" s="103"/>
       <c r="K9" s="95"/>
@@ -11831,9 +11557,9 @@
       <c r="B10" s="95"/>
       <c r="C10" s="95"/>
       <c r="D10" s="102"/>
-      <c r="F10" s="148"/>
-      <c r="G10" s="149"/>
-      <c r="H10" s="150"/>
+      <c r="F10" s="154"/>
+      <c r="G10" s="155"/>
+      <c r="H10" s="156"/>
       <c r="I10" s="130"/>
       <c r="J10" s="103"/>
       <c r="K10" s="95"/>
@@ -12429,175 +12155,175 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E7778B8-D430-A34A-995E-0F83AC473C52}">
   <dimension ref="E8:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="153"/>
+    <col min="1" max="16384" width="10.83203125" style="131"/>
   </cols>
   <sheetData>
     <row r="8" spans="5:11" ht="17" thickBot="1">
-      <c r="J8" s="169"/>
+      <c r="J8" s="143"/>
     </row>
     <row r="9" spans="5:11">
-      <c r="E9" s="168"/>
-      <c r="F9" s="167"/>
-      <c r="G9" s="167"/>
-      <c r="H9" s="166"/>
+      <c r="E9" s="142"/>
+      <c r="F9" s="141"/>
+      <c r="G9" s="141"/>
+      <c r="H9" s="140"/>
     </row>
     <row r="10" spans="5:11">
-      <c r="E10" s="160"/>
-      <c r="F10" s="159"/>
-      <c r="G10" s="159"/>
-      <c r="H10" s="158"/>
-      <c r="K10" s="153" t="s">
-        <v>416</v>
+      <c r="E10" s="138"/>
+      <c r="F10" s="137"/>
+      <c r="G10" s="137"/>
+      <c r="H10" s="136"/>
+      <c r="K10" s="131" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="11" spans="5:11">
-      <c r="E11" s="160"/>
-      <c r="F11" s="159"/>
-      <c r="G11" s="159"/>
-      <c r="H11" s="158"/>
-      <c r="K11" s="153" t="s">
-        <v>415</v>
+      <c r="E11" s="138"/>
+      <c r="F11" s="137"/>
+      <c r="G11" s="137"/>
+      <c r="H11" s="136"/>
+      <c r="K11" s="131" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="12" spans="5:11">
-      <c r="E12" s="160"/>
-      <c r="F12" s="159"/>
-      <c r="G12" s="159"/>
-      <c r="H12" s="158"/>
+      <c r="E12" s="138"/>
+      <c r="F12" s="137"/>
+      <c r="G12" s="137"/>
+      <c r="H12" s="136"/>
     </row>
     <row r="13" spans="5:11">
-      <c r="E13" s="160"/>
-      <c r="F13" s="159"/>
-      <c r="G13" s="159"/>
-      <c r="H13" s="158"/>
+      <c r="E13" s="138"/>
+      <c r="F13" s="137"/>
+      <c r="G13" s="137"/>
+      <c r="H13" s="136"/>
     </row>
     <row r="14" spans="5:11">
-      <c r="E14" s="160"/>
-      <c r="F14" s="159"/>
-      <c r="G14" s="159"/>
-      <c r="H14" s="158"/>
+      <c r="E14" s="138"/>
+      <c r="F14" s="137"/>
+      <c r="G14" s="137"/>
+      <c r="H14" s="136"/>
     </row>
     <row r="15" spans="5:11" ht="62">
-      <c r="E15" s="160"/>
-      <c r="F15" s="165" t="s">
-        <v>414</v>
-      </c>
-      <c r="G15" s="159"/>
-      <c r="H15" s="158"/>
+      <c r="E15" s="138"/>
+      <c r="F15" s="139" t="s">
+        <v>400</v>
+      </c>
+      <c r="G15" s="137"/>
+      <c r="H15" s="136"/>
     </row>
     <row r="16" spans="5:11">
-      <c r="E16" s="160"/>
-      <c r="F16" s="159"/>
-      <c r="G16" s="159"/>
-      <c r="H16" s="158"/>
+      <c r="E16" s="138"/>
+      <c r="F16" s="137"/>
+      <c r="G16" s="137"/>
+      <c r="H16" s="136"/>
     </row>
     <row r="17" spans="5:8">
-      <c r="E17" s="160"/>
-      <c r="F17" s="159"/>
-      <c r="G17" s="159"/>
-      <c r="H17" s="158"/>
+      <c r="E17" s="138"/>
+      <c r="F17" s="137"/>
+      <c r="G17" s="137"/>
+      <c r="H17" s="136"/>
     </row>
     <row r="18" spans="5:8">
-      <c r="E18" s="160"/>
-      <c r="F18" s="164" t="s">
-        <v>413</v>
-      </c>
-      <c r="G18" s="163"/>
-      <c r="H18" s="158"/>
+      <c r="E18" s="138"/>
+      <c r="F18" s="157" t="s">
+        <v>399</v>
+      </c>
+      <c r="G18" s="158"/>
+      <c r="H18" s="136"/>
     </row>
     <row r="19" spans="5:8">
-      <c r="E19" s="160"/>
-      <c r="F19" s="162"/>
-      <c r="G19" s="161"/>
-      <c r="H19" s="158"/>
+      <c r="E19" s="138"/>
+      <c r="F19" s="159"/>
+      <c r="G19" s="160"/>
+      <c r="H19" s="136"/>
     </row>
     <row r="20" spans="5:8">
-      <c r="E20" s="160"/>
-      <c r="F20" s="159"/>
-      <c r="G20" s="159"/>
-      <c r="H20" s="158"/>
+      <c r="E20" s="138"/>
+      <c r="F20" s="137"/>
+      <c r="G20" s="137"/>
+      <c r="H20" s="136"/>
     </row>
     <row r="21" spans="5:8">
-      <c r="E21" s="160"/>
-      <c r="F21" s="159"/>
-      <c r="G21" s="159"/>
-      <c r="H21" s="158"/>
+      <c r="E21" s="138"/>
+      <c r="F21" s="137"/>
+      <c r="G21" s="137"/>
+      <c r="H21" s="136"/>
     </row>
     <row r="22" spans="5:8">
-      <c r="E22" s="160"/>
-      <c r="F22" s="159"/>
-      <c r="G22" s="159"/>
-      <c r="H22" s="158"/>
+      <c r="E22" s="138"/>
+      <c r="F22" s="137"/>
+      <c r="G22" s="137"/>
+      <c r="H22" s="136"/>
     </row>
     <row r="23" spans="5:8">
-      <c r="E23" s="160"/>
-      <c r="F23" s="159"/>
-      <c r="G23" s="159"/>
-      <c r="H23" s="158"/>
+      <c r="E23" s="138"/>
+      <c r="F23" s="137"/>
+      <c r="G23" s="137"/>
+      <c r="H23" s="136"/>
     </row>
     <row r="24" spans="5:8">
-      <c r="E24" s="160"/>
-      <c r="F24" s="159"/>
-      <c r="G24" s="159"/>
-      <c r="H24" s="158"/>
+      <c r="E24" s="138"/>
+      <c r="F24" s="137"/>
+      <c r="G24" s="137"/>
+      <c r="H24" s="136"/>
     </row>
     <row r="25" spans="5:8">
-      <c r="E25" s="160"/>
-      <c r="F25" s="159"/>
-      <c r="G25" s="159"/>
-      <c r="H25" s="158"/>
+      <c r="E25" s="138"/>
+      <c r="F25" s="137"/>
+      <c r="G25" s="137"/>
+      <c r="H25" s="136"/>
     </row>
     <row r="26" spans="5:8">
-      <c r="E26" s="160"/>
-      <c r="F26" s="159"/>
-      <c r="G26" s="159"/>
-      <c r="H26" s="158"/>
+      <c r="E26" s="138"/>
+      <c r="F26" s="137"/>
+      <c r="G26" s="137"/>
+      <c r="H26" s="136"/>
     </row>
     <row r="27" spans="5:8">
-      <c r="E27" s="160"/>
-      <c r="F27" s="159"/>
-      <c r="G27" s="159"/>
-      <c r="H27" s="158"/>
+      <c r="E27" s="138"/>
+      <c r="F27" s="137"/>
+      <c r="G27" s="137"/>
+      <c r="H27" s="136"/>
     </row>
     <row r="28" spans="5:8">
-      <c r="E28" s="160"/>
-      <c r="F28" s="159"/>
-      <c r="G28" s="159"/>
-      <c r="H28" s="158"/>
+      <c r="E28" s="138"/>
+      <c r="F28" s="137"/>
+      <c r="G28" s="137"/>
+      <c r="H28" s="136"/>
     </row>
     <row r="29" spans="5:8">
-      <c r="E29" s="160"/>
-      <c r="F29" s="159"/>
-      <c r="G29" s="159"/>
-      <c r="H29" s="158"/>
+      <c r="E29" s="138"/>
+      <c r="F29" s="137"/>
+      <c r="G29" s="137"/>
+      <c r="H29" s="136"/>
     </row>
     <row r="30" spans="5:8">
-      <c r="E30" s="160"/>
-      <c r="F30" s="159"/>
-      <c r="G30" s="159"/>
-      <c r="H30" s="158"/>
+      <c r="E30" s="138"/>
+      <c r="F30" s="137"/>
+      <c r="G30" s="137"/>
+      <c r="H30" s="136"/>
     </row>
     <row r="31" spans="5:8">
-      <c r="E31" s="160"/>
-      <c r="F31" s="159"/>
-      <c r="G31" s="159"/>
-      <c r="H31" s="158"/>
+      <c r="E31" s="138"/>
+      <c r="F31" s="137"/>
+      <c r="G31" s="137"/>
+      <c r="H31" s="136"/>
     </row>
     <row r="32" spans="5:8" ht="17" thickBot="1">
-      <c r="E32" s="157"/>
-      <c r="F32" s="156"/>
-      <c r="G32" s="156"/>
-      <c r="H32" s="155"/>
+      <c r="E32" s="135"/>
+      <c r="F32" s="134"/>
+      <c r="G32" s="134"/>
+      <c r="H32" s="133"/>
     </row>
     <row r="35" spans="5:5" ht="47">
-      <c r="E35" s="154" t="s">
-        <v>412</v>
+      <c r="E35" s="132" t="s">
+        <v>398</v>
       </c>
     </row>
   </sheetData>

--- a/doc/android.xlsx
+++ b/doc/android.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10814"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E39F9518-DE71-9D4A-88C6-6543930E5069}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{047310B3-39A1-3446-8C21-ECCAC56E9E91}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="3" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Today" sheetId="5" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="基于监听的事件处理机制" sheetId="12" r:id="rId9"/>
     <sheet name="==与equals" sheetId="7" r:id="rId10"/>
     <sheet name="hasgCode" sheetId="9" r:id="rId11"/>
+    <sheet name="IO" sheetId="13" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Today!$A$1:$F$222</definedName>
@@ -92,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="411">
   <si>
     <t>Activity</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1701,6 +1702,30 @@
   </si>
   <si>
     <t>事件监听器</t>
+  </si>
+  <si>
+    <t>FileOutputStream</t>
+  </si>
+  <si>
+    <t>Input？Output？相对于存储而言</t>
+  </si>
+  <si>
+    <t>写</t>
+  </si>
+  <si>
+    <t>读</t>
+  </si>
+  <si>
+    <t>FileInputStream</t>
+  </si>
+  <si>
+    <t>PrintStream</t>
+  </si>
+  <si>
+    <t>BufferReader</t>
+  </si>
+  <si>
+    <t>RandomAccessFile</t>
   </si>
 </sst>
 </file>
@@ -2530,7 +2555,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="161">
+  <cellXfs count="163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2831,6 +2856,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5385,6 +5416,1804 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D47E191-4BAA-9744-B852-6D020B12A33E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1803400" y="850900"/>
+          <a:ext cx="1473200" cy="1206500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>memory</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59B082C8-DEC1-3A4A-8A4F-1F7CAAC7FDC4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9918700" y="876300"/>
+          <a:ext cx="1473200" cy="1206500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>内部存储</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE378DE1-D08C-2448-828B-CDBC902D37AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5880100" y="901700"/>
+          <a:ext cx="1473200" cy="1206500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>流</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Right Arrow 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{205B8B2C-2D4C-E04D-A69B-2E2BECB91F74}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4140200" y="1168400"/>
+          <a:ext cx="787400" cy="406400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Right Arrow 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50554A0B-76C5-844C-9DF5-C036B98CC5F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8356600" y="1219200"/>
+          <a:ext cx="787400" cy="406400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rectangle 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D6112FC-B7F0-DF4F-AB57-79D844999F67}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1803400" y="850900"/>
+          <a:ext cx="1473200" cy="1206500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>memory</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rectangle 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{268D4E8B-393E-5B46-BA10-D1BA07E24DF1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9918700" y="876300"/>
+          <a:ext cx="1473200" cy="1206500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>内部存储器</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Rectangle 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{154B75E4-6673-E844-BEE9-B69FB678E742}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1803400" y="850900"/>
+          <a:ext cx="1473200" cy="1206500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>memory</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Rectangle 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB184A61-6B49-424D-8CE2-B5186BF6A146}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9918700" y="876300"/>
+          <a:ext cx="1473200" cy="1206500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>内部存储</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Rectangle 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{957D6FD7-9B12-5E48-8569-5FE8F4586D28}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5880100" y="3695700"/>
+          <a:ext cx="1473200" cy="1206500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>流</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Right Arrow 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F226983D-C03E-714F-96D4-A9D542695663}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="4102100" y="4165600"/>
+          <a:ext cx="787400" cy="406400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Right Arrow 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31D0EDBA-6194-6844-B709-9FAFC72D4595}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="8267700" y="4229100"/>
+          <a:ext cx="787400" cy="406400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Straight Arrow Connector 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32010BFC-8409-0241-B832-4EE1BDB34F49}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6362700" y="2311400"/>
+          <a:ext cx="800100" cy="279400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Straight Arrow Connector 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B100F5BA-B9AA-7348-A32B-2AB33D249F54}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8293100" y="1587500"/>
+          <a:ext cx="1473200" cy="990600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Rectangle 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A140B8C-60A5-DB41-B36C-706444A04132}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1803400" y="850900"/>
+          <a:ext cx="1473200" cy="1206500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>memory</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="Rectangle 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01AC2B8F-6F8C-DA49-B9C1-AD471778044C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9918700" y="876300"/>
+          <a:ext cx="1473200" cy="1206500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>外部存储</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>SD</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>）</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="Rectangle 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{682C5CDB-2A88-A74C-AE03-4FD97B9DFFA2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5880100" y="901700"/>
+          <a:ext cx="1473200" cy="1206500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>流</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="Right Arrow 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6782A348-2790-EF4F-B07E-16F5D21784BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4140200" y="1168400"/>
+          <a:ext cx="787400" cy="406400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="Right Arrow 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B95B2B48-C0EF-1C43-A7B4-8C147CA08BAF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8356600" y="1219200"/>
+          <a:ext cx="787400" cy="406400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="Rectangle 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCB6F0ED-DC6B-2B47-BD3A-925ED8BEC4C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1803400" y="3898900"/>
+          <a:ext cx="1473200" cy="1206500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>memory</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="Rectangle 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02F1C1F0-FCE4-CE43-BD1A-E83F41DD375C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9918700" y="3924300"/>
+          <a:ext cx="1473200" cy="1206500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>内部存储器</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="Rectangle 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D15B801-42E0-6948-9101-F663159A5D98}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1803400" y="3898900"/>
+          <a:ext cx="1473200" cy="1206500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>memory</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="Rectangle 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C86AC0D-03A4-014A-86CC-0AC998349E93}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9918700" y="3924300"/>
+          <a:ext cx="1473200" cy="1206500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>外部存储（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>SD）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="Rectangle 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17A68CE4-F63C-BA47-B452-77555D2A8366}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5880100" y="3695700"/>
+          <a:ext cx="1473200" cy="1206500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>流</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="Right Arrow 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46555BF9-4E3A-4241-AFDD-2D68433FA212}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="4102100" y="4165600"/>
+          <a:ext cx="787400" cy="406400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="Right Arrow 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9746E532-1E94-C947-8D4C-16056ED863DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="8267700" y="4229100"/>
+          <a:ext cx="787400" cy="406400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="Straight Arrow Connector 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A29245D1-BAB9-C745-927D-E5175776D42B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5930900" y="11315700"/>
+          <a:ext cx="736600" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="Straight Arrow Connector 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77453CB5-9888-9747-8C70-B3883102DADD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4572000" y="10490200"/>
+          <a:ext cx="711200" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -9675,8 +11504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A3:E21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12"/>
@@ -9851,6 +11680,87 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDE8B8C4-352E-054D-A843-45DFD254B784}">
+  <dimension ref="B2:J61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R16" sqref="R16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="2:10">
+      <c r="H2" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="H12" s="161" t="s">
+        <v>403</v>
+      </c>
+      <c r="I12" s="161"/>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="J14" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="B23" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9">
+      <c r="H28" s="162" t="s">
+        <v>407</v>
+      </c>
+      <c r="I28" s="162"/>
+    </row>
+    <row r="39" spans="2:9">
+      <c r="B39" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9">
+      <c r="H43" s="161" t="s">
+        <v>410</v>
+      </c>
+      <c r="I43" s="161"/>
+    </row>
+    <row r="54" spans="2:9">
+      <c r="B54" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9">
+      <c r="H59" s="162" t="s">
+        <v>407</v>
+      </c>
+      <c r="I59" s="162"/>
+    </row>
+    <row r="61" spans="2:9">
+      <c r="G61" t="s">
+        <v>409</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="H59:I59"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/doc/android.xlsx
+++ b/doc/android.xlsx
@@ -3,28 +3,29 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11014"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F6C482-75C6-404C-AD5B-F4B2EF443B71}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E9906F8-A00B-584A-B469-F1A6AD0199F9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Activity_Lifecycle" sheetId="15" r:id="rId1"/>
-    <sheet name="ContentProvider" sheetId="4" r:id="rId2"/>
-    <sheet name="Android高级应用开发-深入篇" sheetId="5" r:id="rId3"/>
-    <sheet name="反编译" sheetId="8" r:id="rId4"/>
-    <sheet name="Android高级应用开发-基础篇_74UI开发的2+1法则" sheetId="1" r:id="rId5"/>
-    <sheet name="版本控制" sheetId="2" r:id="rId6"/>
-    <sheet name="Adapter" sheetId="3" r:id="rId7"/>
-    <sheet name="消息机制" sheetId="6" r:id="rId8"/>
-    <sheet name="消息机制模型" sheetId="10" r:id="rId9"/>
-    <sheet name="基于监听的事件处理机制" sheetId="12" r:id="rId10"/>
-    <sheet name="==与equals" sheetId="7" r:id="rId11"/>
-    <sheet name="hashCode" sheetId="9" r:id="rId12"/>
-    <sheet name="IO" sheetId="13" r:id="rId13"/>
+    <sheet name="Android Doc reads" sheetId="16" r:id="rId1"/>
+    <sheet name="Activity_Lifecycle" sheetId="15" r:id="rId2"/>
+    <sheet name="ContentProvider" sheetId="4" r:id="rId3"/>
+    <sheet name="Android高级应用开发-深入篇" sheetId="5" r:id="rId4"/>
+    <sheet name="反编译" sheetId="8" r:id="rId5"/>
+    <sheet name="Android高级应用开发-基础篇_74UI开发的2+1法则" sheetId="1" r:id="rId6"/>
+    <sheet name="版本控制" sheetId="2" r:id="rId7"/>
+    <sheet name="Adapter" sheetId="3" r:id="rId8"/>
+    <sheet name="消息机制" sheetId="6" r:id="rId9"/>
+    <sheet name="消息机制模型" sheetId="10" r:id="rId10"/>
+    <sheet name="基于监听的事件处理机制" sheetId="12" r:id="rId11"/>
+    <sheet name="==与equals" sheetId="7" r:id="rId12"/>
+    <sheet name="hashCode" sheetId="9" r:id="rId13"/>
+    <sheet name="IO" sheetId="13" r:id="rId14"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Android高级应用开发-深入篇'!$A$1:$C$222</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'Android高级应用开发-深入篇'!$A$1:$D$225</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Android高级应用开发-深入篇'!$A$1:$C$222</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Android高级应用开发-深入篇'!$A$1:$D$225</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
 </workbook>
@@ -94,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="439">
   <si>
     <t>Activity</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1735,9 +1736,6 @@
     <t>onStop()</t>
   </si>
   <si>
-    <t>onRestart()</t>
-  </si>
-  <si>
     <t>onDestroy()</t>
   </si>
   <si>
@@ -1787,13 +1785,37 @@
   </si>
   <si>
     <t>Do What</t>
+  </si>
+  <si>
+    <t>https://developer.android.google.cn/guide/components/activities/intro-activities</t>
+  </si>
+  <si>
+    <t>Introduction to Activities</t>
+  </si>
+  <si>
+    <t>Finish</t>
+  </si>
+  <si>
+    <t>ON</t>
+  </si>
+  <si>
+    <t>https://developer.android.google.cn/guide/components/activities/activity-lifecycle</t>
+  </si>
+  <si>
+    <t>Understand the Activity Lifecycle</t>
+  </si>
+  <si>
+    <t>http://android-developers.blogspot.com/2011/06/things-that-cannot-change.html</t>
+  </si>
+  <si>
+    <t>Things That Cannot Change</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="36">
+  <fonts count="37">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2059,6 +2081,14 @@
       <color theme="1"/>
       <name val="Helvetica"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -2618,11 +2648,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="167">
+  <cellXfs count="168">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2872,6 +2903,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2929,13 +2965,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{66AFF3AD-B4DE-FA4E-AB57-26B45159E82C}"/>
   </cellStyles>
@@ -7605,139 +7638,854 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{695F25B9-FD59-DD4E-A097-058E28B48012}">
-  <dimension ref="A1:E8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD58857B-D0A1-5746-959D-8AF492D5EE51}">
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="66" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="162" t="s">
-        <v>428</v>
-      </c>
-      <c r="B1" s="162" t="s">
-        <v>416</v>
-      </c>
-      <c r="C1" s="162" t="s">
-        <v>420</v>
-      </c>
-      <c r="D1" s="162" t="s">
-        <v>423</v>
-      </c>
-      <c r="E1" s="166" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B1" t="s">
+        <v>433</v>
+      </c>
+      <c r="C1" s="167" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="163" t="s">
-        <v>411</v>
-      </c>
-      <c r="B2" s="164" t="s">
-        <v>419</v>
-      </c>
-      <c r="C2" s="164" t="s">
-        <v>419</v>
-      </c>
-      <c r="D2" s="163" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="163" t="s">
-        <v>409</v>
-      </c>
-      <c r="B3" s="163" t="s">
-        <v>417</v>
-      </c>
-      <c r="C3" s="164" t="s">
-        <v>419</v>
-      </c>
-      <c r="D3" s="163" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="163" t="s">
-        <v>410</v>
-      </c>
-      <c r="B4" s="163" t="s">
-        <v>417</v>
-      </c>
-      <c r="C4" s="163" t="s">
-        <v>421</v>
-      </c>
-      <c r="D4" s="163" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="163" t="s">
-        <v>412</v>
-      </c>
-      <c r="B5" s="165" t="s">
-        <v>418</v>
-      </c>
-      <c r="C5" s="163" t="s">
-        <v>430</v>
-      </c>
-      <c r="D5" s="163" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="163" t="s">
-        <v>413</v>
-      </c>
-      <c r="B6" s="163" t="s">
-        <v>429</v>
-      </c>
-      <c r="C6" s="164" t="s">
-        <v>419</v>
-      </c>
-      <c r="D6" s="163" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="163" t="s">
-        <v>414</v>
-      </c>
-      <c r="B7" s="164" t="s">
-        <v>419</v>
-      </c>
-      <c r="C7" s="164" t="s">
-        <v>419</v>
-      </c>
-      <c r="D7" s="164" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="163" t="s">
-        <v>415</v>
-      </c>
-      <c r="B8" s="164" t="s">
-        <v>419</v>
-      </c>
-      <c r="C8" s="164" t="s">
-        <v>419</v>
-      </c>
-      <c r="D8" s="163" t="s">
-        <v>422</v>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>436</v>
+      </c>
+      <c r="B2" t="s">
+        <v>434</v>
+      </c>
+      <c r="C2" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>438</v>
+      </c>
+      <c r="B3" t="s">
+        <v>434</v>
+      </c>
+      <c r="C3" s="167" t="s">
+        <v>437</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C1" r:id="rId1" xr:uid="{CCE21B43-37BE-6D4F-A42F-AFF31417B473}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{A7FB048C-38FE-DE4F-BC6C-9A1FD3DD21BF}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA80C652-EB11-2747-89DA-E4ABA79A811D}">
+  <dimension ref="A2:T38"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="W17" sqref="W17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="3.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:20">
+      <c r="A2" s="94"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
+      <c r="N2" s="94"/>
+      <c r="O2" s="94"/>
+      <c r="P2" s="94"/>
+      <c r="Q2" s="94"/>
+      <c r="R2" s="94"/>
+      <c r="S2" s="94"/>
+      <c r="T2" s="94"/>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" s="94"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="94"/>
+      <c r="O3" s="94"/>
+      <c r="Q3" s="94"/>
+      <c r="R3" s="94"/>
+      <c r="S3" s="94"/>
+      <c r="T3" s="94"/>
+    </row>
+    <row r="4" spans="1:20" ht="27" thickBot="1">
+      <c r="A4" s="94"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="119" t="s">
+        <v>388</v>
+      </c>
+      <c r="H4" s="94"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="94"/>
+      <c r="K4" s="94"/>
+      <c r="L4" s="94"/>
+      <c r="M4" s="94"/>
+      <c r="N4" s="94"/>
+      <c r="O4" s="94"/>
+      <c r="P4" s="94"/>
+      <c r="Q4" s="119" t="s">
+        <v>389</v>
+      </c>
+      <c r="R4" s="94"/>
+      <c r="S4" s="94"/>
+      <c r="T4" s="94"/>
+    </row>
+    <row r="5" spans="1:20" ht="16" thickBot="1">
+      <c r="A5" s="94"/>
+      <c r="B5" s="94"/>
+      <c r="C5" s="94"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="99"/>
+      <c r="H5" s="99"/>
+      <c r="I5" s="99"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="94"/>
+      <c r="L5" s="94"/>
+      <c r="M5" s="94"/>
+      <c r="N5" s="98"/>
+      <c r="O5" s="99"/>
+      <c r="P5" s="99"/>
+      <c r="Q5" s="99"/>
+      <c r="R5" s="99"/>
+      <c r="S5" s="99"/>
+      <c r="T5" s="100"/>
+    </row>
+    <row r="6" spans="1:20" ht="21" customHeight="1">
+      <c r="A6" s="94"/>
+      <c r="B6" s="94"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="152" t="s">
+        <v>392</v>
+      </c>
+      <c r="G6" s="153"/>
+      <c r="H6" s="154"/>
+      <c r="I6" s="96"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="94"/>
+      <c r="M6" s="94"/>
+      <c r="N6" s="101"/>
+      <c r="O6" s="96"/>
+      <c r="P6" s="96"/>
+      <c r="Q6" s="96"/>
+      <c r="R6" s="96"/>
+      <c r="S6" s="96"/>
+      <c r="T6" s="102"/>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" s="94"/>
+      <c r="B7" s="94"/>
+      <c r="C7" s="94"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="155"/>
+      <c r="G7" s="156"/>
+      <c r="H7" s="157"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="95"/>
+      <c r="L7" s="94"/>
+      <c r="M7" s="94"/>
+      <c r="N7" s="101"/>
+      <c r="O7" s="96"/>
+      <c r="P7" s="96"/>
+      <c r="Q7" s="96"/>
+      <c r="R7" s="96"/>
+      <c r="S7" s="96"/>
+      <c r="T7" s="102"/>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" s="94"/>
+      <c r="B8" s="94"/>
+      <c r="C8" s="94"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="155"/>
+      <c r="G8" s="156"/>
+      <c r="H8" s="157"/>
+      <c r="I8" s="96"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="94"/>
+      <c r="L8" s="94"/>
+      <c r="M8" s="94"/>
+      <c r="N8" s="101"/>
+      <c r="O8" s="96"/>
+      <c r="P8" s="96"/>
+      <c r="Q8" s="96"/>
+      <c r="R8" s="96"/>
+      <c r="S8" s="96"/>
+      <c r="T8" s="102"/>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="94"/>
+      <c r="B9" s="94"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="101"/>
+      <c r="F9" s="155"/>
+      <c r="G9" s="156"/>
+      <c r="H9" s="157"/>
+      <c r="I9" s="96"/>
+      <c r="J9" s="102"/>
+      <c r="K9" s="94"/>
+      <c r="L9" s="94"/>
+      <c r="M9" s="94"/>
+      <c r="N9" s="101"/>
+      <c r="O9" s="93"/>
+      <c r="P9" s="93"/>
+      <c r="Q9" s="96"/>
+      <c r="R9" s="96"/>
+      <c r="S9" s="96"/>
+      <c r="T9" s="102"/>
+    </row>
+    <row r="10" spans="1:20" ht="16" thickBot="1">
+      <c r="A10" s="94"/>
+      <c r="B10" s="94"/>
+      <c r="C10" s="94"/>
+      <c r="D10" s="101"/>
+      <c r="F10" s="158"/>
+      <c r="G10" s="159"/>
+      <c r="H10" s="160"/>
+      <c r="I10" s="129"/>
+      <c r="J10" s="102"/>
+      <c r="K10" s="94"/>
+      <c r="L10" s="94"/>
+      <c r="M10" s="94"/>
+      <c r="N10" s="101"/>
+      <c r="O10" s="93"/>
+      <c r="P10" s="93"/>
+      <c r="Q10" s="96"/>
+      <c r="R10" s="96"/>
+      <c r="S10" s="96"/>
+      <c r="T10" s="102"/>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="94"/>
+      <c r="B11" s="94"/>
+      <c r="C11" s="94"/>
+      <c r="D11" s="101"/>
+      <c r="G11" s="129"/>
+      <c r="H11" s="96"/>
+      <c r="I11" s="96"/>
+      <c r="J11" s="102"/>
+      <c r="K11" s="94"/>
+      <c r="L11" s="94"/>
+      <c r="M11" s="94"/>
+      <c r="N11" s="101"/>
+      <c r="O11" s="93"/>
+      <c r="P11" s="93"/>
+      <c r="Q11" s="96"/>
+      <c r="R11" s="96"/>
+      <c r="S11" s="96"/>
+      <c r="T11" s="102"/>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" s="94"/>
+      <c r="B12" s="94"/>
+      <c r="C12" s="94"/>
+      <c r="D12" s="101"/>
+      <c r="G12" s="96"/>
+      <c r="H12" s="96"/>
+      <c r="I12" s="96"/>
+      <c r="J12" s="102"/>
+      <c r="K12" s="94"/>
+      <c r="L12" s="94"/>
+      <c r="M12" s="94"/>
+      <c r="N12" s="101"/>
+      <c r="O12" s="93"/>
+      <c r="P12" s="93"/>
+      <c r="Q12" s="96"/>
+      <c r="R12" s="96"/>
+      <c r="S12" s="96"/>
+      <c r="T12" s="102"/>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" s="94"/>
+      <c r="B13" s="94"/>
+      <c r="C13" s="94"/>
+      <c r="D13" s="101"/>
+      <c r="G13" s="96"/>
+      <c r="H13" s="96"/>
+      <c r="I13" s="96"/>
+      <c r="J13" s="102"/>
+      <c r="K13" s="94"/>
+      <c r="L13" s="94"/>
+      <c r="M13" s="94"/>
+      <c r="N13" s="101"/>
+      <c r="O13" s="93"/>
+      <c r="P13" s="93"/>
+      <c r="Q13" s="96"/>
+      <c r="R13" s="96"/>
+      <c r="S13" s="96"/>
+      <c r="T13" s="102"/>
+    </row>
+    <row r="14" spans="1:20" ht="27" thickBot="1">
+      <c r="A14" s="94"/>
+      <c r="B14" s="94"/>
+      <c r="C14" s="94"/>
+      <c r="D14" s="101"/>
+      <c r="E14" s="120" t="s">
+        <v>386</v>
+      </c>
+      <c r="H14" s="96"/>
+      <c r="I14" s="96"/>
+      <c r="J14" s="102"/>
+      <c r="K14" s="94"/>
+      <c r="L14" s="118" t="s">
+        <v>393</v>
+      </c>
+      <c r="M14" s="94"/>
+      <c r="N14" s="101"/>
+      <c r="O14" s="93"/>
+      <c r="P14" s="93"/>
+      <c r="Q14" s="123"/>
+      <c r="R14" s="96"/>
+      <c r="S14" s="96"/>
+      <c r="T14" s="102"/>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" s="94"/>
+      <c r="B15" s="94"/>
+      <c r="C15" s="94"/>
+      <c r="D15" s="101"/>
+      <c r="E15" s="108"/>
+      <c r="F15" s="109"/>
+      <c r="G15" s="109"/>
+      <c r="H15" s="109"/>
+      <c r="I15" s="110"/>
+      <c r="J15" s="102"/>
+      <c r="K15" s="94"/>
+      <c r="L15" s="94"/>
+      <c r="M15" s="94"/>
+      <c r="N15" s="101"/>
+      <c r="O15" s="96"/>
+      <c r="P15" s="96"/>
+      <c r="Q15" s="96"/>
+      <c r="R15" s="96"/>
+      <c r="S15" s="96"/>
+      <c r="T15" s="102"/>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" s="94"/>
+      <c r="B16" s="94"/>
+      <c r="C16" s="94"/>
+      <c r="D16" s="101"/>
+      <c r="E16" s="111"/>
+      <c r="F16" s="96"/>
+      <c r="G16" s="96"/>
+      <c r="H16" s="96"/>
+      <c r="I16" s="112"/>
+      <c r="J16" s="102"/>
+      <c r="K16" s="94"/>
+      <c r="L16" s="94"/>
+      <c r="M16" s="94"/>
+      <c r="N16" s="101"/>
+      <c r="O16" s="96"/>
+      <c r="P16" s="96"/>
+      <c r="Q16" s="96"/>
+      <c r="R16" s="96"/>
+      <c r="S16" s="96"/>
+      <c r="T16" s="102"/>
+    </row>
+    <row r="17" spans="1:20" ht="26">
+      <c r="A17" s="94"/>
+      <c r="B17" s="94"/>
+      <c r="C17" s="94"/>
+      <c r="D17" s="101"/>
+      <c r="E17" s="111"/>
+      <c r="F17" s="94"/>
+      <c r="G17" s="96"/>
+      <c r="H17" s="96"/>
+      <c r="I17" s="112"/>
+      <c r="J17" s="102"/>
+      <c r="K17" s="94"/>
+      <c r="L17" s="94"/>
+      <c r="M17" s="94"/>
+      <c r="N17" s="101"/>
+      <c r="O17" s="121"/>
+      <c r="P17" s="118"/>
+      <c r="Q17" s="121"/>
+      <c r="R17" s="121"/>
+      <c r="S17" s="121"/>
+      <c r="T17" s="102"/>
+    </row>
+    <row r="18" spans="1:20" ht="26">
+      <c r="A18" s="94"/>
+      <c r="B18" s="94"/>
+      <c r="C18" s="94"/>
+      <c r="D18" s="101"/>
+      <c r="E18" s="111"/>
+      <c r="H18" s="96"/>
+      <c r="I18" s="112"/>
+      <c r="J18" s="102"/>
+      <c r="K18" s="94"/>
+      <c r="L18" s="94"/>
+      <c r="M18" s="94"/>
+      <c r="N18" s="101"/>
+      <c r="O18" s="121"/>
+      <c r="P18" s="128" t="s">
+        <v>390</v>
+      </c>
+      <c r="Q18" s="118"/>
+      <c r="R18" s="121"/>
+      <c r="S18" s="121"/>
+      <c r="T18" s="102"/>
+    </row>
+    <row r="19" spans="1:20" ht="27" thickBot="1">
+      <c r="A19" s="94"/>
+      <c r="B19" s="94"/>
+      <c r="C19" s="94"/>
+      <c r="D19" s="101"/>
+      <c r="E19" s="111"/>
+      <c r="F19" s="94"/>
+      <c r="G19" s="96"/>
+      <c r="H19" s="96"/>
+      <c r="I19" s="112"/>
+      <c r="J19" s="102"/>
+      <c r="K19" s="94"/>
+      <c r="L19" s="94"/>
+      <c r="M19" s="94"/>
+      <c r="N19" s="101"/>
+      <c r="O19" s="121"/>
+      <c r="P19" s="118"/>
+      <c r="Q19" s="121"/>
+      <c r="R19" s="121"/>
+      <c r="S19" s="121"/>
+      <c r="T19" s="102"/>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="94"/>
+      <c r="B20" s="94"/>
+      <c r="C20" s="94"/>
+      <c r="D20" s="101"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="96"/>
+      <c r="G20" s="124"/>
+      <c r="H20" s="96"/>
+      <c r="I20" s="112"/>
+      <c r="J20" s="102"/>
+      <c r="K20" s="94"/>
+      <c r="L20" s="94"/>
+      <c r="M20" s="94"/>
+      <c r="N20" s="101"/>
+      <c r="O20" s="96"/>
+      <c r="P20" s="96"/>
+      <c r="Q20" s="96"/>
+      <c r="R20" s="96"/>
+      <c r="S20" s="96"/>
+      <c r="T20" s="102"/>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="94"/>
+      <c r="B21" s="94"/>
+      <c r="C21" s="94"/>
+      <c r="D21" s="101"/>
+      <c r="E21" s="113"/>
+      <c r="F21" s="94"/>
+      <c r="G21" s="125"/>
+      <c r="H21" s="96"/>
+      <c r="I21" s="112"/>
+      <c r="J21" s="102"/>
+      <c r="K21" s="94"/>
+      <c r="L21" s="94"/>
+      <c r="M21" s="94"/>
+      <c r="N21" s="101"/>
+      <c r="O21" s="94"/>
+      <c r="P21" s="94"/>
+      <c r="Q21" s="96"/>
+      <c r="R21" s="96"/>
+      <c r="S21" s="96"/>
+      <c r="T21" s="102"/>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="94"/>
+      <c r="B22" s="94"/>
+      <c r="C22" s="94"/>
+      <c r="D22" s="101"/>
+      <c r="E22" s="113"/>
+      <c r="F22" s="94"/>
+      <c r="G22" s="125"/>
+      <c r="H22" s="96"/>
+      <c r="I22" s="112"/>
+      <c r="J22" s="102"/>
+      <c r="K22" s="94"/>
+      <c r="L22" s="94"/>
+      <c r="M22" s="94"/>
+      <c r="N22" s="101"/>
+      <c r="O22" s="94"/>
+      <c r="P22" s="94"/>
+      <c r="Q22" s="96"/>
+      <c r="R22" s="96"/>
+      <c r="S22" s="96"/>
+      <c r="T22" s="102"/>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="94"/>
+      <c r="B23" s="94"/>
+      <c r="C23" s="94"/>
+      <c r="D23" s="101"/>
+      <c r="E23" s="113"/>
+      <c r="F23" s="94"/>
+      <c r="G23" s="125"/>
+      <c r="H23" s="96"/>
+      <c r="I23" s="112"/>
+      <c r="J23" s="102"/>
+      <c r="K23" s="94"/>
+      <c r="L23" s="94"/>
+      <c r="M23" s="94"/>
+      <c r="N23" s="101"/>
+      <c r="O23" s="94"/>
+      <c r="P23" s="94"/>
+      <c r="Q23" s="96"/>
+      <c r="R23" s="96"/>
+      <c r="S23" s="96"/>
+      <c r="T23" s="102"/>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="94"/>
+      <c r="B24" s="94"/>
+      <c r="C24" s="94"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="111"/>
+      <c r="F24" s="96"/>
+      <c r="G24" s="125"/>
+      <c r="H24" s="96"/>
+      <c r="I24" s="112"/>
+      <c r="J24" s="102"/>
+      <c r="K24" s="94"/>
+      <c r="L24" s="94"/>
+      <c r="M24" s="94"/>
+      <c r="N24" s="101"/>
+      <c r="O24" s="96"/>
+      <c r="P24" s="96"/>
+      <c r="Q24" s="96"/>
+      <c r="R24" s="96"/>
+      <c r="S24" s="96"/>
+      <c r="T24" s="102"/>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="94"/>
+      <c r="B25" s="94"/>
+      <c r="C25" s="94"/>
+      <c r="D25" s="101"/>
+      <c r="E25" s="111"/>
+      <c r="F25" s="96"/>
+      <c r="G25" s="125"/>
+      <c r="H25" s="96"/>
+      <c r="I25" s="112"/>
+      <c r="J25" s="102"/>
+      <c r="K25" s="94"/>
+      <c r="L25" s="94"/>
+      <c r="M25" s="94"/>
+      <c r="N25" s="101"/>
+      <c r="O25" s="96"/>
+      <c r="P25" s="96"/>
+      <c r="Q25" s="96"/>
+      <c r="R25" s="96"/>
+      <c r="S25" s="96"/>
+      <c r="T25" s="102"/>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="94"/>
+      <c r="B26" s="94"/>
+      <c r="C26" s="94"/>
+      <c r="D26" s="101"/>
+      <c r="E26" s="111"/>
+      <c r="F26" s="96"/>
+      <c r="G26" s="126"/>
+      <c r="H26" s="96"/>
+      <c r="I26" s="112"/>
+      <c r="J26" s="102"/>
+      <c r="K26" s="94"/>
+      <c r="L26" s="94"/>
+      <c r="N26" s="101"/>
+      <c r="O26" s="96"/>
+      <c r="P26" s="96"/>
+      <c r="Q26" s="96"/>
+      <c r="R26" s="96"/>
+      <c r="S26" s="96"/>
+      <c r="T26" s="102"/>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="94"/>
+      <c r="B27" s="94"/>
+      <c r="C27" s="94"/>
+      <c r="D27" s="101"/>
+      <c r="E27" s="111"/>
+      <c r="F27" s="96"/>
+      <c r="G27" s="126"/>
+      <c r="H27" s="96"/>
+      <c r="I27" s="112"/>
+      <c r="J27" s="102"/>
+      <c r="K27" s="94"/>
+      <c r="L27" s="94"/>
+      <c r="N27" s="101"/>
+      <c r="O27" s="96"/>
+      <c r="P27" s="96"/>
+      <c r="Q27" s="96"/>
+      <c r="R27" s="96"/>
+      <c r="S27" s="96"/>
+      <c r="T27" s="102"/>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="94"/>
+      <c r="B28" s="94"/>
+      <c r="C28" s="94"/>
+      <c r="D28" s="101"/>
+      <c r="E28" s="111"/>
+      <c r="F28" s="97"/>
+      <c r="G28" s="126"/>
+      <c r="H28" s="97"/>
+      <c r="I28" s="114"/>
+      <c r="J28" s="102"/>
+      <c r="K28" s="94"/>
+      <c r="L28" s="94"/>
+      <c r="N28" s="101"/>
+      <c r="O28" s="96"/>
+      <c r="P28" s="97"/>
+      <c r="Q28" s="97"/>
+      <c r="R28" s="97"/>
+      <c r="S28" s="97"/>
+      <c r="T28" s="102"/>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="94"/>
+      <c r="B29" s="94"/>
+      <c r="C29" s="94"/>
+      <c r="D29" s="101"/>
+      <c r="E29" s="111"/>
+      <c r="F29" s="96"/>
+      <c r="G29" s="125" t="s">
+        <v>391</v>
+      </c>
+      <c r="H29" s="96"/>
+      <c r="I29" s="112"/>
+      <c r="J29" s="102"/>
+      <c r="K29" s="94"/>
+      <c r="L29" s="94"/>
+      <c r="N29" s="101"/>
+      <c r="O29" s="96"/>
+      <c r="P29" s="96"/>
+      <c r="Q29" s="96"/>
+      <c r="R29" s="96"/>
+      <c r="S29" s="96"/>
+      <c r="T29" s="102"/>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="94"/>
+      <c r="B30" s="94"/>
+      <c r="C30" s="94"/>
+      <c r="D30" s="101"/>
+      <c r="E30" s="111"/>
+      <c r="F30" s="96"/>
+      <c r="G30" s="125" t="s">
+        <v>391</v>
+      </c>
+      <c r="H30" s="96"/>
+      <c r="I30" s="112"/>
+      <c r="J30" s="102"/>
+      <c r="K30" s="94"/>
+      <c r="L30" s="94"/>
+      <c r="N30" s="101"/>
+      <c r="O30" s="96"/>
+      <c r="P30" s="96"/>
+      <c r="Q30" s="96"/>
+      <c r="R30" s="96"/>
+      <c r="S30" s="96"/>
+      <c r="T30" s="102"/>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="D31" s="103"/>
+      <c r="E31" s="111"/>
+      <c r="F31" s="96"/>
+      <c r="G31" s="125" t="s">
+        <v>391</v>
+      </c>
+      <c r="H31" s="96"/>
+      <c r="I31" s="112"/>
+      <c r="J31" s="104"/>
+      <c r="N31" s="103"/>
+      <c r="O31" s="96"/>
+      <c r="P31" s="96"/>
+      <c r="Q31" s="96"/>
+      <c r="R31" s="96"/>
+      <c r="S31" s="96"/>
+      <c r="T31" s="102"/>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="C32" s="93"/>
+      <c r="D32" s="103"/>
+      <c r="E32" s="111"/>
+      <c r="F32" s="96"/>
+      <c r="G32" s="125" t="s">
+        <v>391</v>
+      </c>
+      <c r="H32" s="96"/>
+      <c r="I32" s="112"/>
+      <c r="J32" s="104"/>
+      <c r="N32" s="103"/>
+      <c r="O32" s="96"/>
+      <c r="P32" s="96"/>
+      <c r="Q32" s="96"/>
+      <c r="R32" s="96"/>
+      <c r="S32" s="96"/>
+      <c r="T32" s="102"/>
+    </row>
+    <row r="33" spans="4:20" ht="16" thickBot="1">
+      <c r="D33" s="103"/>
+      <c r="E33" s="111"/>
+      <c r="G33" s="127"/>
+      <c r="H33" s="96"/>
+      <c r="I33" s="112"/>
+      <c r="J33" s="104"/>
+      <c r="N33" s="103"/>
+      <c r="O33" s="96"/>
+      <c r="P33" s="96"/>
+      <c r="Q33" s="96"/>
+      <c r="R33" s="96"/>
+      <c r="S33" s="96"/>
+      <c r="T33" s="102"/>
+    </row>
+    <row r="34" spans="4:20" ht="26">
+      <c r="D34" s="103"/>
+      <c r="E34" s="111"/>
+      <c r="F34" s="122" t="s">
+        <v>387</v>
+      </c>
+      <c r="G34" s="96"/>
+      <c r="H34" s="96"/>
+      <c r="I34" s="112"/>
+      <c r="J34" s="104"/>
+      <c r="N34" s="103"/>
+      <c r="O34" s="96"/>
+      <c r="P34" s="96"/>
+      <c r="Q34" s="96"/>
+      <c r="R34" s="96"/>
+      <c r="S34" s="96"/>
+      <c r="T34" s="102"/>
+    </row>
+    <row r="35" spans="4:20">
+      <c r="D35" s="103"/>
+      <c r="E35" s="111"/>
+      <c r="G35" s="96"/>
+      <c r="H35" s="96"/>
+      <c r="I35" s="112"/>
+      <c r="J35" s="104"/>
+      <c r="N35" s="103"/>
+      <c r="O35" s="96"/>
+      <c r="P35" s="96"/>
+      <c r="Q35" s="96"/>
+      <c r="R35" s="96"/>
+      <c r="S35" s="96"/>
+      <c r="T35" s="102"/>
+    </row>
+    <row r="36" spans="4:20">
+      <c r="D36" s="103"/>
+      <c r="E36" s="111"/>
+      <c r="F36" s="96"/>
+      <c r="G36" s="96"/>
+      <c r="H36" s="96"/>
+      <c r="I36" s="112"/>
+      <c r="J36" s="104"/>
+      <c r="N36" s="103"/>
+      <c r="O36" s="96"/>
+      <c r="P36" s="96"/>
+      <c r="Q36" s="96"/>
+      <c r="R36" s="96"/>
+      <c r="S36" s="96"/>
+      <c r="T36" s="102"/>
+    </row>
+    <row r="37" spans="4:20" ht="16" thickBot="1">
+      <c r="D37" s="103"/>
+      <c r="E37" s="115"/>
+      <c r="F37" s="116"/>
+      <c r="G37" s="116"/>
+      <c r="H37" s="116"/>
+      <c r="I37" s="117"/>
+      <c r="J37" s="104"/>
+      <c r="N37" s="103"/>
+      <c r="O37" s="96"/>
+      <c r="P37" s="96"/>
+      <c r="Q37" s="96"/>
+      <c r="R37" s="96"/>
+      <c r="S37" s="96"/>
+      <c r="T37" s="102"/>
+    </row>
+    <row r="38" spans="4:20" ht="16" thickBot="1">
+      <c r="D38" s="105"/>
+      <c r="E38" s="106"/>
+      <c r="F38" s="106"/>
+      <c r="G38" s="106"/>
+      <c r="H38" s="106"/>
+      <c r="I38" s="106"/>
+      <c r="J38" s="107"/>
+      <c r="N38" s="105"/>
+      <c r="O38" s="106"/>
+      <c r="P38" s="106"/>
+      <c r="Q38" s="106"/>
+      <c r="R38" s="106"/>
+      <c r="S38" s="106"/>
+      <c r="T38" s="107"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F6:H10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E7778B8-D430-A34A-995E-0F83AC473C52}">
   <dimension ref="E8:K35"/>
   <sheetViews>
@@ -7817,16 +8565,16 @@
     </row>
     <row r="18" spans="5:8">
       <c r="E18" s="137"/>
-      <c r="F18" s="156" t="s">
+      <c r="F18" s="161" t="s">
         <v>395</v>
       </c>
-      <c r="G18" s="157"/>
+      <c r="G18" s="162"/>
       <c r="H18" s="135"/>
     </row>
     <row r="19" spans="5:8">
       <c r="E19" s="137"/>
-      <c r="F19" s="158"/>
-      <c r="G19" s="159"/>
+      <c r="F19" s="163"/>
+      <c r="G19" s="164"/>
       <c r="H19" s="135"/>
     </row>
     <row r="20" spans="5:8">
@@ -7922,7 +8670,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B1:K25"/>
   <sheetViews>
@@ -8137,7 +8885,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A3:E21"/>
   <sheetViews>
@@ -8320,7 +9068,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDE8B8C4-352E-054D-A843-45DFD254B784}">
   <dimension ref="B2:J61"/>
   <sheetViews>
@@ -8341,10 +9089,10 @@
       </c>
     </row>
     <row r="12" spans="2:10">
-      <c r="H12" s="160" t="s">
+      <c r="H12" s="165" t="s">
         <v>399</v>
       </c>
-      <c r="I12" s="160"/>
+      <c r="I12" s="165"/>
     </row>
     <row r="14" spans="2:10">
       <c r="J14" t="s">
@@ -8357,10 +9105,10 @@
       </c>
     </row>
     <row r="28" spans="2:9">
-      <c r="H28" s="161" t="s">
+      <c r="H28" s="166" t="s">
         <v>403</v>
       </c>
-      <c r="I28" s="161"/>
+      <c r="I28" s="166"/>
     </row>
     <row r="39" spans="2:9">
       <c r="B39" t="s">
@@ -8368,10 +9116,10 @@
       </c>
     </row>
     <row r="43" spans="2:9">
-      <c r="H43" s="160" t="s">
+      <c r="H43" s="165" t="s">
         <v>406</v>
       </c>
-      <c r="I43" s="160"/>
+      <c r="I43" s="165"/>
     </row>
     <row r="54" spans="2:9">
       <c r="B54" t="s">
@@ -8379,10 +9127,10 @@
       </c>
     </row>
     <row r="59" spans="2:9">
-      <c r="H59" s="161" t="s">
+      <c r="H59" s="166" t="s">
         <v>403</v>
       </c>
-      <c r="I59" s="161"/>
+      <c r="I59" s="166"/>
     </row>
     <row r="61" spans="2:9">
       <c r="G61" t="s">
@@ -8402,6 +9150,125 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{695F25B9-FD59-DD4E-A097-058E28B48012}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="143" t="s">
+        <v>427</v>
+      </c>
+      <c r="B1" s="143" t="s">
+        <v>415</v>
+      </c>
+      <c r="C1" s="143" t="s">
+        <v>419</v>
+      </c>
+      <c r="D1" s="143" t="s">
+        <v>422</v>
+      </c>
+      <c r="E1" s="147" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="144" t="s">
+        <v>411</v>
+      </c>
+      <c r="B2" s="145" t="s">
+        <v>418</v>
+      </c>
+      <c r="C2" s="145" t="s">
+        <v>418</v>
+      </c>
+      <c r="D2" s="144" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="144" t="s">
+        <v>409</v>
+      </c>
+      <c r="B3" s="144" t="s">
+        <v>416</v>
+      </c>
+      <c r="C3" s="145" t="s">
+        <v>418</v>
+      </c>
+      <c r="D3" s="144" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="144" t="s">
+        <v>410</v>
+      </c>
+      <c r="B4" s="144" t="s">
+        <v>416</v>
+      </c>
+      <c r="C4" s="144" t="s">
+        <v>420</v>
+      </c>
+      <c r="D4" s="144" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="144" t="s">
+        <v>412</v>
+      </c>
+      <c r="B5" s="146" t="s">
+        <v>417</v>
+      </c>
+      <c r="C5" s="144" t="s">
+        <v>429</v>
+      </c>
+      <c r="D5" s="144" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="144" t="s">
+        <v>413</v>
+      </c>
+      <c r="B6" s="144" t="s">
+        <v>428</v>
+      </c>
+      <c r="C6" s="145" t="s">
+        <v>418</v>
+      </c>
+      <c r="D6" s="144" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="144" t="s">
+        <v>414</v>
+      </c>
+      <c r="B7" s="145" t="s">
+        <v>418</v>
+      </c>
+      <c r="C7" s="145" t="s">
+        <v>418</v>
+      </c>
+      <c r="D7" s="144" t="s">
+        <v>421</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:Q30"/>
   <sheetViews>
@@ -8817,7 +9684,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:D224"/>
@@ -10798,7 +11665,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:I20"/>
   <sheetViews>
@@ -10912,7 +11779,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:Q39"/>
   <sheetViews>
@@ -11243,7 +12110,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B3:G13"/>
   <sheetViews>
@@ -11299,7 +12166,7 @@
       <c r="G4" s="15"/>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="143" t="s">
+      <c r="B5" s="148" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="15" t="s">
@@ -11319,7 +12186,7 @@
       </c>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="143"/>
+      <c r="B6" s="148"/>
       <c r="C6" s="15" t="s">
         <v>17</v>
       </c>
@@ -11335,7 +12202,7 @@
       </c>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="143"/>
+      <c r="B7" s="148"/>
       <c r="C7" s="16" t="s">
         <v>31</v>
       </c>
@@ -11353,7 +12220,7 @@
       </c>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="143"/>
+      <c r="B8" s="148"/>
       <c r="C8" s="16" t="s">
         <v>32</v>
       </c>
@@ -11371,7 +12238,7 @@
       </c>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="143"/>
+      <c r="B9" s="148"/>
       <c r="C9" s="16" t="s">
         <v>33</v>
       </c>
@@ -11389,7 +12256,7 @@
       </c>
     </row>
     <row r="10" spans="2:7" ht="26">
-      <c r="B10" s="143"/>
+      <c r="B10" s="148"/>
       <c r="C10" s="16" t="s">
         <v>13</v>
       </c>
@@ -11407,7 +12274,7 @@
       </c>
     </row>
     <row r="11" spans="2:7" ht="39">
-      <c r="B11" s="144" t="s">
+      <c r="B11" s="149" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="18" t="s">
@@ -11427,7 +12294,7 @@
       </c>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="145"/>
+      <c r="B12" s="150"/>
       <c r="C12" s="15" t="s">
         <v>15</v>
       </c>
@@ -11441,7 +12308,7 @@
       </c>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="146"/>
+      <c r="B13" s="151"/>
       <c r="C13" s="15" t="s">
         <v>16</v>
       </c>
@@ -11467,7 +12334,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:N24"/>
   <sheetViews>
@@ -11627,7 +12494,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B2:U32"/>
   <sheetViews>
@@ -11886,795 +12753,4 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA80C652-EB11-2747-89DA-E4ABA79A811D}">
-  <dimension ref="A2:T38"/>
-  <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="W17" sqref="W17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="3.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:20">
-      <c r="A2" s="94"/>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="94"/>
-      <c r="N2" s="94"/>
-      <c r="O2" s="94"/>
-      <c r="P2" s="94"/>
-      <c r="Q2" s="94"/>
-      <c r="R2" s="94"/>
-      <c r="S2" s="94"/>
-      <c r="T2" s="94"/>
-    </row>
-    <row r="3" spans="1:20">
-      <c r="A3" s="94"/>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="94"/>
-      <c r="O3" s="94"/>
-      <c r="Q3" s="94"/>
-      <c r="R3" s="94"/>
-      <c r="S3" s="94"/>
-      <c r="T3" s="94"/>
-    </row>
-    <row r="4" spans="1:20" ht="27" thickBot="1">
-      <c r="A4" s="94"/>
-      <c r="B4" s="94"/>
-      <c r="C4" s="94"/>
-      <c r="D4" s="94"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="119" t="s">
-        <v>388</v>
-      </c>
-      <c r="H4" s="94"/>
-      <c r="I4" s="94"/>
-      <c r="J4" s="94"/>
-      <c r="K4" s="94"/>
-      <c r="L4" s="94"/>
-      <c r="M4" s="94"/>
-      <c r="N4" s="94"/>
-      <c r="O4" s="94"/>
-      <c r="P4" s="94"/>
-      <c r="Q4" s="119" t="s">
-        <v>389</v>
-      </c>
-      <c r="R4" s="94"/>
-      <c r="S4" s="94"/>
-      <c r="T4" s="94"/>
-    </row>
-    <row r="5" spans="1:20" ht="16" thickBot="1">
-      <c r="A5" s="94"/>
-      <c r="B5" s="94"/>
-      <c r="C5" s="94"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="99"/>
-      <c r="F5" s="99"/>
-      <c r="G5" s="99"/>
-      <c r="H5" s="99"/>
-      <c r="I5" s="99"/>
-      <c r="J5" s="100"/>
-      <c r="K5" s="94"/>
-      <c r="L5" s="94"/>
-      <c r="M5" s="94"/>
-      <c r="N5" s="98"/>
-      <c r="O5" s="99"/>
-      <c r="P5" s="99"/>
-      <c r="Q5" s="99"/>
-      <c r="R5" s="99"/>
-      <c r="S5" s="99"/>
-      <c r="T5" s="100"/>
-    </row>
-    <row r="6" spans="1:20" ht="21" customHeight="1">
-      <c r="A6" s="94"/>
-      <c r="B6" s="94"/>
-      <c r="C6" s="94"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="147" t="s">
-        <v>392</v>
-      </c>
-      <c r="G6" s="148"/>
-      <c r="H6" s="149"/>
-      <c r="I6" s="96"/>
-      <c r="J6" s="102"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="94"/>
-      <c r="M6" s="94"/>
-      <c r="N6" s="101"/>
-      <c r="O6" s="96"/>
-      <c r="P6" s="96"/>
-      <c r="Q6" s="96"/>
-      <c r="R6" s="96"/>
-      <c r="S6" s="96"/>
-      <c r="T6" s="102"/>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" s="94"/>
-      <c r="B7" s="94"/>
-      <c r="C7" s="94"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="96"/>
-      <c r="F7" s="150"/>
-      <c r="G7" s="151"/>
-      <c r="H7" s="152"/>
-      <c r="I7" s="96"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="95"/>
-      <c r="L7" s="94"/>
-      <c r="M7" s="94"/>
-      <c r="N7" s="101"/>
-      <c r="O7" s="96"/>
-      <c r="P7" s="96"/>
-      <c r="Q7" s="96"/>
-      <c r="R7" s="96"/>
-      <c r="S7" s="96"/>
-      <c r="T7" s="102"/>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" s="94"/>
-      <c r="B8" s="94"/>
-      <c r="C8" s="94"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="96"/>
-      <c r="F8" s="150"/>
-      <c r="G8" s="151"/>
-      <c r="H8" s="152"/>
-      <c r="I8" s="96"/>
-      <c r="J8" s="102"/>
-      <c r="K8" s="94"/>
-      <c r="L8" s="94"/>
-      <c r="M8" s="94"/>
-      <c r="N8" s="101"/>
-      <c r="O8" s="96"/>
-      <c r="P8" s="96"/>
-      <c r="Q8" s="96"/>
-      <c r="R8" s="96"/>
-      <c r="S8" s="96"/>
-      <c r="T8" s="102"/>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" s="94"/>
-      <c r="B9" s="94"/>
-      <c r="C9" s="94"/>
-      <c r="D9" s="101"/>
-      <c r="F9" s="150"/>
-      <c r="G9" s="151"/>
-      <c r="H9" s="152"/>
-      <c r="I9" s="96"/>
-      <c r="J9" s="102"/>
-      <c r="K9" s="94"/>
-      <c r="L9" s="94"/>
-      <c r="M9" s="94"/>
-      <c r="N9" s="101"/>
-      <c r="O9" s="93"/>
-      <c r="P9" s="93"/>
-      <c r="Q9" s="96"/>
-      <c r="R9" s="96"/>
-      <c r="S9" s="96"/>
-      <c r="T9" s="102"/>
-    </row>
-    <row r="10" spans="1:20" ht="16" thickBot="1">
-      <c r="A10" s="94"/>
-      <c r="B10" s="94"/>
-      <c r="C10" s="94"/>
-      <c r="D10" s="101"/>
-      <c r="F10" s="153"/>
-      <c r="G10" s="154"/>
-      <c r="H10" s="155"/>
-      <c r="I10" s="129"/>
-      <c r="J10" s="102"/>
-      <c r="K10" s="94"/>
-      <c r="L10" s="94"/>
-      <c r="M10" s="94"/>
-      <c r="N10" s="101"/>
-      <c r="O10" s="93"/>
-      <c r="P10" s="93"/>
-      <c r="Q10" s="96"/>
-      <c r="R10" s="96"/>
-      <c r="S10" s="96"/>
-      <c r="T10" s="102"/>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" s="94"/>
-      <c r="B11" s="94"/>
-      <c r="C11" s="94"/>
-      <c r="D11" s="101"/>
-      <c r="G11" s="129"/>
-      <c r="H11" s="96"/>
-      <c r="I11" s="96"/>
-      <c r="J11" s="102"/>
-      <c r="K11" s="94"/>
-      <c r="L11" s="94"/>
-      <c r="M11" s="94"/>
-      <c r="N11" s="101"/>
-      <c r="O11" s="93"/>
-      <c r="P11" s="93"/>
-      <c r="Q11" s="96"/>
-      <c r="R11" s="96"/>
-      <c r="S11" s="96"/>
-      <c r="T11" s="102"/>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" s="94"/>
-      <c r="B12" s="94"/>
-      <c r="C12" s="94"/>
-      <c r="D12" s="101"/>
-      <c r="G12" s="96"/>
-      <c r="H12" s="96"/>
-      <c r="I12" s="96"/>
-      <c r="J12" s="102"/>
-      <c r="K12" s="94"/>
-      <c r="L12" s="94"/>
-      <c r="M12" s="94"/>
-      <c r="N12" s="101"/>
-      <c r="O12" s="93"/>
-      <c r="P12" s="93"/>
-      <c r="Q12" s="96"/>
-      <c r="R12" s="96"/>
-      <c r="S12" s="96"/>
-      <c r="T12" s="102"/>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" s="94"/>
-      <c r="B13" s="94"/>
-      <c r="C13" s="94"/>
-      <c r="D13" s="101"/>
-      <c r="G13" s="96"/>
-      <c r="H13" s="96"/>
-      <c r="I13" s="96"/>
-      <c r="J13" s="102"/>
-      <c r="K13" s="94"/>
-      <c r="L13" s="94"/>
-      <c r="M13" s="94"/>
-      <c r="N13" s="101"/>
-      <c r="O13" s="93"/>
-      <c r="P13" s="93"/>
-      <c r="Q13" s="96"/>
-      <c r="R13" s="96"/>
-      <c r="S13" s="96"/>
-      <c r="T13" s="102"/>
-    </row>
-    <row r="14" spans="1:20" ht="27" thickBot="1">
-      <c r="A14" s="94"/>
-      <c r="B14" s="94"/>
-      <c r="C14" s="94"/>
-      <c r="D14" s="101"/>
-      <c r="E14" s="120" t="s">
-        <v>386</v>
-      </c>
-      <c r="H14" s="96"/>
-      <c r="I14" s="96"/>
-      <c r="J14" s="102"/>
-      <c r="K14" s="94"/>
-      <c r="L14" s="118" t="s">
-        <v>393</v>
-      </c>
-      <c r="M14" s="94"/>
-      <c r="N14" s="101"/>
-      <c r="O14" s="93"/>
-      <c r="P14" s="93"/>
-      <c r="Q14" s="123"/>
-      <c r="R14" s="96"/>
-      <c r="S14" s="96"/>
-      <c r="T14" s="102"/>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" s="94"/>
-      <c r="B15" s="94"/>
-      <c r="C15" s="94"/>
-      <c r="D15" s="101"/>
-      <c r="E15" s="108"/>
-      <c r="F15" s="109"/>
-      <c r="G15" s="109"/>
-      <c r="H15" s="109"/>
-      <c r="I15" s="110"/>
-      <c r="J15" s="102"/>
-      <c r="K15" s="94"/>
-      <c r="L15" s="94"/>
-      <c r="M15" s="94"/>
-      <c r="N15" s="101"/>
-      <c r="O15" s="96"/>
-      <c r="P15" s="96"/>
-      <c r="Q15" s="96"/>
-      <c r="R15" s="96"/>
-      <c r="S15" s="96"/>
-      <c r="T15" s="102"/>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" s="94"/>
-      <c r="B16" s="94"/>
-      <c r="C16" s="94"/>
-      <c r="D16" s="101"/>
-      <c r="E16" s="111"/>
-      <c r="F16" s="96"/>
-      <c r="G16" s="96"/>
-      <c r="H16" s="96"/>
-      <c r="I16" s="112"/>
-      <c r="J16" s="102"/>
-      <c r="K16" s="94"/>
-      <c r="L16" s="94"/>
-      <c r="M16" s="94"/>
-      <c r="N16" s="101"/>
-      <c r="O16" s="96"/>
-      <c r="P16" s="96"/>
-      <c r="Q16" s="96"/>
-      <c r="R16" s="96"/>
-      <c r="S16" s="96"/>
-      <c r="T16" s="102"/>
-    </row>
-    <row r="17" spans="1:20" ht="26">
-      <c r="A17" s="94"/>
-      <c r="B17" s="94"/>
-      <c r="C17" s="94"/>
-      <c r="D17" s="101"/>
-      <c r="E17" s="111"/>
-      <c r="F17" s="94"/>
-      <c r="G17" s="96"/>
-      <c r="H17" s="96"/>
-      <c r="I17" s="112"/>
-      <c r="J17" s="102"/>
-      <c r="K17" s="94"/>
-      <c r="L17" s="94"/>
-      <c r="M17" s="94"/>
-      <c r="N17" s="101"/>
-      <c r="O17" s="121"/>
-      <c r="P17" s="118"/>
-      <c r="Q17" s="121"/>
-      <c r="R17" s="121"/>
-      <c r="S17" s="121"/>
-      <c r="T17" s="102"/>
-    </row>
-    <row r="18" spans="1:20" ht="26">
-      <c r="A18" s="94"/>
-      <c r="B18" s="94"/>
-      <c r="C18" s="94"/>
-      <c r="D18" s="101"/>
-      <c r="E18" s="111"/>
-      <c r="H18" s="96"/>
-      <c r="I18" s="112"/>
-      <c r="J18" s="102"/>
-      <c r="K18" s="94"/>
-      <c r="L18" s="94"/>
-      <c r="M18" s="94"/>
-      <c r="N18" s="101"/>
-      <c r="O18" s="121"/>
-      <c r="P18" s="128" t="s">
-        <v>390</v>
-      </c>
-      <c r="Q18" s="118"/>
-      <c r="R18" s="121"/>
-      <c r="S18" s="121"/>
-      <c r="T18" s="102"/>
-    </row>
-    <row r="19" spans="1:20" ht="27" thickBot="1">
-      <c r="A19" s="94"/>
-      <c r="B19" s="94"/>
-      <c r="C19" s="94"/>
-      <c r="D19" s="101"/>
-      <c r="E19" s="111"/>
-      <c r="F19" s="94"/>
-      <c r="G19" s="96"/>
-      <c r="H19" s="96"/>
-      <c r="I19" s="112"/>
-      <c r="J19" s="102"/>
-      <c r="K19" s="94"/>
-      <c r="L19" s="94"/>
-      <c r="M19" s="94"/>
-      <c r="N19" s="101"/>
-      <c r="O19" s="121"/>
-      <c r="P19" s="118"/>
-      <c r="Q19" s="121"/>
-      <c r="R19" s="121"/>
-      <c r="S19" s="121"/>
-      <c r="T19" s="102"/>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" s="94"/>
-      <c r="B20" s="94"/>
-      <c r="C20" s="94"/>
-      <c r="D20" s="101"/>
-      <c r="E20" s="111"/>
-      <c r="F20" s="96"/>
-      <c r="G20" s="124"/>
-      <c r="H20" s="96"/>
-      <c r="I20" s="112"/>
-      <c r="J20" s="102"/>
-      <c r="K20" s="94"/>
-      <c r="L20" s="94"/>
-      <c r="M20" s="94"/>
-      <c r="N20" s="101"/>
-      <c r="O20" s="96"/>
-      <c r="P20" s="96"/>
-      <c r="Q20" s="96"/>
-      <c r="R20" s="96"/>
-      <c r="S20" s="96"/>
-      <c r="T20" s="102"/>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" s="94"/>
-      <c r="B21" s="94"/>
-      <c r="C21" s="94"/>
-      <c r="D21" s="101"/>
-      <c r="E21" s="113"/>
-      <c r="F21" s="94"/>
-      <c r="G21" s="125"/>
-      <c r="H21" s="96"/>
-      <c r="I21" s="112"/>
-      <c r="J21" s="102"/>
-      <c r="K21" s="94"/>
-      <c r="L21" s="94"/>
-      <c r="M21" s="94"/>
-      <c r="N21" s="101"/>
-      <c r="O21" s="94"/>
-      <c r="P21" s="94"/>
-      <c r="Q21" s="96"/>
-      <c r="R21" s="96"/>
-      <c r="S21" s="96"/>
-      <c r="T21" s="102"/>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" s="94"/>
-      <c r="B22" s="94"/>
-      <c r="C22" s="94"/>
-      <c r="D22" s="101"/>
-      <c r="E22" s="113"/>
-      <c r="F22" s="94"/>
-      <c r="G22" s="125"/>
-      <c r="H22" s="96"/>
-      <c r="I22" s="112"/>
-      <c r="J22" s="102"/>
-      <c r="K22" s="94"/>
-      <c r="L22" s="94"/>
-      <c r="M22" s="94"/>
-      <c r="N22" s="101"/>
-      <c r="O22" s="94"/>
-      <c r="P22" s="94"/>
-      <c r="Q22" s="96"/>
-      <c r="R22" s="96"/>
-      <c r="S22" s="96"/>
-      <c r="T22" s="102"/>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" s="94"/>
-      <c r="B23" s="94"/>
-      <c r="C23" s="94"/>
-      <c r="D23" s="101"/>
-      <c r="E23" s="113"/>
-      <c r="F23" s="94"/>
-      <c r="G23" s="125"/>
-      <c r="H23" s="96"/>
-      <c r="I23" s="112"/>
-      <c r="J23" s="102"/>
-      <c r="K23" s="94"/>
-      <c r="L23" s="94"/>
-      <c r="M23" s="94"/>
-      <c r="N23" s="101"/>
-      <c r="O23" s="94"/>
-      <c r="P23" s="94"/>
-      <c r="Q23" s="96"/>
-      <c r="R23" s="96"/>
-      <c r="S23" s="96"/>
-      <c r="T23" s="102"/>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" s="94"/>
-      <c r="B24" s="94"/>
-      <c r="C24" s="94"/>
-      <c r="D24" s="101"/>
-      <c r="E24" s="111"/>
-      <c r="F24" s="96"/>
-      <c r="G24" s="125"/>
-      <c r="H24" s="96"/>
-      <c r="I24" s="112"/>
-      <c r="J24" s="102"/>
-      <c r="K24" s="94"/>
-      <c r="L24" s="94"/>
-      <c r="M24" s="94"/>
-      <c r="N24" s="101"/>
-      <c r="O24" s="96"/>
-      <c r="P24" s="96"/>
-      <c r="Q24" s="96"/>
-      <c r="R24" s="96"/>
-      <c r="S24" s="96"/>
-      <c r="T24" s="102"/>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" s="94"/>
-      <c r="B25" s="94"/>
-      <c r="C25" s="94"/>
-      <c r="D25" s="101"/>
-      <c r="E25" s="111"/>
-      <c r="F25" s="96"/>
-      <c r="G25" s="125"/>
-      <c r="H25" s="96"/>
-      <c r="I25" s="112"/>
-      <c r="J25" s="102"/>
-      <c r="K25" s="94"/>
-      <c r="L25" s="94"/>
-      <c r="M25" s="94"/>
-      <c r="N25" s="101"/>
-      <c r="O25" s="96"/>
-      <c r="P25" s="96"/>
-      <c r="Q25" s="96"/>
-      <c r="R25" s="96"/>
-      <c r="S25" s="96"/>
-      <c r="T25" s="102"/>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" s="94"/>
-      <c r="B26" s="94"/>
-      <c r="C26" s="94"/>
-      <c r="D26" s="101"/>
-      <c r="E26" s="111"/>
-      <c r="F26" s="96"/>
-      <c r="G26" s="126"/>
-      <c r="H26" s="96"/>
-      <c r="I26" s="112"/>
-      <c r="J26" s="102"/>
-      <c r="K26" s="94"/>
-      <c r="L26" s="94"/>
-      <c r="N26" s="101"/>
-      <c r="O26" s="96"/>
-      <c r="P26" s="96"/>
-      <c r="Q26" s="96"/>
-      <c r="R26" s="96"/>
-      <c r="S26" s="96"/>
-      <c r="T26" s="102"/>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" s="94"/>
-      <c r="B27" s="94"/>
-      <c r="C27" s="94"/>
-      <c r="D27" s="101"/>
-      <c r="E27" s="111"/>
-      <c r="F27" s="96"/>
-      <c r="G27" s="126"/>
-      <c r="H27" s="96"/>
-      <c r="I27" s="112"/>
-      <c r="J27" s="102"/>
-      <c r="K27" s="94"/>
-      <c r="L27" s="94"/>
-      <c r="N27" s="101"/>
-      <c r="O27" s="96"/>
-      <c r="P27" s="96"/>
-      <c r="Q27" s="96"/>
-      <c r="R27" s="96"/>
-      <c r="S27" s="96"/>
-      <c r="T27" s="102"/>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" s="94"/>
-      <c r="B28" s="94"/>
-      <c r="C28" s="94"/>
-      <c r="D28" s="101"/>
-      <c r="E28" s="111"/>
-      <c r="F28" s="97"/>
-      <c r="G28" s="126"/>
-      <c r="H28" s="97"/>
-      <c r="I28" s="114"/>
-      <c r="J28" s="102"/>
-      <c r="K28" s="94"/>
-      <c r="L28" s="94"/>
-      <c r="N28" s="101"/>
-      <c r="O28" s="96"/>
-      <c r="P28" s="97"/>
-      <c r="Q28" s="97"/>
-      <c r="R28" s="97"/>
-      <c r="S28" s="97"/>
-      <c r="T28" s="102"/>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" s="94"/>
-      <c r="B29" s="94"/>
-      <c r="C29" s="94"/>
-      <c r="D29" s="101"/>
-      <c r="E29" s="111"/>
-      <c r="F29" s="96"/>
-      <c r="G29" s="125" t="s">
-        <v>391</v>
-      </c>
-      <c r="H29" s="96"/>
-      <c r="I29" s="112"/>
-      <c r="J29" s="102"/>
-      <c r="K29" s="94"/>
-      <c r="L29" s="94"/>
-      <c r="N29" s="101"/>
-      <c r="O29" s="96"/>
-      <c r="P29" s="96"/>
-      <c r="Q29" s="96"/>
-      <c r="R29" s="96"/>
-      <c r="S29" s="96"/>
-      <c r="T29" s="102"/>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" s="94"/>
-      <c r="B30" s="94"/>
-      <c r="C30" s="94"/>
-      <c r="D30" s="101"/>
-      <c r="E30" s="111"/>
-      <c r="F30" s="96"/>
-      <c r="G30" s="125" t="s">
-        <v>391</v>
-      </c>
-      <c r="H30" s="96"/>
-      <c r="I30" s="112"/>
-      <c r="J30" s="102"/>
-      <c r="K30" s="94"/>
-      <c r="L30" s="94"/>
-      <c r="N30" s="101"/>
-      <c r="O30" s="96"/>
-      <c r="P30" s="96"/>
-      <c r="Q30" s="96"/>
-      <c r="R30" s="96"/>
-      <c r="S30" s="96"/>
-      <c r="T30" s="102"/>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="D31" s="103"/>
-      <c r="E31" s="111"/>
-      <c r="F31" s="96"/>
-      <c r="G31" s="125" t="s">
-        <v>391</v>
-      </c>
-      <c r="H31" s="96"/>
-      <c r="I31" s="112"/>
-      <c r="J31" s="104"/>
-      <c r="N31" s="103"/>
-      <c r="O31" s="96"/>
-      <c r="P31" s="96"/>
-      <c r="Q31" s="96"/>
-      <c r="R31" s="96"/>
-      <c r="S31" s="96"/>
-      <c r="T31" s="102"/>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="C32" s="93"/>
-      <c r="D32" s="103"/>
-      <c r="E32" s="111"/>
-      <c r="F32" s="96"/>
-      <c r="G32" s="125" t="s">
-        <v>391</v>
-      </c>
-      <c r="H32" s="96"/>
-      <c r="I32" s="112"/>
-      <c r="J32" s="104"/>
-      <c r="N32" s="103"/>
-      <c r="O32" s="96"/>
-      <c r="P32" s="96"/>
-      <c r="Q32" s="96"/>
-      <c r="R32" s="96"/>
-      <c r="S32" s="96"/>
-      <c r="T32" s="102"/>
-    </row>
-    <row r="33" spans="4:20" ht="16" thickBot="1">
-      <c r="D33" s="103"/>
-      <c r="E33" s="111"/>
-      <c r="G33" s="127"/>
-      <c r="H33" s="96"/>
-      <c r="I33" s="112"/>
-      <c r="J33" s="104"/>
-      <c r="N33" s="103"/>
-      <c r="O33" s="96"/>
-      <c r="P33" s="96"/>
-      <c r="Q33" s="96"/>
-      <c r="R33" s="96"/>
-      <c r="S33" s="96"/>
-      <c r="T33" s="102"/>
-    </row>
-    <row r="34" spans="4:20" ht="26">
-      <c r="D34" s="103"/>
-      <c r="E34" s="111"/>
-      <c r="F34" s="122" t="s">
-        <v>387</v>
-      </c>
-      <c r="G34" s="96"/>
-      <c r="H34" s="96"/>
-      <c r="I34" s="112"/>
-      <c r="J34" s="104"/>
-      <c r="N34" s="103"/>
-      <c r="O34" s="96"/>
-      <c r="P34" s="96"/>
-      <c r="Q34" s="96"/>
-      <c r="R34" s="96"/>
-      <c r="S34" s="96"/>
-      <c r="T34" s="102"/>
-    </row>
-    <row r="35" spans="4:20">
-      <c r="D35" s="103"/>
-      <c r="E35" s="111"/>
-      <c r="G35" s="96"/>
-      <c r="H35" s="96"/>
-      <c r="I35" s="112"/>
-      <c r="J35" s="104"/>
-      <c r="N35" s="103"/>
-      <c r="O35" s="96"/>
-      <c r="P35" s="96"/>
-      <c r="Q35" s="96"/>
-      <c r="R35" s="96"/>
-      <c r="S35" s="96"/>
-      <c r="T35" s="102"/>
-    </row>
-    <row r="36" spans="4:20">
-      <c r="D36" s="103"/>
-      <c r="E36" s="111"/>
-      <c r="F36" s="96"/>
-      <c r="G36" s="96"/>
-      <c r="H36" s="96"/>
-      <c r="I36" s="112"/>
-      <c r="J36" s="104"/>
-      <c r="N36" s="103"/>
-      <c r="O36" s="96"/>
-      <c r="P36" s="96"/>
-      <c r="Q36" s="96"/>
-      <c r="R36" s="96"/>
-      <c r="S36" s="96"/>
-      <c r="T36" s="102"/>
-    </row>
-    <row r="37" spans="4:20" ht="16" thickBot="1">
-      <c r="D37" s="103"/>
-      <c r="E37" s="115"/>
-      <c r="F37" s="116"/>
-      <c r="G37" s="116"/>
-      <c r="H37" s="116"/>
-      <c r="I37" s="117"/>
-      <c r="J37" s="104"/>
-      <c r="N37" s="103"/>
-      <c r="O37" s="96"/>
-      <c r="P37" s="96"/>
-      <c r="Q37" s="96"/>
-      <c r="R37" s="96"/>
-      <c r="S37" s="96"/>
-      <c r="T37" s="102"/>
-    </row>
-    <row r="38" spans="4:20" ht="16" thickBot="1">
-      <c r="D38" s="105"/>
-      <c r="E38" s="106"/>
-      <c r="F38" s="106"/>
-      <c r="G38" s="106"/>
-      <c r="H38" s="106"/>
-      <c r="I38" s="106"/>
-      <c r="J38" s="107"/>
-      <c r="N38" s="105"/>
-      <c r="O38" s="106"/>
-      <c r="P38" s="106"/>
-      <c r="Q38" s="106"/>
-      <c r="R38" s="106"/>
-      <c r="S38" s="106"/>
-      <c r="T38" s="107"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="F6:H10"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/doc/android.xlsx
+++ b/doc/android.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11014"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E9906F8-A00B-584A-B469-F1A6AD0199F9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03747FD4-B1EB-5F4F-85AE-0CFEB3913BF5}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="444">
   <si>
     <t>Activity</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1809,6 +1809,21 @@
   </si>
   <si>
     <t>Things That Cannot Change</t>
+  </si>
+  <si>
+    <t>ViewModule</t>
+  </si>
+  <si>
+    <t>foreground</t>
+  </si>
+  <si>
+    <t>multi-window mode</t>
+  </si>
+  <si>
+    <t>single- window mode</t>
+  </si>
+  <si>
+    <t>Fully Visbile</t>
   </si>
 </sst>
 </file>
@@ -2091,7 +2106,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2113,6 +2128,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00FF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2653,7 +2674,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="168">
+  <cellXfs count="169">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2906,7 +2927,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2966,6 +2986,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -7659,7 +7685,7 @@
       <c r="B1" t="s">
         <v>433</v>
       </c>
-      <c r="C1" s="167" t="s">
+      <c r="C1" s="166" t="s">
         <v>431</v>
       </c>
     </row>
@@ -7681,7 +7707,7 @@
       <c r="B3" t="s">
         <v>434</v>
       </c>
-      <c r="C3" s="167" t="s">
+      <c r="C3" s="166" t="s">
         <v>437</v>
       </c>
     </row>
@@ -7803,11 +7829,11 @@
       <c r="C6" s="94"/>
       <c r="D6" s="101"/>
       <c r="E6" s="96"/>
-      <c r="F6" s="152" t="s">
+      <c r="F6" s="151" t="s">
         <v>392</v>
       </c>
-      <c r="G6" s="153"/>
-      <c r="H6" s="154"/>
+      <c r="G6" s="152"/>
+      <c r="H6" s="153"/>
       <c r="I6" s="96"/>
       <c r="J6" s="102"/>
       <c r="K6" s="94"/>
@@ -7827,9 +7853,9 @@
       <c r="C7" s="94"/>
       <c r="D7" s="101"/>
       <c r="E7" s="96"/>
-      <c r="F7" s="155"/>
-      <c r="G7" s="156"/>
-      <c r="H7" s="157"/>
+      <c r="F7" s="154"/>
+      <c r="G7" s="155"/>
+      <c r="H7" s="156"/>
       <c r="I7" s="96"/>
       <c r="J7" s="102"/>
       <c r="K7" s="95"/>
@@ -7849,9 +7875,9 @@
       <c r="C8" s="94"/>
       <c r="D8" s="101"/>
       <c r="E8" s="96"/>
-      <c r="F8" s="155"/>
-      <c r="G8" s="156"/>
-      <c r="H8" s="157"/>
+      <c r="F8" s="154"/>
+      <c r="G8" s="155"/>
+      <c r="H8" s="156"/>
       <c r="I8" s="96"/>
       <c r="J8" s="102"/>
       <c r="K8" s="94"/>
@@ -7870,9 +7896,9 @@
       <c r="B9" s="94"/>
       <c r="C9" s="94"/>
       <c r="D9" s="101"/>
-      <c r="F9" s="155"/>
-      <c r="G9" s="156"/>
-      <c r="H9" s="157"/>
+      <c r="F9" s="154"/>
+      <c r="G9" s="155"/>
+      <c r="H9" s="156"/>
       <c r="I9" s="96"/>
       <c r="J9" s="102"/>
       <c r="K9" s="94"/>
@@ -7891,9 +7917,9 @@
       <c r="B10" s="94"/>
       <c r="C10" s="94"/>
       <c r="D10" s="101"/>
-      <c r="F10" s="158"/>
-      <c r="G10" s="159"/>
-      <c r="H10" s="160"/>
+      <c r="F10" s="157"/>
+      <c r="G10" s="158"/>
+      <c r="H10" s="159"/>
       <c r="I10" s="129"/>
       <c r="J10" s="102"/>
       <c r="K10" s="94"/>
@@ -8565,16 +8591,16 @@
     </row>
     <row r="18" spans="5:8">
       <c r="E18" s="137"/>
-      <c r="F18" s="161" t="s">
+      <c r="F18" s="160" t="s">
         <v>395</v>
       </c>
-      <c r="G18" s="162"/>
+      <c r="G18" s="161"/>
       <c r="H18" s="135"/>
     </row>
     <row r="19" spans="5:8">
       <c r="E19" s="137"/>
-      <c r="F19" s="163"/>
-      <c r="G19" s="164"/>
+      <c r="F19" s="162"/>
+      <c r="G19" s="163"/>
       <c r="H19" s="135"/>
     </row>
     <row r="20" spans="5:8">
@@ -9089,10 +9115,10 @@
       </c>
     </row>
     <row r="12" spans="2:10">
-      <c r="H12" s="165" t="s">
+      <c r="H12" s="164" t="s">
         <v>399</v>
       </c>
-      <c r="I12" s="165"/>
+      <c r="I12" s="164"/>
     </row>
     <row r="14" spans="2:10">
       <c r="J14" t="s">
@@ -9105,10 +9131,10 @@
       </c>
     </row>
     <row r="28" spans="2:9">
-      <c r="H28" s="166" t="s">
+      <c r="H28" s="165" t="s">
         <v>403</v>
       </c>
-      <c r="I28" s="166"/>
+      <c r="I28" s="165"/>
     </row>
     <row r="39" spans="2:9">
       <c r="B39" t="s">
@@ -9116,10 +9142,10 @@
       </c>
     </row>
     <row r="43" spans="2:9">
-      <c r="H43" s="165" t="s">
+      <c r="H43" s="164" t="s">
         <v>406</v>
       </c>
-      <c r="I43" s="165"/>
+      <c r="I43" s="164"/>
     </row>
     <row r="54" spans="2:9">
       <c r="B54" t="s">
@@ -9127,10 +9153,10 @@
       </c>
     </row>
     <row r="59" spans="2:9">
-      <c r="H59" s="166" t="s">
+      <c r="H59" s="165" t="s">
         <v>403</v>
       </c>
-      <c r="I59" s="166"/>
+      <c r="I59" s="165"/>
     </row>
     <row r="61" spans="2:9">
       <c r="G61" t="s">
@@ -9151,119 +9177,258 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{695F25B9-FD59-DD4E-A097-058E28B48012}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="143" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="167" t="s">
+        <v>442</v>
+      </c>
+      <c r="B1" s="167"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
+      <c r="F1" s="167"/>
+      <c r="G1" s="167"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="143" t="s">
         <v>427</v>
       </c>
-      <c r="B1" s="143" t="s">
+      <c r="B2" s="143" t="s">
         <v>415</v>
       </c>
-      <c r="C1" s="143" t="s">
+      <c r="C2" s="143" t="s">
         <v>419</v>
       </c>
-      <c r="D1" s="143" t="s">
+      <c r="D2" s="143" t="s">
         <v>422</v>
       </c>
-      <c r="E1" s="147" t="s">
+      <c r="E2" s="146" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="144" t="s">
+      <c r="F2" s="146" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="144" t="s">
         <v>411</v>
       </c>
-      <c r="B2" s="145" t="s">
+      <c r="B3" s="145" t="s">
         <v>418</v>
-      </c>
-      <c r="C2" s="145" t="s">
-        <v>418</v>
-      </c>
-      <c r="D2" s="144" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="144" t="s">
-        <v>409</v>
-      </c>
-      <c r="B3" s="144" t="s">
-        <v>416</v>
       </c>
       <c r="C3" s="145" t="s">
         <v>418</v>
       </c>
       <c r="D3" s="144" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="144" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B4" s="144" t="s">
         <v>416</v>
       </c>
-      <c r="C4" s="144" t="s">
+      <c r="C4" s="145" t="s">
+        <v>418</v>
+      </c>
+      <c r="D4" s="144" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="144" t="s">
+        <v>410</v>
+      </c>
+      <c r="B5" s="144" t="s">
+        <v>416</v>
+      </c>
+      <c r="C5" s="144" t="s">
         <v>420</v>
       </c>
-      <c r="D4" s="144" t="s">
+      <c r="D5" s="144" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="144" t="s">
+      <c r="G5" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="144" t="s">
         <v>412</v>
       </c>
-      <c r="B5" s="146" t="s">
+      <c r="B6" s="168" t="s">
         <v>417</v>
       </c>
-      <c r="C5" s="144" t="s">
+      <c r="C6" s="144" t="s">
         <v>429</v>
       </c>
-      <c r="D5" s="144" t="s">
+      <c r="D6" s="144" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="144" t="s">
+    <row r="7" spans="1:7">
+      <c r="A7" s="144" t="s">
         <v>413</v>
       </c>
-      <c r="B6" s="144" t="s">
+      <c r="B7" s="144" t="s">
         <v>428</v>
-      </c>
-      <c r="C6" s="145" t="s">
-        <v>418</v>
-      </c>
-      <c r="D6" s="144" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="144" t="s">
-        <v>414</v>
-      </c>
-      <c r="B7" s="145" t="s">
-        <v>418</v>
       </c>
       <c r="C7" s="145" t="s">
         <v>418</v>
       </c>
       <c r="D7" s="144" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="144" t="s">
+        <v>414</v>
+      </c>
+      <c r="B8" s="145" t="s">
+        <v>418</v>
+      </c>
+      <c r="C8" s="145" t="s">
+        <v>418</v>
+      </c>
+      <c r="D8" s="144" t="s">
         <v>421</v>
       </c>
     </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="167" t="s">
+        <v>441</v>
+      </c>
+      <c r="B12" s="167"/>
+      <c r="C12" s="167"/>
+      <c r="D12" s="167"/>
+      <c r="E12" s="167"/>
+      <c r="F12" s="167"/>
+      <c r="G12" s="167"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="143" t="s">
+        <v>427</v>
+      </c>
+      <c r="B13" s="143" t="s">
+        <v>415</v>
+      </c>
+      <c r="C13" s="143" t="s">
+        <v>419</v>
+      </c>
+      <c r="D13" s="143" t="s">
+        <v>422</v>
+      </c>
+      <c r="E13" s="146" t="s">
+        <v>430</v>
+      </c>
+      <c r="F13" s="146" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="144" t="s">
+        <v>411</v>
+      </c>
+      <c r="B14" s="145" t="s">
+        <v>418</v>
+      </c>
+      <c r="C14" s="145" t="s">
+        <v>418</v>
+      </c>
+      <c r="D14" s="144" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="144" t="s">
+        <v>409</v>
+      </c>
+      <c r="B15" s="144" t="s">
+        <v>416</v>
+      </c>
+      <c r="C15" s="145" t="s">
+        <v>418</v>
+      </c>
+      <c r="D15" s="144" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="144" t="s">
+        <v>410</v>
+      </c>
+      <c r="B16" s="144" t="s">
+        <v>416</v>
+      </c>
+      <c r="C16" s="144" t="s">
+        <v>420</v>
+      </c>
+      <c r="D16" s="144" t="s">
+        <v>423</v>
+      </c>
+      <c r="G16" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="144" t="s">
+        <v>412</v>
+      </c>
+      <c r="B17" s="168" t="s">
+        <v>443</v>
+      </c>
+      <c r="C17" s="144" t="s">
+        <v>429</v>
+      </c>
+      <c r="D17" s="144" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="144" t="s">
+        <v>413</v>
+      </c>
+      <c r="B18" s="144" t="s">
+        <v>428</v>
+      </c>
+      <c r="C18" s="145" t="s">
+        <v>418</v>
+      </c>
+      <c r="D18" s="144" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="144" t="s">
+        <v>414</v>
+      </c>
+      <c r="B19" s="145" t="s">
+        <v>418</v>
+      </c>
+      <c r="C19" s="145" t="s">
+        <v>418</v>
+      </c>
+      <c r="D19" s="144" t="s">
+        <v>421</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A12:G12"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -12166,7 +12331,7 @@
       <c r="G4" s="15"/>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="148" t="s">
+      <c r="B5" s="147" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="15" t="s">
@@ -12186,7 +12351,7 @@
       </c>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="148"/>
+      <c r="B6" s="147"/>
       <c r="C6" s="15" t="s">
         <v>17</v>
       </c>
@@ -12202,7 +12367,7 @@
       </c>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="148"/>
+      <c r="B7" s="147"/>
       <c r="C7" s="16" t="s">
         <v>31</v>
       </c>
@@ -12220,7 +12385,7 @@
       </c>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="148"/>
+      <c r="B8" s="147"/>
       <c r="C8" s="16" t="s">
         <v>32</v>
       </c>
@@ -12238,7 +12403,7 @@
       </c>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="148"/>
+      <c r="B9" s="147"/>
       <c r="C9" s="16" t="s">
         <v>33</v>
       </c>
@@ -12256,7 +12421,7 @@
       </c>
     </row>
     <row r="10" spans="2:7" ht="26">
-      <c r="B10" s="148"/>
+      <c r="B10" s="147"/>
       <c r="C10" s="16" t="s">
         <v>13</v>
       </c>
@@ -12274,7 +12439,7 @@
       </c>
     </row>
     <row r="11" spans="2:7" ht="39">
-      <c r="B11" s="149" t="s">
+      <c r="B11" s="148" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="18" t="s">
@@ -12294,7 +12459,7 @@
       </c>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="150"/>
+      <c r="B12" s="149"/>
       <c r="C12" s="15" t="s">
         <v>15</v>
       </c>
@@ -12308,7 +12473,7 @@
       </c>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="151"/>
+      <c r="B13" s="150"/>
       <c r="C13" s="15" t="s">
         <v>16</v>
       </c>

--- a/doc/android.xlsx
+++ b/doc/android.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11014"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03747FD4-B1EB-5F4F-85AE-0CFEB3913BF5}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C75A56-A629-294E-A9E8-42C77F9FD791}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="6" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Android Doc reads" sheetId="16" r:id="rId1"/>
@@ -21,7 +21,9 @@
     <sheet name="基于监听的事件处理机制" sheetId="12" r:id="rId11"/>
     <sheet name="==与equals" sheetId="7" r:id="rId12"/>
     <sheet name="hashCode" sheetId="9" r:id="rId13"/>
-    <sheet name="IO" sheetId="13" r:id="rId14"/>
+    <sheet name="drawable_2" sheetId="18" r:id="rId14"/>
+    <sheet name="drawable" sheetId="17" r:id="rId15"/>
+    <sheet name="IO" sheetId="13" r:id="rId16"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Android高级应用开发-深入篇'!$A$1:$C$222</definedName>
@@ -95,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="483">
   <si>
     <t>Activity</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1825,12 +1827,130 @@
   <si>
     <t>Fully Visbile</t>
   </si>
+  <si>
+    <t>正好</t>
+  </si>
+  <si>
+    <t>高</t>
+  </si>
+  <si>
+    <t>手机的分辨率</t>
+  </si>
+  <si>
+    <t>低</t>
+  </si>
+  <si>
+    <t>匹配</t>
+  </si>
+  <si>
+    <t>图片的分辨率</t>
+  </si>
+  <si>
+    <t>放大</t>
+  </si>
+  <si>
+    <t>占用更高内存：像素点变多了</t>
+  </si>
+  <si>
+    <t>缩小</t>
+  </si>
+  <si>
+    <t>无副作用</t>
+  </si>
+  <si>
+    <t>100 * 100</t>
+  </si>
+  <si>
+    <t>200 * 200</t>
+  </si>
+  <si>
+    <t>50 * 50</t>
+  </si>
+  <si>
+    <t>从哪个文件夹中找到就认为是这个图片是对应的scale比例</t>
+  </si>
+  <si>
+    <t>dpi范围</t>
+  </si>
+  <si>
+    <t>密度</t>
+  </si>
+  <si>
+    <t>0dpi ~ 120dpi</t>
+  </si>
+  <si>
+    <t>ldpi</t>
+  </si>
+  <si>
+    <t>120dpi ~ 160dpi</t>
+  </si>
+  <si>
+    <t>mdpi</t>
+  </si>
+  <si>
+    <t>160dpi ~ 240dpi</t>
+  </si>
+  <si>
+    <t>hdpi</t>
+  </si>
+  <si>
+    <t>240dpi ~ 320dpi</t>
+  </si>
+  <si>
+    <t>xhdpi</t>
+  </si>
+  <si>
+    <t>320dpi ~ 480dpi</t>
+  </si>
+  <si>
+    <t>xxhdpi</t>
+  </si>
+  <si>
+    <t>480dpi ~ 640dpi</t>
+  </si>
+  <si>
+    <t>xxxhdpi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://blog.csdn.net/guolin_blog/article/details/50727753 </t>
+  </si>
+  <si>
+    <t>https://developer.android.google.cn/training/multiscreen/screendensities</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/guolin_blog/article/details/50727753</t>
+  </si>
+  <si>
+    <t>scaling ratio</t>
+  </si>
+  <si>
+    <t>0.75x</t>
+  </si>
+  <si>
+    <t>1.0x baseline</t>
+  </si>
+  <si>
+    <t>4.0x</t>
+  </si>
+  <si>
+    <t>3.0x</t>
+  </si>
+  <si>
+    <t>2.0x</t>
+  </si>
+  <si>
+    <t>1.5x</t>
+  </si>
+  <si>
+    <t>scale
+1dp =  scale * px</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="37">
+  <fonts count="38">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2105,6 +2225,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Cambria Math"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -2138,7 +2264,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="49">
+  <borders count="50">
     <border>
       <left/>
       <right/>
@@ -2668,13 +2794,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="169">
+  <cellXfs count="175">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2928,6 +3063,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2980,17 +3125,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="49" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3435,6 +3584,1804 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D47E191-4BAA-9744-B852-6D020B12A33E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1803400" y="850900"/>
+          <a:ext cx="1473200" cy="1206500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>memory</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59B082C8-DEC1-3A4A-8A4F-1F7CAAC7FDC4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9918700" y="876300"/>
+          <a:ext cx="1473200" cy="1206500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>内部存储</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE378DE1-D08C-2448-828B-CDBC902D37AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5880100" y="901700"/>
+          <a:ext cx="1473200" cy="1206500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>流</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Right Arrow 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{205B8B2C-2D4C-E04D-A69B-2E2BECB91F74}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4140200" y="1168400"/>
+          <a:ext cx="787400" cy="406400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Right Arrow 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50554A0B-76C5-844C-9DF5-C036B98CC5F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8356600" y="1219200"/>
+          <a:ext cx="787400" cy="406400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rectangle 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D6112FC-B7F0-DF4F-AB57-79D844999F67}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1803400" y="850900"/>
+          <a:ext cx="1473200" cy="1206500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>memory</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rectangle 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{268D4E8B-393E-5B46-BA10-D1BA07E24DF1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9918700" y="876300"/>
+          <a:ext cx="1473200" cy="1206500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>内部存储器</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Rectangle 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{154B75E4-6673-E844-BEE9-B69FB678E742}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1803400" y="850900"/>
+          <a:ext cx="1473200" cy="1206500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>memory</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Rectangle 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB184A61-6B49-424D-8CE2-B5186BF6A146}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9918700" y="876300"/>
+          <a:ext cx="1473200" cy="1206500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>内部存储</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Rectangle 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{957D6FD7-9B12-5E48-8569-5FE8F4586D28}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5880100" y="3695700"/>
+          <a:ext cx="1473200" cy="1206500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>流</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Right Arrow 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F226983D-C03E-714F-96D4-A9D542695663}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="4102100" y="4165600"/>
+          <a:ext cx="787400" cy="406400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Right Arrow 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31D0EDBA-6194-6844-B709-9FAFC72D4595}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="8267700" y="4229100"/>
+          <a:ext cx="787400" cy="406400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Straight Arrow Connector 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32010BFC-8409-0241-B832-4EE1BDB34F49}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6362700" y="2311400"/>
+          <a:ext cx="800100" cy="279400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Straight Arrow Connector 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B100F5BA-B9AA-7348-A32B-2AB33D249F54}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8293100" y="1587500"/>
+          <a:ext cx="1473200" cy="990600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Rectangle 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A140B8C-60A5-DB41-B36C-706444A04132}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1803400" y="850900"/>
+          <a:ext cx="1473200" cy="1206500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>memory</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="Rectangle 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01AC2B8F-6F8C-DA49-B9C1-AD471778044C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9918700" y="876300"/>
+          <a:ext cx="1473200" cy="1206500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>外部存储</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>SD</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>）</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="Rectangle 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{682C5CDB-2A88-A74C-AE03-4FD97B9DFFA2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5880100" y="901700"/>
+          <a:ext cx="1473200" cy="1206500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>流</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="Right Arrow 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6782A348-2790-EF4F-B07E-16F5D21784BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4140200" y="1168400"/>
+          <a:ext cx="787400" cy="406400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="Right Arrow 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B95B2B48-C0EF-1C43-A7B4-8C147CA08BAF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8356600" y="1219200"/>
+          <a:ext cx="787400" cy="406400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="Rectangle 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCB6F0ED-DC6B-2B47-BD3A-925ED8BEC4C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1803400" y="3898900"/>
+          <a:ext cx="1473200" cy="1206500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>memory</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="Rectangle 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02F1C1F0-FCE4-CE43-BD1A-E83F41DD375C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9918700" y="3924300"/>
+          <a:ext cx="1473200" cy="1206500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>内部存储器</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="Rectangle 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D15B801-42E0-6948-9101-F663159A5D98}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1803400" y="3898900"/>
+          <a:ext cx="1473200" cy="1206500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>memory</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="Rectangle 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C86AC0D-03A4-014A-86CC-0AC998349E93}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9918700" y="3924300"/>
+          <a:ext cx="1473200" cy="1206500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>外部存储（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>SD）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="Rectangle 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17A68CE4-F63C-BA47-B452-77555D2A8366}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5880100" y="3695700"/>
+          <a:ext cx="1473200" cy="1206500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>流</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="Right Arrow 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46555BF9-4E3A-4241-AFDD-2D68433FA212}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="4102100" y="4165600"/>
+          <a:ext cx="787400" cy="406400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="Right Arrow 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9746E532-1E94-C947-8D4C-16056ED863DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="8267700" y="4229100"/>
+          <a:ext cx="787400" cy="406400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="Straight Arrow Connector 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A29245D1-BAB9-C745-927D-E5175776D42B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5930900" y="11315700"/>
+          <a:ext cx="736600" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="Straight Arrow Connector 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77453CB5-9888-9747-8C70-B3883102DADD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4572000" y="10490200"/>
+          <a:ext cx="711200" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5548,25 +7495,140 @@
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>134127</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2381315" cy="45719"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5BDC616-3AC3-8844-9D52-AE07B22DCD26}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6921500" y="4160027"/>
+          <a:ext cx="2381315" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0F477AC-C754-F746-950B-5ED82DA418C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8540750" y="3771900"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangle 1">
+        <xdr:cNvPr id="3" name="Frame 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D47E191-4BAA-9744-B852-6D020B12A33E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B58094D-3985-8448-9612-DC6BCDD8FC69}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5574,224 +7636,24 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1803400" y="850900"/>
-          <a:ext cx="1473200" cy="1206500"/>
+          <a:off x="4102100" y="1219200"/>
+          <a:ext cx="1943100" cy="1473200"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom prst="frame">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
+          <a:schemeClr val="accent3">
             <a:shade val="50000"/>
           </a:schemeClr>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent3"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>memory</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>660400</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rectangle 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59B082C8-DEC1-3A4A-8A4F-1F7CAAC7FDC4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9918700" y="876300"/>
-          <a:ext cx="1473200" cy="1206500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>内部存储</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>749300</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Rectangle 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE378DE1-D08C-2448-828B-CDBC902D37AD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5880100" y="901700"/>
-          <a:ext cx="1473200" cy="1206500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent3">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>流</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Right Arrow 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{205B8B2C-2D4C-E04D-A69B-2E2BECB91F74}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4140200" y="1168400"/>
-          <a:ext cx="787400" cy="406400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent3"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
@@ -5802,404 +7664,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Right Arrow 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50554A0B-76C5-844C-9DF5-C036B98CC5F5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8356600" y="1219200"/>
-          <a:ext cx="787400" cy="406400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent3">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Rectangle 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D6112FC-B7F0-DF4F-AB57-79D844999F67}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1803400" y="850900"/>
-          <a:ext cx="1473200" cy="1206500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>memory</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>660400</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Rectangle 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{268D4E8B-393E-5B46-BA10-D1BA07E24DF1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9918700" y="876300"/>
-          <a:ext cx="1473200" cy="1206500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>内部存储器</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="Rectangle 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{154B75E4-6673-E844-BEE9-B69FB678E742}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1803400" y="850900"/>
-          <a:ext cx="1473200" cy="1206500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>memory</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>660400</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="Rectangle 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB184A61-6B49-424D-8CE2-B5186BF6A146}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9918700" y="876300"/>
-          <a:ext cx="1473200" cy="1206500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>内部存储</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>749300</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="Rectangle 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{957D6FD7-9B12-5E48-8569-5FE8F4586D28}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5880100" y="3695700"/>
-          <a:ext cx="1473200" cy="1206500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent3">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>流</a:t>
-          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -6209,49 +7678,47 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="Right Arrow 16">
+        <xdr:cNvPr id="4" name="Frame 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F226983D-C03E-714F-96D4-A9D542695663}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD60ADD8-B675-6F49-BA04-BD446A98F664}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="4102100" y="4165600"/>
-          <a:ext cx="787400" cy="406400"/>
+        <a:xfrm>
+          <a:off x="4102100" y="3327400"/>
+          <a:ext cx="1943100" cy="1473200"/>
         </a:xfrm>
-        <a:prstGeom prst="rightArrow">
+        <a:prstGeom prst="frame">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
         </a:lnRef>
-        <a:fillRef idx="1">
+        <a:fillRef idx="2">
           <a:schemeClr val="accent1"/>
         </a:fillRef>
-        <a:effectRef idx="0">
+        <a:effectRef idx="1">
           <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -6259,7 +7726,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -6267,56 +7738,49 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="Right Arrow 17">
+        <xdr:cNvPr id="5" name="Frame 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31D0EDBA-6194-6844-B709-9FAFC72D4595}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12A1FD37-1245-5B4E-B431-0D30A594DE92}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="8267700" y="4229100"/>
-          <a:ext cx="787400" cy="406400"/>
+        <a:xfrm>
+          <a:off x="4140200" y="5359400"/>
+          <a:ext cx="1943100" cy="1473200"/>
         </a:xfrm>
-        <a:prstGeom prst="rightArrow">
+        <a:prstGeom prst="frame">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent3">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
         </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
         </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -6324,45 +7788,102 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>260350</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>8467</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7" descr="Balloons Free Stock Photo - Public Domain Pictures">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCC46D31-A281-B14E-9B04-33356C33EFDF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
+              <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="260350" y="3543300"/>
+          <a:ext cx="2127250" cy="1418167"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>584200</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="21" name="Straight Arrow Connector 20">
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32010BFC-8409-0241-B832-4EE1BDB34F49}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39AF765B-0F38-5749-8036-FF8C0CDABE8C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6362700" y="2311400"/>
-          <a:ext cx="800100" cy="279400"/>
+        <a:xfrm flipV="1">
+          <a:off x="2578100" y="1866900"/>
+          <a:ext cx="1257300" cy="1651000"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="38100">
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -6385,37 +7906,37 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="Straight Arrow Connector 22">
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B100F5BA-B9AA-7348-A32B-2AB33D249F54}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A1C7657-EE5B-3345-8F1D-A1511B22DFAF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="8293100" y="1587500"/>
-          <a:ext cx="1473200" cy="990600"/>
+        <a:xfrm>
+          <a:off x="2578100" y="4140200"/>
+          <a:ext cx="1371600" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="38100">
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -6438,836 +7959,37 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="Rectangle 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A140B8C-60A5-DB41-B36C-706444A04132}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1803400" y="850900"/>
-          <a:ext cx="1473200" cy="1206500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>memory</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>660400</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="Rectangle 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01AC2B8F-6F8C-DA49-B9C1-AD471778044C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9918700" y="876300"/>
-          <a:ext cx="1473200" cy="1206500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>外部存储</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>（</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>SD</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>）</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>749300</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="Rectangle 25">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{682C5CDB-2A88-A74C-AE03-4FD97B9DFFA2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5880100" y="901700"/>
-          <a:ext cx="1473200" cy="1206500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent3">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>流</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="Right Arrow 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6782A348-2790-EF4F-B07E-16F5D21784BD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4140200" y="1168400"/>
-          <a:ext cx="787400" cy="406400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="Right Arrow 27">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B95B2B48-C0EF-1C43-A7B4-8C147CA08BAF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8356600" y="1219200"/>
-          <a:ext cx="787400" cy="406400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent3">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="Rectangle 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCB6F0ED-DC6B-2B47-BD3A-925ED8BEC4C6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1803400" y="3898900"/>
-          <a:ext cx="1473200" cy="1206500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>memory</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>660400</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="Rectangle 29">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02F1C1F0-FCE4-CE43-BD1A-E83F41DD375C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9918700" y="3924300"/>
-          <a:ext cx="1473200" cy="1206500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>内部存储器</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="Rectangle 30">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D15B801-42E0-6948-9101-F663159A5D98}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1803400" y="3898900"/>
-          <a:ext cx="1473200" cy="1206500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>memory</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>660400</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="Rectangle 31">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C86AC0D-03A4-014A-86CC-0AC998349E93}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9918700" y="3924300"/>
-          <a:ext cx="1473200" cy="1206500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>外部存储（</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>SD）</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>749300</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="Rectangle 32">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17A68CE4-F63C-BA47-B452-77555D2A8366}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5880100" y="3695700"/>
-          <a:ext cx="1473200" cy="1206500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent3">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>流</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="Right Arrow 33">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46555BF9-4E3A-4241-AFDD-2D68433FA212}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="4102100" y="4165600"/>
-          <a:ext cx="787400" cy="406400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="Right Arrow 34">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9746E532-1E94-C947-8D4C-16056ED863DC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="8267700" y="4229100"/>
-          <a:ext cx="787400" cy="406400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent3">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="39" name="Straight Arrow Connector 38">
+        <xdr:cNvPr id="16" name="Straight Arrow Connector 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A29245D1-BAB9-C745-927D-E5175776D42B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6D4B415-4BAC-9940-9D8D-57B9F6E6B43F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="5930900" y="11315700"/>
-          <a:ext cx="736600" cy="254000"/>
+        <a:xfrm>
+          <a:off x="2527300" y="4965700"/>
+          <a:ext cx="1574800" cy="1155700"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="38100">
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -7288,57 +8010,163 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>101601</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="41" name="Straight Arrow Connector 40">
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Picture 24" descr="Balloons Free Stock Photo - Public Domain Pictures">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77453CB5-9888-9747-8C70-B3883102DADD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB813401-E493-A743-920F-0A4F1DD98991}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
+              <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="4572000" y="10490200"/>
-          <a:ext cx="711200" cy="914400"/>
+        <a:xfrm flipH="1">
+          <a:off x="4279900" y="3530601"/>
+          <a:ext cx="762000" cy="508000"/>
         </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
       </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Picture 25" descr="Balloons Free Stock Photo - Public Domain Pictures">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C5C679B-ABD2-ED41-A923-33774DD84F54}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
+              <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4267200" y="1409700"/>
+          <a:ext cx="495300" cy="330200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Picture 26" descr="Balloons Free Stock Photo - Public Domain Pictures">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12D1FBAA-71C0-C44D-943A-E0685B6AD05B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
+              <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4305300" y="5562600"/>
+          <a:ext cx="1257300" cy="838200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -7685,7 +8513,7 @@
       <c r="B1" t="s">
         <v>433</v>
       </c>
-      <c r="C1" s="166" t="s">
+      <c r="C1" s="147" t="s">
         <v>431</v>
       </c>
     </row>
@@ -7707,7 +8535,7 @@
       <c r="B3" t="s">
         <v>434</v>
       </c>
-      <c r="C3" s="166" t="s">
+      <c r="C3" s="147" t="s">
         <v>437</v>
       </c>
     </row>
@@ -7829,11 +8657,11 @@
       <c r="C6" s="94"/>
       <c r="D6" s="101"/>
       <c r="E6" s="96"/>
-      <c r="F6" s="151" t="s">
+      <c r="F6" s="155" t="s">
         <v>392</v>
       </c>
-      <c r="G6" s="152"/>
-      <c r="H6" s="153"/>
+      <c r="G6" s="156"/>
+      <c r="H6" s="157"/>
       <c r="I6" s="96"/>
       <c r="J6" s="102"/>
       <c r="K6" s="94"/>
@@ -7853,9 +8681,9 @@
       <c r="C7" s="94"/>
       <c r="D7" s="101"/>
       <c r="E7" s="96"/>
-      <c r="F7" s="154"/>
-      <c r="G7" s="155"/>
-      <c r="H7" s="156"/>
+      <c r="F7" s="158"/>
+      <c r="G7" s="159"/>
+      <c r="H7" s="160"/>
       <c r="I7" s="96"/>
       <c r="J7" s="102"/>
       <c r="K7" s="95"/>
@@ -7875,9 +8703,9 @@
       <c r="C8" s="94"/>
       <c r="D8" s="101"/>
       <c r="E8" s="96"/>
-      <c r="F8" s="154"/>
-      <c r="G8" s="155"/>
-      <c r="H8" s="156"/>
+      <c r="F8" s="158"/>
+      <c r="G8" s="159"/>
+      <c r="H8" s="160"/>
       <c r="I8" s="96"/>
       <c r="J8" s="102"/>
       <c r="K8" s="94"/>
@@ -7896,9 +8724,9 @@
       <c r="B9" s="94"/>
       <c r="C9" s="94"/>
       <c r="D9" s="101"/>
-      <c r="F9" s="154"/>
-      <c r="G9" s="155"/>
-      <c r="H9" s="156"/>
+      <c r="F9" s="158"/>
+      <c r="G9" s="159"/>
+      <c r="H9" s="160"/>
       <c r="I9" s="96"/>
       <c r="J9" s="102"/>
       <c r="K9" s="94"/>
@@ -7917,9 +8745,9 @@
       <c r="B10" s="94"/>
       <c r="C10" s="94"/>
       <c r="D10" s="101"/>
-      <c r="F10" s="157"/>
-      <c r="G10" s="158"/>
-      <c r="H10" s="159"/>
+      <c r="F10" s="161"/>
+      <c r="G10" s="162"/>
+      <c r="H10" s="163"/>
       <c r="I10" s="129"/>
       <c r="J10" s="102"/>
       <c r="K10" s="94"/>
@@ -8591,16 +9419,16 @@
     </row>
     <row r="18" spans="5:8">
       <c r="E18" s="137"/>
-      <c r="F18" s="160" t="s">
+      <c r="F18" s="164" t="s">
         <v>395</v>
       </c>
-      <c r="G18" s="161"/>
+      <c r="G18" s="165"/>
       <c r="H18" s="135"/>
     </row>
     <row r="19" spans="5:8">
       <c r="E19" s="137"/>
-      <c r="F19" s="162"/>
-      <c r="G19" s="163"/>
+      <c r="F19" s="166"/>
+      <c r="G19" s="167"/>
       <c r="H19" s="135"/>
     </row>
     <row r="20" spans="5:8">
@@ -9095,6 +9923,253 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A51D4780-106D-3C46-B51D-1FAF5E0D4E2A}">
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="32">
+      <c r="A1" s="171" t="s">
+        <v>458</v>
+      </c>
+      <c r="B1" s="171" t="s">
+        <v>459</v>
+      </c>
+      <c r="C1" s="174" t="s">
+        <v>482</v>
+      </c>
+      <c r="D1" s="171" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="170" t="s">
+        <v>460</v>
+      </c>
+      <c r="B2" s="170" t="s">
+        <v>461</v>
+      </c>
+      <c r="C2" s="170" t="s">
+        <v>476</v>
+      </c>
+      <c r="D2" s="170">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="170" t="s">
+        <v>462</v>
+      </c>
+      <c r="B3" s="170" t="s">
+        <v>463</v>
+      </c>
+      <c r="C3" s="170" t="s">
+        <v>477</v>
+      </c>
+      <c r="D3" s="170">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="170" t="s">
+        <v>464</v>
+      </c>
+      <c r="B4" s="170" t="s">
+        <v>465</v>
+      </c>
+      <c r="C4" s="170" t="s">
+        <v>481</v>
+      </c>
+      <c r="D4" s="170">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="170" t="s">
+        <v>466</v>
+      </c>
+      <c r="B5" s="170" t="s">
+        <v>467</v>
+      </c>
+      <c r="C5" s="170" t="s">
+        <v>480</v>
+      </c>
+      <c r="D5" s="170">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="170" t="s">
+        <v>468</v>
+      </c>
+      <c r="B6" s="170" t="s">
+        <v>469</v>
+      </c>
+      <c r="C6" s="170" t="s">
+        <v>479</v>
+      </c>
+      <c r="D6" s="170">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="170" t="s">
+        <v>470</v>
+      </c>
+      <c r="B7" s="170" t="s">
+        <v>471</v>
+      </c>
+      <c r="C7" s="170" t="s">
+        <v>478</v>
+      </c>
+      <c r="D7" s="170">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="147" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="147" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="26" spans="8:8">
+      <c r="H26" s="173"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A10" r:id="rId1" xr:uid="{C4E09C91-21C0-0647-B76E-1B6A2CD20E81}"/>
+    <hyperlink ref="A9" r:id="rId2" xr:uid="{7303A82F-C0DE-8A4A-8D3E-E6CE193BD0A0}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{112C5F8E-5AB4-3747-B9CF-9A1C944F7742}">
+  <dimension ref="A1:I35"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="O27" sqref="O27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="172" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="147" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="F5" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="F6" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="I9" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="F10" s="168"/>
+      <c r="G10" s="168"/>
+      <c r="I10" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="G13" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" t="s">
+        <v>449</v>
+      </c>
+      <c r="F17" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="F22" s="149"/>
+      <c r="G22" s="149"/>
+      <c r="I22" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="G24" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9">
+      <c r="F28" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9">
+      <c r="F32" s="168"/>
+      <c r="G32" s="168"/>
+      <c r="I32" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="33" spans="7:9">
+      <c r="I33" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="35" spans="7:9">
+      <c r="G35" t="s">
+        <v>447</v>
+      </c>
+      <c r="I35" t="s">
+        <v>457</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F32:G32"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{8C105A6D-028F-7B45-AB3A-0ACED100F9CD}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{DECB92E9-F7C3-7E48-B60C-768E77C89B1F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDE8B8C4-352E-054D-A843-45DFD254B784}">
   <dimension ref="B2:J61"/>
   <sheetViews>
@@ -9115,10 +10190,10 @@
       </c>
     </row>
     <row r="12" spans="2:10">
-      <c r="H12" s="164" t="s">
+      <c r="H12" s="169" t="s">
         <v>399</v>
       </c>
-      <c r="I12" s="164"/>
+      <c r="I12" s="169"/>
     </row>
     <row r="14" spans="2:10">
       <c r="J14" t="s">
@@ -9131,10 +10206,10 @@
       </c>
     </row>
     <row r="28" spans="2:9">
-      <c r="H28" s="165" t="s">
+      <c r="H28" s="168" t="s">
         <v>403</v>
       </c>
-      <c r="I28" s="165"/>
+      <c r="I28" s="168"/>
     </row>
     <row r="39" spans="2:9">
       <c r="B39" t="s">
@@ -9142,10 +10217,10 @@
       </c>
     </row>
     <row r="43" spans="2:9">
-      <c r="H43" s="164" t="s">
+      <c r="H43" s="169" t="s">
         <v>406</v>
       </c>
-      <c r="I43" s="164"/>
+      <c r="I43" s="169"/>
     </row>
     <row r="54" spans="2:9">
       <c r="B54" t="s">
@@ -9153,10 +10228,10 @@
       </c>
     </row>
     <row r="59" spans="2:9">
-      <c r="H59" s="165" t="s">
+      <c r="H59" s="168" t="s">
         <v>403</v>
       </c>
-      <c r="I59" s="165"/>
+      <c r="I59" s="168"/>
     </row>
     <row r="61" spans="2:9">
       <c r="G61" t="s">
@@ -9179,8 +10254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{695F25B9-FD59-DD4E-A097-058E28B48012}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="Q41" sqref="Q41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -9189,15 +10264,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="167" t="s">
+      <c r="A1" s="150" t="s">
         <v>442</v>
       </c>
-      <c r="B1" s="167"/>
-      <c r="C1" s="167"/>
-      <c r="D1" s="167"/>
-      <c r="E1" s="167"/>
-      <c r="F1" s="167"/>
-      <c r="G1" s="167"/>
+      <c r="B1" s="150"/>
+      <c r="C1" s="150"/>
+      <c r="D1" s="150"/>
+      <c r="E1" s="150"/>
+      <c r="F1" s="150"/>
+      <c r="G1" s="150"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="143" t="s">
@@ -9268,7 +10343,7 @@
       <c r="A6" s="144" t="s">
         <v>412</v>
       </c>
-      <c r="B6" s="168" t="s">
+      <c r="B6" s="148" t="s">
         <v>417</v>
       </c>
       <c r="C6" s="144" t="s">
@@ -9307,15 +10382,15 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="167" t="s">
+      <c r="A12" s="150" t="s">
         <v>441</v>
       </c>
-      <c r="B12" s="167"/>
-      <c r="C12" s="167"/>
-      <c r="D12" s="167"/>
-      <c r="E12" s="167"/>
-      <c r="F12" s="167"/>
-      <c r="G12" s="167"/>
+      <c r="B12" s="150"/>
+      <c r="C12" s="150"/>
+      <c r="D12" s="150"/>
+      <c r="E12" s="150"/>
+      <c r="F12" s="150"/>
+      <c r="G12" s="150"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="143" t="s">
@@ -9386,7 +10461,7 @@
       <c r="A17" s="144" t="s">
         <v>412</v>
       </c>
-      <c r="B17" s="168" t="s">
+      <c r="B17" s="148" t="s">
         <v>443</v>
       </c>
       <c r="C17" s="144" t="s">
@@ -12331,7 +13406,7 @@
       <c r="G4" s="15"/>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="147" t="s">
+      <c r="B5" s="151" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="15" t="s">
@@ -12351,7 +13426,7 @@
       </c>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="147"/>
+      <c r="B6" s="151"/>
       <c r="C6" s="15" t="s">
         <v>17</v>
       </c>
@@ -12367,7 +13442,7 @@
       </c>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="147"/>
+      <c r="B7" s="151"/>
       <c r="C7" s="16" t="s">
         <v>31</v>
       </c>
@@ -12385,7 +13460,7 @@
       </c>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="147"/>
+      <c r="B8" s="151"/>
       <c r="C8" s="16" t="s">
         <v>32</v>
       </c>
@@ -12403,7 +13478,7 @@
       </c>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="147"/>
+      <c r="B9" s="151"/>
       <c r="C9" s="16" t="s">
         <v>33</v>
       </c>
@@ -12421,7 +13496,7 @@
       </c>
     </row>
     <row r="10" spans="2:7" ht="26">
-      <c r="B10" s="147"/>
+      <c r="B10" s="151"/>
       <c r="C10" s="16" t="s">
         <v>13</v>
       </c>
@@ -12439,7 +13514,7 @@
       </c>
     </row>
     <row r="11" spans="2:7" ht="39">
-      <c r="B11" s="148" t="s">
+      <c r="B11" s="152" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="18" t="s">
@@ -12459,7 +13534,7 @@
       </c>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="149"/>
+      <c r="B12" s="153"/>
       <c r="C12" s="15" t="s">
         <v>15</v>
       </c>
@@ -12473,7 +13548,7 @@
       </c>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="150"/>
+      <c r="B13" s="154"/>
       <c r="C13" s="15" t="s">
         <v>16</v>
       </c>

--- a/doc/android.xlsx
+++ b/doc/android.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11014"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C75A56-A629-294E-A9E8-42C77F9FD791}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A89DB3FC-01A8-E848-89D3-448B312EF657}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="6" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="6" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Android Doc reads" sheetId="16" r:id="rId1"/>
@@ -21,9 +21,10 @@
     <sheet name="基于监听的事件处理机制" sheetId="12" r:id="rId11"/>
     <sheet name="==与equals" sheetId="7" r:id="rId12"/>
     <sheet name="hashCode" sheetId="9" r:id="rId13"/>
-    <sheet name="drawable_2" sheetId="18" r:id="rId14"/>
-    <sheet name="drawable" sheetId="17" r:id="rId15"/>
-    <sheet name="IO" sheetId="13" r:id="rId16"/>
+    <sheet name="drawable_3" sheetId="19" r:id="rId14"/>
+    <sheet name="drawable_2" sheetId="18" r:id="rId15"/>
+    <sheet name="drawable" sheetId="17" r:id="rId16"/>
+    <sheet name="IO" sheetId="13" r:id="rId17"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Android高级应用开发-深入篇'!$A$1:$C$222</definedName>
@@ -97,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="505">
   <si>
     <t>Activity</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1876,37 +1877,19 @@
     <t>密度</t>
   </si>
   <si>
-    <t>0dpi ~ 120dpi</t>
-  </si>
-  <si>
     <t>ldpi</t>
   </si>
   <si>
-    <t>120dpi ~ 160dpi</t>
-  </si>
-  <si>
     <t>mdpi</t>
   </si>
   <si>
-    <t>160dpi ~ 240dpi</t>
-  </si>
-  <si>
     <t>hdpi</t>
   </si>
   <si>
-    <t>240dpi ~ 320dpi</t>
-  </si>
-  <si>
     <t>xhdpi</t>
   </si>
   <si>
-    <t>320dpi ~ 480dpi</t>
-  </si>
-  <si>
     <t>xxhdpi</t>
-  </si>
-  <si>
-    <t>480dpi ~ 640dpi</t>
   </si>
   <si>
     <t>xxxhdpi</t>
@@ -1944,13 +1927,98 @@
   <si>
     <t>scale
 1dp =  scale * px</t>
+  </si>
+  <si>
+    <t>ImageView大小</t>
+  </si>
+  <si>
+    <t>位图大小</t>
+  </si>
+  <si>
+    <t>270 x 480</t>
+  </si>
+  <si>
+    <t>203 x 360</t>
+  </si>
+  <si>
+    <t>405 x 720</t>
+  </si>
+  <si>
+    <t>nodpi</t>
+  </si>
+  <si>
+    <t>810 x 1440</t>
+  </si>
+  <si>
+    <t>1080 * 1920</t>
+  </si>
+  <si>
+    <t>1080 * 1548</t>
+  </si>
+  <si>
+    <t>540 x 960</t>
+  </si>
+  <si>
+    <t>120 ~ 160dpi</t>
+  </si>
+  <si>
+    <t>160 ~ 240dpi</t>
+  </si>
+  <si>
+    <t>240 ~ 320dpi</t>
+  </si>
+  <si>
+    <t>320 ~ 480dpi</t>
+  </si>
+  <si>
+    <t>480 ~ 640dpi</t>
+  </si>
+  <si>
+    <t>0 ~ 120dpi</t>
+  </si>
+  <si>
+    <t>内存大小(MB)
+图片实际大小 = 68.56kb</t>
+  </si>
+  <si>
+    <t>Hua Wei nova</t>
+  </si>
+  <si>
+    <t>图片</t>
+  </si>
+  <si>
+    <t>270 X480</t>
+  </si>
+  <si>
+    <t>68.56kb</t>
+  </si>
+  <si>
+    <t>1080 x 1092</t>
+  </si>
+  <si>
+    <t>dpi = 480</t>
+  </si>
+  <si>
+    <t>实际dpi = 440</t>
+  </si>
+  <si>
+    <t>1 英寸</t>
+  </si>
+  <si>
+    <t>【整个屏幕】6 * 8 = 48 个像素</t>
+  </si>
+  <si>
+    <t>【1英寸】3  * 2 = 6 个像素</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="38">
+  <fonts count="39">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2231,8 +2299,15 @@
       <name val="Cambria Math"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2263,8 +2338,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="50">
+  <borders count="56">
     <border>
       <left/>
       <right/>
@@ -2803,13 +2884,103 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="175">
+  <cellXfs count="192">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3070,6 +3241,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="49" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3130,17 +3315,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="49" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="50" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="52" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="54" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="55" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -3590,6 +3798,570 @@
 </file>
 
 <file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Frame 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B58094D-3985-8448-9612-DC6BCDD8FC69}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4102100" y="1219200"/>
+          <a:ext cx="1943100" cy="1473200"/>
+        </a:xfrm>
+        <a:prstGeom prst="frame">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Frame 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD60ADD8-B675-6F49-BA04-BD446A98F664}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4102100" y="3327400"/>
+          <a:ext cx="1943100" cy="1473200"/>
+        </a:xfrm>
+        <a:prstGeom prst="frame">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Frame 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12A1FD37-1245-5B4E-B431-0D30A594DE92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4140200" y="5359400"/>
+          <a:ext cx="1943100" cy="1473200"/>
+        </a:xfrm>
+        <a:prstGeom prst="frame">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>260350</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>8467</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7" descr="Balloons Free Stock Photo - Public Domain Pictures">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCC46D31-A281-B14E-9B04-33356C33EFDF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
+              <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="260350" y="3543300"/>
+          <a:ext cx="2127250" cy="1418167"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39AF765B-0F38-5749-8036-FF8C0CDABE8C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2578100" y="1866900"/>
+          <a:ext cx="1257300" cy="1651000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A1C7657-EE5B-3345-8F1D-A1511B22DFAF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2578100" y="4140200"/>
+          <a:ext cx="1371600" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Straight Arrow Connector 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6D4B415-4BAC-9940-9D8D-57B9F6E6B43F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2527300" y="4965700"/>
+          <a:ext cx="1574800" cy="1155700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>101601</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Picture 24" descr="Balloons Free Stock Photo - Public Domain Pictures">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB813401-E493-A743-920F-0A4F1DD98991}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
+              <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4279900" y="3530601"/>
+          <a:ext cx="762000" cy="508000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Picture 25" descr="Balloons Free Stock Photo - Public Domain Pictures">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C5C679B-ABD2-ED41-A923-33774DD84F54}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
+              <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4267200" y="1409700"/>
+          <a:ext cx="495300" cy="330200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Picture 26" descr="Balloons Free Stock Photo - Public Domain Pictures">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12D1FBAA-71C0-C44D-943A-E0685B6AD05B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
+              <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4305300" y="5562600"/>
+          <a:ext cx="1257300" cy="838200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7495,11 +8267,76 @@
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>23183</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>94685</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>160669</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>131035</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Notched Right Arrow 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA2B2215-D467-1E48-8949-13CFFD3C794D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="19247852">
+          <a:off x="429583" y="1059885"/>
+          <a:ext cx="543886" cy="226850"/>
+        </a:xfrm>
+        <a:prstGeom prst="notchedRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>134127</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2381315" cy="45719"/>
@@ -7554,7 +8391,7 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>69850</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="65" cy="172227"/>
@@ -7605,570 +8442,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Frame 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B58094D-3985-8448-9612-DC6BCDD8FC69}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4102100" y="1219200"/>
-          <a:ext cx="1943100" cy="1473200"/>
-        </a:xfrm>
-        <a:prstGeom prst="frame">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent3">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Frame 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD60ADD8-B675-6F49-BA04-BD446A98F664}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4102100" y="3327400"/>
-          <a:ext cx="1943100" cy="1473200"/>
-        </a:xfrm>
-        <a:prstGeom prst="frame">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Frame 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12A1FD37-1245-5B4E-B431-0D30A594DE92}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4140200" y="5359400"/>
-          <a:ext cx="1943100" cy="1473200"/>
-        </a:xfrm>
-        <a:prstGeom prst="frame">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>260350</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>736600</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>8467</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7" descr="Balloons Free Stock Photo - Public Domain Pictures">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCC46D31-A281-B14E-9B04-33356C33EFDF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-            <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
-              <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId2"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="260350" y="3543300"/>
-          <a:ext cx="2127250" cy="1418167"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39AF765B-0F38-5749-8036-FF8C0CDABE8C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2578100" y="1866900"/>
-          <a:ext cx="1257300" cy="1651000"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A1C7657-EE5B-3345-8F1D-A1511B22DFAF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2578100" y="4140200"/>
-          <a:ext cx="1371600" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="Straight Arrow Connector 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6D4B415-4BAC-9940-9D8D-57B9F6E6B43F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2527300" y="4965700"/>
-          <a:ext cx="1574800" cy="1155700"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>101601</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="Picture 24" descr="Balloons Free Stock Photo - Public Domain Pictures">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB813401-E493-A743-920F-0A4F1DD98991}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-            <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
-              <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId2"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4279900" y="3530601"/>
-          <a:ext cx="762000" cy="508000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="Picture 25" descr="Balloons Free Stock Photo - Public Domain Pictures">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C5C679B-ABD2-ED41-A923-33774DD84F54}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-            <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
-              <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId2"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4267200" y="1409700"/>
-          <a:ext cx="495300" cy="330200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="Picture 26" descr="Balloons Free Stock Photo - Public Domain Pictures">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12D1FBAA-71C0-C44D-943A-E0685B6AD05B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-            <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
-              <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId2"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4305300" y="5562600"/>
-          <a:ext cx="1257300" cy="838200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8657,11 +8930,11 @@
       <c r="C6" s="94"/>
       <c r="D6" s="101"/>
       <c r="E6" s="96"/>
-      <c r="F6" s="155" t="s">
+      <c r="F6" s="161" t="s">
         <v>392</v>
       </c>
-      <c r="G6" s="156"/>
-      <c r="H6" s="157"/>
+      <c r="G6" s="162"/>
+      <c r="H6" s="163"/>
       <c r="I6" s="96"/>
       <c r="J6" s="102"/>
       <c r="K6" s="94"/>
@@ -8681,9 +8954,9 @@
       <c r="C7" s="94"/>
       <c r="D7" s="101"/>
       <c r="E7" s="96"/>
-      <c r="F7" s="158"/>
-      <c r="G7" s="159"/>
-      <c r="H7" s="160"/>
+      <c r="F7" s="164"/>
+      <c r="G7" s="165"/>
+      <c r="H7" s="166"/>
       <c r="I7" s="96"/>
       <c r="J7" s="102"/>
       <c r="K7" s="95"/>
@@ -8703,9 +8976,9 @@
       <c r="C8" s="94"/>
       <c r="D8" s="101"/>
       <c r="E8" s="96"/>
-      <c r="F8" s="158"/>
-      <c r="G8" s="159"/>
-      <c r="H8" s="160"/>
+      <c r="F8" s="164"/>
+      <c r="G8" s="165"/>
+      <c r="H8" s="166"/>
       <c r="I8" s="96"/>
       <c r="J8" s="102"/>
       <c r="K8" s="94"/>
@@ -8724,9 +8997,9 @@
       <c r="B9" s="94"/>
       <c r="C9" s="94"/>
       <c r="D9" s="101"/>
-      <c r="F9" s="158"/>
-      <c r="G9" s="159"/>
-      <c r="H9" s="160"/>
+      <c r="F9" s="164"/>
+      <c r="G9" s="165"/>
+      <c r="H9" s="166"/>
       <c r="I9" s="96"/>
       <c r="J9" s="102"/>
       <c r="K9" s="94"/>
@@ -8745,9 +9018,9 @@
       <c r="B10" s="94"/>
       <c r="C10" s="94"/>
       <c r="D10" s="101"/>
-      <c r="F10" s="161"/>
-      <c r="G10" s="162"/>
-      <c r="H10" s="163"/>
+      <c r="F10" s="167"/>
+      <c r="G10" s="168"/>
+      <c r="H10" s="169"/>
       <c r="I10" s="129"/>
       <c r="J10" s="102"/>
       <c r="K10" s="94"/>
@@ -9419,16 +9692,16 @@
     </row>
     <row r="18" spans="5:8">
       <c r="E18" s="137"/>
-      <c r="F18" s="164" t="s">
+      <c r="F18" s="170" t="s">
         <v>395</v>
       </c>
-      <c r="G18" s="165"/>
+      <c r="G18" s="171"/>
       <c r="H18" s="135"/>
     </row>
     <row r="19" spans="5:8">
       <c r="E19" s="137"/>
-      <c r="F19" s="166"/>
-      <c r="G19" s="167"/>
+      <c r="F19" s="172"/>
+      <c r="G19" s="173"/>
       <c r="H19" s="135"/>
     </row>
     <row r="20" spans="5:8">
@@ -9923,159 +10196,394 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D86ED6A2-BD47-244B-AD18-088367512271}">
+  <dimension ref="B2:M10"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="U18" sqref="U18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="2:13">
+      <c r="F2" s="65" t="s">
+        <v>503</v>
+      </c>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="65"/>
+    </row>
+    <row r="3" spans="2:13">
+      <c r="F3" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" ht="16" thickBot="1">
+      <c r="F4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13">
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5" s="186"/>
+      <c r="G5" s="187"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="21"/>
+    </row>
+    <row r="6" spans="2:13">
+      <c r="F6" s="188"/>
+      <c r="G6" s="189"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="24"/>
+    </row>
+    <row r="7" spans="2:13" ht="16" thickBot="1">
+      <c r="F7" s="190"/>
+      <c r="G7" s="191"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="27"/>
+    </row>
+    <row r="8" spans="2:13">
+      <c r="B8" t="s">
+        <v>501</v>
+      </c>
+      <c r="F8" s="19"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="21"/>
+    </row>
+    <row r="9" spans="2:13">
+      <c r="F9" s="22"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="24"/>
+    </row>
+    <row r="10" spans="2:13" ht="16" thickBot="1">
+      <c r="F10" s="25"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="27"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A51D4780-106D-3C46-B51D-1FAF5E0D4E2A}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.83203125" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="155" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="155"/>
+    <col min="7" max="7" width="13.1640625" style="155" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="44.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="32">
-      <c r="A1" s="171" t="s">
+    <row r="1" spans="1:11" ht="48">
+      <c r="A1" s="151" t="s">
         <v>458</v>
       </c>
-      <c r="B1" s="171" t="s">
+      <c r="B1" s="151" t="s">
         <v>459</v>
       </c>
-      <c r="C1" s="174" t="s">
+      <c r="C1" s="154" t="s">
+        <v>476</v>
+      </c>
+      <c r="D1" s="151" t="s">
+        <v>469</v>
+      </c>
+      <c r="E1" s="179" t="s">
+        <v>493</v>
+      </c>
+      <c r="F1" s="151" t="s">
+        <v>478</v>
+      </c>
+      <c r="G1" s="151" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="150" t="s">
+        <v>492</v>
+      </c>
+      <c r="B2" s="150" t="s">
+        <v>460</v>
+      </c>
+      <c r="C2" s="150" t="s">
+        <v>470</v>
+      </c>
+      <c r="D2" s="150">
+        <v>3</v>
+      </c>
+      <c r="E2" s="150">
+        <v>7.91</v>
+      </c>
+      <c r="F2" s="180" t="s">
+        <v>484</v>
+      </c>
+      <c r="G2" s="180" t="s">
+        <v>485</v>
+      </c>
+      <c r="K2" s="155"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="150" t="s">
+        <v>487</v>
+      </c>
+      <c r="B3" s="182" t="s">
+        <v>461</v>
+      </c>
+      <c r="C3" s="150" t="s">
+        <v>471</v>
+      </c>
+      <c r="D3" s="150">
+        <v>4</v>
+      </c>
+      <c r="E3" s="150">
+        <v>4.45</v>
+      </c>
+      <c r="F3" s="180" t="s">
+        <v>483</v>
+      </c>
+      <c r="G3" s="180" t="s">
+        <v>483</v>
+      </c>
+      <c r="K3" s="155"/>
+    </row>
+    <row r="4" spans="1:11" ht="13" customHeight="1">
+      <c r="A4" s="150" t="s">
+        <v>488</v>
+      </c>
+      <c r="B4" s="150" t="s">
+        <v>462</v>
+      </c>
+      <c r="C4" s="150" t="s">
+        <v>475</v>
+      </c>
+      <c r="D4" s="150">
+        <v>6</v>
+      </c>
+      <c r="E4" s="150">
+        <v>1.98</v>
+      </c>
+      <c r="F4" s="180" t="s">
+        <v>486</v>
+      </c>
+      <c r="G4" s="180" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="150" t="s">
+        <v>489</v>
+      </c>
+      <c r="B5" s="150" t="s">
+        <v>463</v>
+      </c>
+      <c r="C5" s="150" t="s">
+        <v>474</v>
+      </c>
+      <c r="D5" s="150">
+        <v>8</v>
+      </c>
+      <c r="E5" s="150">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="F5" s="180" t="s">
+        <v>481</v>
+      </c>
+      <c r="G5" s="180" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="93" customFormat="1">
+      <c r="A6" s="176" t="s">
+        <v>490</v>
+      </c>
+      <c r="B6" s="176" t="s">
+        <v>464</v>
+      </c>
+      <c r="C6" s="176" t="s">
+        <v>473</v>
+      </c>
+      <c r="D6" s="176">
+        <v>12</v>
+      </c>
+      <c r="E6" s="176">
+        <v>0.49</v>
+      </c>
+      <c r="F6" s="181" t="s">
+        <v>479</v>
+      </c>
+      <c r="G6" s="181" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="150" t="s">
+        <v>491</v>
+      </c>
+      <c r="B7" s="150" t="s">
+        <v>465</v>
+      </c>
+      <c r="C7" s="150" t="s">
+        <v>472</v>
+      </c>
+      <c r="D7" s="150">
+        <v>16</v>
+      </c>
+      <c r="E7" s="180">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F7" s="180" t="s">
+        <v>480</v>
+      </c>
+      <c r="G7" s="180" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="93" customFormat="1">
+      <c r="A8" s="183"/>
+      <c r="B8" s="183" t="s">
         <v>482</v>
       </c>
-      <c r="D1" s="171" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="170" t="s">
-        <v>460</v>
-      </c>
-      <c r="B2" s="170" t="s">
-        <v>461</v>
-      </c>
-      <c r="C2" s="170" t="s">
-        <v>476</v>
-      </c>
-      <c r="D2" s="170">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="170" t="s">
-        <v>462</v>
-      </c>
-      <c r="B3" s="170" t="s">
-        <v>463</v>
-      </c>
-      <c r="C3" s="170" t="s">
-        <v>477</v>
-      </c>
-      <c r="D3" s="170">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="170" t="s">
-        <v>464</v>
-      </c>
-      <c r="B4" s="170" t="s">
-        <v>465</v>
-      </c>
-      <c r="C4" s="170" t="s">
-        <v>481</v>
-      </c>
-      <c r="D4" s="170">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="170" t="s">
-        <v>466</v>
-      </c>
-      <c r="B5" s="170" t="s">
+      <c r="C8" s="183"/>
+      <c r="D8" s="183"/>
+      <c r="E8" s="184">
+        <v>0.49</v>
+      </c>
+      <c r="F8" s="185" t="s">
+        <v>479</v>
+      </c>
+      <c r="G8" s="185" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="23" customFormat="1">
+      <c r="A9" s="32"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="177"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="178"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="I10" s="93"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
+        <v>494</v>
+      </c>
+      <c r="B11" t="s">
+        <v>498</v>
+      </c>
+      <c r="C11" t="s">
+        <v>499</v>
+      </c>
+      <c r="D11" s="155" t="s">
+        <v>500</v>
+      </c>
+      <c r="I11" s="94"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
+        <v>495</v>
+      </c>
+      <c r="B12" t="s">
+        <v>496</v>
+      </c>
+      <c r="C12" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="147" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="147" t="s">
         <v>467</v>
       </c>
-      <c r="C5" s="170" t="s">
-        <v>480</v>
-      </c>
-      <c r="D5" s="170">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="170" t="s">
-        <v>468</v>
-      </c>
-      <c r="B6" s="170" t="s">
-        <v>469</v>
-      </c>
-      <c r="C6" s="170" t="s">
-        <v>479</v>
-      </c>
-      <c r="D6" s="170">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="170" t="s">
-        <v>470</v>
-      </c>
-      <c r="B7" s="170" t="s">
-        <v>471</v>
-      </c>
-      <c r="C7" s="170" t="s">
-        <v>478</v>
-      </c>
-      <c r="D7" s="170">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="147" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="147" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="26" spans="8:8">
-      <c r="H26" s="173"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="H27" s="153"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A10" r:id="rId1" xr:uid="{C4E09C91-21C0-0647-B76E-1B6A2CD20E81}"/>
-    <hyperlink ref="A9" r:id="rId2" xr:uid="{7303A82F-C0DE-8A4A-8D3E-E6CE193BD0A0}"/>
+    <hyperlink ref="A15" r:id="rId1" xr:uid="{C4E09C91-21C0-0647-B76E-1B6A2CD20E81}"/>
+    <hyperlink ref="A14" r:id="rId2" xr:uid="{7303A82F-C0DE-8A4A-8D3E-E6CE193BD0A0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{112C5F8E-5AB4-3747-B9CF-9A1C944F7742}">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="172" t="s">
-        <v>472</v>
+      <c r="A1" s="152" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="147" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -10094,8 +10602,8 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="F10" s="168"/>
-      <c r="G10" s="168"/>
+      <c r="F10" s="174"/>
+      <c r="G10" s="174"/>
       <c r="I10" t="s">
         <v>453</v>
       </c>
@@ -10136,8 +10644,8 @@
       </c>
     </row>
     <row r="32" spans="2:9">
-      <c r="F32" s="168"/>
-      <c r="G32" s="168"/>
+      <c r="F32" s="174"/>
+      <c r="G32" s="174"/>
       <c r="I32" t="s">
         <v>450</v>
       </c>
@@ -10169,7 +10677,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDE8B8C4-352E-054D-A843-45DFD254B784}">
   <dimension ref="B2:J61"/>
   <sheetViews>
@@ -10190,10 +10698,10 @@
       </c>
     </row>
     <row r="12" spans="2:10">
-      <c r="H12" s="169" t="s">
+      <c r="H12" s="175" t="s">
         <v>399</v>
       </c>
-      <c r="I12" s="169"/>
+      <c r="I12" s="175"/>
     </row>
     <row r="14" spans="2:10">
       <c r="J14" t="s">
@@ -10206,10 +10714,10 @@
       </c>
     </row>
     <row r="28" spans="2:9">
-      <c r="H28" s="168" t="s">
+      <c r="H28" s="174" t="s">
         <v>403</v>
       </c>
-      <c r="I28" s="168"/>
+      <c r="I28" s="174"/>
     </row>
     <row r="39" spans="2:9">
       <c r="B39" t="s">
@@ -10217,10 +10725,10 @@
       </c>
     </row>
     <row r="43" spans="2:9">
-      <c r="H43" s="169" t="s">
+      <c r="H43" s="175" t="s">
         <v>406</v>
       </c>
-      <c r="I43" s="169"/>
+      <c r="I43" s="175"/>
     </row>
     <row r="54" spans="2:9">
       <c r="B54" t="s">
@@ -10228,10 +10736,10 @@
       </c>
     </row>
     <row r="59" spans="2:9">
-      <c r="H59" s="168" t="s">
+      <c r="H59" s="174" t="s">
         <v>403</v>
       </c>
-      <c r="I59" s="168"/>
+      <c r="I59" s="174"/>
     </row>
     <row r="61" spans="2:9">
       <c r="G61" t="s">
@@ -10264,15 +10772,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="150" t="s">
+      <c r="A1" s="156" t="s">
         <v>442</v>
       </c>
-      <c r="B1" s="150"/>
-      <c r="C1" s="150"/>
-      <c r="D1" s="150"/>
-      <c r="E1" s="150"/>
-      <c r="F1" s="150"/>
-      <c r="G1" s="150"/>
+      <c r="B1" s="156"/>
+      <c r="C1" s="156"/>
+      <c r="D1" s="156"/>
+      <c r="E1" s="156"/>
+      <c r="F1" s="156"/>
+      <c r="G1" s="156"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="143" t="s">
@@ -10382,15 +10890,15 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="150" t="s">
+      <c r="A12" s="156" t="s">
         <v>441</v>
       </c>
-      <c r="B12" s="150"/>
-      <c r="C12" s="150"/>
-      <c r="D12" s="150"/>
-      <c r="E12" s="150"/>
-      <c r="F12" s="150"/>
-      <c r="G12" s="150"/>
+      <c r="B12" s="156"/>
+      <c r="C12" s="156"/>
+      <c r="D12" s="156"/>
+      <c r="E12" s="156"/>
+      <c r="F12" s="156"/>
+      <c r="G12" s="156"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="143" t="s">
@@ -13406,7 +13914,7 @@
       <c r="G4" s="15"/>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="151" t="s">
+      <c r="B5" s="157" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="15" t="s">
@@ -13426,7 +13934,7 @@
       </c>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="151"/>
+      <c r="B6" s="157"/>
       <c r="C6" s="15" t="s">
         <v>17</v>
       </c>
@@ -13442,7 +13950,7 @@
       </c>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="151"/>
+      <c r="B7" s="157"/>
       <c r="C7" s="16" t="s">
         <v>31</v>
       </c>
@@ -13460,7 +13968,7 @@
       </c>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="151"/>
+      <c r="B8" s="157"/>
       <c r="C8" s="16" t="s">
         <v>32</v>
       </c>
@@ -13478,7 +13986,7 @@
       </c>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="151"/>
+      <c r="B9" s="157"/>
       <c r="C9" s="16" t="s">
         <v>33</v>
       </c>
@@ -13496,7 +14004,7 @@
       </c>
     </row>
     <row r="10" spans="2:7" ht="26">
-      <c r="B10" s="151"/>
+      <c r="B10" s="157"/>
       <c r="C10" s="16" t="s">
         <v>13</v>
       </c>
@@ -13514,7 +14022,7 @@
       </c>
     </row>
     <row r="11" spans="2:7" ht="39">
-      <c r="B11" s="152" t="s">
+      <c r="B11" s="158" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="18" t="s">
@@ -13534,7 +14042,7 @@
       </c>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="153"/>
+      <c r="B12" s="159"/>
       <c r="C12" s="15" t="s">
         <v>15</v>
       </c>
@@ -13548,7 +14056,7 @@
       </c>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="154"/>
+      <c r="B13" s="160"/>
       <c r="C13" s="15" t="s">
         <v>16</v>
       </c>

--- a/doc/android.xlsx
+++ b/doc/android.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11014"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A89DB3FC-01A8-E848-89D3-448B312EF657}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF0BC7D5-8F13-0F42-9582-247A51A3BE95}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="6" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="6" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Android Doc reads" sheetId="16" r:id="rId1"/>
@@ -21,10 +21,11 @@
     <sheet name="基于监听的事件处理机制" sheetId="12" r:id="rId11"/>
     <sheet name="==与equals" sheetId="7" r:id="rId12"/>
     <sheet name="hashCode" sheetId="9" r:id="rId13"/>
-    <sheet name="drawable_3" sheetId="19" r:id="rId14"/>
-    <sheet name="drawable_2" sheetId="18" r:id="rId15"/>
-    <sheet name="drawable" sheetId="17" r:id="rId16"/>
-    <sheet name="IO" sheetId="13" r:id="rId17"/>
+    <sheet name="drawabe_svg" sheetId="20" r:id="rId14"/>
+    <sheet name="drawable_分辨率" sheetId="19" r:id="rId15"/>
+    <sheet name="drawable_2" sheetId="18" r:id="rId16"/>
+    <sheet name="drawable_缩放" sheetId="17" r:id="rId17"/>
+    <sheet name="IO" sheetId="13" r:id="rId18"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Android高级应用开发-深入篇'!$A$1:$C$222</definedName>
@@ -98,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="514">
   <si>
     <t>Activity</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2012,6 +2013,33 @@
   </si>
   <si>
     <t xml:space="preserve">      </t>
+  </si>
+  <si>
+    <t>1440 x 1960px</t>
+  </si>
+  <si>
+    <t>screen</t>
+  </si>
+  <si>
+    <t>ImageView</t>
+  </si>
+  <si>
+    <t>1440 x 1960 px</t>
+  </si>
+  <si>
+    <t>800 x 800 px</t>
+  </si>
+  <si>
+    <t>svg</t>
+  </si>
+  <si>
+    <t>png</t>
+  </si>
+  <si>
+    <t>16.60ms</t>
+  </si>
+  <si>
+    <t>0.18ms</t>
   </si>
 </sst>
 </file>
@@ -2980,7 +3008,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="192">
+  <cellXfs count="195">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3249,12 +3277,43 @@
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="49" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="50" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="52" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="54" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="55" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3315,40 +3374,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="50" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="52" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="54" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="55" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -8930,11 +8967,11 @@
       <c r="C6" s="94"/>
       <c r="D6" s="101"/>
       <c r="E6" s="96"/>
-      <c r="F6" s="161" t="s">
+      <c r="F6" s="176" t="s">
         <v>392</v>
       </c>
-      <c r="G6" s="162"/>
-      <c r="H6" s="163"/>
+      <c r="G6" s="177"/>
+      <c r="H6" s="178"/>
       <c r="I6" s="96"/>
       <c r="J6" s="102"/>
       <c r="K6" s="94"/>
@@ -8954,9 +8991,9 @@
       <c r="C7" s="94"/>
       <c r="D7" s="101"/>
       <c r="E7" s="96"/>
-      <c r="F7" s="164"/>
-      <c r="G7" s="165"/>
-      <c r="H7" s="166"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="180"/>
+      <c r="H7" s="181"/>
       <c r="I7" s="96"/>
       <c r="J7" s="102"/>
       <c r="K7" s="95"/>
@@ -8976,9 +9013,9 @@
       <c r="C8" s="94"/>
       <c r="D8" s="101"/>
       <c r="E8" s="96"/>
-      <c r="F8" s="164"/>
-      <c r="G8" s="165"/>
-      <c r="H8" s="166"/>
+      <c r="F8" s="179"/>
+      <c r="G8" s="180"/>
+      <c r="H8" s="181"/>
       <c r="I8" s="96"/>
       <c r="J8" s="102"/>
       <c r="K8" s="94"/>
@@ -8997,9 +9034,9 @@
       <c r="B9" s="94"/>
       <c r="C9" s="94"/>
       <c r="D9" s="101"/>
-      <c r="F9" s="164"/>
-      <c r="G9" s="165"/>
-      <c r="H9" s="166"/>
+      <c r="F9" s="179"/>
+      <c r="G9" s="180"/>
+      <c r="H9" s="181"/>
       <c r="I9" s="96"/>
       <c r="J9" s="102"/>
       <c r="K9" s="94"/>
@@ -9018,9 +9055,9 @@
       <c r="B10" s="94"/>
       <c r="C10" s="94"/>
       <c r="D10" s="101"/>
-      <c r="F10" s="167"/>
-      <c r="G10" s="168"/>
-      <c r="H10" s="169"/>
+      <c r="F10" s="182"/>
+      <c r="G10" s="183"/>
+      <c r="H10" s="184"/>
       <c r="I10" s="129"/>
       <c r="J10" s="102"/>
       <c r="K10" s="94"/>
@@ -9692,16 +9729,16 @@
     </row>
     <row r="18" spans="5:8">
       <c r="E18" s="137"/>
-      <c r="F18" s="170" t="s">
+      <c r="F18" s="185" t="s">
         <v>395</v>
       </c>
-      <c r="G18" s="171"/>
+      <c r="G18" s="186"/>
       <c r="H18" s="135"/>
     </row>
     <row r="19" spans="5:8">
       <c r="E19" s="137"/>
-      <c r="F19" s="172"/>
-      <c r="G19" s="173"/>
+      <c r="F19" s="187"/>
+      <c r="G19" s="188"/>
       <c r="H19" s="135"/>
     </row>
     <row r="20" spans="5:8">
@@ -10196,11 +10233,68 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDFDE749-2C0C-C548-8C4F-6EF43EA89AA0}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>506</v>
+      </c>
+      <c r="B1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>507</v>
+      </c>
+      <c r="B2" t="s">
+        <v>510</v>
+      </c>
+      <c r="C2" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>508</v>
+      </c>
+      <c r="B3" t="s">
+        <v>512</v>
+      </c>
+      <c r="C3" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>509</v>
+      </c>
+      <c r="B4">
+        <v>3.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D86ED6A2-BD47-244B-AD18-088367512271}">
   <dimension ref="B2:M10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="U18" sqref="U18"/>
+      <selection activeCell="AY40" sqref="AY40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="15"/>
@@ -10231,8 +10325,8 @@
       <c r="E5">
         <v>3</v>
       </c>
-      <c r="F5" s="186"/>
-      <c r="G5" s="187"/>
+      <c r="F5" s="165"/>
+      <c r="G5" s="166"/>
       <c r="H5" s="19"/>
       <c r="I5" s="21"/>
       <c r="J5" s="19"/>
@@ -10241,8 +10335,8 @@
       <c r="M5" s="21"/>
     </row>
     <row r="6" spans="2:13">
-      <c r="F6" s="188"/>
-      <c r="G6" s="189"/>
+      <c r="F6" s="167"/>
+      <c r="G6" s="168"/>
       <c r="H6" s="22"/>
       <c r="I6" s="24"/>
       <c r="J6" s="22"/>
@@ -10251,8 +10345,8 @@
       <c r="M6" s="24"/>
     </row>
     <row r="7" spans="2:13" ht="16" thickBot="1">
-      <c r="F7" s="190"/>
-      <c r="G7" s="191"/>
+      <c r="F7" s="169"/>
+      <c r="G7" s="170"/>
       <c r="H7" s="25"/>
       <c r="I7" s="27"/>
       <c r="J7" s="25"/>
@@ -10299,22 +10393,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A51D4780-106D-3C46-B51D-1FAF5E0D4E2A}">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.1640625" customWidth="1"/>
-    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" style="155" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" style="155" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="154" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="155"/>
-    <col min="7" max="7" width="13.1640625" style="155" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="154"/>
+    <col min="7" max="7" width="13.1640625" style="154" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="44.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
@@ -10327,13 +10421,13 @@
       <c r="B1" s="151" t="s">
         <v>459</v>
       </c>
-      <c r="C1" s="154" t="s">
+      <c r="C1" s="191" t="s">
         <v>476</v>
       </c>
       <c r="D1" s="151" t="s">
         <v>469</v>
       </c>
-      <c r="E1" s="179" t="s">
+      <c r="E1" s="158" t="s">
         <v>493</v>
       </c>
       <c r="F1" s="151" t="s">
@@ -10350,7 +10444,7 @@
       <c r="B2" s="150" t="s">
         <v>460</v>
       </c>
-      <c r="C2" s="150" t="s">
+      <c r="C2" s="192" t="s">
         <v>470</v>
       </c>
       <c r="D2" s="150">
@@ -10359,22 +10453,22 @@
       <c r="E2" s="150">
         <v>7.91</v>
       </c>
-      <c r="F2" s="180" t="s">
+      <c r="F2" s="159" t="s">
         <v>484</v>
       </c>
-      <c r="G2" s="180" t="s">
+      <c r="G2" s="159" t="s">
         <v>485</v>
       </c>
-      <c r="K2" s="155"/>
+      <c r="K2" s="154"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="150" t="s">
         <v>487</v>
       </c>
-      <c r="B3" s="182" t="s">
+      <c r="B3" s="161" t="s">
         <v>461</v>
       </c>
-      <c r="C3" s="150" t="s">
+      <c r="C3" s="192" t="s">
         <v>471</v>
       </c>
       <c r="D3" s="150">
@@ -10383,13 +10477,13 @@
       <c r="E3" s="150">
         <v>4.45</v>
       </c>
-      <c r="F3" s="180" t="s">
+      <c r="F3" s="159" t="s">
         <v>483</v>
       </c>
-      <c r="G3" s="180" t="s">
+      <c r="G3" s="159" t="s">
         <v>483</v>
       </c>
-      <c r="K3" s="155"/>
+      <c r="K3" s="154"/>
     </row>
     <row r="4" spans="1:11" ht="13" customHeight="1">
       <c r="A4" s="150" t="s">
@@ -10398,7 +10492,7 @@
       <c r="B4" s="150" t="s">
         <v>462</v>
       </c>
-      <c r="C4" s="150" t="s">
+      <c r="C4" s="192" t="s">
         <v>475</v>
       </c>
       <c r="D4" s="150">
@@ -10407,10 +10501,10 @@
       <c r="E4" s="150">
         <v>1.98</v>
       </c>
-      <c r="F4" s="180" t="s">
+      <c r="F4" s="159" t="s">
         <v>486</v>
       </c>
-      <c r="G4" s="180" t="s">
+      <c r="G4" s="159" t="s">
         <v>486</v>
       </c>
     </row>
@@ -10421,7 +10515,7 @@
       <c r="B5" s="150" t="s">
         <v>463</v>
       </c>
-      <c r="C5" s="150" t="s">
+      <c r="C5" s="192" t="s">
         <v>474</v>
       </c>
       <c r="D5" s="150">
@@ -10430,33 +10524,33 @@
       <c r="E5" s="150">
         <v>1.1100000000000001</v>
       </c>
-      <c r="F5" s="180" t="s">
+      <c r="F5" s="159" t="s">
         <v>481</v>
       </c>
-      <c r="G5" s="180" t="s">
+      <c r="G5" s="159" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="93" customFormat="1">
-      <c r="A6" s="176" t="s">
+      <c r="A6" s="156" t="s">
         <v>490</v>
       </c>
-      <c r="B6" s="176" t="s">
+      <c r="B6" s="156" t="s">
         <v>464</v>
       </c>
-      <c r="C6" s="176" t="s">
+      <c r="C6" s="160" t="s">
         <v>473</v>
       </c>
-      <c r="D6" s="176">
+      <c r="D6" s="156">
         <v>12</v>
       </c>
-      <c r="E6" s="176">
+      <c r="E6" s="156">
         <v>0.49</v>
       </c>
-      <c r="F6" s="181" t="s">
+      <c r="F6" s="160" t="s">
         <v>479</v>
       </c>
-      <c r="G6" s="181" t="s">
+      <c r="G6" s="160" t="s">
         <v>479</v>
       </c>
     </row>
@@ -10467,45 +10561,45 @@
       <c r="B7" s="150" t="s">
         <v>465</v>
       </c>
-      <c r="C7" s="150" t="s">
+      <c r="C7" s="192" t="s">
         <v>472</v>
       </c>
       <c r="D7" s="150">
         <v>16</v>
       </c>
-      <c r="E7" s="180">
+      <c r="E7" s="159">
         <v>0.28999999999999998</v>
       </c>
-      <c r="F7" s="180" t="s">
+      <c r="F7" s="159" t="s">
         <v>480</v>
       </c>
-      <c r="G7" s="180" t="s">
+      <c r="G7" s="159" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="93" customFormat="1">
-      <c r="A8" s="183"/>
-      <c r="B8" s="183" t="s">
+      <c r="A8" s="162"/>
+      <c r="B8" s="162" t="s">
         <v>482</v>
       </c>
-      <c r="C8" s="183"/>
-      <c r="D8" s="183"/>
-      <c r="E8" s="184">
+      <c r="C8" s="193"/>
+      <c r="D8" s="162"/>
+      <c r="E8" s="163">
         <v>0.49</v>
       </c>
-      <c r="F8" s="185" t="s">
+      <c r="F8" s="164" t="s">
         <v>479</v>
       </c>
-      <c r="G8" s="185" t="s">
+      <c r="G8" s="164" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="23" customFormat="1">
       <c r="A9" s="32"/>
       <c r="B9" s="32"/>
-      <c r="C9" s="177"/>
+      <c r="C9" s="194"/>
       <c r="D9" s="29"/>
-      <c r="E9" s="178"/>
+      <c r="E9" s="157"/>
       <c r="F9" s="29"/>
       <c r="G9" s="29"/>
     </row>
@@ -10519,10 +10613,10 @@
       <c r="B11" t="s">
         <v>498</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="155" t="s">
         <v>499</v>
       </c>
-      <c r="D11" s="155" t="s">
+      <c r="D11" s="154" t="s">
         <v>500</v>
       </c>
       <c r="I11" s="94"/>
@@ -10534,7 +10628,7 @@
       <c r="B12" t="s">
         <v>496</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="155" t="s">
         <v>497</v>
       </c>
     </row>
@@ -10566,12 +10660,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{112C5F8E-5AB4-3747-B9CF-9A1C944F7742}">
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="O43" sqref="O43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -10602,8 +10696,8 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="F10" s="174"/>
-      <c r="G10" s="174"/>
+      <c r="F10" s="189"/>
+      <c r="G10" s="189"/>
       <c r="I10" t="s">
         <v>453</v>
       </c>
@@ -10644,8 +10738,8 @@
       </c>
     </row>
     <row r="32" spans="2:9">
-      <c r="F32" s="174"/>
-      <c r="G32" s="174"/>
+      <c r="F32" s="189"/>
+      <c r="G32" s="189"/>
       <c r="I32" t="s">
         <v>450</v>
       </c>
@@ -10677,7 +10771,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDE8B8C4-352E-054D-A843-45DFD254B784}">
   <dimension ref="B2:J61"/>
   <sheetViews>
@@ -10698,10 +10792,10 @@
       </c>
     </row>
     <row r="12" spans="2:10">
-      <c r="H12" s="175" t="s">
+      <c r="H12" s="190" t="s">
         <v>399</v>
       </c>
-      <c r="I12" s="175"/>
+      <c r="I12" s="190"/>
     </row>
     <row r="14" spans="2:10">
       <c r="J14" t="s">
@@ -10714,10 +10808,10 @@
       </c>
     </row>
     <row r="28" spans="2:9">
-      <c r="H28" s="174" t="s">
+      <c r="H28" s="189" t="s">
         <v>403</v>
       </c>
-      <c r="I28" s="174"/>
+      <c r="I28" s="189"/>
     </row>
     <row r="39" spans="2:9">
       <c r="B39" t="s">
@@ -10725,10 +10819,10 @@
       </c>
     </row>
     <row r="43" spans="2:9">
-      <c r="H43" s="175" t="s">
+      <c r="H43" s="190" t="s">
         <v>406</v>
       </c>
-      <c r="I43" s="175"/>
+      <c r="I43" s="190"/>
     </row>
     <row r="54" spans="2:9">
       <c r="B54" t="s">
@@ -10736,10 +10830,10 @@
       </c>
     </row>
     <row r="59" spans="2:9">
-      <c r="H59" s="174" t="s">
+      <c r="H59" s="189" t="s">
         <v>403</v>
       </c>
-      <c r="I59" s="174"/>
+      <c r="I59" s="189"/>
     </row>
     <row r="61" spans="2:9">
       <c r="G61" t="s">
@@ -10772,15 +10866,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="156" t="s">
+      <c r="A1" s="171" t="s">
         <v>442</v>
       </c>
-      <c r="B1" s="156"/>
-      <c r="C1" s="156"/>
-      <c r="D1" s="156"/>
-      <c r="E1" s="156"/>
-      <c r="F1" s="156"/>
-      <c r="G1" s="156"/>
+      <c r="B1" s="171"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
+      <c r="E1" s="171"/>
+      <c r="F1" s="171"/>
+      <c r="G1" s="171"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="143" t="s">
@@ -10890,15 +10984,15 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="156" t="s">
+      <c r="A12" s="171" t="s">
         <v>441</v>
       </c>
-      <c r="B12" s="156"/>
-      <c r="C12" s="156"/>
-      <c r="D12" s="156"/>
-      <c r="E12" s="156"/>
-      <c r="F12" s="156"/>
-      <c r="G12" s="156"/>
+      <c r="B12" s="171"/>
+      <c r="C12" s="171"/>
+      <c r="D12" s="171"/>
+      <c r="E12" s="171"/>
+      <c r="F12" s="171"/>
+      <c r="G12" s="171"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="143" t="s">
@@ -13914,7 +14008,7 @@
       <c r="G4" s="15"/>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="157" t="s">
+      <c r="B5" s="172" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="15" t="s">
@@ -13934,7 +14028,7 @@
       </c>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="157"/>
+      <c r="B6" s="172"/>
       <c r="C6" s="15" t="s">
         <v>17</v>
       </c>
@@ -13950,7 +14044,7 @@
       </c>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="157"/>
+      <c r="B7" s="172"/>
       <c r="C7" s="16" t="s">
         <v>31</v>
       </c>
@@ -13968,7 +14062,7 @@
       </c>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="157"/>
+      <c r="B8" s="172"/>
       <c r="C8" s="16" t="s">
         <v>32</v>
       </c>
@@ -13986,7 +14080,7 @@
       </c>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="157"/>
+      <c r="B9" s="172"/>
       <c r="C9" s="16" t="s">
         <v>33</v>
       </c>
@@ -14004,7 +14098,7 @@
       </c>
     </row>
     <row r="10" spans="2:7" ht="26">
-      <c r="B10" s="157"/>
+      <c r="B10" s="172"/>
       <c r="C10" s="16" t="s">
         <v>13</v>
       </c>
@@ -14022,7 +14116,7 @@
       </c>
     </row>
     <row r="11" spans="2:7" ht="39">
-      <c r="B11" s="158" t="s">
+      <c r="B11" s="173" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="18" t="s">
@@ -14042,7 +14136,7 @@
       </c>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="159"/>
+      <c r="B12" s="174"/>
       <c r="C12" s="15" t="s">
         <v>15</v>
       </c>
@@ -14056,7 +14150,7 @@
       </c>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="160"/>
+      <c r="B13" s="175"/>
       <c r="C13" s="15" t="s">
         <v>16</v>
       </c>

--- a/doc/android.xlsx
+++ b/doc/android.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11014"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF0BC7D5-8F13-0F42-9582-247A51A3BE95}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37B266DA-C7F8-A347-BB87-C3C2FF81D5FB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="6" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" firstSheet="6" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Android Doc reads" sheetId="16" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="基于监听的事件处理机制" sheetId="12" r:id="rId11"/>
     <sheet name="==与equals" sheetId="7" r:id="rId12"/>
     <sheet name="hashCode" sheetId="9" r:id="rId13"/>
-    <sheet name="drawabe_svg" sheetId="20" r:id="rId14"/>
+    <sheet name="Bitmap.Config" sheetId="20" r:id="rId14"/>
     <sheet name="drawable_分辨率" sheetId="19" r:id="rId15"/>
     <sheet name="drawable_2" sheetId="18" r:id="rId16"/>
     <sheet name="drawable_缩放" sheetId="17" r:id="rId17"/>
@@ -99,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="513">
   <si>
     <t>Activity</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2015,31 +2015,29 @@
     <t xml:space="preserve">      </t>
   </si>
   <si>
-    <t>1440 x 1960px</t>
-  </si>
-  <si>
-    <t>screen</t>
-  </si>
-  <si>
-    <t>ImageView</t>
-  </si>
-  <si>
-    <t>1440 x 1960 px</t>
-  </si>
-  <si>
-    <t>800 x 800 px</t>
-  </si>
-  <si>
-    <t>svg</t>
-  </si>
-  <si>
-    <t>png</t>
-  </si>
-  <si>
-    <t>16.60ms</t>
-  </si>
-  <si>
-    <t>0.18ms</t>
+    <t>ALPHA_8</t>
+  </si>
+  <si>
+    <t>Bitmap.Config</t>
+  </si>
+  <si>
+    <t>ARGB_8888</t>
+  </si>
+  <si>
+    <t>HARDWARE</t>
+  </si>
+  <si>
+    <t>RGBA_F16</t>
+  </si>
+  <si>
+    <t>RGB_565</t>
+  </si>
+  <si>
+    <t>ARGB_4444
+(Depressed)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1 pixel's Memory (byte)</t>
   </si>
 </sst>
 </file>
@@ -3008,7 +3006,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="195">
+  <cellXfs count="200">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3314,6 +3312,21 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="54" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="55" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3375,16 +3388,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -8967,11 +8980,11 @@
       <c r="C6" s="94"/>
       <c r="D6" s="101"/>
       <c r="E6" s="96"/>
-      <c r="F6" s="176" t="s">
+      <c r="F6" s="181" t="s">
         <v>392</v>
       </c>
-      <c r="G6" s="177"/>
-      <c r="H6" s="178"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="183"/>
       <c r="I6" s="96"/>
       <c r="J6" s="102"/>
       <c r="K6" s="94"/>
@@ -8991,9 +9004,9 @@
       <c r="C7" s="94"/>
       <c r="D7" s="101"/>
       <c r="E7" s="96"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="180"/>
-      <c r="H7" s="181"/>
+      <c r="F7" s="184"/>
+      <c r="G7" s="185"/>
+      <c r="H7" s="186"/>
       <c r="I7" s="96"/>
       <c r="J7" s="102"/>
       <c r="K7" s="95"/>
@@ -9013,9 +9026,9 @@
       <c r="C8" s="94"/>
       <c r="D8" s="101"/>
       <c r="E8" s="96"/>
-      <c r="F8" s="179"/>
-      <c r="G8" s="180"/>
-      <c r="H8" s="181"/>
+      <c r="F8" s="184"/>
+      <c r="G8" s="185"/>
+      <c r="H8" s="186"/>
       <c r="I8" s="96"/>
       <c r="J8" s="102"/>
       <c r="K8" s="94"/>
@@ -9034,9 +9047,9 @@
       <c r="B9" s="94"/>
       <c r="C9" s="94"/>
       <c r="D9" s="101"/>
-      <c r="F9" s="179"/>
-      <c r="G9" s="180"/>
-      <c r="H9" s="181"/>
+      <c r="F9" s="184"/>
+      <c r="G9" s="185"/>
+      <c r="H9" s="186"/>
       <c r="I9" s="96"/>
       <c r="J9" s="102"/>
       <c r="K9" s="94"/>
@@ -9055,9 +9068,9 @@
       <c r="B10" s="94"/>
       <c r="C10" s="94"/>
       <c r="D10" s="101"/>
-      <c r="F10" s="182"/>
-      <c r="G10" s="183"/>
-      <c r="H10" s="184"/>
+      <c r="F10" s="187"/>
+      <c r="G10" s="188"/>
+      <c r="H10" s="189"/>
       <c r="I10" s="129"/>
       <c r="J10" s="102"/>
       <c r="K10" s="94"/>
@@ -9729,16 +9742,16 @@
     </row>
     <row r="18" spans="5:8">
       <c r="E18" s="137"/>
-      <c r="F18" s="185" t="s">
+      <c r="F18" s="190" t="s">
         <v>395</v>
       </c>
-      <c r="G18" s="186"/>
+      <c r="G18" s="191"/>
       <c r="H18" s="135"/>
     </row>
     <row r="19" spans="5:8">
       <c r="E19" s="137"/>
-      <c r="F19" s="187"/>
-      <c r="G19" s="188"/>
+      <c r="F19" s="192"/>
+      <c r="G19" s="193"/>
       <c r="H19" s="135"/>
     </row>
     <row r="20" spans="5:8">
@@ -10234,55 +10247,76 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDFDE749-2C0C-C548-8C4F-6EF43EA89AA0}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="B2:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" style="171" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
+    <row r="2" spans="2:3">
+      <c r="B2" s="196" t="s">
         <v>506</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C2" s="151" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" s="197" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="C3" s="150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="32">
+      <c r="B4" s="199" t="s">
+        <v>511</v>
+      </c>
+      <c r="C4" s="150">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" s="197" t="s">
         <v>507</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C5" s="150">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" s="197" t="s">
+        <v>508</v>
+      </c>
+      <c r="C6" s="198" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" s="197" t="s">
+        <v>509</v>
+      </c>
+      <c r="C7" s="150">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" s="197" t="s">
         <v>510</v>
       </c>
-      <c r="C2" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>508</v>
-      </c>
-      <c r="B3" t="s">
-        <v>512</v>
-      </c>
-      <c r="C3" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>509</v>
-      </c>
-      <c r="B4">
-        <v>3.4</v>
-      </c>
+      <c r="C8" s="150">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" s="149"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10421,7 +10455,7 @@
       <c r="B1" s="151" t="s">
         <v>459</v>
       </c>
-      <c r="C1" s="191" t="s">
+      <c r="C1" s="172" t="s">
         <v>476</v>
       </c>
       <c r="D1" s="151" t="s">
@@ -10444,7 +10478,7 @@
       <c r="B2" s="150" t="s">
         <v>460</v>
       </c>
-      <c r="C2" s="192" t="s">
+      <c r="C2" s="173" t="s">
         <v>470</v>
       </c>
       <c r="D2" s="150">
@@ -10468,7 +10502,7 @@
       <c r="B3" s="161" t="s">
         <v>461</v>
       </c>
-      <c r="C3" s="192" t="s">
+      <c r="C3" s="173" t="s">
         <v>471</v>
       </c>
       <c r="D3" s="150">
@@ -10492,7 +10526,7 @@
       <c r="B4" s="150" t="s">
         <v>462</v>
       </c>
-      <c r="C4" s="192" t="s">
+      <c r="C4" s="173" t="s">
         <v>475</v>
       </c>
       <c r="D4" s="150">
@@ -10515,7 +10549,7 @@
       <c r="B5" s="150" t="s">
         <v>463</v>
       </c>
-      <c r="C5" s="192" t="s">
+      <c r="C5" s="173" t="s">
         <v>474</v>
       </c>
       <c r="D5" s="150">
@@ -10561,7 +10595,7 @@
       <c r="B7" s="150" t="s">
         <v>465</v>
       </c>
-      <c r="C7" s="192" t="s">
+      <c r="C7" s="173" t="s">
         <v>472</v>
       </c>
       <c r="D7" s="150">
@@ -10582,7 +10616,7 @@
       <c r="B8" s="162" t="s">
         <v>482</v>
       </c>
-      <c r="C8" s="193"/>
+      <c r="C8" s="174"/>
       <c r="D8" s="162"/>
       <c r="E8" s="163">
         <v>0.49</v>
@@ -10597,7 +10631,7 @@
     <row r="9" spans="1:11" s="23" customFormat="1">
       <c r="A9" s="32"/>
       <c r="B9" s="32"/>
-      <c r="C9" s="194"/>
+      <c r="C9" s="175"/>
       <c r="D9" s="29"/>
       <c r="E9" s="157"/>
       <c r="F9" s="29"/>
@@ -10696,8 +10730,8 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="F10" s="189"/>
-      <c r="G10" s="189"/>
+      <c r="F10" s="194"/>
+      <c r="G10" s="194"/>
       <c r="I10" t="s">
         <v>453</v>
       </c>
@@ -10738,8 +10772,8 @@
       </c>
     </row>
     <row r="32" spans="2:9">
-      <c r="F32" s="189"/>
-      <c r="G32" s="189"/>
+      <c r="F32" s="194"/>
+      <c r="G32" s="194"/>
       <c r="I32" t="s">
         <v>450</v>
       </c>
@@ -10792,10 +10826,10 @@
       </c>
     </row>
     <row r="12" spans="2:10">
-      <c r="H12" s="190" t="s">
+      <c r="H12" s="195" t="s">
         <v>399</v>
       </c>
-      <c r="I12" s="190"/>
+      <c r="I12" s="195"/>
     </row>
     <row r="14" spans="2:10">
       <c r="J14" t="s">
@@ -10808,10 +10842,10 @@
       </c>
     </row>
     <row r="28" spans="2:9">
-      <c r="H28" s="189" t="s">
+      <c r="H28" s="194" t="s">
         <v>403</v>
       </c>
-      <c r="I28" s="189"/>
+      <c r="I28" s="194"/>
     </row>
     <row r="39" spans="2:9">
       <c r="B39" t="s">
@@ -10819,10 +10853,10 @@
       </c>
     </row>
     <row r="43" spans="2:9">
-      <c r="H43" s="190" t="s">
+      <c r="H43" s="195" t="s">
         <v>406</v>
       </c>
-      <c r="I43" s="190"/>
+      <c r="I43" s="195"/>
     </row>
     <row r="54" spans="2:9">
       <c r="B54" t="s">
@@ -10830,10 +10864,10 @@
       </c>
     </row>
     <row r="59" spans="2:9">
-      <c r="H59" s="189" t="s">
+      <c r="H59" s="194" t="s">
         <v>403</v>
       </c>
-      <c r="I59" s="189"/>
+      <c r="I59" s="194"/>
     </row>
     <row r="61" spans="2:9">
       <c r="G61" t="s">
@@ -10866,15 +10900,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="171" t="s">
+      <c r="A1" s="176" t="s">
         <v>442</v>
       </c>
-      <c r="B1" s="171"/>
-      <c r="C1" s="171"/>
-      <c r="D1" s="171"/>
-      <c r="E1" s="171"/>
-      <c r="F1" s="171"/>
-      <c r="G1" s="171"/>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="143" t="s">
@@ -10984,15 +11018,15 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="171" t="s">
+      <c r="A12" s="176" t="s">
         <v>441</v>
       </c>
-      <c r="B12" s="171"/>
-      <c r="C12" s="171"/>
-      <c r="D12" s="171"/>
-      <c r="E12" s="171"/>
-      <c r="F12" s="171"/>
-      <c r="G12" s="171"/>
+      <c r="B12" s="176"/>
+      <c r="C12" s="176"/>
+      <c r="D12" s="176"/>
+      <c r="E12" s="176"/>
+      <c r="F12" s="176"/>
+      <c r="G12" s="176"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="143" t="s">
@@ -14008,7 +14042,7 @@
       <c r="G4" s="15"/>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="172" t="s">
+      <c r="B5" s="177" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="15" t="s">
@@ -14028,7 +14062,7 @@
       </c>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="172"/>
+      <c r="B6" s="177"/>
       <c r="C6" s="15" t="s">
         <v>17</v>
       </c>
@@ -14044,7 +14078,7 @@
       </c>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="172"/>
+      <c r="B7" s="177"/>
       <c r="C7" s="16" t="s">
         <v>31</v>
       </c>
@@ -14062,7 +14096,7 @@
       </c>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="172"/>
+      <c r="B8" s="177"/>
       <c r="C8" s="16" t="s">
         <v>32</v>
       </c>
@@ -14080,7 +14114,7 @@
       </c>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="172"/>
+      <c r="B9" s="177"/>
       <c r="C9" s="16" t="s">
         <v>33</v>
       </c>
@@ -14098,7 +14132,7 @@
       </c>
     </row>
     <row r="10" spans="2:7" ht="26">
-      <c r="B10" s="172"/>
+      <c r="B10" s="177"/>
       <c r="C10" s="16" t="s">
         <v>13</v>
       </c>
@@ -14116,7 +14150,7 @@
       </c>
     </row>
     <row r="11" spans="2:7" ht="39">
-      <c r="B11" s="173" t="s">
+      <c r="B11" s="178" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="18" t="s">
@@ -14136,7 +14170,7 @@
       </c>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="174"/>
+      <c r="B12" s="179"/>
       <c r="C12" s="15" t="s">
         <v>15</v>
       </c>
@@ -14150,7 +14184,7 @@
       </c>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="175"/>
+      <c r="B13" s="180"/>
       <c r="C13" s="15" t="s">
         <v>16</v>
       </c>

--- a/doc/android.xlsx
+++ b/doc/android.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11014"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37B266DA-C7F8-A347-BB87-C3C2FF81D5FB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC657A16-4B15-B945-A3A4-8DDEA3C35504}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" firstSheet="6" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="960" yWindow="460" windowWidth="27840" windowHeight="17540" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Android Doc reads" sheetId="16" r:id="rId1"/>
@@ -14,18 +14,19 @@
     <sheet name="Android高级应用开发-深入篇" sheetId="5" r:id="rId4"/>
     <sheet name="反编译" sheetId="8" r:id="rId5"/>
     <sheet name="Android高级应用开发-基础篇_74UI开发的2+1法则" sheetId="1" r:id="rId6"/>
-    <sheet name="版本控制" sheetId="2" r:id="rId7"/>
-    <sheet name="Adapter" sheetId="3" r:id="rId8"/>
-    <sheet name="消息机制" sheetId="6" r:id="rId9"/>
-    <sheet name="消息机制模型" sheetId="10" r:id="rId10"/>
-    <sheet name="基于监听的事件处理机制" sheetId="12" r:id="rId11"/>
-    <sheet name="==与equals" sheetId="7" r:id="rId12"/>
-    <sheet name="hashCode" sheetId="9" r:id="rId13"/>
-    <sheet name="Bitmap.Config" sheetId="20" r:id="rId14"/>
-    <sheet name="drawable_分辨率" sheetId="19" r:id="rId15"/>
-    <sheet name="drawable_2" sheetId="18" r:id="rId16"/>
-    <sheet name="drawable_缩放" sheetId="17" r:id="rId17"/>
-    <sheet name="IO" sheetId="13" r:id="rId18"/>
+    <sheet name="AcrossAppAccess" sheetId="21" r:id="rId7"/>
+    <sheet name="版本控制" sheetId="2" r:id="rId8"/>
+    <sheet name="Adapter" sheetId="3" r:id="rId9"/>
+    <sheet name="消息机制" sheetId="6" r:id="rId10"/>
+    <sheet name="消息机制模型" sheetId="10" r:id="rId11"/>
+    <sheet name="基于监听的事件处理机制" sheetId="12" r:id="rId12"/>
+    <sheet name="==与equals" sheetId="7" r:id="rId13"/>
+    <sheet name="hashCode" sheetId="9" r:id="rId14"/>
+    <sheet name="Bitmap.Config" sheetId="20" r:id="rId15"/>
+    <sheet name="drawable_分辨率" sheetId="19" r:id="rId16"/>
+    <sheet name="drawable_2" sheetId="18" r:id="rId17"/>
+    <sheet name="drawable_缩放" sheetId="17" r:id="rId18"/>
+    <sheet name="IO" sheetId="13" r:id="rId19"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Android高级应用开发-深入篇'!$A$1:$C$222</definedName>
@@ -99,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="524">
   <si>
     <t>Activity</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2039,12 +2040,47 @@
   <si>
     <t xml:space="preserve"> 1 pixel's Memory (byte)</t>
   </si>
+  <si>
+    <t>Allow other app to start your activity</t>
+  </si>
+  <si>
+    <t>android:exported</t>
+  </si>
+  <si>
+    <t>android:sharedUserId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;intent-filter&gt; </t>
+  </si>
+  <si>
+    <t>java.lang.SecurityException: Permission Denial</t>
+  </si>
+  <si>
+    <t>Activity can be launched by components from other app?</t>
+  </si>
+  <si>
+    <t>HAVE</t>
+  </si>
+  <si>
+    <t>Explicit Intent</t>
+  </si>
+  <si>
+    <t>NOT HAVE</t>
+  </si>
+  <si>
+    <t>1 Explicit Intent
+2 Can not Implicit Intent:ActivityNotFoundException</t>
+  </si>
+  <si>
+    <t>1 Explicit Intent
+2 Implicit Inten</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="39">
+  <fonts count="40">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2328,6 +2364,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3006,7 +3049,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="200">
+  <cellXfs count="202">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3327,6 +3370,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3387,18 +3442,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -8872,6 +8919,267 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="B2:U32"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="3.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:21" ht="16" thickBot="1">
+      <c r="H2" s="69" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="3" spans="2:21">
+      <c r="G3" s="19"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="21"/>
+    </row>
+    <row r="4" spans="2:21">
+      <c r="G4" s="72" t="s">
+        <v>329</v>
+      </c>
+      <c r="H4" s="73"/>
+      <c r="I4" s="74"/>
+    </row>
+    <row r="5" spans="2:21">
+      <c r="G5" s="72" t="s">
+        <v>328</v>
+      </c>
+      <c r="H5" s="73"/>
+      <c r="I5" s="74"/>
+    </row>
+    <row r="6" spans="2:21" ht="16" thickBot="1">
+      <c r="C6" s="70" t="s">
+        <v>320</v>
+      </c>
+      <c r="E6" s="69" t="s">
+        <v>326</v>
+      </c>
+      <c r="G6" s="72" t="s">
+        <v>331</v>
+      </c>
+      <c r="H6" s="73"/>
+      <c r="I6" s="74"/>
+    </row>
+    <row r="7" spans="2:21" ht="16" thickBot="1">
+      <c r="B7" s="19"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="21"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="27"/>
+    </row>
+    <row r="8" spans="2:21">
+      <c r="B8" s="22"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="24"/>
+    </row>
+    <row r="9" spans="2:21">
+      <c r="B9" s="22"/>
+      <c r="C9" s="76" t="s">
+        <v>322</v>
+      </c>
+      <c r="D9" s="24"/>
+    </row>
+    <row r="10" spans="2:21">
+      <c r="B10" s="22"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="24"/>
+      <c r="G10" s="79" t="s">
+        <v>335</v>
+      </c>
+      <c r="H10" s="79"/>
+      <c r="I10" s="79"/>
+      <c r="J10" s="79"/>
+      <c r="K10" s="79"/>
+      <c r="L10" s="79"/>
+      <c r="M10" s="79"/>
+      <c r="N10" s="79"/>
+      <c r="O10" s="79"/>
+      <c r="P10" s="79"/>
+      <c r="Q10" s="79"/>
+      <c r="R10" s="79"/>
+      <c r="S10" s="79"/>
+      <c r="T10" s="79"/>
+      <c r="U10" s="79"/>
+    </row>
+    <row r="11" spans="2:21">
+      <c r="B11" s="22"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="24"/>
+      <c r="G11" s="79" t="s">
+        <v>330</v>
+      </c>
+      <c r="H11" s="79"/>
+      <c r="I11" s="79"/>
+      <c r="J11" s="79"/>
+      <c r="K11" s="79"/>
+      <c r="L11" s="79"/>
+      <c r="M11" s="79"/>
+      <c r="N11" s="79"/>
+      <c r="O11" s="79"/>
+      <c r="P11" s="79"/>
+      <c r="Q11" s="79"/>
+      <c r="R11" s="79"/>
+      <c r="S11" s="79"/>
+      <c r="T11" s="79"/>
+      <c r="U11" s="79"/>
+    </row>
+    <row r="12" spans="2:21">
+      <c r="B12" s="22"/>
+      <c r="C12" s="77"/>
+      <c r="D12" s="24"/>
+      <c r="G12" s="79" t="s">
+        <v>332</v>
+      </c>
+      <c r="H12" s="79"/>
+      <c r="I12" s="79"/>
+      <c r="J12" s="79"/>
+      <c r="K12" s="79"/>
+      <c r="L12" s="79"/>
+      <c r="M12" s="79"/>
+      <c r="N12" s="79"/>
+      <c r="O12" s="79"/>
+      <c r="P12" s="79"/>
+      <c r="Q12" s="79"/>
+      <c r="R12" s="79"/>
+      <c r="S12" s="79"/>
+      <c r="T12" s="79"/>
+      <c r="U12" s="79"/>
+    </row>
+    <row r="13" spans="2:21">
+      <c r="B13" s="22"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="24"/>
+    </row>
+    <row r="14" spans="2:21">
+      <c r="B14" s="22"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="24"/>
+    </row>
+    <row r="15" spans="2:21">
+      <c r="B15" s="22"/>
+      <c r="C15" s="77"/>
+      <c r="D15" s="24"/>
+      <c r="G15" s="79" t="s">
+        <v>333</v>
+      </c>
+      <c r="H15" s="79"/>
+      <c r="I15" s="79"/>
+      <c r="J15" s="79"/>
+    </row>
+    <row r="16" spans="2:21">
+      <c r="B16" s="22"/>
+      <c r="C16" s="77"/>
+      <c r="D16" s="24"/>
+    </row>
+    <row r="17" spans="2:15">
+      <c r="B17" s="22"/>
+      <c r="C17" s="77"/>
+      <c r="D17" s="24"/>
+    </row>
+    <row r="18" spans="2:15">
+      <c r="B18" s="22"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="24"/>
+    </row>
+    <row r="19" spans="2:15">
+      <c r="B19" s="22"/>
+      <c r="C19" s="77"/>
+      <c r="D19" s="24"/>
+    </row>
+    <row r="20" spans="2:15">
+      <c r="B20" s="22"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="24"/>
+    </row>
+    <row r="21" spans="2:15">
+      <c r="B21" s="22"/>
+      <c r="C21" s="77"/>
+      <c r="D21" s="24"/>
+    </row>
+    <row r="22" spans="2:15" ht="16" thickBot="1">
+      <c r="B22" s="22"/>
+      <c r="C22" s="77"/>
+      <c r="D22" s="24"/>
+    </row>
+    <row r="23" spans="2:15" ht="16" thickBot="1">
+      <c r="B23" s="22"/>
+      <c r="C23" s="78"/>
+      <c r="D23" s="24"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="66"/>
+      <c r="J23" s="66"/>
+    </row>
+    <row r="24" spans="2:15" ht="16" thickBot="1">
+      <c r="B24" s="25"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="27"/>
+      <c r="F24" s="67" t="s">
+        <v>324</v>
+      </c>
+      <c r="G24" s="67" t="s">
+        <v>324</v>
+      </c>
+      <c r="H24" s="67" t="s">
+        <v>324</v>
+      </c>
+      <c r="I24" s="67" t="s">
+        <v>324</v>
+      </c>
+      <c r="J24" s="67" t="s">
+        <v>325</v>
+      </c>
+      <c r="K24" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15">
+      <c r="F25" s="67"/>
+      <c r="G25" s="67"/>
+      <c r="H25" s="67"/>
+      <c r="I25" s="67"/>
+      <c r="J25" s="67"/>
+    </row>
+    <row r="26" spans="2:15" ht="16" thickBot="1">
+      <c r="F26" s="68"/>
+      <c r="G26" s="68"/>
+      <c r="H26" s="68"/>
+      <c r="I26" s="68"/>
+      <c r="J26" s="68"/>
+    </row>
+    <row r="28" spans="2:15">
+      <c r="K28" s="71" t="s">
+        <v>327</v>
+      </c>
+      <c r="L28" s="71"/>
+      <c r="M28" s="71"/>
+      <c r="N28" s="71"/>
+      <c r="O28" s="65"/>
+    </row>
+    <row r="32" spans="2:15">
+      <c r="H32" s="79" t="s">
+        <v>334</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA80C652-EB11-2747-89DA-E4ABA79A811D}">
   <dimension ref="A2:T38"/>
   <sheetViews>
@@ -8980,11 +9288,11 @@
       <c r="C6" s="94"/>
       <c r="D6" s="101"/>
       <c r="E6" s="96"/>
-      <c r="F6" s="181" t="s">
+      <c r="F6" s="185" t="s">
         <v>392</v>
       </c>
-      <c r="G6" s="182"/>
-      <c r="H6" s="183"/>
+      <c r="G6" s="186"/>
+      <c r="H6" s="187"/>
       <c r="I6" s="96"/>
       <c r="J6" s="102"/>
       <c r="K6" s="94"/>
@@ -9004,9 +9312,9 @@
       <c r="C7" s="94"/>
       <c r="D7" s="101"/>
       <c r="E7" s="96"/>
-      <c r="F7" s="184"/>
-      <c r="G7" s="185"/>
-      <c r="H7" s="186"/>
+      <c r="F7" s="188"/>
+      <c r="G7" s="189"/>
+      <c r="H7" s="190"/>
       <c r="I7" s="96"/>
       <c r="J7" s="102"/>
       <c r="K7" s="95"/>
@@ -9026,9 +9334,9 @@
       <c r="C8" s="94"/>
       <c r="D8" s="101"/>
       <c r="E8" s="96"/>
-      <c r="F8" s="184"/>
-      <c r="G8" s="185"/>
-      <c r="H8" s="186"/>
+      <c r="F8" s="188"/>
+      <c r="G8" s="189"/>
+      <c r="H8" s="190"/>
       <c r="I8" s="96"/>
       <c r="J8" s="102"/>
       <c r="K8" s="94"/>
@@ -9047,9 +9355,9 @@
       <c r="B9" s="94"/>
       <c r="C9" s="94"/>
       <c r="D9" s="101"/>
-      <c r="F9" s="184"/>
-      <c r="G9" s="185"/>
-      <c r="H9" s="186"/>
+      <c r="F9" s="188"/>
+      <c r="G9" s="189"/>
+      <c r="H9" s="190"/>
       <c r="I9" s="96"/>
       <c r="J9" s="102"/>
       <c r="K9" s="94"/>
@@ -9068,9 +9376,9 @@
       <c r="B10" s="94"/>
       <c r="C10" s="94"/>
       <c r="D10" s="101"/>
-      <c r="F10" s="187"/>
-      <c r="G10" s="188"/>
-      <c r="H10" s="189"/>
+      <c r="F10" s="191"/>
+      <c r="G10" s="192"/>
+      <c r="H10" s="193"/>
       <c r="I10" s="129"/>
       <c r="J10" s="102"/>
       <c r="K10" s="94"/>
@@ -9662,7 +9970,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E7778B8-D430-A34A-995E-0F83AC473C52}">
   <dimension ref="E8:K35"/>
   <sheetViews>
@@ -9742,16 +10050,16 @@
     </row>
     <row r="18" spans="5:8">
       <c r="E18" s="137"/>
-      <c r="F18" s="190" t="s">
+      <c r="F18" s="194" t="s">
         <v>395</v>
       </c>
-      <c r="G18" s="191"/>
+      <c r="G18" s="195"/>
       <c r="H18" s="135"/>
     </row>
     <row r="19" spans="5:8">
       <c r="E19" s="137"/>
-      <c r="F19" s="192"/>
-      <c r="G19" s="193"/>
+      <c r="F19" s="196"/>
+      <c r="G19" s="197"/>
       <c r="H19" s="135"/>
     </row>
     <row r="20" spans="5:8">
@@ -9847,7 +10155,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B1:K25"/>
   <sheetViews>
@@ -10062,7 +10370,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A3:E21"/>
   <sheetViews>
@@ -10245,11 +10553,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDFDE749-2C0C-C548-8C4F-6EF43EA89AA0}">
   <dimension ref="B2:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -10260,7 +10568,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3">
-      <c r="B2" s="196" t="s">
+      <c r="B2" s="176" t="s">
         <v>506</v>
       </c>
       <c r="C2" s="151" t="s">
@@ -10268,7 +10576,7 @@
       </c>
     </row>
     <row r="3" spans="2:3">
-      <c r="B3" s="197" t="s">
+      <c r="B3" s="177" t="s">
         <v>505</v>
       </c>
       <c r="C3" s="150">
@@ -10276,7 +10584,7 @@
       </c>
     </row>
     <row r="4" spans="2:3" ht="32">
-      <c r="B4" s="199" t="s">
+      <c r="B4" s="179" t="s">
         <v>511</v>
       </c>
       <c r="C4" s="150">
@@ -10284,7 +10592,7 @@
       </c>
     </row>
     <row r="5" spans="2:3">
-      <c r="B5" s="197" t="s">
+      <c r="B5" s="177" t="s">
         <v>507</v>
       </c>
       <c r="C5" s="150">
@@ -10292,15 +10600,15 @@
       </c>
     </row>
     <row r="6" spans="2:3">
-      <c r="B6" s="197" t="s">
+      <c r="B6" s="177" t="s">
         <v>508</v>
       </c>
-      <c r="C6" s="198" t="s">
+      <c r="C6" s="178" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="7" spans="2:3">
-      <c r="B7" s="197" t="s">
+      <c r="B7" s="177" t="s">
         <v>509</v>
       </c>
       <c r="C7" s="150">
@@ -10308,7 +10616,7 @@
       </c>
     </row>
     <row r="8" spans="2:3">
-      <c r="B8" s="197" t="s">
+      <c r="B8" s="177" t="s">
         <v>510</v>
       </c>
       <c r="C8" s="150">
@@ -10323,7 +10631,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D86ED6A2-BD47-244B-AD18-088367512271}">
   <dimension ref="B2:M10"/>
   <sheetViews>
@@ -10427,7 +10735,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A51D4780-106D-3C46-B51D-1FAF5E0D4E2A}">
   <dimension ref="A1:K27"/>
   <sheetViews>
@@ -10694,7 +11002,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{112C5F8E-5AB4-3747-B9CF-9A1C944F7742}">
   <dimension ref="A1:I35"/>
   <sheetViews>
@@ -10730,8 +11038,8 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="F10" s="194"/>
-      <c r="G10" s="194"/>
+      <c r="F10" s="198"/>
+      <c r="G10" s="198"/>
       <c r="I10" t="s">
         <v>453</v>
       </c>
@@ -10772,8 +11080,8 @@
       </c>
     </row>
     <row r="32" spans="2:9">
-      <c r="F32" s="194"/>
-      <c r="G32" s="194"/>
+      <c r="F32" s="198"/>
+      <c r="G32" s="198"/>
       <c r="I32" t="s">
         <v>450</v>
       </c>
@@ -10805,7 +11113,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDE8B8C4-352E-054D-A843-45DFD254B784}">
   <dimension ref="B2:J61"/>
   <sheetViews>
@@ -10826,10 +11134,10 @@
       </c>
     </row>
     <row r="12" spans="2:10">
-      <c r="H12" s="195" t="s">
+      <c r="H12" s="199" t="s">
         <v>399</v>
       </c>
-      <c r="I12" s="195"/>
+      <c r="I12" s="199"/>
     </row>
     <row r="14" spans="2:10">
       <c r="J14" t="s">
@@ -10842,10 +11150,10 @@
       </c>
     </row>
     <row r="28" spans="2:9">
-      <c r="H28" s="194" t="s">
+      <c r="H28" s="198" t="s">
         <v>403</v>
       </c>
-      <c r="I28" s="194"/>
+      <c r="I28" s="198"/>
     </row>
     <row r="39" spans="2:9">
       <c r="B39" t="s">
@@ -10853,10 +11161,10 @@
       </c>
     </row>
     <row r="43" spans="2:9">
-      <c r="H43" s="195" t="s">
+      <c r="H43" s="199" t="s">
         <v>406</v>
       </c>
-      <c r="I43" s="195"/>
+      <c r="I43" s="199"/>
     </row>
     <row r="54" spans="2:9">
       <c r="B54" t="s">
@@ -10864,10 +11172,10 @@
       </c>
     </row>
     <row r="59" spans="2:9">
-      <c r="H59" s="194" t="s">
+      <c r="H59" s="198" t="s">
         <v>403</v>
       </c>
-      <c r="I59" s="194"/>
+      <c r="I59" s="198"/>
     </row>
     <row r="61" spans="2:9">
       <c r="G61" t="s">
@@ -10900,15 +11208,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="176" t="s">
+      <c r="A1" s="180" t="s">
         <v>442</v>
       </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="143" t="s">
@@ -11018,15 +11326,15 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="176" t="s">
+      <c r="A12" s="180" t="s">
         <v>441</v>
       </c>
-      <c r="B12" s="176"/>
-      <c r="C12" s="176"/>
-      <c r="D12" s="176"/>
-      <c r="E12" s="176"/>
-      <c r="F12" s="176"/>
-      <c r="G12" s="176"/>
+      <c r="B12" s="180"/>
+      <c r="C12" s="180"/>
+      <c r="D12" s="180"/>
+      <c r="E12" s="180"/>
+      <c r="F12" s="180"/>
+      <c r="G12" s="180"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="143" t="s">
@@ -13987,6 +14295,122 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A0C945C-04F2-D147-89E5-6DDFCFB3EEA7}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="22.1640625" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="4" max="4" width="52.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="199" t="s">
+        <v>513</v>
+      </c>
+      <c r="B1" s="199"/>
+      <c r="C1" s="199"/>
+      <c r="D1" s="199"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="143" t="s">
+        <v>514</v>
+      </c>
+      <c r="B2" s="143" t="s">
+        <v>515</v>
+      </c>
+      <c r="C2" s="143" t="s">
+        <v>516</v>
+      </c>
+      <c r="D2" s="143" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="144" t="b">
+        <v>0</v>
+      </c>
+      <c r="B3" s="144" t="s">
+        <v>521</v>
+      </c>
+      <c r="C3" s="144" t="s">
+        <v>521</v>
+      </c>
+      <c r="D3" s="201" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="144" t="b">
+        <v>0</v>
+      </c>
+      <c r="B4" s="144" t="s">
+        <v>519</v>
+      </c>
+      <c r="C4" s="144" t="s">
+        <v>521</v>
+      </c>
+      <c r="D4" s="144" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="144" t="b">
+        <v>0</v>
+      </c>
+      <c r="B5" s="144" t="s">
+        <v>521</v>
+      </c>
+      <c r="C5" s="144" t="s">
+        <v>519</v>
+      </c>
+      <c r="D5" s="201" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="32">
+      <c r="A6" s="144" t="b">
+        <v>1</v>
+      </c>
+      <c r="B6" s="144" t="s">
+        <v>521</v>
+      </c>
+      <c r="C6" s="144" t="s">
+        <v>521</v>
+      </c>
+      <c r="D6" s="200" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="32">
+      <c r="A7" s="144" t="b">
+        <v>1</v>
+      </c>
+      <c r="B7" s="144" t="s">
+        <v>521</v>
+      </c>
+      <c r="C7" s="144" t="s">
+        <v>519</v>
+      </c>
+      <c r="D7" s="200" t="s">
+        <v>523</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B3:G13"/>
   <sheetViews>
@@ -14042,7 +14466,7 @@
       <c r="G4" s="15"/>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="177" t="s">
+      <c r="B5" s="181" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="15" t="s">
@@ -14062,7 +14486,7 @@
       </c>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="177"/>
+      <c r="B6" s="181"/>
       <c r="C6" s="15" t="s">
         <v>17</v>
       </c>
@@ -14078,7 +14502,7 @@
       </c>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="177"/>
+      <c r="B7" s="181"/>
       <c r="C7" s="16" t="s">
         <v>31</v>
       </c>
@@ -14096,7 +14520,7 @@
       </c>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="177"/>
+      <c r="B8" s="181"/>
       <c r="C8" s="16" t="s">
         <v>32</v>
       </c>
@@ -14114,7 +14538,7 @@
       </c>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="177"/>
+      <c r="B9" s="181"/>
       <c r="C9" s="16" t="s">
         <v>33</v>
       </c>
@@ -14132,7 +14556,7 @@
       </c>
     </row>
     <row r="10" spans="2:7" ht="26">
-      <c r="B10" s="177"/>
+      <c r="B10" s="181"/>
       <c r="C10" s="16" t="s">
         <v>13</v>
       </c>
@@ -14150,7 +14574,7 @@
       </c>
     </row>
     <row r="11" spans="2:7" ht="39">
-      <c r="B11" s="178" t="s">
+      <c r="B11" s="182" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="18" t="s">
@@ -14170,7 +14594,7 @@
       </c>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="179"/>
+      <c r="B12" s="183"/>
       <c r="C12" s="15" t="s">
         <v>15</v>
       </c>
@@ -14184,7 +14608,7 @@
       </c>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="180"/>
+      <c r="B13" s="184"/>
       <c r="C13" s="15" t="s">
         <v>16</v>
       </c>
@@ -14210,7 +14634,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:N24"/>
   <sheetViews>
@@ -14368,265 +14792,4 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="B2:U32"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="3.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:21" ht="16" thickBot="1">
-      <c r="H2" s="69" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="3" spans="2:21">
-      <c r="G3" s="19"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="21"/>
-    </row>
-    <row r="4" spans="2:21">
-      <c r="G4" s="72" t="s">
-        <v>329</v>
-      </c>
-      <c r="H4" s="73"/>
-      <c r="I4" s="74"/>
-    </row>
-    <row r="5" spans="2:21">
-      <c r="G5" s="72" t="s">
-        <v>328</v>
-      </c>
-      <c r="H5" s="73"/>
-      <c r="I5" s="74"/>
-    </row>
-    <row r="6" spans="2:21" ht="16" thickBot="1">
-      <c r="C6" s="70" t="s">
-        <v>320</v>
-      </c>
-      <c r="E6" s="69" t="s">
-        <v>326</v>
-      </c>
-      <c r="G6" s="72" t="s">
-        <v>331</v>
-      </c>
-      <c r="H6" s="73"/>
-      <c r="I6" s="74"/>
-    </row>
-    <row r="7" spans="2:21" ht="16" thickBot="1">
-      <c r="B7" s="19"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="21"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="27"/>
-    </row>
-    <row r="8" spans="2:21">
-      <c r="B8" s="22"/>
-      <c r="C8" s="75"/>
-      <c r="D8" s="24"/>
-    </row>
-    <row r="9" spans="2:21">
-      <c r="B9" s="22"/>
-      <c r="C9" s="76" t="s">
-        <v>322</v>
-      </c>
-      <c r="D9" s="24"/>
-    </row>
-    <row r="10" spans="2:21">
-      <c r="B10" s="22"/>
-      <c r="C10" s="77"/>
-      <c r="D10" s="24"/>
-      <c r="G10" s="79" t="s">
-        <v>335</v>
-      </c>
-      <c r="H10" s="79"/>
-      <c r="I10" s="79"/>
-      <c r="J10" s="79"/>
-      <c r="K10" s="79"/>
-      <c r="L10" s="79"/>
-      <c r="M10" s="79"/>
-      <c r="N10" s="79"/>
-      <c r="O10" s="79"/>
-      <c r="P10" s="79"/>
-      <c r="Q10" s="79"/>
-      <c r="R10" s="79"/>
-      <c r="S10" s="79"/>
-      <c r="T10" s="79"/>
-      <c r="U10" s="79"/>
-    </row>
-    <row r="11" spans="2:21">
-      <c r="B11" s="22"/>
-      <c r="C11" s="77"/>
-      <c r="D11" s="24"/>
-      <c r="G11" s="79" t="s">
-        <v>330</v>
-      </c>
-      <c r="H11" s="79"/>
-      <c r="I11" s="79"/>
-      <c r="J11" s="79"/>
-      <c r="K11" s="79"/>
-      <c r="L11" s="79"/>
-      <c r="M11" s="79"/>
-      <c r="N11" s="79"/>
-      <c r="O11" s="79"/>
-      <c r="P11" s="79"/>
-      <c r="Q11" s="79"/>
-      <c r="R11" s="79"/>
-      <c r="S11" s="79"/>
-      <c r="T11" s="79"/>
-      <c r="U11" s="79"/>
-    </row>
-    <row r="12" spans="2:21">
-      <c r="B12" s="22"/>
-      <c r="C12" s="77"/>
-      <c r="D12" s="24"/>
-      <c r="G12" s="79" t="s">
-        <v>332</v>
-      </c>
-      <c r="H12" s="79"/>
-      <c r="I12" s="79"/>
-      <c r="J12" s="79"/>
-      <c r="K12" s="79"/>
-      <c r="L12" s="79"/>
-      <c r="M12" s="79"/>
-      <c r="N12" s="79"/>
-      <c r="O12" s="79"/>
-      <c r="P12" s="79"/>
-      <c r="Q12" s="79"/>
-      <c r="R12" s="79"/>
-      <c r="S12" s="79"/>
-      <c r="T12" s="79"/>
-      <c r="U12" s="79"/>
-    </row>
-    <row r="13" spans="2:21">
-      <c r="B13" s="22"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="24"/>
-    </row>
-    <row r="14" spans="2:21">
-      <c r="B14" s="22"/>
-      <c r="C14" s="77"/>
-      <c r="D14" s="24"/>
-    </row>
-    <row r="15" spans="2:21">
-      <c r="B15" s="22"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="24"/>
-      <c r="G15" s="79" t="s">
-        <v>333</v>
-      </c>
-      <c r="H15" s="79"/>
-      <c r="I15" s="79"/>
-      <c r="J15" s="79"/>
-    </row>
-    <row r="16" spans="2:21">
-      <c r="B16" s="22"/>
-      <c r="C16" s="77"/>
-      <c r="D16" s="24"/>
-    </row>
-    <row r="17" spans="2:15">
-      <c r="B17" s="22"/>
-      <c r="C17" s="77"/>
-      <c r="D17" s="24"/>
-    </row>
-    <row r="18" spans="2:15">
-      <c r="B18" s="22"/>
-      <c r="C18" s="77"/>
-      <c r="D18" s="24"/>
-    </row>
-    <row r="19" spans="2:15">
-      <c r="B19" s="22"/>
-      <c r="C19" s="77"/>
-      <c r="D19" s="24"/>
-    </row>
-    <row r="20" spans="2:15">
-      <c r="B20" s="22"/>
-      <c r="C20" s="77"/>
-      <c r="D20" s="24"/>
-    </row>
-    <row r="21" spans="2:15">
-      <c r="B21" s="22"/>
-      <c r="C21" s="77"/>
-      <c r="D21" s="24"/>
-    </row>
-    <row r="22" spans="2:15" ht="16" thickBot="1">
-      <c r="B22" s="22"/>
-      <c r="C22" s="77"/>
-      <c r="D22" s="24"/>
-    </row>
-    <row r="23" spans="2:15" ht="16" thickBot="1">
-      <c r="B23" s="22"/>
-      <c r="C23" s="78"/>
-      <c r="D23" s="24"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="66"/>
-      <c r="I23" s="66"/>
-      <c r="J23" s="66"/>
-    </row>
-    <row r="24" spans="2:15" ht="16" thickBot="1">
-      <c r="B24" s="25"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="27"/>
-      <c r="F24" s="67" t="s">
-        <v>324</v>
-      </c>
-      <c r="G24" s="67" t="s">
-        <v>324</v>
-      </c>
-      <c r="H24" s="67" t="s">
-        <v>324</v>
-      </c>
-      <c r="I24" s="67" t="s">
-        <v>324</v>
-      </c>
-      <c r="J24" s="67" t="s">
-        <v>325</v>
-      </c>
-      <c r="K24" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="25" spans="2:15">
-      <c r="F25" s="67"/>
-      <c r="G25" s="67"/>
-      <c r="H25" s="67"/>
-      <c r="I25" s="67"/>
-      <c r="J25" s="67"/>
-    </row>
-    <row r="26" spans="2:15" ht="16" thickBot="1">
-      <c r="F26" s="68"/>
-      <c r="G26" s="68"/>
-      <c r="H26" s="68"/>
-      <c r="I26" s="68"/>
-      <c r="J26" s="68"/>
-    </row>
-    <row r="28" spans="2:15">
-      <c r="K28" s="71" t="s">
-        <v>327</v>
-      </c>
-      <c r="L28" s="71"/>
-      <c r="M28" s="71"/>
-      <c r="N28" s="71"/>
-      <c r="O28" s="65"/>
-    </row>
-    <row r="32" spans="2:15">
-      <c r="H32" s="79" t="s">
-        <v>334</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/doc/android.xlsx
+++ b/doc/android.xlsx
@@ -3,18 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11014"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC657A16-4B15-B945-A3A4-8DDEA3C35504}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F4EC40-0E4F-374B-8AD6-FE12341FD2E1}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="460" windowWidth="27840" windowHeight="17540" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="960" yWindow="460" windowWidth="27840" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Android Doc reads" sheetId="16" r:id="rId1"/>
-    <sheet name="Activity_Lifecycle" sheetId="15" r:id="rId2"/>
-    <sheet name="ContentProvider" sheetId="4" r:id="rId3"/>
-    <sheet name="Android高级应用开发-深入篇" sheetId="5" r:id="rId4"/>
-    <sheet name="反编译" sheetId="8" r:id="rId5"/>
-    <sheet name="Android高级应用开发-基础篇_74UI开发的2+1法则" sheetId="1" r:id="rId6"/>
-    <sheet name="AcrossAppAccess" sheetId="21" r:id="rId7"/>
+    <sheet name="Home" sheetId="16" r:id="rId1"/>
+    <sheet name="S1" sheetId="21" r:id="rId2"/>
+    <sheet name="Activity_Lifecycle" sheetId="15" r:id="rId3"/>
+    <sheet name="ContentProvider" sheetId="4" r:id="rId4"/>
+    <sheet name="Android高级应用开发-深入篇" sheetId="5" r:id="rId5"/>
+    <sheet name="反编译" sheetId="8" r:id="rId6"/>
+    <sheet name="Android高级应用开发-基础篇_74UI开发的2+1法则" sheetId="1" r:id="rId7"/>
     <sheet name="版本控制" sheetId="2" r:id="rId8"/>
     <sheet name="Adapter" sheetId="3" r:id="rId9"/>
     <sheet name="消息机制" sheetId="6" r:id="rId10"/>
@@ -29,8 +29,8 @@
     <sheet name="IO" sheetId="13" r:id="rId19"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Android高级应用开发-深入篇'!$A$1:$C$222</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'Android高级应用开发-深入篇'!$A$1:$D$225</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Android高级应用开发-深入篇'!$A$1:$C$222</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'Android高级应用开发-深入篇'!$A$1:$D$225</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
 </workbook>
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="521">
   <si>
     <t>Activity</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1792,30 +1792,6 @@
     <t>Do What</t>
   </si>
   <si>
-    <t>https://developer.android.google.cn/guide/components/activities/intro-activities</t>
-  </si>
-  <si>
-    <t>Introduction to Activities</t>
-  </si>
-  <si>
-    <t>Finish</t>
-  </si>
-  <si>
-    <t>ON</t>
-  </si>
-  <si>
-    <t>https://developer.android.google.cn/guide/components/activities/activity-lifecycle</t>
-  </si>
-  <si>
-    <t>Understand the Activity Lifecycle</t>
-  </si>
-  <si>
-    <t>http://android-developers.blogspot.com/2011/06/things-that-cannot-change.html</t>
-  </si>
-  <si>
-    <t>Things That Cannot Change</t>
-  </si>
-  <si>
     <t>ViewModule</t>
   </si>
   <si>
@@ -2074,13 +2050,28 @@
   <si>
     <t>1 Explicit Intent
 2 Implicit Inten</t>
+  </si>
+  <si>
+    <t>Sheet name</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>Allow Other App To Start your Activity</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>Home</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="40">
+  <fonts count="41">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2371,6 +2362,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3049,7 +3048,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="202">
+  <cellXfs count="204">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3382,8 +3381,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3439,13 +3445,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="2" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -8863,56 +8866,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD58857B-D0A1-5746-959D-8AF492D5EE51}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="66" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>432</v>
+        <v>516</v>
       </c>
       <c r="B1" t="s">
-        <v>433</v>
-      </c>
-      <c r="C1" s="147" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>436</v>
-      </c>
-      <c r="B2" t="s">
-        <v>434</v>
-      </c>
-      <c r="C2" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>438</v>
-      </c>
-      <c r="B3" t="s">
-        <v>434</v>
-      </c>
-      <c r="C3" s="147" t="s">
-        <v>437</v>
+        <v>518</v>
+      </c>
+      <c r="B2" s="203" t="s">
+        <v>519</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C1" r:id="rId1" xr:uid="{CCE21B43-37BE-6D4F-A42F-AFF31417B473}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{A7FB048C-38FE-DE4F-BC6C-9A1FD3DD21BF}"/>
+    <hyperlink ref="B2" location="'S1'!A1" display="S1" xr:uid="{7F0410CD-FAFA-E249-9954-10BC98741A98}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9288,11 +9271,11 @@
       <c r="C6" s="94"/>
       <c r="D6" s="101"/>
       <c r="E6" s="96"/>
-      <c r="F6" s="185" t="s">
+      <c r="F6" s="188" t="s">
         <v>392</v>
       </c>
-      <c r="G6" s="186"/>
-      <c r="H6" s="187"/>
+      <c r="G6" s="189"/>
+      <c r="H6" s="190"/>
       <c r="I6" s="96"/>
       <c r="J6" s="102"/>
       <c r="K6" s="94"/>
@@ -9312,9 +9295,9 @@
       <c r="C7" s="94"/>
       <c r="D7" s="101"/>
       <c r="E7" s="96"/>
-      <c r="F7" s="188"/>
-      <c r="G7" s="189"/>
-      <c r="H7" s="190"/>
+      <c r="F7" s="191"/>
+      <c r="G7" s="192"/>
+      <c r="H7" s="193"/>
       <c r="I7" s="96"/>
       <c r="J7" s="102"/>
       <c r="K7" s="95"/>
@@ -9334,9 +9317,9 @@
       <c r="C8" s="94"/>
       <c r="D8" s="101"/>
       <c r="E8" s="96"/>
-      <c r="F8" s="188"/>
-      <c r="G8" s="189"/>
-      <c r="H8" s="190"/>
+      <c r="F8" s="191"/>
+      <c r="G8" s="192"/>
+      <c r="H8" s="193"/>
       <c r="I8" s="96"/>
       <c r="J8" s="102"/>
       <c r="K8" s="94"/>
@@ -9355,9 +9338,9 @@
       <c r="B9" s="94"/>
       <c r="C9" s="94"/>
       <c r="D9" s="101"/>
-      <c r="F9" s="188"/>
-      <c r="G9" s="189"/>
-      <c r="H9" s="190"/>
+      <c r="F9" s="191"/>
+      <c r="G9" s="192"/>
+      <c r="H9" s="193"/>
       <c r="I9" s="96"/>
       <c r="J9" s="102"/>
       <c r="K9" s="94"/>
@@ -9376,9 +9359,9 @@
       <c r="B10" s="94"/>
       <c r="C10" s="94"/>
       <c r="D10" s="101"/>
-      <c r="F10" s="191"/>
-      <c r="G10" s="192"/>
-      <c r="H10" s="193"/>
+      <c r="F10" s="194"/>
+      <c r="G10" s="195"/>
+      <c r="H10" s="196"/>
       <c r="I10" s="129"/>
       <c r="J10" s="102"/>
       <c r="K10" s="94"/>
@@ -10050,16 +10033,16 @@
     </row>
     <row r="18" spans="5:8">
       <c r="E18" s="137"/>
-      <c r="F18" s="194" t="s">
+      <c r="F18" s="197" t="s">
         <v>395</v>
       </c>
-      <c r="G18" s="195"/>
+      <c r="G18" s="198"/>
       <c r="H18" s="135"/>
     </row>
     <row r="19" spans="5:8">
       <c r="E19" s="137"/>
-      <c r="F19" s="196"/>
-      <c r="G19" s="197"/>
+      <c r="F19" s="199"/>
+      <c r="G19" s="200"/>
       <c r="H19" s="135"/>
     </row>
     <row r="20" spans="5:8">
@@ -10569,15 +10552,15 @@
   <sheetData>
     <row r="2" spans="2:3">
       <c r="B2" s="176" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="C2" s="151" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" s="177" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="C3" s="150">
         <v>1</v>
@@ -10585,7 +10568,7 @@
     </row>
     <row r="4" spans="2:3" ht="32">
       <c r="B4" s="179" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="C4" s="150">
         <v>2</v>
@@ -10593,7 +10576,7 @@
     </row>
     <row r="5" spans="2:3">
       <c r="B5" s="177" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="C5" s="150">
         <v>4</v>
@@ -10601,7 +10584,7 @@
     </row>
     <row r="6" spans="2:3">
       <c r="B6" s="177" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="C6" s="178" t="s">
         <v>418</v>
@@ -10609,7 +10592,7 @@
     </row>
     <row r="7" spans="2:3">
       <c r="B7" s="177" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="C7" s="150">
         <v>8</v>
@@ -10617,7 +10600,7 @@
     </row>
     <row r="8" spans="2:3">
       <c r="B8" s="177" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="C8" s="150">
         <v>2</v>
@@ -10643,7 +10626,7 @@
   <sheetData>
     <row r="2" spans="2:13">
       <c r="F2" s="65" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="G2" s="65"/>
       <c r="H2" s="65"/>
@@ -10655,7 +10638,7 @@
     </row>
     <row r="3" spans="2:13">
       <c r="F3" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
     </row>
     <row r="4" spans="2:13" ht="16" thickBot="1">
@@ -10698,7 +10681,7 @@
     </row>
     <row r="8" spans="2:13">
       <c r="B8" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="F8" s="19"/>
       <c r="G8" s="21"/>
@@ -10758,36 +10741,36 @@
   <sheetData>
     <row r="1" spans="1:11" ht="48">
       <c r="A1" s="151" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="B1" s="151" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="C1" s="172" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="D1" s="151" t="s">
+        <v>461</v>
+      </c>
+      <c r="E1" s="158" t="s">
+        <v>485</v>
+      </c>
+      <c r="F1" s="151" t="s">
+        <v>470</v>
+      </c>
+      <c r="G1" s="151" t="s">
         <v>469</v>
-      </c>
-      <c r="E1" s="158" t="s">
-        <v>493</v>
-      </c>
-      <c r="F1" s="151" t="s">
-        <v>478</v>
-      </c>
-      <c r="G1" s="151" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="150" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="B2" s="150" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="C2" s="173" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="D2" s="150">
         <v>3</v>
@@ -10796,22 +10779,22 @@
         <v>7.91</v>
       </c>
       <c r="F2" s="159" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="G2" s="159" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="K2" s="154"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="150" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="B3" s="161" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="C3" s="173" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="D3" s="150">
         <v>4</v>
@@ -10820,22 +10803,22 @@
         <v>4.45</v>
       </c>
       <c r="F3" s="159" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="G3" s="159" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="K3" s="154"/>
     </row>
     <row r="4" spans="1:11" ht="13" customHeight="1">
       <c r="A4" s="150" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="B4" s="150" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="C4" s="173" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="D4" s="150">
         <v>6</v>
@@ -10844,21 +10827,21 @@
         <v>1.98</v>
       </c>
       <c r="F4" s="159" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="G4" s="159" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="150" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="B5" s="150" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="C5" s="173" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="D5" s="150">
         <v>8</v>
@@ -10867,21 +10850,21 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="F5" s="159" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="G5" s="159" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="93" customFormat="1">
       <c r="A6" s="156" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="B6" s="156" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="C6" s="160" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="D6" s="156">
         <v>12</v>
@@ -10890,21 +10873,21 @@
         <v>0.49</v>
       </c>
       <c r="F6" s="160" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="G6" s="160" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="150" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B7" s="150" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="C7" s="173" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="D7" s="150">
         <v>16</v>
@@ -10913,16 +10896,16 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="F7" s="159" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="G7" s="159" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="93" customFormat="1">
       <c r="A8" s="162"/>
       <c r="B8" s="162" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="C8" s="174"/>
       <c r="D8" s="162"/>
@@ -10930,10 +10913,10 @@
         <v>0.49</v>
       </c>
       <c r="F8" s="164" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="G8" s="164" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="23" customFormat="1">
@@ -10950,43 +10933,43 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="B11" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="C11" s="155" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="D11" s="154" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="I11" s="94"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="B12" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="C12" s="155" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="147" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="147" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -11014,89 +10997,89 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="152" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="147" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="F5" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="F6" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="I9" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="F10" s="198"/>
-      <c r="G10" s="198"/>
+      <c r="F10" s="201"/>
+      <c r="G10" s="201"/>
       <c r="I10" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="G13" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
     </row>
     <row r="17" spans="2:9">
       <c r="B17" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="F17" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
     </row>
     <row r="18" spans="2:9">
       <c r="B18" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
     </row>
     <row r="22" spans="2:9">
       <c r="F22" s="149"/>
       <c r="G22" s="149"/>
       <c r="I22" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
     </row>
     <row r="24" spans="2:9">
       <c r="G24" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
     </row>
     <row r="28" spans="2:9">
       <c r="F28" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
     </row>
     <row r="32" spans="2:9">
-      <c r="F32" s="198"/>
-      <c r="G32" s="198"/>
+      <c r="F32" s="201"/>
+      <c r="G32" s="201"/>
       <c r="I32" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
     </row>
     <row r="33" spans="7:9">
       <c r="I33" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
     </row>
     <row r="35" spans="7:9">
       <c r="G35" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="I35" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
     </row>
   </sheetData>
@@ -11134,10 +11117,10 @@
       </c>
     </row>
     <row r="12" spans="2:10">
-      <c r="H12" s="199" t="s">
+      <c r="H12" s="183" t="s">
         <v>399</v>
       </c>
-      <c r="I12" s="199"/>
+      <c r="I12" s="183"/>
     </row>
     <row r="14" spans="2:10">
       <c r="J14" t="s">
@@ -11150,10 +11133,10 @@
       </c>
     </row>
     <row r="28" spans="2:9">
-      <c r="H28" s="198" t="s">
+      <c r="H28" s="201" t="s">
         <v>403</v>
       </c>
-      <c r="I28" s="198"/>
+      <c r="I28" s="201"/>
     </row>
     <row r="39" spans="2:9">
       <c r="B39" t="s">
@@ -11161,10 +11144,10 @@
       </c>
     </row>
     <row r="43" spans="2:9">
-      <c r="H43" s="199" t="s">
+      <c r="H43" s="183" t="s">
         <v>406</v>
       </c>
-      <c r="I43" s="199"/>
+      <c r="I43" s="183"/>
     </row>
     <row r="54" spans="2:9">
       <c r="B54" t="s">
@@ -11172,10 +11155,10 @@
       </c>
     </row>
     <row r="59" spans="2:9">
-      <c r="H59" s="198" t="s">
+      <c r="H59" s="201" t="s">
         <v>403</v>
       </c>
-      <c r="I59" s="198"/>
+      <c r="I59" s="201"/>
     </row>
     <row r="61" spans="2:9">
       <c r="G61" t="s">
@@ -11195,6 +11178,130 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A0C945C-04F2-D147-89E5-6DDFCFB3EEA7}">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="22.1640625" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="4" max="4" width="52.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="147" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="20">
+      <c r="A2" s="202" t="s">
+        <v>505</v>
+      </c>
+      <c r="B2" s="202"/>
+      <c r="C2" s="202"/>
+      <c r="D2" s="202"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="143" t="s">
+        <v>506</v>
+      </c>
+      <c r="B3" s="143" t="s">
+        <v>507</v>
+      </c>
+      <c r="C3" s="143" t="s">
+        <v>508</v>
+      </c>
+      <c r="D3" s="143" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="144" t="b">
+        <v>0</v>
+      </c>
+      <c r="B4" s="144" t="s">
+        <v>513</v>
+      </c>
+      <c r="C4" s="144" t="s">
+        <v>513</v>
+      </c>
+      <c r="D4" s="181" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="144" t="b">
+        <v>0</v>
+      </c>
+      <c r="B5" s="144" t="s">
+        <v>511</v>
+      </c>
+      <c r="C5" s="144" t="s">
+        <v>513</v>
+      </c>
+      <c r="D5" s="144" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="144" t="b">
+        <v>0</v>
+      </c>
+      <c r="B6" s="144" t="s">
+        <v>513</v>
+      </c>
+      <c r="C6" s="144" t="s">
+        <v>511</v>
+      </c>
+      <c r="D6" s="181" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="32">
+      <c r="A7" s="144" t="b">
+        <v>1</v>
+      </c>
+      <c r="B7" s="144" t="s">
+        <v>513</v>
+      </c>
+      <c r="C7" s="144" t="s">
+        <v>513</v>
+      </c>
+      <c r="D7" s="180" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="32">
+      <c r="A8" s="144" t="b">
+        <v>1</v>
+      </c>
+      <c r="B8" s="144" t="s">
+        <v>513</v>
+      </c>
+      <c r="C8" s="144" t="s">
+        <v>511</v>
+      </c>
+      <c r="D8" s="180" t="s">
+        <v>515</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:D2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Home!A1" display="Home" xr:uid="{91ECD6D6-8372-4045-8C6F-F155D921F9EF}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{695F25B9-FD59-DD4E-A097-058E28B48012}">
   <dimension ref="A1:G19"/>
   <sheetViews>
@@ -11208,15 +11315,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="180" t="s">
-        <v>442</v>
-      </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
+      <c r="A1" s="182" t="s">
+        <v>434</v>
+      </c>
+      <c r="B1" s="182"/>
+      <c r="C1" s="182"/>
+      <c r="D1" s="182"/>
+      <c r="E1" s="182"/>
+      <c r="F1" s="182"/>
+      <c r="G1" s="182"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="143" t="s">
@@ -11235,7 +11342,7 @@
         <v>430</v>
       </c>
       <c r="F2" s="146" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -11280,7 +11387,7 @@
         <v>423</v>
       </c>
       <c r="G5" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -11326,15 +11433,15 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="180" t="s">
-        <v>441</v>
-      </c>
-      <c r="B12" s="180"/>
-      <c r="C12" s="180"/>
-      <c r="D12" s="180"/>
-      <c r="E12" s="180"/>
-      <c r="F12" s="180"/>
-      <c r="G12" s="180"/>
+      <c r="A12" s="182" t="s">
+        <v>433</v>
+      </c>
+      <c r="B12" s="182"/>
+      <c r="C12" s="182"/>
+      <c r="D12" s="182"/>
+      <c r="E12" s="182"/>
+      <c r="F12" s="182"/>
+      <c r="G12" s="182"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="143" t="s">
@@ -11353,7 +11460,7 @@
         <v>430</v>
       </c>
       <c r="F13" s="146" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -11398,7 +11505,7 @@
         <v>423</v>
       </c>
       <c r="G16" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -11406,7 +11513,7 @@
         <v>412</v>
       </c>
       <c r="B17" s="148" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="C17" s="144" t="s">
         <v>429</v>
@@ -11452,7 +11559,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:Q30"/>
   <sheetViews>
@@ -11868,7 +11975,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:D224"/>
@@ -13849,7 +13956,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:I20"/>
   <sheetViews>
@@ -13963,7 +14070,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:Q39"/>
   <sheetViews>
@@ -14291,122 +14398,6 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A0C945C-04F2-D147-89E5-6DDFCFB3EEA7}">
-  <dimension ref="A1:D7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="16.33203125" customWidth="1"/>
-    <col min="2" max="2" width="22.1640625" customWidth="1"/>
-    <col min="3" max="3" width="16.5" customWidth="1"/>
-    <col min="4" max="4" width="52.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="199" t="s">
-        <v>513</v>
-      </c>
-      <c r="B1" s="199"/>
-      <c r="C1" s="199"/>
-      <c r="D1" s="199"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="143" t="s">
-        <v>514</v>
-      </c>
-      <c r="B2" s="143" t="s">
-        <v>515</v>
-      </c>
-      <c r="C2" s="143" t="s">
-        <v>516</v>
-      </c>
-      <c r="D2" s="143" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="144" t="b">
-        <v>0</v>
-      </c>
-      <c r="B3" s="144" t="s">
-        <v>521</v>
-      </c>
-      <c r="C3" s="144" t="s">
-        <v>521</v>
-      </c>
-      <c r="D3" s="201" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="144" t="b">
-        <v>0</v>
-      </c>
-      <c r="B4" s="144" t="s">
-        <v>519</v>
-      </c>
-      <c r="C4" s="144" t="s">
-        <v>521</v>
-      </c>
-      <c r="D4" s="144" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="144" t="b">
-        <v>0</v>
-      </c>
-      <c r="B5" s="144" t="s">
-        <v>521</v>
-      </c>
-      <c r="C5" s="144" t="s">
-        <v>519</v>
-      </c>
-      <c r="D5" s="201" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="32">
-      <c r="A6" s="144" t="b">
-        <v>1</v>
-      </c>
-      <c r="B6" s="144" t="s">
-        <v>521</v>
-      </c>
-      <c r="C6" s="144" t="s">
-        <v>521</v>
-      </c>
-      <c r="D6" s="200" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="32">
-      <c r="A7" s="144" t="b">
-        <v>1</v>
-      </c>
-      <c r="B7" s="144" t="s">
-        <v>521</v>
-      </c>
-      <c r="C7" s="144" t="s">
-        <v>519</v>
-      </c>
-      <c r="D7" s="200" t="s">
-        <v>523</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -14466,7 +14457,7 @@
       <c r="G4" s="15"/>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="181" t="s">
+      <c r="B5" s="184" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="15" t="s">
@@ -14486,7 +14477,7 @@
       </c>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="181"/>
+      <c r="B6" s="184"/>
       <c r="C6" s="15" t="s">
         <v>17</v>
       </c>
@@ -14502,7 +14493,7 @@
       </c>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="181"/>
+      <c r="B7" s="184"/>
       <c r="C7" s="16" t="s">
         <v>31</v>
       </c>
@@ -14520,7 +14511,7 @@
       </c>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="181"/>
+      <c r="B8" s="184"/>
       <c r="C8" s="16" t="s">
         <v>32</v>
       </c>
@@ -14538,7 +14529,7 @@
       </c>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="181"/>
+      <c r="B9" s="184"/>
       <c r="C9" s="16" t="s">
         <v>33</v>
       </c>
@@ -14556,7 +14547,7 @@
       </c>
     </row>
     <row r="10" spans="2:7" ht="26">
-      <c r="B10" s="181"/>
+      <c r="B10" s="184"/>
       <c r="C10" s="16" t="s">
         <v>13</v>
       </c>
@@ -14574,7 +14565,7 @@
       </c>
     </row>
     <row r="11" spans="2:7" ht="39">
-      <c r="B11" s="182" t="s">
+      <c r="B11" s="185" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="18" t="s">
@@ -14594,7 +14585,7 @@
       </c>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="183"/>
+      <c r="B12" s="186"/>
       <c r="C12" s="15" t="s">
         <v>15</v>
       </c>
@@ -14608,7 +14599,7 @@
       </c>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="184"/>
+      <c r="B13" s="187"/>
       <c r="C13" s="15" t="s">
         <v>16</v>
       </c>

--- a/doc/android.xlsx
+++ b/doc/android.xlsx
@@ -1,36 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10211"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F4EC40-0E4F-374B-8AD6-FE12341FD2E1}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC0C846-37E9-AB4F-992A-5ED6AAD242F7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="460" windowWidth="27840" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="16" r:id="rId1"/>
-    <sheet name="S1" sheetId="21" r:id="rId2"/>
-    <sheet name="Activity_Lifecycle" sheetId="15" r:id="rId3"/>
-    <sheet name="ContentProvider" sheetId="4" r:id="rId4"/>
-    <sheet name="Android高级应用开发-深入篇" sheetId="5" r:id="rId5"/>
-    <sheet name="反编译" sheetId="8" r:id="rId6"/>
-    <sheet name="Android高级应用开发-基础篇_74UI开发的2+1法则" sheetId="1" r:id="rId7"/>
-    <sheet name="版本控制" sheetId="2" r:id="rId8"/>
-    <sheet name="Adapter" sheetId="3" r:id="rId9"/>
-    <sheet name="消息机制" sheetId="6" r:id="rId10"/>
-    <sheet name="消息机制模型" sheetId="10" r:id="rId11"/>
-    <sheet name="基于监听的事件处理机制" sheetId="12" r:id="rId12"/>
-    <sheet name="==与equals" sheetId="7" r:id="rId13"/>
-    <sheet name="hashCode" sheetId="9" r:id="rId14"/>
-    <sheet name="Bitmap.Config" sheetId="20" r:id="rId15"/>
-    <sheet name="drawable_分辨率" sheetId="19" r:id="rId16"/>
-    <sheet name="drawable_2" sheetId="18" r:id="rId17"/>
-    <sheet name="drawable_缩放" sheetId="17" r:id="rId18"/>
-    <sheet name="IO" sheetId="13" r:id="rId19"/>
+    <sheet name="ThreeeLevelCache" sheetId="22" r:id="rId2"/>
+    <sheet name="S1" sheetId="21" r:id="rId3"/>
+    <sheet name="Activity_Lifecycle" sheetId="15" r:id="rId4"/>
+    <sheet name="ContentProvider" sheetId="4" r:id="rId5"/>
+    <sheet name="Android高级应用开发-深入篇" sheetId="5" r:id="rId6"/>
+    <sheet name="反编译" sheetId="8" r:id="rId7"/>
+    <sheet name="Android高级应用开发-基础篇_74UI开发的2+1法则" sheetId="1" r:id="rId8"/>
+    <sheet name="版本控制" sheetId="2" r:id="rId9"/>
+    <sheet name="Adapter" sheetId="3" r:id="rId10"/>
+    <sheet name="消息机制" sheetId="6" r:id="rId11"/>
+    <sheet name="消息机制模型" sheetId="10" r:id="rId12"/>
+    <sheet name="基于监听的事件处理机制" sheetId="12" r:id="rId13"/>
+    <sheet name="==与equals" sheetId="7" r:id="rId14"/>
+    <sheet name="hashCode" sheetId="9" r:id="rId15"/>
+    <sheet name="Bitmap.Config" sheetId="20" r:id="rId16"/>
+    <sheet name="drawable_分辨率" sheetId="19" r:id="rId17"/>
+    <sheet name="drawable_2" sheetId="18" r:id="rId18"/>
+    <sheet name="drawable_缩放" sheetId="17" r:id="rId19"/>
+    <sheet name="IO" sheetId="13" r:id="rId20"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Android高级应用开发-深入篇'!$A$1:$C$222</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'Android高级应用开发-深入篇'!$A$1:$D$225</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Android高级应用开发-深入篇'!$A$1:$C$222</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'Android高级应用开发-深入篇'!$A$1:$D$225</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
 </workbook>
@@ -100,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="527">
   <si>
     <t>Activity</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2066,29 +2067,53 @@
   <si>
     <t>Home</t>
   </si>
+  <si>
+    <t>LruCache&lt;String, BitmapDrawable&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Disk Cacche</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Network</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Memory Cache</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="41">
+  <fonts count="44">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2096,14 +2121,14 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2112,7 +2137,7 @@
       <b/>
       <sz val="9"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2121,7 +2146,7 @@
       <b/>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2129,7 +2154,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2138,7 +2163,7 @@
       <b/>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2146,7 +2171,7 @@
     <font>
       <sz val="9"/>
       <color rgb="FF7030A0"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2154,7 +2179,7 @@
     <font>
       <sz val="9"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2169,7 +2194,7 @@
     <font>
       <sz val="9"/>
       <color rgb="FF7030A0"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2177,7 +2202,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2186,7 +2211,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF00FF00"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2194,7 +2219,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2217,7 +2242,7 @@
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2239,21 +2264,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FF00FF00"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF00FF00"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2261,48 +2286,48 @@
       <b/>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="20"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="20"/>
       <color rgb="FF00FF00"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="20"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
       <color rgb="FF7030A0"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="20"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2315,14 +2340,14 @@
       <b/>
       <sz val="36"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="48"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2342,7 +2367,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2355,14 +2380,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2370,12 +2395,37 @@
       <b/>
       <sz val="15"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2412,8 +2462,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="56">
+  <borders count="64">
     <border>
       <left/>
       <right/>
@@ -3042,13 +3098,93 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color theme="9" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="9" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="9" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="9" tint="-0.249977111117893"/>
+      </right>
+      <top style="medium">
+        <color theme="9" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="9" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="9" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="9" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="9" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="9" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="9" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="9" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="204">
+  <cellXfs count="222">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3385,11 +3521,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="2" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3445,10 +3585,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="2" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -3536,23 +3704,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>106681</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="右箭头 3">
+        <xdr:cNvPr id="2" name="Cloud 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65E08C76-F38C-9D47-9178-B7EE1A089884}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3560,8 +3728,78 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2114550" y="792481"/>
-          <a:ext cx="485775" cy="45719"/>
+          <a:off x="3403600" y="3035300"/>
+          <a:ext cx="4445000" cy="1320800"/>
+        </a:xfrm>
+        <a:prstGeom prst="cloud">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Set&lt;SoftReference&lt;Bitmap&gt;&gt;  4RsuseI</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>nBitmap</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Right Arrow 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A68003B-DA88-0A41-B6C1-53341AF95508}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="1879600" y="1333500"/>
+          <a:ext cx="444500" cy="101600"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -3596,32 +3834,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>106681</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="右箭头 4">
+        <xdr:cNvPr id="4" name="Right Arrow 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{905527C0-F6EF-9C4E-B5FE-F090930F3D0F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2114550" y="792481"/>
-          <a:ext cx="485775" cy="45719"/>
+        <a:xfrm rot="10800000">
+          <a:off x="7315200" y="1435100"/>
+          <a:ext cx="736600" cy="101600"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -3654,34 +3892,462 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Graphic 28" descr="Download from cloud">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3824FB02-9F7D-7C47-8980-56E83E5958A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14846300" y="1092200"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Graphic 30" descr="Folder">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABE922EF-9F8D-9148-A1B0-50FEB66FEDDA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11493500" y="1079500"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>106681</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="Straight Arrow Connector 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6FD8012-CFAF-4C43-AA6E-953CDF12433A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6565900" y="927100"/>
+          <a:ext cx="6299200" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="Straight Arrow Connector 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE09E27D-4A80-354A-BC3C-98E4DA8419F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="12420600" y="1587500"/>
+          <a:ext cx="2273300" cy="50800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="Straight Arrow Connector 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD628334-996D-BB4B-A467-B3E377A5218E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="31" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6540500" y="1028700"/>
+          <a:ext cx="3048000" cy="508000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="Straight Arrow Connector 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C99824C-9E5B-2C4D-95FC-082922295C97}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6184900" y="2044700"/>
+          <a:ext cx="0" cy="660400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="Straight Arrow Connector 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18F97E45-9EF5-7643-B8E7-6FA9F8CCA8E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6616700" y="2006600"/>
+          <a:ext cx="3124200" cy="1079500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="Straight Arrow Connector 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FA7B970-B32D-EC48-9240-AC87C6E4E9F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="29" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6553200" y="2006600"/>
+          <a:ext cx="6845300" cy="1282700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="右箭头 5">
+        <xdr:cNvPr id="54" name="Right Arrow 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B2B013A-B4DF-B34E-BC1D-E1E926E3F3F3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3486150" y="792481"/>
-          <a:ext cx="485775" cy="45719"/>
+        <a:xfrm rot="10620490">
+          <a:off x="11531600" y="1435100"/>
+          <a:ext cx="736600" cy="101600"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -3714,190 +4380,390 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="下箭头 6">
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="84" name="Graphic 83" descr="Diploma">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78BFF56A-6A8D-E24B-BD76-E7BEDF14BFC4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5076825" y="942974"/>
-          <a:ext cx="85725" cy="923925"/>
+          <a:off x="3911600" y="4711700"/>
+          <a:ext cx="914400" cy="914400"/>
         </a:xfrm>
-        <a:prstGeom prst="downArrow">
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>85726</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>131444</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="左箭头 9">
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="85" name="Graphic 84" descr="Diploma">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E33F6A4-7C03-1C4C-855A-92132E0330B7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3514726" y="3000375"/>
-          <a:ext cx="552449" cy="45719"/>
+          <a:off x="9601200" y="4787900"/>
+          <a:ext cx="914400" cy="914400"/>
         </a:xfrm>
-        <a:prstGeom prst="leftArrow">
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="上箭头 10">
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="86" name="Graphic 85" descr="Diploma">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAFC30EB-458C-7744-A1D1-ADF78519AA67}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3009900" y="1514475"/>
-          <a:ext cx="47625" cy="1371600"/>
+          <a:off x="13144500" y="4775200"/>
+          <a:ext cx="914400" cy="914400"/>
         </a:xfrm>
-        <a:prstGeom prst="upArrow">
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1511300</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="87" name="Graphic 86" descr="Smart Phone">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41DF8223-6762-B141-84C3-68E33678EE60}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="673100"/>
+          <a:ext cx="1511300" cy="1511300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1206500</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="88" name="Graphic 87" descr="Diploma">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA45497E-0E81-D448-8FE0-DCAC6701AB5D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="292100" y="1016000"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>134127</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2381315" cy="45719"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5BDC616-3AC3-8844-9D52-AE07B22DCD26}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6921500" y="4160027"/>
+          <a:ext cx="2381315" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0F477AC-C754-F746-950B-5ED82DA418C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8540750" y="3771900"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4461,7 +5327,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6263,6 +7129,371 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>106681</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="右箭头 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2114550" y="792481"/>
+          <a:ext cx="485775" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>106681</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="右箭头 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2114550" y="792481"/>
+          <a:ext cx="485775" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>106681</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="右箭头 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3486150" y="792481"/>
+          <a:ext cx="485775" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="下箭头 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5076825" y="942974"/>
+          <a:ext cx="85725" cy="923925"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>85726</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>131444</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="左箭头 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3514726" y="3000375"/>
+          <a:ext cx="552449" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="上箭头 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3009900" y="1514475"/>
+          <a:ext cx="47625" cy="1371600"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
       <xdr:row>7</xdr:row>
@@ -6636,7 +7867,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6761,7 +7992,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7539,7 +8770,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7786,7 +9017,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7892,7 +9123,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -8365,7 +9596,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -8427,121 +9658,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>134127</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2381315" cy="45719"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5BDC616-3AC3-8844-9D52-AE07B22DCD26}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6921500" y="4160027"/>
-          <a:ext cx="2381315" cy="45719"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>69850</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="65" cy="172227"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0F477AC-C754-F746-950B-5ED82DA418C6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8540750" y="3771900"/>
-          <a:ext cx="65" cy="172227"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8872,7 +9988,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="30.1640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -8889,11 +10005,12 @@
       <c r="A2" t="s">
         <v>518</v>
       </c>
-      <c r="B2" s="203" t="s">
+      <c r="B2" s="183" t="s">
         <v>519</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B2" location="'S1'!A1" display="S1" xr:uid="{7F0410CD-FAFA-E249-9954-10BC98741A98}"/>
   </hyperlinks>
@@ -8902,6 +10019,166 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="B1:N24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col min="3" max="3" width="9" style="30"/>
+    <col min="8" max="8" width="9" style="30"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14">
+      <c r="H1" s="40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" ht="15" thickBot="1">
+      <c r="C3" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="M3" s="28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14">
+      <c r="B4" s="19"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="23"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="23"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="21"/>
+    </row>
+    <row r="5" spans="2:14">
+      <c r="B5" s="22"/>
+      <c r="C5" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="24"/>
+      <c r="E5" s="23"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" s="24"/>
+      <c r="J5" s="23"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="N5" s="24"/>
+    </row>
+    <row r="6" spans="2:14" ht="15" thickBot="1">
+      <c r="B6" s="25"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="23"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="23"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="27"/>
+    </row>
+    <row r="10" spans="2:14">
+      <c r="B10" s="35"/>
+      <c r="C10" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="H10" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="M10" s="35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14">
+      <c r="H11" s="34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14">
+      <c r="H12" s="34"/>
+      <c r="I12" s="36"/>
+    </row>
+    <row r="13" spans="2:14">
+      <c r="H13" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="I13" s="36"/>
+    </row>
+    <row r="14" spans="2:14">
+      <c r="H14" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="I14" s="36"/>
+    </row>
+    <row r="15" spans="2:14">
+      <c r="H15" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="I15" s="36"/>
+    </row>
+    <row r="16" spans="2:14">
+      <c r="H16" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="I16" s="36"/>
+    </row>
+    <row r="17" spans="8:9">
+      <c r="H17" s="34"/>
+      <c r="I17" s="36"/>
+    </row>
+    <row r="18" spans="8:9">
+      <c r="H18" s="34"/>
+      <c r="I18" s="36"/>
+    </row>
+    <row r="19" spans="8:9">
+      <c r="H19" s="34"/>
+      <c r="I19" s="36"/>
+    </row>
+    <row r="20" spans="8:9">
+      <c r="H20" s="34"/>
+      <c r="I20" s="36"/>
+    </row>
+    <row r="21" spans="8:9">
+      <c r="H21" s="34"/>
+      <c r="I21" s="36"/>
+    </row>
+    <row r="22" spans="8:9">
+      <c r="H22" s="34"/>
+      <c r="I22" s="36"/>
+    </row>
+    <row r="23" spans="8:9">
+      <c r="H23" s="34"/>
+      <c r="I23" s="36"/>
+    </row>
+    <row r="24" spans="8:9">
+      <c r="H24" s="34"/>
+      <c r="I24" s="36"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B2:U32"/>
   <sheetViews>
@@ -8909,12 +10186,12 @@
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:21" ht="16" thickBot="1">
+    <row r="2" spans="2:21" ht="15" thickBot="1">
       <c r="H2" s="69" t="s">
         <v>323</v>
       </c>
@@ -8938,7 +10215,7 @@
       <c r="H5" s="73"/>
       <c r="I5" s="74"/>
     </row>
-    <row r="6" spans="2:21" ht="16" thickBot="1">
+    <row r="6" spans="2:21" ht="15" thickBot="1">
       <c r="C6" s="70" t="s">
         <v>320</v>
       </c>
@@ -8951,7 +10228,7 @@
       <c r="H6" s="73"/>
       <c r="I6" s="74"/>
     </row>
-    <row r="7" spans="2:21" ht="16" thickBot="1">
+    <row r="7" spans="2:21" ht="15" thickBot="1">
       <c r="B7" s="19"/>
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
@@ -9088,12 +10365,12 @@
       <c r="C21" s="77"/>
       <c r="D21" s="24"/>
     </row>
-    <row r="22" spans="2:15" ht="16" thickBot="1">
+    <row r="22" spans="2:15" ht="15" thickBot="1">
       <c r="B22" s="22"/>
       <c r="C22" s="77"/>
       <c r="D22" s="24"/>
     </row>
-    <row r="23" spans="2:15" ht="16" thickBot="1">
+    <row r="23" spans="2:15" ht="15" thickBot="1">
       <c r="B23" s="22"/>
       <c r="C23" s="78"/>
       <c r="D23" s="24"/>
@@ -9103,7 +10380,7 @@
       <c r="I23" s="66"/>
       <c r="J23" s="66"/>
     </row>
-    <row r="24" spans="2:15" ht="16" thickBot="1">
+    <row r="24" spans="2:15" ht="15" thickBot="1">
       <c r="B24" s="25"/>
       <c r="C24" s="26"/>
       <c r="D24" s="27"/>
@@ -9133,7 +10410,7 @@
       <c r="I25" s="67"/>
       <c r="J25" s="67"/>
     </row>
-    <row r="26" spans="2:15" ht="16" thickBot="1">
+    <row r="26" spans="2:15" ht="15" thickBot="1">
       <c r="F26" s="68"/>
       <c r="G26" s="68"/>
       <c r="H26" s="68"/>
@@ -9162,7 +10439,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA80C652-EB11-2747-89DA-E4ABA79A811D}">
   <dimension ref="A2:T38"/>
   <sheetViews>
@@ -9170,7 +10447,7 @@
       <selection activeCell="W17" sqref="W17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="3.33203125" customWidth="1"/>
   </cols>
@@ -9243,7 +10520,7 @@
       <c r="S4" s="94"/>
       <c r="T4" s="94"/>
     </row>
-    <row r="5" spans="1:20" ht="16" thickBot="1">
+    <row r="5" spans="1:20" ht="15" thickBot="1">
       <c r="A5" s="94"/>
       <c r="B5" s="94"/>
       <c r="C5" s="94"/>
@@ -9271,11 +10548,11 @@
       <c r="C6" s="94"/>
       <c r="D6" s="101"/>
       <c r="E6" s="96"/>
-      <c r="F6" s="188" t="s">
+      <c r="F6" s="190" t="s">
         <v>392</v>
       </c>
-      <c r="G6" s="189"/>
-      <c r="H6" s="190"/>
+      <c r="G6" s="191"/>
+      <c r="H6" s="192"/>
       <c r="I6" s="96"/>
       <c r="J6" s="102"/>
       <c r="K6" s="94"/>
@@ -9295,9 +10572,9 @@
       <c r="C7" s="94"/>
       <c r="D7" s="101"/>
       <c r="E7" s="96"/>
-      <c r="F7" s="191"/>
-      <c r="G7" s="192"/>
-      <c r="H7" s="193"/>
+      <c r="F7" s="193"/>
+      <c r="G7" s="194"/>
+      <c r="H7" s="195"/>
       <c r="I7" s="96"/>
       <c r="J7" s="102"/>
       <c r="K7" s="95"/>
@@ -9317,9 +10594,9 @@
       <c r="C8" s="94"/>
       <c r="D8" s="101"/>
       <c r="E8" s="96"/>
-      <c r="F8" s="191"/>
-      <c r="G8" s="192"/>
-      <c r="H8" s="193"/>
+      <c r="F8" s="193"/>
+      <c r="G8" s="194"/>
+      <c r="H8" s="195"/>
       <c r="I8" s="96"/>
       <c r="J8" s="102"/>
       <c r="K8" s="94"/>
@@ -9338,9 +10615,9 @@
       <c r="B9" s="94"/>
       <c r="C9" s="94"/>
       <c r="D9" s="101"/>
-      <c r="F9" s="191"/>
-      <c r="G9" s="192"/>
-      <c r="H9" s="193"/>
+      <c r="F9" s="193"/>
+      <c r="G9" s="194"/>
+      <c r="H9" s="195"/>
       <c r="I9" s="96"/>
       <c r="J9" s="102"/>
       <c r="K9" s="94"/>
@@ -9354,14 +10631,14 @@
       <c r="S9" s="96"/>
       <c r="T9" s="102"/>
     </row>
-    <row r="10" spans="1:20" ht="16" thickBot="1">
+    <row r="10" spans="1:20" ht="15" thickBot="1">
       <c r="A10" s="94"/>
       <c r="B10" s="94"/>
       <c r="C10" s="94"/>
       <c r="D10" s="101"/>
-      <c r="F10" s="194"/>
-      <c r="G10" s="195"/>
-      <c r="H10" s="196"/>
+      <c r="F10" s="196"/>
+      <c r="G10" s="197"/>
+      <c r="H10" s="198"/>
       <c r="I10" s="129"/>
       <c r="J10" s="102"/>
       <c r="K10" s="94"/>
@@ -9847,7 +11124,7 @@
       <c r="S32" s="96"/>
       <c r="T32" s="102"/>
     </row>
-    <row r="33" spans="4:20" ht="16" thickBot="1">
+    <row r="33" spans="4:20" ht="15" thickBot="1">
       <c r="D33" s="103"/>
       <c r="E33" s="111"/>
       <c r="G33" s="127"/>
@@ -9911,7 +11188,7 @@
       <c r="S36" s="96"/>
       <c r="T36" s="102"/>
     </row>
-    <row r="37" spans="4:20" ht="16" thickBot="1">
+    <row r="37" spans="4:20" ht="15" thickBot="1">
       <c r="D37" s="103"/>
       <c r="E37" s="115"/>
       <c r="F37" s="116"/>
@@ -9927,7 +11204,7 @@
       <c r="S37" s="96"/>
       <c r="T37" s="102"/>
     </row>
-    <row r="38" spans="4:20" ht="16" thickBot="1">
+    <row r="38" spans="4:20" ht="15" thickBot="1">
       <c r="D38" s="105"/>
       <c r="E38" s="106"/>
       <c r="F38" s="106"/>
@@ -9947,13 +11224,14 @@
   <mergeCells count="1">
     <mergeCell ref="F6:H10"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E7778B8-D430-A34A-995E-0F83AC473C52}">
   <dimension ref="E8:K35"/>
   <sheetViews>
@@ -9961,12 +11239,12 @@
       <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="16384" width="10.83203125" style="130"/>
   </cols>
   <sheetData>
-    <row r="8" spans="5:11" ht="17" thickBot="1">
+    <row r="8" spans="5:11" ht="16" thickBot="1">
       <c r="J8" s="142"/>
     </row>
     <row r="9" spans="5:11">
@@ -10033,16 +11311,16 @@
     </row>
     <row r="18" spans="5:8">
       <c r="E18" s="137"/>
-      <c r="F18" s="197" t="s">
+      <c r="F18" s="199" t="s">
         <v>395</v>
       </c>
-      <c r="G18" s="198"/>
+      <c r="G18" s="200"/>
       <c r="H18" s="135"/>
     </row>
     <row r="19" spans="5:8">
       <c r="E19" s="137"/>
-      <c r="F19" s="199"/>
-      <c r="G19" s="200"/>
+      <c r="F19" s="201"/>
+      <c r="G19" s="202"/>
       <c r="H19" s="135"/>
     </row>
     <row r="20" spans="5:8">
@@ -10117,13 +11395,13 @@
       <c r="G31" s="136"/>
       <c r="H31" s="135"/>
     </row>
-    <row r="32" spans="5:8" ht="17" thickBot="1">
+    <row r="32" spans="5:8" ht="16" thickBot="1">
       <c r="E32" s="134"/>
       <c r="F32" s="133"/>
       <c r="G32" s="133"/>
       <c r="H32" s="132"/>
     </row>
-    <row r="35" spans="5:5" ht="47">
+    <row r="35" spans="5:5" ht="46">
       <c r="E35" s="131" t="s">
         <v>394</v>
       </c>
@@ -10132,13 +11410,14 @@
   <mergeCells count="1">
     <mergeCell ref="F18:G19"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B1:K25"/>
   <sheetViews>
@@ -10146,12 +11425,12 @@
       <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
     <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="16" thickBot="1"/>
+    <row r="1" spans="2:11" ht="15" thickBot="1"/>
     <row r="2" spans="2:11">
       <c r="H2" s="19"/>
       <c r="I2" s="20"/>
@@ -10201,7 +11480,7 @@
       <c r="J9" s="23"/>
       <c r="K9" s="24"/>
     </row>
-    <row r="10" spans="2:11" ht="16" thickBot="1">
+    <row r="10" spans="2:11" ht="15" thickBot="1">
       <c r="B10" t="s">
         <v>354</v>
       </c>
@@ -10228,12 +11507,12 @@
         <v>357</v>
       </c>
     </row>
-    <row r="14" spans="2:11" ht="16" thickBot="1">
+    <row r="14" spans="2:11" ht="15" thickBot="1">
       <c r="B14" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="15" spans="2:11" ht="16" thickBot="1">
+    <row r="15" spans="2:11" ht="15" thickBot="1">
       <c r="D15" s="19"/>
       <c r="E15" s="21"/>
       <c r="F15" s="23"/>
@@ -10242,7 +11521,7 @@
       <c r="J15" s="20"/>
       <c r="K15" s="21"/>
     </row>
-    <row r="16" spans="2:11" ht="16" thickBot="1">
+    <row r="16" spans="2:11" ht="15" thickBot="1">
       <c r="D16" s="22" t="s">
         <v>359</v>
       </c>
@@ -10257,7 +11536,7 @@
       <c r="J16" s="23"/>
       <c r="K16" s="24"/>
     </row>
-    <row r="17" spans="4:11" ht="16" thickBot="1">
+    <row r="17" spans="4:11" ht="15" thickBot="1">
       <c r="D17" s="22" t="s">
         <v>360</v>
       </c>
@@ -10270,7 +11549,7 @@
       <c r="J17" s="23"/>
       <c r="K17" s="24"/>
     </row>
-    <row r="18" spans="4:11" ht="16" thickBot="1">
+    <row r="18" spans="4:11" ht="15" thickBot="1">
       <c r="D18" s="22" t="s">
         <v>361</v>
       </c>
@@ -10285,7 +11564,7 @@
       <c r="J18" s="23"/>
       <c r="K18" s="24"/>
     </row>
-    <row r="19" spans="4:11" ht="16" thickBot="1">
+    <row r="19" spans="4:11" ht="15" thickBot="1">
       <c r="D19" s="22" t="s">
         <v>363</v>
       </c>
@@ -10297,7 +11576,7 @@
       <c r="J19" s="23"/>
       <c r="K19" s="24"/>
     </row>
-    <row r="20" spans="4:11" ht="16" thickBot="1">
+    <row r="20" spans="4:11" ht="15" thickBot="1">
       <c r="D20" s="22" t="s">
         <v>362</v>
       </c>
@@ -10321,7 +11600,7 @@
       <c r="J21" s="23"/>
       <c r="K21" s="24"/>
     </row>
-    <row r="22" spans="4:11" ht="16" thickBot="1">
+    <row r="22" spans="4:11" ht="15" thickBot="1">
       <c r="D22" s="25"/>
       <c r="E22" s="27"/>
       <c r="F22" s="23"/>
@@ -10330,7 +11609,7 @@
       <c r="J22" s="23"/>
       <c r="K22" s="24"/>
     </row>
-    <row r="23" spans="4:11" ht="16" thickBot="1">
+    <row r="23" spans="4:11" ht="15" thickBot="1">
       <c r="H23" s="25"/>
       <c r="I23" s="26"/>
       <c r="J23" s="26"/>
@@ -10353,7 +11632,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A3:E21"/>
   <sheetViews>
@@ -10361,7 +11640,7 @@
       <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="9" style="86"/>
     <col min="2" max="2" width="13" style="86" bestFit="1" customWidth="1"/>
@@ -10381,7 +11660,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="82" customFormat="1" ht="13">
+    <row r="4" spans="1:5" s="82" customFormat="1">
       <c r="B4" s="91" t="s">
         <v>378</v>
       </c>
@@ -10392,7 +11671,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="82" customFormat="1" ht="13">
+    <row r="5" spans="1:5" s="82" customFormat="1">
       <c r="B5" s="83" t="s">
         <v>379</v>
       </c>
@@ -10414,7 +11693,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="82" customFormat="1" ht="13">
+    <row r="7" spans="1:5" s="82" customFormat="1">
       <c r="B7" s="91" t="s">
         <v>378</v>
       </c>
@@ -10432,7 +11711,7 @@
       <c r="D8" s="87"/>
       <c r="E8" s="87"/>
     </row>
-    <row r="9" spans="1:5" ht="13">
+    <row r="9" spans="1:5">
       <c r="A9" s="87"/>
       <c r="B9" s="90" t="s">
         <v>384</v>
@@ -10441,7 +11720,7 @@
       <c r="D9" s="87"/>
       <c r="E9" s="87"/>
     </row>
-    <row r="10" spans="1:5" ht="13">
+    <row r="10" spans="1:5">
       <c r="A10" s="87"/>
       <c r="B10" s="88" t="s">
         <v>385</v>
@@ -10536,7 +11815,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDFDE749-2C0C-C548-8C4F-6EF43EA89AA0}">
   <dimension ref="B2:C9"/>
   <sheetViews>
@@ -10544,7 +11823,7 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.1640625" style="171" bestFit="1" customWidth="1"/>
@@ -10566,7 +11845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="32">
+    <row r="4" spans="2:3" ht="30">
       <c r="B4" s="179" t="s">
         <v>503</v>
       </c>
@@ -10610,11 +11889,12 @@
       <c r="B9" s="149"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D86ED6A2-BD47-244B-AD18-088367512271}">
   <dimension ref="B2:M10"/>
   <sheetViews>
@@ -10622,7 +11902,7 @@
       <selection activeCell="AY40" sqref="AY40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="14"/>
   <sheetData>
     <row r="2" spans="2:13">
       <c r="F2" s="65" t="s">
@@ -10641,7 +11921,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="4" spans="2:13" ht="16" thickBot="1">
+    <row r="4" spans="2:13" ht="15" thickBot="1">
       <c r="F4">
         <v>2</v>
       </c>
@@ -10669,7 +11949,7 @@
       <c r="L6" s="22"/>
       <c r="M6" s="24"/>
     </row>
-    <row r="7" spans="2:13" ht="16" thickBot="1">
+    <row r="7" spans="2:13" ht="15" thickBot="1">
       <c r="F7" s="169"/>
       <c r="G7" s="170"/>
       <c r="H7" s="25"/>
@@ -10702,7 +11982,7 @@
       <c r="L9" s="22"/>
       <c r="M9" s="24"/>
     </row>
-    <row r="10" spans="2:13" ht="16" thickBot="1">
+    <row r="10" spans="2:13" ht="15" thickBot="1">
       <c r="F10" s="25"/>
       <c r="G10" s="27"/>
       <c r="H10" s="25"/>
@@ -10713,12 +11993,13 @@
       <c r="M10" s="27"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A51D4780-106D-3C46-B51D-1FAF5E0D4E2A}">
   <dimension ref="A1:K27"/>
   <sheetViews>
@@ -10726,7 +12007,7 @@
       <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="12.1640625" customWidth="1"/>
     <col min="3" max="3" width="13" style="155" bestFit="1" customWidth="1"/>
@@ -10739,7 +12020,7 @@
     <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="48">
+    <row r="1" spans="1:11" ht="45">
       <c r="A1" s="151" t="s">
         <v>450</v>
       </c>
@@ -10976,6 +12257,7 @@
       <c r="H27" s="153"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A15" r:id="rId1" xr:uid="{C4E09C91-21C0-0647-B76E-1B6A2CD20E81}"/>
     <hyperlink ref="A14" r:id="rId2" xr:uid="{7303A82F-C0DE-8A4A-8D3E-E6CE193BD0A0}"/>
@@ -10985,7 +12267,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{112C5F8E-5AB4-3747-B9CF-9A1C944F7742}">
   <dimension ref="A1:I35"/>
   <sheetViews>
@@ -10993,7 +12275,7 @@
       <selection activeCell="O43" sqref="O43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="152" t="s">
@@ -11021,8 +12303,8 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="F10" s="201"/>
-      <c r="G10" s="201"/>
+      <c r="F10" s="203"/>
+      <c r="G10" s="203"/>
       <c r="I10" t="s">
         <v>445</v>
       </c>
@@ -11063,8 +12345,8 @@
       </c>
     </row>
     <row r="32" spans="2:9">
-      <c r="F32" s="201"/>
-      <c r="G32" s="201"/>
+      <c r="F32" s="203"/>
+      <c r="G32" s="203"/>
       <c r="I32" t="s">
         <v>442</v>
       </c>
@@ -11087,6 +12369,7 @@
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="F32:G32"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" xr:uid="{8C105A6D-028F-7B45-AB3A-0ACED100F9CD}"/>
     <hyperlink ref="A2" r:id="rId2" xr:uid="{DECB92E9-F7C3-7E48-B60C-768E77C89B1F}"/>
@@ -11096,7 +12379,311 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E51BCB48-68B0-EF46-B93E-648BAB230ADA}">
+  <dimension ref="A1:S28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="21.1640625" customWidth="1"/>
+    <col min="2" max="5" width="5.83203125" customWidth="1"/>
+    <col min="7" max="7" width="5.83203125" customWidth="1"/>
+    <col min="9" max="10" width="5.83203125" customWidth="1"/>
+    <col min="14" max="17" width="10.83203125" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" s="220" customFormat="1" ht="18" thickBot="1">
+      <c r="A1" s="220" t="s">
+        <v>522</v>
+      </c>
+      <c r="F1" s="220" t="s">
+        <v>525</v>
+      </c>
+      <c r="N1" s="221"/>
+      <c r="O1" s="221" t="s">
+        <v>523</v>
+      </c>
+      <c r="P1" s="221"/>
+      <c r="Q1" s="221"/>
+      <c r="S1" s="220" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="D2" s="210"/>
+      <c r="E2" s="211"/>
+      <c r="F2" s="211"/>
+      <c r="G2" s="211"/>
+      <c r="H2" s="211"/>
+      <c r="I2" s="211"/>
+      <c r="J2" s="212"/>
+    </row>
+    <row r="3" spans="1:19" ht="15" thickBot="1">
+      <c r="D3" s="215"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="209" t="s">
+        <v>521</v>
+      </c>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="214"/>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="B4" s="205"/>
+      <c r="C4" s="205"/>
+      <c r="D4" s="219"/>
+      <c r="E4" s="210"/>
+      <c r="F4" s="211"/>
+      <c r="G4" s="211"/>
+      <c r="H4" s="211"/>
+      <c r="I4" s="212"/>
+      <c r="J4" s="214"/>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="B5" s="205"/>
+      <c r="C5" s="205"/>
+      <c r="D5" s="219"/>
+      <c r="E5" s="213"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="214"/>
+      <c r="J5" s="214"/>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="B6" s="205"/>
+      <c r="C6" s="205"/>
+      <c r="D6" s="219"/>
+      <c r="E6" s="215"/>
+      <c r="F6" s="207">
+        <v>5</v>
+      </c>
+      <c r="G6" s="23"/>
+      <c r="H6" s="207">
+        <v>6</v>
+      </c>
+      <c r="I6" s="214"/>
+      <c r="J6" s="214"/>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="B7" s="205"/>
+      <c r="C7" s="205"/>
+      <c r="D7" s="219"/>
+      <c r="E7" s="215"/>
+      <c r="F7" s="207">
+        <v>4</v>
+      </c>
+      <c r="G7" s="23"/>
+      <c r="H7" s="207">
+        <v>5</v>
+      </c>
+      <c r="I7" s="214"/>
+      <c r="J7" s="214"/>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="182"/>
+      <c r="B8" s="205"/>
+      <c r="C8" s="205"/>
+      <c r="D8" s="219"/>
+      <c r="E8" s="215"/>
+      <c r="F8" s="207">
+        <v>3</v>
+      </c>
+      <c r="G8" s="23"/>
+      <c r="H8" s="207">
+        <v>4</v>
+      </c>
+      <c r="I8" s="214"/>
+      <c r="J8" s="214"/>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="B9" s="205"/>
+      <c r="C9" s="205"/>
+      <c r="D9" s="219"/>
+      <c r="E9" s="215"/>
+      <c r="F9" s="207">
+        <v>2</v>
+      </c>
+      <c r="G9" s="23"/>
+      <c r="H9" s="207">
+        <v>3</v>
+      </c>
+      <c r="I9" s="214"/>
+      <c r="J9" s="214"/>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="B10" s="205"/>
+      <c r="C10" s="205"/>
+      <c r="D10" s="219"/>
+      <c r="E10" s="215"/>
+      <c r="F10" s="207">
+        <v>1</v>
+      </c>
+      <c r="G10" s="23"/>
+      <c r="H10" s="208">
+        <v>2</v>
+      </c>
+      <c r="I10" s="214"/>
+      <c r="J10" s="214"/>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="B11" s="205"/>
+      <c r="C11" s="205"/>
+      <c r="D11" s="219"/>
+      <c r="E11" s="215"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="206">
+        <v>1</v>
+      </c>
+      <c r="I11" s="214"/>
+      <c r="J11" s="214"/>
+    </row>
+    <row r="12" spans="1:19" ht="15" thickBot="1">
+      <c r="B12" s="205"/>
+      <c r="C12" s="205"/>
+      <c r="D12" s="219"/>
+      <c r="E12" s="216"/>
+      <c r="F12" s="217"/>
+      <c r="G12" s="217"/>
+      <c r="H12" s="217"/>
+      <c r="I12" s="218"/>
+      <c r="J12" s="214"/>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="B13" s="205"/>
+      <c r="C13" s="205"/>
+      <c r="D13" s="219"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="214"/>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="B14" s="205"/>
+      <c r="C14" s="205"/>
+      <c r="D14" s="219"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="214"/>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="B15" s="205"/>
+      <c r="C15" s="205"/>
+      <c r="D15" s="219"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="214"/>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="B16" s="205"/>
+      <c r="C16" s="205"/>
+      <c r="D16" s="219"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="214"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="D17" s="215"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="214"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="D18" s="215"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="214"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="D19" s="215"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="214"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="D20" s="215"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="214"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="D21" s="215"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="214"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="D22" s="215"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="214"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="D23" s="215"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="214"/>
+    </row>
+    <row r="24" spans="1:10" ht="15" thickBot="1">
+      <c r="D24" s="216"/>
+      <c r="E24" s="217"/>
+      <c r="F24" s="217"/>
+      <c r="G24" s="217"/>
+      <c r="H24" s="217"/>
+      <c r="I24" s="217"/>
+      <c r="J24" s="218"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" t="s">
+        <v>526</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDE8B8C4-352E-054D-A843-45DFD254B784}">
   <dimension ref="B2:J61"/>
   <sheetViews>
@@ -11104,7 +12691,7 @@
       <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
   <sheetData>
     <row r="2" spans="2:10">
       <c r="H2" t="s">
@@ -11117,10 +12704,10 @@
       </c>
     </row>
     <row r="12" spans="2:10">
-      <c r="H12" s="183" t="s">
+      <c r="H12" s="204" t="s">
         <v>399</v>
       </c>
-      <c r="I12" s="183"/>
+      <c r="I12" s="204"/>
     </row>
     <row r="14" spans="2:10">
       <c r="J14" t="s">
@@ -11133,10 +12720,10 @@
       </c>
     </row>
     <row r="28" spans="2:9">
-      <c r="H28" s="201" t="s">
+      <c r="H28" s="203" t="s">
         <v>403</v>
       </c>
-      <c r="I28" s="201"/>
+      <c r="I28" s="203"/>
     </row>
     <row r="39" spans="2:9">
       <c r="B39" t="s">
@@ -11144,10 +12731,10 @@
       </c>
     </row>
     <row r="43" spans="2:9">
-      <c r="H43" s="183" t="s">
+      <c r="H43" s="204" t="s">
         <v>406</v>
       </c>
-      <c r="I43" s="183"/>
+      <c r="I43" s="204"/>
     </row>
     <row r="54" spans="2:9">
       <c r="B54" t="s">
@@ -11155,10 +12742,10 @@
       </c>
     </row>
     <row r="59" spans="2:9">
-      <c r="H59" s="201" t="s">
+      <c r="H59" s="203" t="s">
         <v>403</v>
       </c>
-      <c r="I59" s="201"/>
+      <c r="I59" s="203"/>
     </row>
     <row r="61" spans="2:9">
       <c r="G61" t="s">
@@ -11172,20 +12759,21 @@
     <mergeCell ref="H43:I43"/>
     <mergeCell ref="H59:I59"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A0C945C-04F2-D147-89E5-6DDFCFB3EEA7}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="16.33203125" customWidth="1"/>
     <col min="2" max="2" width="22.1640625" customWidth="1"/>
@@ -11198,13 +12786,13 @@
         <v>520</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="20">
-      <c r="A2" s="202" t="s">
+    <row r="2" spans="1:4" ht="18">
+      <c r="A2" s="184" t="s">
         <v>505</v>
       </c>
-      <c r="B2" s="202"/>
-      <c r="C2" s="202"/>
-      <c r="D2" s="202"/>
+      <c r="B2" s="184"/>
+      <c r="C2" s="184"/>
+      <c r="D2" s="184"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="143" t="s">
@@ -11262,7 +12850,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="32">
+    <row r="7" spans="1:4" ht="30">
       <c r="A7" s="144" t="b">
         <v>1</v>
       </c>
@@ -11276,7 +12864,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="32">
+    <row r="8" spans="1:4" ht="30">
       <c r="A8" s="144" t="b">
         <v>1</v>
       </c>
@@ -11294,6 +12882,7 @@
   <mergeCells count="1">
     <mergeCell ref="A2:D2"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A1" location="Home!A1" display="Home" xr:uid="{91ECD6D6-8372-4045-8C6F-F155D921F9EF}"/>
   </hyperlinks>
@@ -11301,7 +12890,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{695F25B9-FD59-DD4E-A097-058E28B48012}">
   <dimension ref="A1:G19"/>
   <sheetViews>
@@ -11309,21 +12898,21 @@
       <selection activeCell="Q41" sqref="Q41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
   <cols>
     <col min="2" max="2" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="182" t="s">
+      <c r="A1" s="185" t="s">
         <v>434</v>
       </c>
-      <c r="B1" s="182"/>
-      <c r="C1" s="182"/>
-      <c r="D1" s="182"/>
-      <c r="E1" s="182"/>
-      <c r="F1" s="182"/>
-      <c r="G1" s="182"/>
+      <c r="B1" s="185"/>
+      <c r="C1" s="185"/>
+      <c r="D1" s="185"/>
+      <c r="E1" s="185"/>
+      <c r="F1" s="185"/>
+      <c r="G1" s="185"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="143" t="s">
@@ -11433,15 +13022,15 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="182" t="s">
+      <c r="A12" s="185" t="s">
         <v>433</v>
       </c>
-      <c r="B12" s="182"/>
-      <c r="C12" s="182"/>
-      <c r="D12" s="182"/>
-      <c r="E12" s="182"/>
-      <c r="F12" s="182"/>
-      <c r="G12" s="182"/>
+      <c r="B12" s="185"/>
+      <c r="C12" s="185"/>
+      <c r="D12" s="185"/>
+      <c r="E12" s="185"/>
+      <c r="F12" s="185"/>
+      <c r="G12" s="185"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="143" t="s">
@@ -11555,11 +13144,12 @@
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A12:G12"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:Q30"/>
   <sheetViews>
@@ -11567,7 +13157,7 @@
       <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="4" width="9" style="44"/>
     <col min="5" max="5" width="9" style="45"/>
@@ -11578,7 +13168,7 @@
     <col min="14" max="16384" width="9" style="44"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" ht="13" thickBot="1">
+    <row r="2" spans="2:17" ht="14" thickBot="1">
       <c r="C2" s="44" t="s">
         <v>297</v>
       </c>
@@ -11633,7 +13223,7 @@
       </c>
       <c r="P4" s="55"/>
     </row>
-    <row r="5" spans="2:17" ht="13">
+    <row r="5" spans="2:17">
       <c r="B5" s="50" t="s">
         <v>299</v>
       </c>
@@ -11666,7 +13256,7 @@
       </c>
       <c r="P5" s="55"/>
     </row>
-    <row r="6" spans="2:17" ht="13">
+    <row r="6" spans="2:17">
       <c r="B6" s="50" t="s">
         <v>298</v>
       </c>
@@ -11741,7 +13331,7 @@
       <c r="O8" s="59"/>
       <c r="P8" s="55"/>
     </row>
-    <row r="9" spans="2:17" ht="13" thickBot="1">
+    <row r="9" spans="2:17" ht="14" thickBot="1">
       <c r="B9" s="60"/>
       <c r="C9" s="61"/>
       <c r="D9" s="62"/>
@@ -11975,7 +13565,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:D224"/>
@@ -11985,7 +13575,7 @@
       <selection pane="bottomLeft" activeCell="G84" sqref="G84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="36" style="41" customWidth="1"/>
     <col min="2" max="2" width="46.33203125" style="41" bestFit="1" customWidth="1"/>
@@ -13956,7 +15546,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:I20"/>
   <sheetViews>
@@ -13964,7 +15554,7 @@
       <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="2:9">
       <c r="D1" s="70"/>
@@ -14070,7 +15660,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:Q39"/>
   <sheetViews>
@@ -14078,7 +15668,7 @@
       <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
@@ -14093,7 +15683,7 @@
       </c>
       <c r="Q1" s="2"/>
     </row>
-    <row r="2" spans="2:17" ht="13" thickBot="1">
+    <row r="2" spans="2:17" ht="14" thickBot="1">
       <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
@@ -14147,7 +15737,7 @@
       <c r="M7" s="6"/>
       <c r="O7" s="7"/>
     </row>
-    <row r="8" spans="2:17" ht="13" thickBot="1">
+    <row r="8" spans="2:17" ht="14" thickBot="1">
       <c r="C8" s="6"/>
       <c r="E8" s="7"/>
       <c r="H8" s="6"/>
@@ -14155,7 +15745,7 @@
       <c r="M8" s="6"/>
       <c r="O8" s="7"/>
     </row>
-    <row r="9" spans="2:17" ht="27" thickBot="1">
+    <row r="9" spans="2:17" ht="29" thickBot="1">
       <c r="B9" s="1" t="s">
         <v>2</v>
       </c>
@@ -14236,7 +15826,7 @@
       <c r="M16" s="6"/>
       <c r="O16" s="7"/>
     </row>
-    <row r="17" spans="2:17" ht="13" thickBot="1">
+    <row r="17" spans="2:17" ht="14" thickBot="1">
       <c r="C17" s="9"/>
       <c r="D17" s="10"/>
       <c r="E17" s="11"/>
@@ -14247,7 +15837,7 @@
       <c r="N17" s="10"/>
       <c r="O17" s="11"/>
     </row>
-    <row r="24" spans="2:17" ht="13" thickBot="1">
+    <row r="24" spans="2:17" ht="14" thickBot="1">
       <c r="D24" s="1" t="s">
         <v>0</v>
       </c>
@@ -14309,7 +15899,7 @@
       <c r="M30" s="6"/>
       <c r="O30" s="7"/>
     </row>
-    <row r="31" spans="2:17" ht="39">
+    <row r="31" spans="2:17" ht="42">
       <c r="B31" s="1" t="s">
         <v>8</v>
       </c>
@@ -14382,7 +15972,7 @@
       <c r="M38" s="6"/>
       <c r="O38" s="7"/>
     </row>
-    <row r="39" spans="3:15" ht="13" thickBot="1">
+    <row r="39" spans="3:15" ht="14" thickBot="1">
       <c r="C39" s="9"/>
       <c r="D39" s="10"/>
       <c r="E39" s="11"/>
@@ -14401,7 +15991,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B3:G13"/>
   <sheetViews>
@@ -14409,7 +15999,7 @@
       <selection activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="9" style="14"/>
     <col min="2" max="2" width="13.1640625" style="14" bestFit="1" customWidth="1"/>
@@ -14457,7 +16047,7 @@
       <c r="G4" s="15"/>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="184" t="s">
+      <c r="B5" s="186" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="15" t="s">
@@ -14477,7 +16067,7 @@
       </c>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="184"/>
+      <c r="B6" s="186"/>
       <c r="C6" s="15" t="s">
         <v>17</v>
       </c>
@@ -14493,7 +16083,7 @@
       </c>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="184"/>
+      <c r="B7" s="186"/>
       <c r="C7" s="16" t="s">
         <v>31</v>
       </c>
@@ -14511,7 +16101,7 @@
       </c>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="184"/>
+      <c r="B8" s="186"/>
       <c r="C8" s="16" t="s">
         <v>32</v>
       </c>
@@ -14529,7 +16119,7 @@
       </c>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="184"/>
+      <c r="B9" s="186"/>
       <c r="C9" s="16" t="s">
         <v>33</v>
       </c>
@@ -14546,8 +16136,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="26">
-      <c r="B10" s="184"/>
+    <row r="10" spans="2:7" ht="28">
+      <c r="B10" s="186"/>
       <c r="C10" s="16" t="s">
         <v>13</v>
       </c>
@@ -14564,8 +16154,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="39">
-      <c r="B11" s="185" t="s">
+    <row r="11" spans="2:7" ht="42">
+      <c r="B11" s="187" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="18" t="s">
@@ -14585,7 +16175,7 @@
       </c>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="186"/>
+      <c r="B12" s="188"/>
       <c r="C12" s="15" t="s">
         <v>15</v>
       </c>
@@ -14599,7 +16189,7 @@
       </c>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="187"/>
+      <c r="B13" s="189"/>
       <c r="C13" s="15" t="s">
         <v>16</v>
       </c>
@@ -14623,164 +16213,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="B1:N24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
-  <cols>
-    <col min="3" max="3" width="9" style="30"/>
-    <col min="8" max="8" width="9" style="30"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:14">
-      <c r="H1" s="40" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="2:14" ht="16" thickBot="1">
-      <c r="C3" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="H3" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="M3" s="28" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="2:14">
-      <c r="B4" s="19"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="23"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="23"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="21"/>
-    </row>
-    <row r="5" spans="2:14">
-      <c r="B5" s="22"/>
-      <c r="C5" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="23"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="I5" s="24"/>
-      <c r="J5" s="23"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="N5" s="24"/>
-    </row>
-    <row r="6" spans="2:14" ht="16" thickBot="1">
-      <c r="B6" s="25"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="23"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="23"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="27"/>
-    </row>
-    <row r="10" spans="2:14">
-      <c r="B10" s="35"/>
-      <c r="C10" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="H10" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="M10" s="35" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14">
-      <c r="H11" s="34" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14">
-      <c r="H12" s="34"/>
-      <c r="I12" s="36"/>
-    </row>
-    <row r="13" spans="2:14">
-      <c r="H13" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="I13" s="36"/>
-    </row>
-    <row r="14" spans="2:14">
-      <c r="H14" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="I14" s="36"/>
-    </row>
-    <row r="15" spans="2:14">
-      <c r="H15" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="I15" s="36"/>
-    </row>
-    <row r="16" spans="2:14">
-      <c r="H16" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="I16" s="36"/>
-    </row>
-    <row r="17" spans="8:9">
-      <c r="H17" s="34"/>
-      <c r="I17" s="36"/>
-    </row>
-    <row r="18" spans="8:9">
-      <c r="H18" s="34"/>
-      <c r="I18" s="36"/>
-    </row>
-    <row r="19" spans="8:9">
-      <c r="H19" s="34"/>
-      <c r="I19" s="36"/>
-    </row>
-    <row r="20" spans="8:9">
-      <c r="H20" s="34"/>
-      <c r="I20" s="36"/>
-    </row>
-    <row r="21" spans="8:9">
-      <c r="H21" s="34"/>
-      <c r="I21" s="36"/>
-    </row>
-    <row r="22" spans="8:9">
-      <c r="H22" s="34"/>
-      <c r="I22" s="36"/>
-    </row>
-    <row r="23" spans="8:9">
-      <c r="H23" s="34"/>
-      <c r="I23" s="36"/>
-    </row>
-    <row r="24" spans="8:9">
-      <c r="H24" s="34"/>
-      <c r="I24" s="36"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/doc/android.xlsx
+++ b/doc/android.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10211"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC0C846-37E9-AB4F-992A-5ED6AAD242F7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{693B53B5-7B19-2544-8219-DE2DCAFC8AAC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12384,7 +12384,7 @@
   <dimension ref="A1:S28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>

--- a/doc/android.xlsx
+++ b/doc/android.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10211"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{693B53B5-7B19-2544-8219-DE2DCAFC8AAC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F405593-4CE4-D84F-B802-000CD66AA7E7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="960" yWindow="460" windowWidth="27840" windowHeight="17540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="16" r:id="rId1"/>
     <sheet name="ThreeeLevelCache" sheetId="22" r:id="rId2"/>
-    <sheet name="S1" sheetId="21" r:id="rId3"/>
+    <sheet name="IPC" sheetId="21" r:id="rId3"/>
     <sheet name="Activity_Lifecycle" sheetId="15" r:id="rId4"/>
     <sheet name="ContentProvider" sheetId="4" r:id="rId5"/>
     <sheet name="Android高级应用开发-深入篇" sheetId="5" r:id="rId6"/>
@@ -2062,9 +2062,6 @@
     <t>Allow Other App To Start your Activity</t>
   </si>
   <si>
-    <t>S1</t>
-  </si>
-  <si>
     <t>Home</t>
   </si>
   <si>
@@ -2089,6 +2086,10 @@
   </si>
   <si>
     <t>s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Client</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3184,7 +3185,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="222">
+  <cellXfs count="223">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3525,6 +3526,35 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="2" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3588,35 +3618,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -10005,15 +10007,10 @@
       <c r="A2" t="s">
         <v>518</v>
       </c>
-      <c r="B2" s="183" t="s">
-        <v>519</v>
-      </c>
+      <c r="B2" s="183"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="B2" location="'S1'!A1" display="S1" xr:uid="{7F0410CD-FAFA-E249-9954-10BC98741A98}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10548,11 +10545,11 @@
       <c r="C6" s="94"/>
       <c r="D6" s="101"/>
       <c r="E6" s="96"/>
-      <c r="F6" s="190" t="s">
+      <c r="F6" s="207" t="s">
         <v>392</v>
       </c>
-      <c r="G6" s="191"/>
-      <c r="H6" s="192"/>
+      <c r="G6" s="208"/>
+      <c r="H6" s="209"/>
       <c r="I6" s="96"/>
       <c r="J6" s="102"/>
       <c r="K6" s="94"/>
@@ -10572,9 +10569,9 @@
       <c r="C7" s="94"/>
       <c r="D7" s="101"/>
       <c r="E7" s="96"/>
-      <c r="F7" s="193"/>
-      <c r="G7" s="194"/>
-      <c r="H7" s="195"/>
+      <c r="F7" s="210"/>
+      <c r="G7" s="211"/>
+      <c r="H7" s="212"/>
       <c r="I7" s="96"/>
       <c r="J7" s="102"/>
       <c r="K7" s="95"/>
@@ -10594,9 +10591,9 @@
       <c r="C8" s="94"/>
       <c r="D8" s="101"/>
       <c r="E8" s="96"/>
-      <c r="F8" s="193"/>
-      <c r="G8" s="194"/>
-      <c r="H8" s="195"/>
+      <c r="F8" s="210"/>
+      <c r="G8" s="211"/>
+      <c r="H8" s="212"/>
       <c r="I8" s="96"/>
       <c r="J8" s="102"/>
       <c r="K8" s="94"/>
@@ -10615,9 +10612,9 @@
       <c r="B9" s="94"/>
       <c r="C9" s="94"/>
       <c r="D9" s="101"/>
-      <c r="F9" s="193"/>
-      <c r="G9" s="194"/>
-      <c r="H9" s="195"/>
+      <c r="F9" s="210"/>
+      <c r="G9" s="211"/>
+      <c r="H9" s="212"/>
       <c r="I9" s="96"/>
       <c r="J9" s="102"/>
       <c r="K9" s="94"/>
@@ -10636,9 +10633,9 @@
       <c r="B10" s="94"/>
       <c r="C10" s="94"/>
       <c r="D10" s="101"/>
-      <c r="F10" s="196"/>
-      <c r="G10" s="197"/>
-      <c r="H10" s="198"/>
+      <c r="F10" s="213"/>
+      <c r="G10" s="214"/>
+      <c r="H10" s="215"/>
       <c r="I10" s="129"/>
       <c r="J10" s="102"/>
       <c r="K10" s="94"/>
@@ -11311,16 +11308,16 @@
     </row>
     <row r="18" spans="5:8">
       <c r="E18" s="137"/>
-      <c r="F18" s="199" t="s">
+      <c r="F18" s="216" t="s">
         <v>395</v>
       </c>
-      <c r="G18" s="200"/>
+      <c r="G18" s="217"/>
       <c r="H18" s="135"/>
     </row>
     <row r="19" spans="5:8">
       <c r="E19" s="137"/>
-      <c r="F19" s="201"/>
-      <c r="G19" s="202"/>
+      <c r="F19" s="218"/>
+      <c r="G19" s="219"/>
       <c r="H19" s="135"/>
     </row>
     <row r="20" spans="5:8">
@@ -12303,8 +12300,8 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="F10" s="203"/>
-      <c r="G10" s="203"/>
+      <c r="F10" s="220"/>
+      <c r="G10" s="220"/>
       <c r="I10" t="s">
         <v>445</v>
       </c>
@@ -12345,8 +12342,8 @@
       </c>
     </row>
     <row r="32" spans="2:9">
-      <c r="F32" s="203"/>
-      <c r="G32" s="203"/>
+      <c r="F32" s="220"/>
+      <c r="G32" s="220"/>
       <c r="I32" t="s">
         <v>442</v>
       </c>
@@ -12383,7 +12380,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E51BCB48-68B0-EF46-B93E-648BAB230ADA}">
   <dimension ref="A1:S28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
@@ -12396,284 +12393,284 @@
     <col min="14" max="17" width="10.83203125" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="220" customFormat="1" ht="18" thickBot="1">
-      <c r="A1" s="220" t="s">
+    <row r="1" spans="1:19" s="199" customFormat="1" ht="18" thickBot="1">
+      <c r="A1" s="199" t="s">
+        <v>521</v>
+      </c>
+      <c r="F1" s="199" t="s">
+        <v>524</v>
+      </c>
+      <c r="N1" s="200"/>
+      <c r="O1" s="200" t="s">
         <v>522</v>
       </c>
-      <c r="F1" s="220" t="s">
-        <v>525</v>
-      </c>
-      <c r="N1" s="221"/>
-      <c r="O1" s="221" t="s">
+      <c r="P1" s="200"/>
+      <c r="Q1" s="200"/>
+      <c r="S1" s="199" t="s">
         <v>523</v>
       </c>
-      <c r="P1" s="221"/>
-      <c r="Q1" s="221"/>
-      <c r="S1" s="220" t="s">
-        <v>524</v>
-      </c>
     </row>
     <row r="2" spans="1:19">
-      <c r="D2" s="210"/>
-      <c r="E2" s="211"/>
-      <c r="F2" s="211"/>
-      <c r="G2" s="211"/>
-      <c r="H2" s="211"/>
-      <c r="I2" s="211"/>
-      <c r="J2" s="212"/>
+      <c r="D2" s="189"/>
+      <c r="E2" s="190"/>
+      <c r="F2" s="190"/>
+      <c r="G2" s="190"/>
+      <c r="H2" s="190"/>
+      <c r="I2" s="190"/>
+      <c r="J2" s="191"/>
     </row>
     <row r="3" spans="1:19" ht="15" thickBot="1">
-      <c r="D3" s="215"/>
+      <c r="D3" s="194"/>
       <c r="E3" s="23"/>
-      <c r="F3" s="209" t="s">
-        <v>521</v>
+      <c r="F3" s="188" t="s">
+        <v>520</v>
       </c>
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
       <c r="I3" s="23"/>
-      <c r="J3" s="214"/>
+      <c r="J3" s="193"/>
     </row>
     <row r="4" spans="1:19">
-      <c r="B4" s="205"/>
-      <c r="C4" s="205"/>
-      <c r="D4" s="219"/>
-      <c r="E4" s="210"/>
-      <c r="F4" s="211"/>
-      <c r="G4" s="211"/>
-      <c r="H4" s="211"/>
-      <c r="I4" s="212"/>
-      <c r="J4" s="214"/>
+      <c r="B4" s="184"/>
+      <c r="C4" s="184"/>
+      <c r="D4" s="198"/>
+      <c r="E4" s="189"/>
+      <c r="F4" s="190"/>
+      <c r="G4" s="190"/>
+      <c r="H4" s="190"/>
+      <c r="I4" s="191"/>
+      <c r="J4" s="193"/>
     </row>
     <row r="5" spans="1:19">
-      <c r="B5" s="205"/>
-      <c r="C5" s="205"/>
-      <c r="D5" s="219"/>
-      <c r="E5" s="213"/>
+      <c r="B5" s="184"/>
+      <c r="C5" s="184"/>
+      <c r="D5" s="198"/>
+      <c r="E5" s="192"/>
       <c r="F5" s="23"/>
       <c r="G5" s="32"/>
       <c r="H5" s="23"/>
-      <c r="I5" s="214"/>
-      <c r="J5" s="214"/>
+      <c r="I5" s="193"/>
+      <c r="J5" s="193"/>
     </row>
     <row r="6" spans="1:19">
-      <c r="B6" s="205"/>
-      <c r="C6" s="205"/>
-      <c r="D6" s="219"/>
-      <c r="E6" s="215"/>
-      <c r="F6" s="207">
+      <c r="B6" s="184"/>
+      <c r="C6" s="184"/>
+      <c r="D6" s="198"/>
+      <c r="E6" s="194"/>
+      <c r="F6" s="186">
         <v>5</v>
       </c>
       <c r="G6" s="23"/>
-      <c r="H6" s="207">
+      <c r="H6" s="186">
         <v>6</v>
       </c>
-      <c r="I6" s="214"/>
-      <c r="J6" s="214"/>
+      <c r="I6" s="193"/>
+      <c r="J6" s="193"/>
     </row>
     <row r="7" spans="1:19">
-      <c r="B7" s="205"/>
-      <c r="C7" s="205"/>
-      <c r="D7" s="219"/>
-      <c r="E7" s="215"/>
-      <c r="F7" s="207">
+      <c r="B7" s="184"/>
+      <c r="C7" s="184"/>
+      <c r="D7" s="198"/>
+      <c r="E7" s="194"/>
+      <c r="F7" s="186">
         <v>4</v>
       </c>
       <c r="G7" s="23"/>
-      <c r="H7" s="207">
+      <c r="H7" s="186">
         <v>5</v>
       </c>
-      <c r="I7" s="214"/>
-      <c r="J7" s="214"/>
+      <c r="I7" s="193"/>
+      <c r="J7" s="193"/>
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="182"/>
-      <c r="B8" s="205"/>
-      <c r="C8" s="205"/>
-      <c r="D8" s="219"/>
-      <c r="E8" s="215"/>
-      <c r="F8" s="207">
+      <c r="B8" s="184"/>
+      <c r="C8" s="184"/>
+      <c r="D8" s="198"/>
+      <c r="E8" s="194"/>
+      <c r="F8" s="186">
         <v>3</v>
       </c>
       <c r="G8" s="23"/>
-      <c r="H8" s="207">
+      <c r="H8" s="186">
         <v>4</v>
       </c>
-      <c r="I8" s="214"/>
-      <c r="J8" s="214"/>
+      <c r="I8" s="193"/>
+      <c r="J8" s="193"/>
     </row>
     <row r="9" spans="1:19">
-      <c r="B9" s="205"/>
-      <c r="C9" s="205"/>
-      <c r="D9" s="219"/>
-      <c r="E9" s="215"/>
-      <c r="F9" s="207">
+      <c r="B9" s="184"/>
+      <c r="C9" s="184"/>
+      <c r="D9" s="198"/>
+      <c r="E9" s="194"/>
+      <c r="F9" s="186">
         <v>2</v>
       </c>
       <c r="G9" s="23"/>
-      <c r="H9" s="207">
+      <c r="H9" s="186">
         <v>3</v>
       </c>
-      <c r="I9" s="214"/>
-      <c r="J9" s="214"/>
+      <c r="I9" s="193"/>
+      <c r="J9" s="193"/>
     </row>
     <row r="10" spans="1:19">
-      <c r="B10" s="205"/>
-      <c r="C10" s="205"/>
-      <c r="D10" s="219"/>
-      <c r="E10" s="215"/>
-      <c r="F10" s="207">
+      <c r="B10" s="184"/>
+      <c r="C10" s="184"/>
+      <c r="D10" s="198"/>
+      <c r="E10" s="194"/>
+      <c r="F10" s="186">
         <v>1</v>
       </c>
       <c r="G10" s="23"/>
-      <c r="H10" s="208">
+      <c r="H10" s="187">
         <v>2</v>
       </c>
-      <c r="I10" s="214"/>
-      <c r="J10" s="214"/>
+      <c r="I10" s="193"/>
+      <c r="J10" s="193"/>
     </row>
     <row r="11" spans="1:19">
-      <c r="B11" s="205"/>
-      <c r="C11" s="205"/>
-      <c r="D11" s="219"/>
-      <c r="E11" s="215"/>
+      <c r="B11" s="184"/>
+      <c r="C11" s="184"/>
+      <c r="D11" s="198"/>
+      <c r="E11" s="194"/>
       <c r="F11" s="23"/>
       <c r="G11" s="23"/>
-      <c r="H11" s="206">
+      <c r="H11" s="185">
         <v>1</v>
       </c>
-      <c r="I11" s="214"/>
-      <c r="J11" s="214"/>
+      <c r="I11" s="193"/>
+      <c r="J11" s="193"/>
     </row>
     <row r="12" spans="1:19" ht="15" thickBot="1">
-      <c r="B12" s="205"/>
-      <c r="C12" s="205"/>
-      <c r="D12" s="219"/>
-      <c r="E12" s="216"/>
-      <c r="F12" s="217"/>
-      <c r="G12" s="217"/>
-      <c r="H12" s="217"/>
-      <c r="I12" s="218"/>
-      <c r="J12" s="214"/>
+      <c r="B12" s="184"/>
+      <c r="C12" s="184"/>
+      <c r="D12" s="198"/>
+      <c r="E12" s="195"/>
+      <c r="F12" s="196"/>
+      <c r="G12" s="196"/>
+      <c r="H12" s="196"/>
+      <c r="I12" s="197"/>
+      <c r="J12" s="193"/>
     </row>
     <row r="13" spans="1:19">
-      <c r="B13" s="205"/>
-      <c r="C13" s="205"/>
-      <c r="D13" s="219"/>
+      <c r="B13" s="184"/>
+      <c r="C13" s="184"/>
+      <c r="D13" s="198"/>
       <c r="E13" s="23"/>
       <c r="F13" s="23"/>
       <c r="G13" s="23"/>
       <c r="H13" s="23"/>
       <c r="I13" s="23"/>
-      <c r="J13" s="214"/>
+      <c r="J13" s="193"/>
     </row>
     <row r="14" spans="1:19">
-      <c r="B14" s="205"/>
-      <c r="C14" s="205"/>
-      <c r="D14" s="219"/>
+      <c r="B14" s="184"/>
+      <c r="C14" s="184"/>
+      <c r="D14" s="198"/>
       <c r="E14" s="23"/>
       <c r="F14" s="23"/>
       <c r="G14" s="23"/>
       <c r="H14" s="23"/>
       <c r="I14" s="23"/>
-      <c r="J14" s="214"/>
+      <c r="J14" s="193"/>
     </row>
     <row r="15" spans="1:19">
-      <c r="B15" s="205"/>
-      <c r="C15" s="205"/>
-      <c r="D15" s="219"/>
+      <c r="B15" s="184"/>
+      <c r="C15" s="184"/>
+      <c r="D15" s="198"/>
       <c r="E15" s="23"/>
       <c r="F15" s="23"/>
       <c r="G15" s="23"/>
       <c r="H15" s="23"/>
       <c r="I15" s="23"/>
-      <c r="J15" s="214"/>
+      <c r="J15" s="193"/>
     </row>
     <row r="16" spans="1:19">
-      <c r="B16" s="205"/>
-      <c r="C16" s="205"/>
-      <c r="D16" s="219"/>
+      <c r="B16" s="184"/>
+      <c r="C16" s="184"/>
+      <c r="D16" s="198"/>
       <c r="E16" s="23"/>
       <c r="F16" s="23"/>
       <c r="G16" s="23"/>
       <c r="H16" s="23"/>
       <c r="I16" s="23"/>
-      <c r="J16" s="214"/>
+      <c r="J16" s="193"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="D17" s="215"/>
+      <c r="D17" s="194"/>
       <c r="E17" s="23"/>
       <c r="F17" s="23"/>
       <c r="G17" s="23"/>
       <c r="H17" s="23"/>
       <c r="I17" s="23"/>
-      <c r="J17" s="214"/>
+      <c r="J17" s="193"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="D18" s="215"/>
+      <c r="D18" s="194"/>
       <c r="E18" s="23"/>
       <c r="F18" s="23"/>
       <c r="G18" s="23"/>
       <c r="H18" s="23"/>
       <c r="I18" s="23"/>
-      <c r="J18" s="214"/>
+      <c r="J18" s="193"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="D19" s="215"/>
+      <c r="D19" s="194"/>
       <c r="E19" s="23"/>
       <c r="F19" s="23"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
       <c r="I19" s="23"/>
-      <c r="J19" s="214"/>
+      <c r="J19" s="193"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="D20" s="215"/>
+      <c r="D20" s="194"/>
       <c r="E20" s="23"/>
       <c r="F20" s="23"/>
       <c r="G20" s="23"/>
       <c r="H20" s="23"/>
       <c r="I20" s="23"/>
-      <c r="J20" s="214"/>
+      <c r="J20" s="193"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="D21" s="215"/>
+      <c r="D21" s="194"/>
       <c r="E21" s="23"/>
       <c r="F21" s="23"/>
       <c r="G21" s="23"/>
       <c r="H21" s="23"/>
       <c r="I21" s="23"/>
-      <c r="J21" s="214"/>
+      <c r="J21" s="193"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="D22" s="215"/>
+      <c r="D22" s="194"/>
       <c r="E22" s="23"/>
       <c r="F22" s="23"/>
       <c r="G22" s="23"/>
       <c r="H22" s="23"/>
       <c r="I22" s="23"/>
-      <c r="J22" s="214"/>
+      <c r="J22" s="193"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="D23" s="215"/>
+      <c r="D23" s="194"/>
       <c r="E23" s="23"/>
       <c r="F23" s="23"/>
       <c r="G23" s="23"/>
       <c r="H23" s="23"/>
       <c r="I23" s="23"/>
-      <c r="J23" s="214"/>
+      <c r="J23" s="193"/>
     </row>
     <row r="24" spans="1:10" ht="15" thickBot="1">
-      <c r="D24" s="216"/>
-      <c r="E24" s="217"/>
-      <c r="F24" s="217"/>
-      <c r="G24" s="217"/>
-      <c r="H24" s="217"/>
-      <c r="I24" s="217"/>
-      <c r="J24" s="218"/>
+      <c r="D24" s="195"/>
+      <c r="E24" s="196"/>
+      <c r="F24" s="196"/>
+      <c r="G24" s="196"/>
+      <c r="H24" s="196"/>
+      <c r="I24" s="196"/>
+      <c r="J24" s="197"/>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
   </sheetData>
@@ -12704,10 +12701,10 @@
       </c>
     </row>
     <row r="12" spans="2:10">
-      <c r="H12" s="204" t="s">
+      <c r="H12" s="221" t="s">
         <v>399</v>
       </c>
-      <c r="I12" s="204"/>
+      <c r="I12" s="221"/>
     </row>
     <row r="14" spans="2:10">
       <c r="J14" t="s">
@@ -12720,10 +12717,10 @@
       </c>
     </row>
     <row r="28" spans="2:9">
-      <c r="H28" s="203" t="s">
+      <c r="H28" s="220" t="s">
         <v>403</v>
       </c>
-      <c r="I28" s="203"/>
+      <c r="I28" s="220"/>
     </row>
     <row r="39" spans="2:9">
       <c r="B39" t="s">
@@ -12731,10 +12728,10 @@
       </c>
     </row>
     <row r="43" spans="2:9">
-      <c r="H43" s="204" t="s">
+      <c r="H43" s="221" t="s">
         <v>406</v>
       </c>
-      <c r="I43" s="204"/>
+      <c r="I43" s="221"/>
     </row>
     <row r="54" spans="2:9">
       <c r="B54" t="s">
@@ -12742,10 +12739,10 @@
       </c>
     </row>
     <row r="59" spans="2:9">
-      <c r="H59" s="203" t="s">
+      <c r="H59" s="220" t="s">
         <v>403</v>
       </c>
-      <c r="I59" s="203"/>
+      <c r="I59" s="220"/>
     </row>
     <row r="61" spans="2:9">
       <c r="G61" t="s">
@@ -12767,10 +12764,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A0C945C-04F2-D147-89E5-6DDFCFB3EEA7}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -12783,16 +12780,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="147" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18">
-      <c r="A2" s="184" t="s">
+      <c r="A2" s="201" t="s">
         <v>505</v>
       </c>
-      <c r="B2" s="184"/>
-      <c r="C2" s="184"/>
-      <c r="D2" s="184"/>
+      <c r="B2" s="201"/>
+      <c r="C2" s="201"/>
+      <c r="D2" s="201"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="143" t="s">
@@ -12877,6 +12874,12 @@
       <c r="D8" s="180" t="s">
         <v>515</v>
       </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="B9" s="222" t="s">
+        <v>526</v>
+      </c>
+      <c r="C9" s="222"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -12894,7 +12897,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{695F25B9-FD59-DD4E-A097-058E28B48012}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView topLeftCell="U1" workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="Q41" sqref="Q41"/>
     </sheetView>
   </sheetViews>
@@ -12904,15 +12907,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="185" t="s">
+      <c r="A1" s="202" t="s">
         <v>434</v>
       </c>
-      <c r="B1" s="185"/>
-      <c r="C1" s="185"/>
-      <c r="D1" s="185"/>
-      <c r="E1" s="185"/>
-      <c r="F1" s="185"/>
-      <c r="G1" s="185"/>
+      <c r="B1" s="202"/>
+      <c r="C1" s="202"/>
+      <c r="D1" s="202"/>
+      <c r="E1" s="202"/>
+      <c r="F1" s="202"/>
+      <c r="G1" s="202"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="143" t="s">
@@ -13022,15 +13025,15 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="185" t="s">
+      <c r="A12" s="202" t="s">
         <v>433</v>
       </c>
-      <c r="B12" s="185"/>
-      <c r="C12" s="185"/>
-      <c r="D12" s="185"/>
-      <c r="E12" s="185"/>
-      <c r="F12" s="185"/>
-      <c r="G12" s="185"/>
+      <c r="B12" s="202"/>
+      <c r="C12" s="202"/>
+      <c r="D12" s="202"/>
+      <c r="E12" s="202"/>
+      <c r="F12" s="202"/>
+      <c r="G12" s="202"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="143" t="s">
@@ -16047,7 +16050,7 @@
       <c r="G4" s="15"/>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="186" t="s">
+      <c r="B5" s="203" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="15" t="s">
@@ -16067,7 +16070,7 @@
       </c>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="186"/>
+      <c r="B6" s="203"/>
       <c r="C6" s="15" t="s">
         <v>17</v>
       </c>
@@ -16083,7 +16086,7 @@
       </c>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="186"/>
+      <c r="B7" s="203"/>
       <c r="C7" s="16" t="s">
         <v>31</v>
       </c>
@@ -16101,7 +16104,7 @@
       </c>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="186"/>
+      <c r="B8" s="203"/>
       <c r="C8" s="16" t="s">
         <v>32</v>
       </c>
@@ -16119,7 +16122,7 @@
       </c>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="186"/>
+      <c r="B9" s="203"/>
       <c r="C9" s="16" t="s">
         <v>33</v>
       </c>
@@ -16137,7 +16140,7 @@
       </c>
     </row>
     <row r="10" spans="2:7" ht="28">
-      <c r="B10" s="186"/>
+      <c r="B10" s="203"/>
       <c r="C10" s="16" t="s">
         <v>13</v>
       </c>
@@ -16155,7 +16158,7 @@
       </c>
     </row>
     <row r="11" spans="2:7" ht="42">
-      <c r="B11" s="187" t="s">
+      <c r="B11" s="204" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="18" t="s">
@@ -16175,7 +16178,7 @@
       </c>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="188"/>
+      <c r="B12" s="205"/>
       <c r="C12" s="15" t="s">
         <v>15</v>
       </c>
@@ -16189,7 +16192,7 @@
       </c>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="189"/>
+      <c r="B13" s="206"/>
       <c r="C13" s="15" t="s">
         <v>16</v>
       </c>

--- a/doc/android.xlsx
+++ b/doc/android.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10211"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F405593-4CE4-D84F-B802-000CD66AA7E7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{112D03DC-6806-EE44-9360-690DE73642EF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="960" yWindow="460" windowWidth="27840" windowHeight="17540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="531">
   <si>
     <t>Activity</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2024,9 +2024,6 @@
     <t>android:exported</t>
   </si>
   <si>
-    <t>android:sharedUserId</t>
-  </si>
-  <si>
     <t xml:space="preserve">&lt;intent-filter&gt; </t>
   </si>
   <si>
@@ -2049,47 +2046,68 @@
 2 Can not Implicit Intent:ActivityNotFoundException</t>
   </si>
   <si>
+    <t>Sheet name</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>Allow Other App To Start your Activity</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>LruCache&lt;String, BitmapDrawable&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Disk Cacche</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Network</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Memory Cache</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Client</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>android:sharedUserId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Same Signature + sharedUserId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Signature</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>1 Explicit Intent
 2 Implicit Inten</t>
-  </si>
-  <si>
-    <t>Sheet name</t>
-  </si>
-  <si>
-    <t>Link</t>
-  </si>
-  <si>
-    <t>Allow Other App To Start your Activity</t>
-  </si>
-  <si>
-    <t>Home</t>
-  </si>
-  <si>
-    <t>LruCache&lt;String, BitmapDrawable&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Disk Cacche</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Network</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Memory Cache</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>s</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Client</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>✅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Implicit Intent</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2097,7 +2115,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="44">
+  <fonts count="45">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2423,6 +2441,12 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -3185,7 +3209,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="223">
+  <cellXfs count="224">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3555,6 +3579,7 @@
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3618,7 +3643,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -9997,15 +10022,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B2" s="183"/>
     </row>
@@ -10545,11 +10570,11 @@
       <c r="C6" s="94"/>
       <c r="D6" s="101"/>
       <c r="E6" s="96"/>
-      <c r="F6" s="207" t="s">
+      <c r="F6" s="208" t="s">
         <v>392</v>
       </c>
-      <c r="G6" s="208"/>
-      <c r="H6" s="209"/>
+      <c r="G6" s="209"/>
+      <c r="H6" s="210"/>
       <c r="I6" s="96"/>
       <c r="J6" s="102"/>
       <c r="K6" s="94"/>
@@ -10569,9 +10594,9 @@
       <c r="C7" s="94"/>
       <c r="D7" s="101"/>
       <c r="E7" s="96"/>
-      <c r="F7" s="210"/>
-      <c r="G7" s="211"/>
-      <c r="H7" s="212"/>
+      <c r="F7" s="211"/>
+      <c r="G7" s="212"/>
+      <c r="H7" s="213"/>
       <c r="I7" s="96"/>
       <c r="J7" s="102"/>
       <c r="K7" s="95"/>
@@ -10591,9 +10616,9 @@
       <c r="C8" s="94"/>
       <c r="D8" s="101"/>
       <c r="E8" s="96"/>
-      <c r="F8" s="210"/>
-      <c r="G8" s="211"/>
-      <c r="H8" s="212"/>
+      <c r="F8" s="211"/>
+      <c r="G8" s="212"/>
+      <c r="H8" s="213"/>
       <c r="I8" s="96"/>
       <c r="J8" s="102"/>
       <c r="K8" s="94"/>
@@ -10612,9 +10637,9 @@
       <c r="B9" s="94"/>
       <c r="C9" s="94"/>
       <c r="D9" s="101"/>
-      <c r="F9" s="210"/>
-      <c r="G9" s="211"/>
-      <c r="H9" s="212"/>
+      <c r="F9" s="211"/>
+      <c r="G9" s="212"/>
+      <c r="H9" s="213"/>
       <c r="I9" s="96"/>
       <c r="J9" s="102"/>
       <c r="K9" s="94"/>
@@ -10633,9 +10658,9 @@
       <c r="B10" s="94"/>
       <c r="C10" s="94"/>
       <c r="D10" s="101"/>
-      <c r="F10" s="213"/>
-      <c r="G10" s="214"/>
-      <c r="H10" s="215"/>
+      <c r="F10" s="214"/>
+      <c r="G10" s="215"/>
+      <c r="H10" s="216"/>
       <c r="I10" s="129"/>
       <c r="J10" s="102"/>
       <c r="K10" s="94"/>
@@ -11308,16 +11333,16 @@
     </row>
     <row r="18" spans="5:8">
       <c r="E18" s="137"/>
-      <c r="F18" s="216" t="s">
+      <c r="F18" s="217" t="s">
         <v>395</v>
       </c>
-      <c r="G18" s="217"/>
+      <c r="G18" s="218"/>
       <c r="H18" s="135"/>
     </row>
     <row r="19" spans="5:8">
       <c r="E19" s="137"/>
-      <c r="F19" s="218"/>
-      <c r="G19" s="219"/>
+      <c r="F19" s="219"/>
+      <c r="G19" s="220"/>
       <c r="H19" s="135"/>
     </row>
     <row r="20" spans="5:8">
@@ -12300,8 +12325,8 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="F10" s="220"/>
-      <c r="G10" s="220"/>
+      <c r="F10" s="221"/>
+      <c r="G10" s="221"/>
       <c r="I10" t="s">
         <v>445</v>
       </c>
@@ -12342,8 +12367,8 @@
       </c>
     </row>
     <row r="32" spans="2:9">
-      <c r="F32" s="220"/>
-      <c r="G32" s="220"/>
+      <c r="F32" s="221"/>
+      <c r="G32" s="221"/>
       <c r="I32" t="s">
         <v>442</v>
       </c>
@@ -12395,19 +12420,19 @@
   <sheetData>
     <row r="1" spans="1:19" s="199" customFormat="1" ht="18" thickBot="1">
       <c r="A1" s="199" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F1" s="199" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="N1" s="200"/>
       <c r="O1" s="200" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="P1" s="200"/>
       <c r="Q1" s="200"/>
       <c r="S1" s="199" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="2" spans="1:19">
@@ -12423,7 +12448,7 @@
       <c r="D3" s="194"/>
       <c r="E3" s="23"/>
       <c r="F3" s="188" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
@@ -12670,7 +12695,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
   </sheetData>
@@ -12701,10 +12726,10 @@
       </c>
     </row>
     <row r="12" spans="2:10">
-      <c r="H12" s="221" t="s">
+      <c r="H12" s="222" t="s">
         <v>399</v>
       </c>
-      <c r="I12" s="221"/>
+      <c r="I12" s="222"/>
     </row>
     <row r="14" spans="2:10">
       <c r="J14" t="s">
@@ -12717,10 +12742,10 @@
       </c>
     </row>
     <row r="28" spans="2:9">
-      <c r="H28" s="220" t="s">
+      <c r="H28" s="221" t="s">
         <v>403</v>
       </c>
-      <c r="I28" s="220"/>
+      <c r="I28" s="221"/>
     </row>
     <row r="39" spans="2:9">
       <c r="B39" t="s">
@@ -12728,10 +12753,10 @@
       </c>
     </row>
     <row r="43" spans="2:9">
-      <c r="H43" s="221" t="s">
+      <c r="H43" s="222" t="s">
         <v>406</v>
       </c>
-      <c r="I43" s="221"/>
+      <c r="I43" s="222"/>
     </row>
     <row r="54" spans="2:9">
       <c r="B54" t="s">
@@ -12739,10 +12764,10 @@
       </c>
     </row>
     <row r="59" spans="2:9">
-      <c r="H59" s="220" t="s">
+      <c r="H59" s="221" t="s">
         <v>403</v>
       </c>
-      <c r="I59" s="220"/>
+      <c r="I59" s="221"/>
     </row>
     <row r="61" spans="2:9">
       <c r="G61" t="s">
@@ -12764,126 +12789,163 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A0C945C-04F2-D147-89E5-6DDFCFB3EEA7}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:B14"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="16.33203125" customWidth="1"/>
-    <col min="2" max="2" width="22.1640625" customWidth="1"/>
-    <col min="3" max="3" width="16.5" customWidth="1"/>
-    <col min="4" max="4" width="52.5" customWidth="1"/>
+    <col min="2" max="2" width="33.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5" customWidth="1"/>
+    <col min="5" max="5" width="52.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="147" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="18">
-      <c r="A2" s="201" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="18">
+      <c r="A2" s="202" t="s">
         <v>505</v>
       </c>
-      <c r="B2" s="201"/>
-      <c r="C2" s="201"/>
-      <c r="D2" s="201"/>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="B2" s="202"/>
+      <c r="C2" s="202"/>
+      <c r="D2" s="202"/>
+      <c r="E2" s="202"/>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="143" t="s">
         <v>506</v>
       </c>
       <c r="B3" s="143" t="s">
+        <v>525</v>
+      </c>
+      <c r="C3" s="143" t="s">
+        <v>527</v>
+      </c>
+      <c r="D3" s="143" t="s">
         <v>507</v>
       </c>
-      <c r="C3" s="143" t="s">
-        <v>508</v>
-      </c>
-      <c r="D3" s="143" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="143" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="144" t="b">
         <v>0</v>
       </c>
       <c r="B4" s="144" t="s">
-        <v>513</v>
-      </c>
-      <c r="C4" s="144" t="s">
-        <v>513</v>
-      </c>
-      <c r="D4" s="181" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>512</v>
+      </c>
+      <c r="C4" s="144"/>
+      <c r="D4" s="144" t="s">
+        <v>512</v>
+      </c>
+      <c r="E4" s="181" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="144" t="b">
         <v>0</v>
       </c>
       <c r="B5" s="144" t="s">
-        <v>511</v>
-      </c>
-      <c r="C5" s="144" t="s">
-        <v>513</v>
-      </c>
+        <v>510</v>
+      </c>
+      <c r="C5" s="144"/>
       <c r="D5" s="144" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="144" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="144" t="b">
         <v>0</v>
       </c>
       <c r="B6" s="144" t="s">
-        <v>513</v>
-      </c>
-      <c r="C6" s="144" t="s">
-        <v>511</v>
-      </c>
-      <c r="D6" s="181" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="30">
+        <v>512</v>
+      </c>
+      <c r="C6" s="144"/>
+      <c r="D6" s="144" t="s">
+        <v>510</v>
+      </c>
+      <c r="E6" s="181" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="144" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7" s="144" t="s">
-        <v>513</v>
-      </c>
-      <c r="C7" s="144" t="s">
-        <v>513</v>
-      </c>
-      <c r="D7" s="180" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="30">
+        <v>512</v>
+      </c>
+      <c r="C7" s="145" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="144" t="s">
+        <v>510</v>
+      </c>
+      <c r="E7" s="223" t="s">
+        <v>530</v>
+      </c>
+      <c r="F7" s="201" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="30">
       <c r="A8" s="144" t="b">
         <v>1</v>
       </c>
       <c r="B8" s="144" t="s">
+        <v>512</v>
+      </c>
+      <c r="C8" s="144"/>
+      <c r="D8" s="144" t="s">
+        <v>512</v>
+      </c>
+      <c r="E8" s="180" t="s">
         <v>513</v>
       </c>
-      <c r="C8" s="144" t="s">
-        <v>511</v>
-      </c>
-      <c r="D8" s="180" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="B9" s="222" t="s">
+    </row>
+    <row r="9" spans="1:6" ht="30">
+      <c r="A9" s="144" t="b">
+        <v>1</v>
+      </c>
+      <c r="B9" s="144" t="s">
+        <v>512</v>
+      </c>
+      <c r="C9" s="144"/>
+      <c r="D9" s="144" t="s">
+        <v>510</v>
+      </c>
+      <c r="E9" s="180" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="B10" s="201" t="s">
+        <v>524</v>
+      </c>
+      <c r="C10" s="201"/>
+      <c r="D10" s="201"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="B11" s="201" t="s">
         <v>526</v>
       </c>
-      <c r="C9" s="222"/>
+      <c r="C11" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -12907,15 +12969,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="202" t="s">
+      <c r="A1" s="203" t="s">
         <v>434</v>
       </c>
-      <c r="B1" s="202"/>
-      <c r="C1" s="202"/>
-      <c r="D1" s="202"/>
-      <c r="E1" s="202"/>
-      <c r="F1" s="202"/>
-      <c r="G1" s="202"/>
+      <c r="B1" s="203"/>
+      <c r="C1" s="203"/>
+      <c r="D1" s="203"/>
+      <c r="E1" s="203"/>
+      <c r="F1" s="203"/>
+      <c r="G1" s="203"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="143" t="s">
@@ -13025,15 +13087,15 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="202" t="s">
+      <c r="A12" s="203" t="s">
         <v>433</v>
       </c>
-      <c r="B12" s="202"/>
-      <c r="C12" s="202"/>
-      <c r="D12" s="202"/>
-      <c r="E12" s="202"/>
-      <c r="F12" s="202"/>
-      <c r="G12" s="202"/>
+      <c r="B12" s="203"/>
+      <c r="C12" s="203"/>
+      <c r="D12" s="203"/>
+      <c r="E12" s="203"/>
+      <c r="F12" s="203"/>
+      <c r="G12" s="203"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="143" t="s">
@@ -16050,7 +16112,7 @@
       <c r="G4" s="15"/>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="203" t="s">
+      <c r="B5" s="204" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="15" t="s">
@@ -16070,7 +16132,7 @@
       </c>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="203"/>
+      <c r="B6" s="204"/>
       <c r="C6" s="15" t="s">
         <v>17</v>
       </c>
@@ -16086,7 +16148,7 @@
       </c>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="203"/>
+      <c r="B7" s="204"/>
       <c r="C7" s="16" t="s">
         <v>31</v>
       </c>
@@ -16104,7 +16166,7 @@
       </c>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="203"/>
+      <c r="B8" s="204"/>
       <c r="C8" s="16" t="s">
         <v>32</v>
       </c>
@@ -16122,7 +16184,7 @@
       </c>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="203"/>
+      <c r="B9" s="204"/>
       <c r="C9" s="16" t="s">
         <v>33</v>
       </c>
@@ -16140,7 +16202,7 @@
       </c>
     </row>
     <row r="10" spans="2:7" ht="28">
-      <c r="B10" s="203"/>
+      <c r="B10" s="204"/>
       <c r="C10" s="16" t="s">
         <v>13</v>
       </c>
@@ -16158,7 +16220,7 @@
       </c>
     </row>
     <row r="11" spans="2:7" ht="42">
-      <c r="B11" s="204" t="s">
+      <c r="B11" s="205" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="18" t="s">
@@ -16178,7 +16240,7 @@
       </c>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="205"/>
+      <c r="B12" s="206"/>
       <c r="C12" s="15" t="s">
         <v>15</v>
       </c>
@@ -16192,7 +16254,7 @@
       </c>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="206"/>
+      <c r="B13" s="207"/>
       <c r="C13" s="15" t="s">
         <v>16</v>
       </c>

--- a/doc/android.xlsx
+++ b/doc/android.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10309"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2842447-C606-BC4D-BC2B-F21CFB02D92F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{418A5385-CDE7-EF47-AC1A-A67C9B2479C8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="980" yWindow="460" windowWidth="27840" windowHeight="17540" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="960" yWindow="460" windowWidth="27840" windowHeight="17540" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="16" r:id="rId1"/>
@@ -2122,18 +2122,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>_ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dataset1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dataset2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Table Nmae</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2158,10 +2146,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Hello</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Book</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2178,11 +2162,27 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>case2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Home</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>case1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>col2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>col3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hello</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3659,6 +3659,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3720,16 +3730,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -10205,7 +10205,7 @@
       <c r="G4" s="15"/>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="206" t="s">
+      <c r="B5" s="210" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="15" t="s">
@@ -10225,7 +10225,7 @@
       </c>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="206"/>
+      <c r="B6" s="210"/>
       <c r="C6" s="15" t="s">
         <v>17</v>
       </c>
@@ -10241,7 +10241,7 @@
       </c>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="206"/>
+      <c r="B7" s="210"/>
       <c r="C7" s="16" t="s">
         <v>31</v>
       </c>
@@ -10259,7 +10259,7 @@
       </c>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="206"/>
+      <c r="B8" s="210"/>
       <c r="C8" s="16" t="s">
         <v>32</v>
       </c>
@@ -10277,7 +10277,7 @@
       </c>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="206"/>
+      <c r="B9" s="210"/>
       <c r="C9" s="16" t="s">
         <v>33</v>
       </c>
@@ -10295,7 +10295,7 @@
       </c>
     </row>
     <row r="10" spans="2:7" ht="28">
-      <c r="B10" s="206"/>
+      <c r="B10" s="210"/>
       <c r="C10" s="16" t="s">
         <v>13</v>
       </c>
@@ -10313,7 +10313,7 @@
       </c>
     </row>
     <row r="11" spans="2:7" ht="42">
-      <c r="B11" s="207" t="s">
+      <c r="B11" s="211" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="18" t="s">
@@ -10333,7 +10333,7 @@
       </c>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="208"/>
+      <c r="B12" s="212"/>
       <c r="C12" s="15" t="s">
         <v>15</v>
       </c>
@@ -10347,7 +10347,7 @@
       </c>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="209"/>
+      <c r="B13" s="213"/>
       <c r="C13" s="15" t="s">
         <v>16</v>
       </c>
@@ -10903,11 +10903,11 @@
       <c r="C6" s="94"/>
       <c r="D6" s="101"/>
       <c r="E6" s="96"/>
-      <c r="F6" s="210" t="s">
+      <c r="F6" s="214" t="s">
         <v>392</v>
       </c>
-      <c r="G6" s="211"/>
-      <c r="H6" s="212"/>
+      <c r="G6" s="215"/>
+      <c r="H6" s="216"/>
       <c r="I6" s="96"/>
       <c r="J6" s="102"/>
       <c r="K6" s="94"/>
@@ -10927,9 +10927,9 @@
       <c r="C7" s="94"/>
       <c r="D7" s="101"/>
       <c r="E7" s="96"/>
-      <c r="F7" s="213"/>
-      <c r="G7" s="214"/>
-      <c r="H7" s="215"/>
+      <c r="F7" s="217"/>
+      <c r="G7" s="218"/>
+      <c r="H7" s="219"/>
       <c r="I7" s="96"/>
       <c r="J7" s="102"/>
       <c r="K7" s="95"/>
@@ -10949,9 +10949,9 @@
       <c r="C8" s="94"/>
       <c r="D8" s="101"/>
       <c r="E8" s="96"/>
-      <c r="F8" s="213"/>
-      <c r="G8" s="214"/>
-      <c r="H8" s="215"/>
+      <c r="F8" s="217"/>
+      <c r="G8" s="218"/>
+      <c r="H8" s="219"/>
       <c r="I8" s="96"/>
       <c r="J8" s="102"/>
       <c r="K8" s="94"/>
@@ -10970,9 +10970,9 @@
       <c r="B9" s="94"/>
       <c r="C9" s="94"/>
       <c r="D9" s="101"/>
-      <c r="F9" s="213"/>
-      <c r="G9" s="214"/>
-      <c r="H9" s="215"/>
+      <c r="F9" s="217"/>
+      <c r="G9" s="218"/>
+      <c r="H9" s="219"/>
       <c r="I9" s="96"/>
       <c r="J9" s="102"/>
       <c r="K9" s="94"/>
@@ -10991,9 +10991,9 @@
       <c r="B10" s="94"/>
       <c r="C10" s="94"/>
       <c r="D10" s="101"/>
-      <c r="F10" s="216"/>
-      <c r="G10" s="217"/>
-      <c r="H10" s="218"/>
+      <c r="F10" s="220"/>
+      <c r="G10" s="221"/>
+      <c r="H10" s="222"/>
       <c r="I10" s="129"/>
       <c r="J10" s="102"/>
       <c r="K10" s="94"/>
@@ -11666,16 +11666,16 @@
     </row>
     <row r="18" spans="5:8">
       <c r="E18" s="137"/>
-      <c r="F18" s="219" t="s">
+      <c r="F18" s="223" t="s">
         <v>395</v>
       </c>
-      <c r="G18" s="220"/>
+      <c r="G18" s="224"/>
       <c r="H18" s="135"/>
     </row>
     <row r="19" spans="5:8">
       <c r="E19" s="137"/>
-      <c r="F19" s="221"/>
-      <c r="G19" s="222"/>
+      <c r="F19" s="225"/>
+      <c r="G19" s="226"/>
       <c r="H19" s="135"/>
     </row>
     <row r="20" spans="5:8">
@@ -12962,8 +12962,8 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="F10" s="223"/>
-      <c r="G10" s="223"/>
+      <c r="F10" s="227"/>
+      <c r="G10" s="227"/>
       <c r="I10" t="s">
         <v>445</v>
       </c>
@@ -13004,8 +13004,8 @@
       </c>
     </row>
     <row r="32" spans="2:9">
-      <c r="F32" s="223"/>
-      <c r="G32" s="223"/>
+      <c r="F32" s="227"/>
+      <c r="G32" s="227"/>
       <c r="I32" t="s">
         <v>442</v>
       </c>
@@ -13059,10 +13059,10 @@
       </c>
     </row>
     <row r="12" spans="2:10">
-      <c r="H12" s="224" t="s">
+      <c r="H12" s="228" t="s">
         <v>399</v>
       </c>
-      <c r="I12" s="224"/>
+      <c r="I12" s="228"/>
     </row>
     <row r="14" spans="2:10">
       <c r="J14" t="s">
@@ -13075,10 +13075,10 @@
       </c>
     </row>
     <row r="28" spans="2:9">
-      <c r="H28" s="223" t="s">
+      <c r="H28" s="227" t="s">
         <v>403</v>
       </c>
-      <c r="I28" s="223"/>
+      <c r="I28" s="227"/>
     </row>
     <row r="39" spans="2:9">
       <c r="B39" t="s">
@@ -13086,10 +13086,10 @@
       </c>
     </row>
     <row r="43" spans="2:9">
-      <c r="H43" s="224" t="s">
+      <c r="H43" s="228" t="s">
         <v>406</v>
       </c>
-      <c r="I43" s="224"/>
+      <c r="I43" s="228"/>
     </row>
     <row r="54" spans="2:9">
       <c r="B54" t="s">
@@ -13097,10 +13097,10 @@
       </c>
     </row>
     <row r="59" spans="2:9">
-      <c r="H59" s="223" t="s">
+      <c r="H59" s="227" t="s">
         <v>403</v>
       </c>
-      <c r="I59" s="223"/>
+      <c r="I59" s="227"/>
     </row>
     <row r="61" spans="2:9">
       <c r="G61" t="s">
@@ -13143,13 +13143,13 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="18">
-      <c r="A2" s="204" t="s">
+      <c r="A2" s="208" t="s">
         <v>505</v>
       </c>
-      <c r="B2" s="204"/>
-      <c r="C2" s="204"/>
-      <c r="D2" s="204"/>
-      <c r="E2" s="204"/>
+      <c r="B2" s="208"/>
+      <c r="C2" s="208"/>
+      <c r="D2" s="208"/>
+      <c r="E2" s="208"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="143" t="s">
@@ -13302,15 +13302,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="205" t="s">
+      <c r="A1" s="209" t="s">
         <v>434</v>
       </c>
-      <c r="B1" s="205"/>
-      <c r="C1" s="205"/>
-      <c r="D1" s="205"/>
-      <c r="E1" s="205"/>
-      <c r="F1" s="205"/>
-      <c r="G1" s="205"/>
+      <c r="B1" s="209"/>
+      <c r="C1" s="209"/>
+      <c r="D1" s="209"/>
+      <c r="E1" s="209"/>
+      <c r="F1" s="209"/>
+      <c r="G1" s="209"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="143" t="s">
@@ -13420,15 +13420,15 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="205" t="s">
+      <c r="A12" s="209" t="s">
         <v>433</v>
       </c>
-      <c r="B12" s="205"/>
-      <c r="C12" s="205"/>
-      <c r="D12" s="205"/>
-      <c r="E12" s="205"/>
-      <c r="F12" s="205"/>
-      <c r="G12" s="205"/>
+      <c r="B12" s="209"/>
+      <c r="C12" s="209"/>
+      <c r="D12" s="209"/>
+      <c r="E12" s="209"/>
+      <c r="F12" s="209"/>
+      <c r="G12" s="209"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="143" t="s">
@@ -13552,7 +13552,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -13563,25 +13563,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="228" t="s">
-        <v>549</v>
+      <c r="A1" s="207" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="B3" s="225" t="s">
-        <v>537</v>
-      </c>
-      <c r="C3" s="226" t="s">
+      <c r="B3" s="204" t="s">
         <v>534</v>
       </c>
-      <c r="D3" s="226" t="s">
-        <v>535</v>
-      </c>
-      <c r="E3" s="226" t="s">
-        <v>536</v>
-      </c>
-      <c r="G3" s="227" t="s">
+      <c r="C3" s="205" t="s">
         <v>548</v>
+      </c>
+      <c r="D3" s="205" t="s">
+        <v>546</v>
+      </c>
+      <c r="E3" s="205" t="s">
+        <v>547</v>
+      </c>
+      <c r="G3" s="206" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -13595,7 +13595,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="150" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="E4" s="150">
         <v>1</v>
@@ -13609,7 +13609,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="150" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E5" s="150">
         <v>11</v>
@@ -13623,7 +13623,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="150" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="E6" s="150">
         <v>2</v>
@@ -13634,13 +13634,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="144" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C8" s="150">
         <v>1</v>
       </c>
       <c r="D8" s="150" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="E8" s="150">
         <v>2</v>
@@ -13648,13 +13648,13 @@
     </row>
     <row r="9" spans="1:7">
       <c r="B9" s="144" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C9" s="150">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" s="150" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="E9" s="150">
         <v>204</v>
@@ -13662,13 +13662,13 @@
     </row>
     <row r="10" spans="1:7">
       <c r="B10" s="144" t="s">
+        <v>537</v>
+      </c>
+      <c r="C10" s="150">
+        <v>3</v>
+      </c>
+      <c r="D10" s="150" t="s">
         <v>540</v>
-      </c>
-      <c r="C10" s="150">
-        <v>4</v>
-      </c>
-      <c r="D10" s="150" t="s">
-        <v>544</v>
       </c>
       <c r="E10" s="150">
         <v>9</v>
@@ -13676,13 +13676,13 @@
     </row>
     <row r="11" spans="1:7">
       <c r="B11" s="144" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C11" s="150">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" s="150" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="E11" s="150">
         <v>15</v>
@@ -13693,13 +13693,13 @@
         <v>1</v>
       </c>
       <c r="B13" s="144" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="C13" s="150">
         <v>1</v>
       </c>
       <c r="D13" s="150" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="E13" s="150">
         <v>1911</v>
@@ -13711,6 +13711,7 @@
     <hyperlink ref="A1" location="Home!A1" display="Home" xr:uid="{E9A6A604-FB43-B645-838C-2D822AA07A3D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 

--- a/doc/android.xlsx
+++ b/doc/android.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10309"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{418A5385-CDE7-EF47-AC1A-A67C9B2479C8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA63703B-BFD6-CD42-91B2-7D2CD1B05A0F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="960" yWindow="460" windowWidth="27840" windowHeight="17540" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13552,7 +13552,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>

--- a/doc/android.xlsx
+++ b/doc/android.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10309"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{112D03DC-6806-EE44-9360-690DE73642EF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3FDA0DC-F398-B941-BACE-47770D933063}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="460" windowWidth="27840" windowHeight="17540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="960" yWindow="460" windowWidth="27840" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="16" r:id="rId1"/>
@@ -2052,9 +2052,6 @@
     <t>Link</t>
   </si>
   <si>
-    <t>Allow Other App To Start your Activity</t>
-  </si>
-  <si>
     <t>Home</t>
   </si>
   <si>
@@ -2108,6 +2105,10 @@
   </si>
   <si>
     <t>Implicit Intent</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Allow Other App To Start your Activity</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2450,7 +2451,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2490,6 +2491,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3209,7 +3216,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="224">
+  <cellXfs count="225">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3580,6 +3587,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3643,7 +3651,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -10011,26 +10019,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD58857B-D0A1-5746-959D-8AF492D5EE51}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="30.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" t="s">
+      <c r="A1" s="224" t="s">
         <v>514</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="224" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>516</v>
+        <v>530</v>
       </c>
       <c r="B2" s="183"/>
     </row>
@@ -10570,11 +10578,11 @@
       <c r="C6" s="94"/>
       <c r="D6" s="101"/>
       <c r="E6" s="96"/>
-      <c r="F6" s="208" t="s">
+      <c r="F6" s="209" t="s">
         <v>392</v>
       </c>
-      <c r="G6" s="209"/>
-      <c r="H6" s="210"/>
+      <c r="G6" s="210"/>
+      <c r="H6" s="211"/>
       <c r="I6" s="96"/>
       <c r="J6" s="102"/>
       <c r="K6" s="94"/>
@@ -10594,9 +10602,9 @@
       <c r="C7" s="94"/>
       <c r="D7" s="101"/>
       <c r="E7" s="96"/>
-      <c r="F7" s="211"/>
-      <c r="G7" s="212"/>
-      <c r="H7" s="213"/>
+      <c r="F7" s="212"/>
+      <c r="G7" s="213"/>
+      <c r="H7" s="214"/>
       <c r="I7" s="96"/>
       <c r="J7" s="102"/>
       <c r="K7" s="95"/>
@@ -10616,9 +10624,9 @@
       <c r="C8" s="94"/>
       <c r="D8" s="101"/>
       <c r="E8" s="96"/>
-      <c r="F8" s="211"/>
-      <c r="G8" s="212"/>
-      <c r="H8" s="213"/>
+      <c r="F8" s="212"/>
+      <c r="G8" s="213"/>
+      <c r="H8" s="214"/>
       <c r="I8" s="96"/>
       <c r="J8" s="102"/>
       <c r="K8" s="94"/>
@@ -10637,9 +10645,9 @@
       <c r="B9" s="94"/>
       <c r="C9" s="94"/>
       <c r="D9" s="101"/>
-      <c r="F9" s="211"/>
-      <c r="G9" s="212"/>
-      <c r="H9" s="213"/>
+      <c r="F9" s="212"/>
+      <c r="G9" s="213"/>
+      <c r="H9" s="214"/>
       <c r="I9" s="96"/>
       <c r="J9" s="102"/>
       <c r="K9" s="94"/>
@@ -10658,9 +10666,9 @@
       <c r="B10" s="94"/>
       <c r="C10" s="94"/>
       <c r="D10" s="101"/>
-      <c r="F10" s="214"/>
-      <c r="G10" s="215"/>
-      <c r="H10" s="216"/>
+      <c r="F10" s="215"/>
+      <c r="G10" s="216"/>
+      <c r="H10" s="217"/>
       <c r="I10" s="129"/>
       <c r="J10" s="102"/>
       <c r="K10" s="94"/>
@@ -11333,16 +11341,16 @@
     </row>
     <row r="18" spans="5:8">
       <c r="E18" s="137"/>
-      <c r="F18" s="217" t="s">
+      <c r="F18" s="218" t="s">
         <v>395</v>
       </c>
-      <c r="G18" s="218"/>
+      <c r="G18" s="219"/>
       <c r="H18" s="135"/>
     </row>
     <row r="19" spans="5:8">
       <c r="E19" s="137"/>
-      <c r="F19" s="219"/>
-      <c r="G19" s="220"/>
+      <c r="F19" s="220"/>
+      <c r="G19" s="221"/>
       <c r="H19" s="135"/>
     </row>
     <row r="20" spans="5:8">
@@ -12325,8 +12333,8 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="F10" s="221"/>
-      <c r="G10" s="221"/>
+      <c r="F10" s="222"/>
+      <c r="G10" s="222"/>
       <c r="I10" t="s">
         <v>445</v>
       </c>
@@ -12367,8 +12375,8 @@
       </c>
     </row>
     <row r="32" spans="2:9">
-      <c r="F32" s="221"/>
-      <c r="G32" s="221"/>
+      <c r="F32" s="222"/>
+      <c r="G32" s="222"/>
       <c r="I32" t="s">
         <v>442</v>
       </c>
@@ -12420,19 +12428,19 @@
   <sheetData>
     <row r="1" spans="1:19" s="199" customFormat="1" ht="18" thickBot="1">
       <c r="A1" s="199" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F1" s="199" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="N1" s="200"/>
       <c r="O1" s="200" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="P1" s="200"/>
       <c r="Q1" s="200"/>
       <c r="S1" s="199" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="2" spans="1:19">
@@ -12448,7 +12456,7 @@
       <c r="D3" s="194"/>
       <c r="E3" s="23"/>
       <c r="F3" s="188" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
@@ -12695,7 +12703,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
   </sheetData>
@@ -12726,10 +12734,10 @@
       </c>
     </row>
     <row r="12" spans="2:10">
-      <c r="H12" s="222" t="s">
+      <c r="H12" s="223" t="s">
         <v>399</v>
       </c>
-      <c r="I12" s="222"/>
+      <c r="I12" s="223"/>
     </row>
     <row r="14" spans="2:10">
       <c r="J14" t="s">
@@ -12742,10 +12750,10 @@
       </c>
     </row>
     <row r="28" spans="2:9">
-      <c r="H28" s="221" t="s">
+      <c r="H28" s="222" t="s">
         <v>403</v>
       </c>
-      <c r="I28" s="221"/>
+      <c r="I28" s="222"/>
     </row>
     <row r="39" spans="2:9">
       <c r="B39" t="s">
@@ -12753,10 +12761,10 @@
       </c>
     </row>
     <row r="43" spans="2:9">
-      <c r="H43" s="222" t="s">
+      <c r="H43" s="223" t="s">
         <v>406</v>
       </c>
-      <c r="I43" s="222"/>
+      <c r="I43" s="223"/>
     </row>
     <row r="54" spans="2:9">
       <c r="B54" t="s">
@@ -12764,10 +12772,10 @@
       </c>
     </row>
     <row r="59" spans="2:9">
-      <c r="H59" s="221" t="s">
+      <c r="H59" s="222" t="s">
         <v>403</v>
       </c>
-      <c r="I59" s="221"/>
+      <c r="I59" s="222"/>
     </row>
     <row r="61" spans="2:9">
       <c r="G61" t="s">
@@ -12791,8 +12799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A0C945C-04F2-D147-89E5-6DDFCFB3EEA7}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -12806,27 +12814,27 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="147" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="18">
-      <c r="A2" s="202" t="s">
+      <c r="A2" s="203" t="s">
         <v>505</v>
       </c>
-      <c r="B2" s="202"/>
-      <c r="C2" s="202"/>
-      <c r="D2" s="202"/>
-      <c r="E2" s="202"/>
+      <c r="B2" s="203"/>
+      <c r="C2" s="203"/>
+      <c r="D2" s="203"/>
+      <c r="E2" s="203"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="143" t="s">
         <v>506</v>
       </c>
       <c r="B3" s="143" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C3" s="143" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D3" s="143" t="s">
         <v>507</v>
@@ -12893,11 +12901,11 @@
       <c r="D7" s="144" t="s">
         <v>510</v>
       </c>
-      <c r="E7" s="223" t="s">
-        <v>530</v>
+      <c r="E7" s="202" t="s">
+        <v>529</v>
       </c>
       <c r="F7" s="201" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="30">
@@ -12927,19 +12935,19 @@
         <v>510</v>
       </c>
       <c r="E9" s="180" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="B10" s="201" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C10" s="201"/>
       <c r="D10" s="201"/>
     </row>
     <row r="11" spans="1:6">
       <c r="B11" s="201" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C11" s="94"/>
     </row>
@@ -12969,15 +12977,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="203" t="s">
+      <c r="A1" s="204" t="s">
         <v>434</v>
       </c>
-      <c r="B1" s="203"/>
-      <c r="C1" s="203"/>
-      <c r="D1" s="203"/>
-      <c r="E1" s="203"/>
-      <c r="F1" s="203"/>
-      <c r="G1" s="203"/>
+      <c r="B1" s="204"/>
+      <c r="C1" s="204"/>
+      <c r="D1" s="204"/>
+      <c r="E1" s="204"/>
+      <c r="F1" s="204"/>
+      <c r="G1" s="204"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="143" t="s">
@@ -13087,15 +13095,15 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="203" t="s">
+      <c r="A12" s="204" t="s">
         <v>433</v>
       </c>
-      <c r="B12" s="203"/>
-      <c r="C12" s="203"/>
-      <c r="D12" s="203"/>
-      <c r="E12" s="203"/>
-      <c r="F12" s="203"/>
-      <c r="G12" s="203"/>
+      <c r="B12" s="204"/>
+      <c r="C12" s="204"/>
+      <c r="D12" s="204"/>
+      <c r="E12" s="204"/>
+      <c r="F12" s="204"/>
+      <c r="G12" s="204"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="143" t="s">
@@ -13219,7 +13227,7 @@
   <dimension ref="B2:Q30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -16112,7 +16120,7 @@
       <c r="G4" s="15"/>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="204" t="s">
+      <c r="B5" s="205" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="15" t="s">
@@ -16132,7 +16140,7 @@
       </c>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="204"/>
+      <c r="B6" s="205"/>
       <c r="C6" s="15" t="s">
         <v>17</v>
       </c>
@@ -16148,7 +16156,7 @@
       </c>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="204"/>
+      <c r="B7" s="205"/>
       <c r="C7" s="16" t="s">
         <v>31</v>
       </c>
@@ -16166,7 +16174,7 @@
       </c>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="204"/>
+      <c r="B8" s="205"/>
       <c r="C8" s="16" t="s">
         <v>32</v>
       </c>
@@ -16184,7 +16192,7 @@
       </c>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="204"/>
+      <c r="B9" s="205"/>
       <c r="C9" s="16" t="s">
         <v>33</v>
       </c>
@@ -16202,7 +16210,7 @@
       </c>
     </row>
     <row r="10" spans="2:7" ht="28">
-      <c r="B10" s="204"/>
+      <c r="B10" s="205"/>
       <c r="C10" s="16" t="s">
         <v>13</v>
       </c>
@@ -16220,7 +16228,7 @@
       </c>
     </row>
     <row r="11" spans="2:7" ht="42">
-      <c r="B11" s="205" t="s">
+      <c r="B11" s="206" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="18" t="s">
@@ -16240,7 +16248,7 @@
       </c>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="206"/>
+      <c r="B12" s="207"/>
       <c r="C12" s="15" t="s">
         <v>15</v>
       </c>
@@ -16254,7 +16262,7 @@
       </c>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="207"/>
+      <c r="B13" s="208"/>
       <c r="C13" s="15" t="s">
         <v>16</v>
       </c>

--- a/doc/android.xlsx
+++ b/doc/android.xlsx
@@ -3,35 +3,36 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10309"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3FDA0DC-F398-B941-BACE-47770D933063}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1DF97B0-0294-9F4C-8C86-D84463FACF88}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="460" windowWidth="27840" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="980" yWindow="460" windowWidth="27840" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="16" r:id="rId1"/>
-    <sheet name="ThreeeLevelCache" sheetId="22" r:id="rId2"/>
-    <sheet name="IPC" sheetId="21" r:id="rId3"/>
-    <sheet name="Activity_Lifecycle" sheetId="15" r:id="rId4"/>
-    <sheet name="ContentProvider" sheetId="4" r:id="rId5"/>
-    <sheet name="Android高级应用开发-深入篇" sheetId="5" r:id="rId6"/>
-    <sheet name="反编译" sheetId="8" r:id="rId7"/>
-    <sheet name="Android高级应用开发-基础篇_74UI开发的2+1法则" sheetId="1" r:id="rId8"/>
-    <sheet name="版本控制" sheetId="2" r:id="rId9"/>
-    <sheet name="Adapter" sheetId="3" r:id="rId10"/>
-    <sheet name="消息机制" sheetId="6" r:id="rId11"/>
-    <sheet name="消息机制模型" sheetId="10" r:id="rId12"/>
-    <sheet name="基于监听的事件处理机制" sheetId="12" r:id="rId13"/>
-    <sheet name="==与equals" sheetId="7" r:id="rId14"/>
-    <sheet name="hashCode" sheetId="9" r:id="rId15"/>
-    <sheet name="Bitmap.Config" sheetId="20" r:id="rId16"/>
-    <sheet name="drawable_分辨率" sheetId="19" r:id="rId17"/>
-    <sheet name="drawable_2" sheetId="18" r:id="rId18"/>
-    <sheet name="drawable_缩放" sheetId="17" r:id="rId19"/>
-    <sheet name="IO" sheetId="13" r:id="rId20"/>
+    <sheet name="DB" sheetId="23" r:id="rId2"/>
+    <sheet name="ThreeeLevelCache" sheetId="22" r:id="rId3"/>
+    <sheet name="IPC" sheetId="21" r:id="rId4"/>
+    <sheet name="Activity_Lifecycle" sheetId="15" r:id="rId5"/>
+    <sheet name="ContentProvider" sheetId="4" r:id="rId6"/>
+    <sheet name="Android高级应用开发-深入篇" sheetId="5" r:id="rId7"/>
+    <sheet name="反编译" sheetId="8" r:id="rId8"/>
+    <sheet name="Android高级应用开发-基础篇_74UI开发的2+1法则" sheetId="1" r:id="rId9"/>
+    <sheet name="版本控制" sheetId="2" r:id="rId10"/>
+    <sheet name="Adapter" sheetId="3" r:id="rId11"/>
+    <sheet name="消息机制" sheetId="6" r:id="rId12"/>
+    <sheet name="消息机制模型" sheetId="10" r:id="rId13"/>
+    <sheet name="基于监听的事件处理机制" sheetId="12" r:id="rId14"/>
+    <sheet name="==与equals" sheetId="7" r:id="rId15"/>
+    <sheet name="hashCode" sheetId="9" r:id="rId16"/>
+    <sheet name="Bitmap.Config" sheetId="20" r:id="rId17"/>
+    <sheet name="drawable_分辨率" sheetId="19" r:id="rId18"/>
+    <sheet name="drawable_2" sheetId="18" r:id="rId19"/>
+    <sheet name="drawable_缩放" sheetId="17" r:id="rId20"/>
+    <sheet name="IO" sheetId="13" r:id="rId21"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Android高级应用开发-深入篇'!$A$1:$C$222</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'Android高级应用开发-深入篇'!$A$1:$D$225</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Android高级应用开发-深入篇'!$A$1:$C$222</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'Android高级应用开发-深入篇'!$A$1:$D$225</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
 </workbook>
@@ -101,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="560">
   <si>
     <t>Activity</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2111,12 +2112,128 @@
     <t>Allow Other App To Start your Activity</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>DB</t>
+  </si>
+  <si>
+    <t>DB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Home</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>execSQL insert with Transaction</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Insert data to table</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestSQLiteActivity.java</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>db.insert() with Transaction</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2s:641ms</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3s:248ms</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>db.insert()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>execSQL insert</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10m:13s:960ms</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>After waiting long time, app crashed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0h:0m:4s:482ms</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5s:425ms</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5s:920ms</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>52ms</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>338ms</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>44ms</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>59ms</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5s:542ms</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>✖️</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">✔️ </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>性能差、可读性强</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>性能差、可读性差</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>性能好、可读性强</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>性能好、可读性差</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>结论：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>db.insert()：
+代表Android封装的SQLiteDatabase CRUD API</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="45">
+  <fonts count="46">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2450,8 +2567,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2497,6 +2621,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3216,7 +3346,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="225">
+  <cellXfs count="231">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3588,6 +3718,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3651,7 +3784,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="42" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -3737,106 +3883,96 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1022350</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F53B47E-55BF-764D-B332-101418213391}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8235950" y="4076700"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>23183</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>94685</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>160669</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>131035</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Cloud 1">
+        <xdr:cNvPr id="6" name="Notched Right Arrow 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65E08C76-F38C-9D47-9178-B7EE1A089884}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA2B2215-D467-1E48-8949-13CFFD3C794D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3403600" y="3035300"/>
-          <a:ext cx="4445000" cy="1320800"/>
+        <a:xfrm rot="19247852">
+          <a:off x="429583" y="1059885"/>
+          <a:ext cx="543886" cy="226850"/>
         </a:xfrm>
-        <a:prstGeom prst="cloud">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>Set&lt;SoftReference&lt;Bitmap&gt;&gt;  4RsuseI</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-            <a:t>nBitmap</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Right Arrow 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A68003B-DA88-0A41-B6C1-53341AF95508}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="1879600" y="1333500"/>
-          <a:ext cx="444500" cy="101600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
+        <a:prstGeom prst="notchedRightArrow">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
@@ -3861,829 +3997,16 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Right Arrow 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{905527C0-F6EF-9C4E-B5FE-F090930F3D0F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="7315200" y="1435100"/>
-          <a:ext cx="736600" cy="101600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="Graphic 28" descr="Download from cloud">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3824FB02-9F7D-7C47-8980-56E83E5958A5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14846300" y="1092200"/>
-          <a:ext cx="914400" cy="914400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="Graphic 30" descr="Folder">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABE922EF-9F8D-9148-A1B0-50FEB66FEDDA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11493500" y="1079500"/>
-          <a:ext cx="914400" cy="914400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>736600</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="39" name="Straight Arrow Connector 38">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6FD8012-CFAF-4C43-AA6E-953CDF12433A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="6565900" y="927100"/>
-          <a:ext cx="6299200" cy="457200"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>660400</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="41" name="Straight Arrow Connector 40">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE09E27D-4A80-354A-BC3C-98E4DA8419F9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="12420600" y="1587500"/>
-          <a:ext cx="2273300" cy="50800"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="45" name="Straight Arrow Connector 44">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD628334-996D-BB4B-A467-B3E377A5218E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="31" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="6540500" y="1028700"/>
-          <a:ext cx="3048000" cy="508000"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent5"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent5"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent5"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="47" name="Straight Arrow Connector 46">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C99824C-9E5B-2C4D-95FC-082922295C97}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6184900" y="2044700"/>
-          <a:ext cx="0" cy="660400"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="49" name="Straight Arrow Connector 48">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18F97E45-9EF5-7643-B8E7-6FA9F8CCA8E0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6616700" y="2006600"/>
-          <a:ext cx="3124200" cy="1079500"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent5"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent5"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent5"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="51" name="Straight Arrow Connector 50">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FA7B970-B32D-EC48-9240-AC87C6E4E9F2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="29" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6553200" y="2006600"/>
-          <a:ext cx="6845300" cy="1282700"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="54" name="Right Arrow 53">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B2B013A-B4DF-B34E-BC1D-E1E926E3F3F3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10620490">
-          <a:off x="11531600" y="1435100"/>
-          <a:ext cx="736600" cy="101600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>546100</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="84" name="Graphic 83" descr="Diploma">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78BFF56A-6A8D-E24B-BD76-E7BEDF14BFC4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3911600" y="4711700"/>
-          <a:ext cx="914400" cy="914400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>774700</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="85" name="Graphic 84" descr="Diploma">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E33F6A4-7C03-1C4C-855A-92132E0330B7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9601200" y="4787900"/>
-          <a:ext cx="914400" cy="914400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="86" name="Graphic 85" descr="Diploma">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAFC30EB-458C-7744-A1D1-ADF78519AA67}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13144500" y="4775200"/>
-          <a:ext cx="914400" cy="914400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1511300</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="87" name="Graphic 86" descr="Smart Phone">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41DF8223-6762-B141-84C3-68E33678EE60}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="673100"/>
-          <a:ext cx="1511300" cy="1511300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1206500</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="88" name="Graphic 87" descr="Diploma">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA45497E-0E81-D448-8FE0-DCAC6701AB5D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="292100" y="1016000"/>
-          <a:ext cx="914400" cy="914400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -4798,7 +4121,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5362,7 +4685,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7164,6 +6487,954 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Cloud 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65E08C76-F38C-9D47-9178-B7EE1A089884}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3403600" y="3035300"/>
+          <a:ext cx="4445000" cy="1320800"/>
+        </a:xfrm>
+        <a:prstGeom prst="cloud">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Set&lt;SoftReference&lt;Bitmap&gt;&gt;  4RsuseI</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>nBitmap</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Right Arrow 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A68003B-DA88-0A41-B6C1-53341AF95508}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="1879600" y="1333500"/>
+          <a:ext cx="444500" cy="101600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Right Arrow 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{905527C0-F6EF-9C4E-B5FE-F090930F3D0F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="7315200" y="1435100"/>
+          <a:ext cx="736600" cy="101600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Graphic 28" descr="Download from cloud">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3824FB02-9F7D-7C47-8980-56E83E5958A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14846300" y="1092200"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Graphic 30" descr="Folder">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABE922EF-9F8D-9148-A1B0-50FEB66FEDDA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11493500" y="1079500"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="Straight Arrow Connector 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6FD8012-CFAF-4C43-AA6E-953CDF12433A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6565900" y="927100"/>
+          <a:ext cx="6299200" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="Straight Arrow Connector 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE09E27D-4A80-354A-BC3C-98E4DA8419F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="12420600" y="1587500"/>
+          <a:ext cx="2273300" cy="50800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="Straight Arrow Connector 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD628334-996D-BB4B-A467-B3E377A5218E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="31" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6540500" y="1028700"/>
+          <a:ext cx="3048000" cy="508000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="Straight Arrow Connector 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C99824C-9E5B-2C4D-95FC-082922295C97}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6184900" y="2044700"/>
+          <a:ext cx="0" cy="660400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="Straight Arrow Connector 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18F97E45-9EF5-7643-B8E7-6FA9F8CCA8E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6616700" y="2006600"/>
+          <a:ext cx="3124200" cy="1079500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="Straight Arrow Connector 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FA7B970-B32D-EC48-9240-AC87C6E4E9F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="29" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6553200" y="2006600"/>
+          <a:ext cx="6845300" cy="1282700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="Right Arrow 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B2B013A-B4DF-B34E-BC1D-E1E926E3F3F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10620490">
+          <a:off x="11531600" y="1435100"/>
+          <a:ext cx="736600" cy="101600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="84" name="Graphic 83" descr="Diploma">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78BFF56A-6A8D-E24B-BD76-E7BEDF14BFC4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3911600" y="4711700"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="85" name="Graphic 84" descr="Diploma">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E33F6A4-7C03-1C4C-855A-92132E0330B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9601200" y="4787900"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="86" name="Graphic 85" descr="Diploma">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAFC30EB-458C-7744-A1D1-ADF78519AA67}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13144500" y="4775200"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1511300</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="87" name="Graphic 86" descr="Smart Phone">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41DF8223-6762-B141-84C3-68E33678EE60}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="673100"/>
+          <a:ext cx="1511300" cy="1511300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1206500</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="88" name="Graphic 87" descr="Diploma">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA45497E-0E81-D448-8FE0-DCAC6701AB5D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="292100" y="1016000"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
       <xdr:row>6</xdr:row>
@@ -7525,7 +7796,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7902,7 +8173,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -8027,7 +8298,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -8805,7 +9076,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -9052,7 +9323,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -9158,7 +9429,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -9631,71 +9902,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>23183</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>94685</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>160669</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>131035</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Notched Right Arrow 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA2B2215-D467-1E48-8949-13CFFD3C794D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="19247852">
-          <a:off x="429583" y="1059885"/>
-          <a:ext cx="543886" cy="226850"/>
-        </a:xfrm>
-        <a:prstGeom prst="notchedRightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -10017,10 +10223,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD58857B-D0A1-5746-959D-8AF492D5EE51}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -10029,10 +10235,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="224" t="s">
+      <c r="A1" s="226" t="s">
         <v>514</v>
       </c>
-      <c r="B1" s="224" t="s">
+      <c r="B1" s="226" t="s">
         <v>515</v>
       </c>
     </row>
@@ -10042,13 +10248,248 @@
       </c>
       <c r="B2" s="183"/>
     </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>532</v>
+      </c>
+      <c r="B3" s="147" t="s">
+        <v>531</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" location="DB!A1" display="DB" xr:uid="{E442FB97-6815-464C-B9AA-C4CE8E614689}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="B3:G13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O32" sqref="O32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
+  <cols>
+    <col min="1" max="1" width="9" style="14"/>
+    <col min="2" max="2" width="13.1640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.33203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.6640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:7">
+      <c r="B3" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="206" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="206"/>
+      <c r="C6" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="206"/>
+      <c r="C7" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="206"/>
+      <c r="C8" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="206"/>
+      <c r="C9" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="28">
+      <c r="B10" s="206"/>
+      <c r="C10" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="42">
+      <c r="B11" s="207" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="208"/>
+      <c r="C12" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="209"/>
+      <c r="C13" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B5:B10"/>
+    <mergeCell ref="B11:B13"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:N24"/>
   <sheetViews>
@@ -10208,7 +10649,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B2:U32"/>
   <sheetViews>
@@ -10469,7 +10910,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA80C652-EB11-2747-89DA-E4ABA79A811D}">
   <dimension ref="A2:T38"/>
   <sheetViews>
@@ -10578,11 +11019,11 @@
       <c r="C6" s="94"/>
       <c r="D6" s="101"/>
       <c r="E6" s="96"/>
-      <c r="F6" s="209" t="s">
+      <c r="F6" s="210" t="s">
         <v>392</v>
       </c>
-      <c r="G6" s="210"/>
-      <c r="H6" s="211"/>
+      <c r="G6" s="211"/>
+      <c r="H6" s="212"/>
       <c r="I6" s="96"/>
       <c r="J6" s="102"/>
       <c r="K6" s="94"/>
@@ -10602,9 +11043,9 @@
       <c r="C7" s="94"/>
       <c r="D7" s="101"/>
       <c r="E7" s="96"/>
-      <c r="F7" s="212"/>
-      <c r="G7" s="213"/>
-      <c r="H7" s="214"/>
+      <c r="F7" s="213"/>
+      <c r="G7" s="214"/>
+      <c r="H7" s="215"/>
       <c r="I7" s="96"/>
       <c r="J7" s="102"/>
       <c r="K7" s="95"/>
@@ -10624,9 +11065,9 @@
       <c r="C8" s="94"/>
       <c r="D8" s="101"/>
       <c r="E8" s="96"/>
-      <c r="F8" s="212"/>
-      <c r="G8" s="213"/>
-      <c r="H8" s="214"/>
+      <c r="F8" s="213"/>
+      <c r="G8" s="214"/>
+      <c r="H8" s="215"/>
       <c r="I8" s="96"/>
       <c r="J8" s="102"/>
       <c r="K8" s="94"/>
@@ -10645,9 +11086,9 @@
       <c r="B9" s="94"/>
       <c r="C9" s="94"/>
       <c r="D9" s="101"/>
-      <c r="F9" s="212"/>
-      <c r="G9" s="213"/>
-      <c r="H9" s="214"/>
+      <c r="F9" s="213"/>
+      <c r="G9" s="214"/>
+      <c r="H9" s="215"/>
       <c r="I9" s="96"/>
       <c r="J9" s="102"/>
       <c r="K9" s="94"/>
@@ -10666,9 +11107,9 @@
       <c r="B10" s="94"/>
       <c r="C10" s="94"/>
       <c r="D10" s="101"/>
-      <c r="F10" s="215"/>
-      <c r="G10" s="216"/>
-      <c r="H10" s="217"/>
+      <c r="F10" s="216"/>
+      <c r="G10" s="217"/>
+      <c r="H10" s="218"/>
       <c r="I10" s="129"/>
       <c r="J10" s="102"/>
       <c r="K10" s="94"/>
@@ -11261,7 +11702,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E7778B8-D430-A34A-995E-0F83AC473C52}">
   <dimension ref="E8:K35"/>
   <sheetViews>
@@ -11341,16 +11782,16 @@
     </row>
     <row r="18" spans="5:8">
       <c r="E18" s="137"/>
-      <c r="F18" s="218" t="s">
+      <c r="F18" s="219" t="s">
         <v>395</v>
       </c>
-      <c r="G18" s="219"/>
+      <c r="G18" s="220"/>
       <c r="H18" s="135"/>
     </row>
     <row r="19" spans="5:8">
       <c r="E19" s="137"/>
-      <c r="F19" s="220"/>
-      <c r="G19" s="221"/>
+      <c r="F19" s="221"/>
+      <c r="G19" s="222"/>
       <c r="H19" s="135"/>
     </row>
     <row r="20" spans="5:8">
@@ -11447,7 +11888,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B1:K25"/>
   <sheetViews>
@@ -11662,7 +12103,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A3:E21"/>
   <sheetViews>
@@ -11845,7 +12286,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDFDE749-2C0C-C548-8C4F-6EF43EA89AA0}">
   <dimension ref="B2:C9"/>
   <sheetViews>
@@ -11924,7 +12365,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D86ED6A2-BD47-244B-AD18-088367512271}">
   <dimension ref="B2:M10"/>
   <sheetViews>
@@ -12029,7 +12470,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A51D4780-106D-3C46-B51D-1FAF5E0D4E2A}">
   <dimension ref="A1:K27"/>
   <sheetViews>
@@ -12297,7 +12738,156 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3066BC90-58A1-734D-AE58-036202455225}">
+  <dimension ref="A1:F18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <cols>
+    <col min="2" max="2" width="26.5" style="203" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41" style="203" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="225" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="30">
+      <c r="B2" s="203" t="s">
+        <v>536</v>
+      </c>
+      <c r="C2" s="230" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="C3" s="34"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="B4" s="203" t="s">
+        <v>558</v>
+      </c>
+      <c r="C4" s="203" t="s">
+        <v>554</v>
+      </c>
+      <c r="D4" s="203" t="s">
+        <v>555</v>
+      </c>
+      <c r="E4" s="203" t="s">
+        <v>556</v>
+      </c>
+      <c r="F4" s="203" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="17">
+      <c r="C5" s="228" t="s">
+        <v>552</v>
+      </c>
+      <c r="D5" s="228" t="s">
+        <v>552</v>
+      </c>
+      <c r="E5" s="228" t="s">
+        <v>553</v>
+      </c>
+      <c r="F5" s="228" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="B6" s="227" t="s">
+        <v>535</v>
+      </c>
+      <c r="C6" s="227" t="s">
+        <v>540</v>
+      </c>
+      <c r="D6" s="227" t="s">
+        <v>541</v>
+      </c>
+      <c r="E6" s="227" t="s">
+        <v>537</v>
+      </c>
+      <c r="F6" s="227" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="B7" s="150">
+        <v>1000</v>
+      </c>
+      <c r="C7" s="150" t="s">
+        <v>551</v>
+      </c>
+      <c r="D7" s="144" t="s">
+        <v>545</v>
+      </c>
+      <c r="E7" s="144" t="s">
+        <v>547</v>
+      </c>
+      <c r="F7" s="144" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="B8" s="150">
+        <v>10000</v>
+      </c>
+      <c r="C8" s="150" t="s">
+        <v>544</v>
+      </c>
+      <c r="D8" s="144" t="s">
+        <v>546</v>
+      </c>
+      <c r="E8" s="144" t="s">
+        <v>548</v>
+      </c>
+      <c r="F8" s="144" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="B9" s="150">
+        <v>100000</v>
+      </c>
+      <c r="C9" s="150" t="s">
+        <v>543</v>
+      </c>
+      <c r="D9" s="144" t="s">
+        <v>542</v>
+      </c>
+      <c r="E9" s="144" t="s">
+        <v>539</v>
+      </c>
+      <c r="F9" s="144" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" ht="17">
+      <c r="B17" s="229"/>
+    </row>
+    <row r="18" spans="2:2" ht="17">
+      <c r="B18" s="228"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Home!B3" display="Home" xr:uid="{69F5076B-31A9-E141-B7AC-99329A798C0C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{112C5F8E-5AB4-3747-B9CF-9A1C944F7742}">
   <dimension ref="A1:I35"/>
   <sheetViews>
@@ -12333,8 +12923,8 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="F10" s="222"/>
-      <c r="G10" s="222"/>
+      <c r="F10" s="223"/>
+      <c r="G10" s="223"/>
       <c r="I10" t="s">
         <v>445</v>
       </c>
@@ -12375,8 +12965,8 @@
       </c>
     </row>
     <row r="32" spans="2:9">
-      <c r="F32" s="222"/>
-      <c r="G32" s="222"/>
+      <c r="F32" s="223"/>
+      <c r="G32" s="223"/>
       <c r="I32" t="s">
         <v>442</v>
       </c>
@@ -12409,7 +12999,89 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDE8B8C4-352E-054D-A843-45DFD254B784}">
+  <dimension ref="B2:J61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R20" sqref="R20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetData>
+    <row r="2" spans="2:10">
+      <c r="H2" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="H12" s="224" t="s">
+        <v>399</v>
+      </c>
+      <c r="I12" s="224"/>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="J14" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="B23" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9">
+      <c r="H28" s="223" t="s">
+        <v>403</v>
+      </c>
+      <c r="I28" s="223"/>
+    </row>
+    <row r="39" spans="2:9">
+      <c r="B39" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9">
+      <c r="H43" s="224" t="s">
+        <v>406</v>
+      </c>
+      <c r="I43" s="224"/>
+    </row>
+    <row r="54" spans="2:9">
+      <c r="B54" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9">
+      <c r="H59" s="223" t="s">
+        <v>403</v>
+      </c>
+      <c r="I59" s="223"/>
+    </row>
+    <row r="61" spans="2:9">
+      <c r="G61" t="s">
+        <v>405</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="H59:I59"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E51BCB48-68B0-EF46-B93E-648BAB230ADA}">
   <dimension ref="A1:S28"/>
   <sheetViews>
@@ -12713,89 +13385,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDE8B8C4-352E-054D-A843-45DFD254B784}">
-  <dimension ref="B2:J61"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
-  <sheetData>
-    <row r="2" spans="2:10">
-      <c r="H2" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10">
-      <c r="B8" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10">
-      <c r="H12" s="223" t="s">
-        <v>399</v>
-      </c>
-      <c r="I12" s="223"/>
-    </row>
-    <row r="14" spans="2:10">
-      <c r="J14" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9">
-      <c r="B23" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9">
-      <c r="H28" s="222" t="s">
-        <v>403</v>
-      </c>
-      <c r="I28" s="222"/>
-    </row>
-    <row r="39" spans="2:9">
-      <c r="B39" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9">
-      <c r="H43" s="223" t="s">
-        <v>406</v>
-      </c>
-      <c r="I43" s="223"/>
-    </row>
-    <row r="54" spans="2:9">
-      <c r="B54" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9">
-      <c r="H59" s="222" t="s">
-        <v>403</v>
-      </c>
-      <c r="I59" s="222"/>
-    </row>
-    <row r="61" spans="2:9">
-      <c r="G61" t="s">
-        <v>405</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="H59:I59"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A0C945C-04F2-D147-89E5-6DDFCFB3EEA7}">
   <dimension ref="A1:F11"/>
   <sheetViews>
@@ -12818,13 +13408,13 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="18">
-      <c r="A2" s="203" t="s">
+      <c r="A2" s="204" t="s">
         <v>505</v>
       </c>
-      <c r="B2" s="203"/>
-      <c r="C2" s="203"/>
-      <c r="D2" s="203"/>
-      <c r="E2" s="203"/>
+      <c r="B2" s="204"/>
+      <c r="C2" s="204"/>
+      <c r="D2" s="204"/>
+      <c r="E2" s="204"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="143" t="s">
@@ -12963,7 +13553,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{695F25B9-FD59-DD4E-A097-058E28B48012}">
   <dimension ref="A1:G19"/>
   <sheetViews>
@@ -12977,15 +13567,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="204" t="s">
+      <c r="A1" s="205" t="s">
         <v>434</v>
       </c>
-      <c r="B1" s="204"/>
-      <c r="C1" s="204"/>
-      <c r="D1" s="204"/>
-      <c r="E1" s="204"/>
-      <c r="F1" s="204"/>
-      <c r="G1" s="204"/>
+      <c r="B1" s="205"/>
+      <c r="C1" s="205"/>
+      <c r="D1" s="205"/>
+      <c r="E1" s="205"/>
+      <c r="F1" s="205"/>
+      <c r="G1" s="205"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="143" t="s">
@@ -13095,15 +13685,15 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="204" t="s">
+      <c r="A12" s="205" t="s">
         <v>433</v>
       </c>
-      <c r="B12" s="204"/>
-      <c r="C12" s="204"/>
-      <c r="D12" s="204"/>
-      <c r="E12" s="204"/>
-      <c r="F12" s="204"/>
-      <c r="G12" s="204"/>
+      <c r="B12" s="205"/>
+      <c r="C12" s="205"/>
+      <c r="D12" s="205"/>
+      <c r="E12" s="205"/>
+      <c r="F12" s="205"/>
+      <c r="G12" s="205"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="143" t="s">
@@ -13222,7 +13812,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:Q30"/>
   <sheetViews>
@@ -13638,7 +14228,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:D224"/>
@@ -15619,7 +16209,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:I20"/>
   <sheetViews>
@@ -15733,7 +16323,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:Q39"/>
   <sheetViews>
@@ -16062,228 +16652,4 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B3:G13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O32" sqref="O32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
-  <cols>
-    <col min="1" max="1" width="9" style="14"/>
-    <col min="2" max="2" width="13.1640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.33203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.6640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="14"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:7">
-      <c r="B3" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7">
-      <c r="B4" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-    </row>
-    <row r="5" spans="2:7">
-      <c r="B5" s="205" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7">
-      <c r="B6" s="205"/>
-      <c r="C6" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7">
-      <c r="B7" s="205"/>
-      <c r="C7" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7">
-      <c r="B8" s="205"/>
-      <c r="C8" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7">
-      <c r="B9" s="205"/>
-      <c r="C9" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" ht="28">
-      <c r="B10" s="205"/>
-      <c r="C10" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" ht="42">
-      <c r="B11" s="206" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7">
-      <c r="B12" s="207"/>
-      <c r="C12" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7">
-      <c r="B13" s="208"/>
-      <c r="C13" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B5:B10"/>
-    <mergeCell ref="B11:B13"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/doc/android.xlsx
+++ b/doc/android.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10309"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1DF97B0-0294-9F4C-8C86-D84463FACF88}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B5C961B-6591-BE47-BA0F-64783C27F120}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="980" yWindow="460" windowWidth="27840" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -102,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="559">
   <si>
     <t>Activity</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2129,10 +2129,6 @@
   </si>
   <si>
     <t>Insert data to table</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TestSQLiteActivity.java</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -12743,7 +12739,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -12761,11 +12757,8 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="30">
-      <c r="B2" s="203" t="s">
-        <v>536</v>
-      </c>
       <c r="C2" s="230" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -12773,33 +12766,33 @@
     </row>
     <row r="4" spans="1:6">
       <c r="B4" s="203" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C4" s="203" t="s">
+        <v>553</v>
+      </c>
+      <c r="D4" s="203" t="s">
         <v>554</v>
       </c>
-      <c r="D4" s="203" t="s">
+      <c r="E4" s="203" t="s">
         <v>555</v>
       </c>
-      <c r="E4" s="203" t="s">
+      <c r="F4" s="203" t="s">
         <v>556</v>
-      </c>
-      <c r="F4" s="203" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="17">
       <c r="C5" s="228" t="s">
+        <v>551</v>
+      </c>
+      <c r="D5" s="228" t="s">
+        <v>551</v>
+      </c>
+      <c r="E5" s="228" t="s">
         <v>552</v>
       </c>
-      <c r="D5" s="228" t="s">
-        <v>552</v>
-      </c>
-      <c r="E5" s="228" t="s">
-        <v>553</v>
-      </c>
       <c r="F5" s="228" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -12807,13 +12800,13 @@
         <v>535</v>
       </c>
       <c r="C6" s="227" t="s">
+        <v>539</v>
+      </c>
+      <c r="D6" s="227" t="s">
         <v>540</v>
       </c>
-      <c r="D6" s="227" t="s">
-        <v>541</v>
-      </c>
       <c r="E6" s="227" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F6" s="227" t="s">
         <v>534</v>
@@ -12824,16 +12817,16 @@
         <v>1000</v>
       </c>
       <c r="C7" s="150" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D7" s="144" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E7" s="144" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F7" s="144" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -12841,16 +12834,16 @@
         <v>10000</v>
       </c>
       <c r="C8" s="150" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D8" s="144" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E8" s="144" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F8" s="144" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -12858,16 +12851,16 @@
         <v>100000</v>
       </c>
       <c r="C9" s="150" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D9" s="144" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E9" s="144" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="F9" s="144" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="17">

--- a/doc/android.xlsx
+++ b/doc/android.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10309"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B5C961B-6591-BE47-BA0F-64783C27F120}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4758A35C-3159-3F4A-839D-E73215587F59}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="980" yWindow="460" windowWidth="27840" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="960" yWindow="460" windowWidth="27840" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="16" r:id="rId1"/>
@@ -102,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="564">
   <si>
     <t>Activity</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2220,8 +2220,27 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>db.insert()：
-代表Android封装的SQLiteDatabase CRUD API</t>
+    <t>SQLiteStatement.executeInsert() with Transaction</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2s:931ms</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>48ms</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>db.insert()：代表Android封装的SQLiteDatabase CRUD API</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试：向单表中插入数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试设备：SamSung S8 Android 8.0</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3342,7 +3361,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="231">
+  <cellXfs count="232">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3717,6 +3736,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="42" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3780,20 +3813,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="42" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -10231,10 +10251,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="226" t="s">
+      <c r="A1" s="206" t="s">
         <v>514</v>
       </c>
-      <c r="B1" s="226" t="s">
+      <c r="B1" s="206" t="s">
         <v>515</v>
       </c>
     </row>
@@ -10317,7 +10337,7 @@
       <c r="G4" s="15"/>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="206" t="s">
+      <c r="B5" s="212" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="15" t="s">
@@ -10337,7 +10357,7 @@
       </c>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="206"/>
+      <c r="B6" s="212"/>
       <c r="C6" s="15" t="s">
         <v>17</v>
       </c>
@@ -10353,7 +10373,7 @@
       </c>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="206"/>
+      <c r="B7" s="212"/>
       <c r="C7" s="16" t="s">
         <v>31</v>
       </c>
@@ -10371,7 +10391,7 @@
       </c>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="206"/>
+      <c r="B8" s="212"/>
       <c r="C8" s="16" t="s">
         <v>32</v>
       </c>
@@ -10389,7 +10409,7 @@
       </c>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="206"/>
+      <c r="B9" s="212"/>
       <c r="C9" s="16" t="s">
         <v>33</v>
       </c>
@@ -10407,7 +10427,7 @@
       </c>
     </row>
     <row r="10" spans="2:7" ht="28">
-      <c r="B10" s="206"/>
+      <c r="B10" s="212"/>
       <c r="C10" s="16" t="s">
         <v>13</v>
       </c>
@@ -10425,7 +10445,7 @@
       </c>
     </row>
     <row r="11" spans="2:7" ht="42">
-      <c r="B11" s="207" t="s">
+      <c r="B11" s="213" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="18" t="s">
@@ -10445,7 +10465,7 @@
       </c>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="208"/>
+      <c r="B12" s="214"/>
       <c r="C12" s="15" t="s">
         <v>15</v>
       </c>
@@ -10459,7 +10479,7 @@
       </c>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="209"/>
+      <c r="B13" s="215"/>
       <c r="C13" s="15" t="s">
         <v>16</v>
       </c>
@@ -11015,11 +11035,11 @@
       <c r="C6" s="94"/>
       <c r="D6" s="101"/>
       <c r="E6" s="96"/>
-      <c r="F6" s="210" t="s">
+      <c r="F6" s="216" t="s">
         <v>392</v>
       </c>
-      <c r="G6" s="211"/>
-      <c r="H6" s="212"/>
+      <c r="G6" s="217"/>
+      <c r="H6" s="218"/>
       <c r="I6" s="96"/>
       <c r="J6" s="102"/>
       <c r="K6" s="94"/>
@@ -11039,9 +11059,9 @@
       <c r="C7" s="94"/>
       <c r="D7" s="101"/>
       <c r="E7" s="96"/>
-      <c r="F7" s="213"/>
-      <c r="G7" s="214"/>
-      <c r="H7" s="215"/>
+      <c r="F7" s="219"/>
+      <c r="G7" s="220"/>
+      <c r="H7" s="221"/>
       <c r="I7" s="96"/>
       <c r="J7" s="102"/>
       <c r="K7" s="95"/>
@@ -11061,9 +11081,9 @@
       <c r="C8" s="94"/>
       <c r="D8" s="101"/>
       <c r="E8" s="96"/>
-      <c r="F8" s="213"/>
-      <c r="G8" s="214"/>
-      <c r="H8" s="215"/>
+      <c r="F8" s="219"/>
+      <c r="G8" s="220"/>
+      <c r="H8" s="221"/>
       <c r="I8" s="96"/>
       <c r="J8" s="102"/>
       <c r="K8" s="94"/>
@@ -11082,9 +11102,9 @@
       <c r="B9" s="94"/>
       <c r="C9" s="94"/>
       <c r="D9" s="101"/>
-      <c r="F9" s="213"/>
-      <c r="G9" s="214"/>
-      <c r="H9" s="215"/>
+      <c r="F9" s="219"/>
+      <c r="G9" s="220"/>
+      <c r="H9" s="221"/>
       <c r="I9" s="96"/>
       <c r="J9" s="102"/>
       <c r="K9" s="94"/>
@@ -11103,9 +11123,9 @@
       <c r="B10" s="94"/>
       <c r="C10" s="94"/>
       <c r="D10" s="101"/>
-      <c r="F10" s="216"/>
-      <c r="G10" s="217"/>
-      <c r="H10" s="218"/>
+      <c r="F10" s="222"/>
+      <c r="G10" s="223"/>
+      <c r="H10" s="224"/>
       <c r="I10" s="129"/>
       <c r="J10" s="102"/>
       <c r="K10" s="94"/>
@@ -11778,16 +11798,16 @@
     </row>
     <row r="18" spans="5:8">
       <c r="E18" s="137"/>
-      <c r="F18" s="219" t="s">
+      <c r="F18" s="225" t="s">
         <v>395</v>
       </c>
-      <c r="G18" s="220"/>
+      <c r="G18" s="226"/>
       <c r="H18" s="135"/>
     </row>
     <row r="19" spans="5:8">
       <c r="E19" s="137"/>
-      <c r="F19" s="221"/>
-      <c r="G19" s="222"/>
+      <c r="F19" s="227"/>
+      <c r="G19" s="228"/>
       <c r="H19" s="135"/>
     </row>
     <row r="20" spans="5:8">
@@ -12736,35 +12756,37 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3066BC90-58A1-734D-AE58-036202455225}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="26.5" style="203" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41" style="203" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" style="203" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.6640625" style="203" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="32" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="54.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="225" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="205" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30">
-      <c r="C2" s="230" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+    <row r="2" spans="1:7">
+      <c r="B2" s="203" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="C3" s="34"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="B4" s="203" t="s">
         <v>557</v>
       </c>
@@ -12780,39 +12802,48 @@
       <c r="F4" s="203" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="17">
-      <c r="C5" s="228" t="s">
+      <c r="G4" s="204" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="17">
+      <c r="C5" s="208" t="s">
         <v>551</v>
       </c>
-      <c r="D5" s="228" t="s">
+      <c r="D5" s="208" t="s">
         <v>551</v>
       </c>
-      <c r="E5" s="228" t="s">
+      <c r="E5" s="208" t="s">
         <v>552</v>
       </c>
-      <c r="F5" s="228" t="s">
+      <c r="F5" s="208" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="B6" s="227" t="s">
+      <c r="G5" s="208" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="B6" s="207" t="s">
         <v>535</v>
       </c>
-      <c r="C6" s="227" t="s">
+      <c r="C6" s="207" t="s">
         <v>539</v>
       </c>
-      <c r="D6" s="227" t="s">
+      <c r="D6" s="207" t="s">
         <v>540</v>
       </c>
-      <c r="E6" s="227" t="s">
+      <c r="E6" s="207" t="s">
         <v>536</v>
       </c>
-      <c r="F6" s="227" t="s">
+      <c r="F6" s="207" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="207" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="B7" s="150">
         <v>1000</v>
       </c>
@@ -12828,8 +12859,11 @@
       <c r="F7" s="144" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" s="231" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="B8" s="150">
         <v>10000</v>
       </c>
@@ -12845,8 +12879,11 @@
       <c r="F8" s="144" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" s="144" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="B9" s="150">
         <v>100000</v>
       </c>
@@ -12862,12 +12899,25 @@
       <c r="F9" s="144" t="s">
         <v>537</v>
       </c>
+      <c r="G9" s="231" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="B14" s="34" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="B15" s="37" t="s">
+        <v>563</v>
+      </c>
     </row>
     <row r="17" spans="2:2" ht="17">
-      <c r="B17" s="229"/>
+      <c r="B17" s="209"/>
     </row>
     <row r="18" spans="2:2" ht="17">
-      <c r="B18" s="228"/>
+      <c r="B18" s="208"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -12916,8 +12966,8 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="F10" s="223"/>
-      <c r="G10" s="223"/>
+      <c r="F10" s="229"/>
+      <c r="G10" s="229"/>
       <c r="I10" t="s">
         <v>445</v>
       </c>
@@ -12958,8 +13008,8 @@
       </c>
     </row>
     <row r="32" spans="2:9">
-      <c r="F32" s="223"/>
-      <c r="G32" s="223"/>
+      <c r="F32" s="229"/>
+      <c r="G32" s="229"/>
       <c r="I32" t="s">
         <v>442</v>
       </c>
@@ -13013,10 +13063,10 @@
       </c>
     </row>
     <row r="12" spans="2:10">
-      <c r="H12" s="224" t="s">
+      <c r="H12" s="230" t="s">
         <v>399</v>
       </c>
-      <c r="I12" s="224"/>
+      <c r="I12" s="230"/>
     </row>
     <row r="14" spans="2:10">
       <c r="J14" t="s">
@@ -13029,10 +13079,10 @@
       </c>
     </row>
     <row r="28" spans="2:9">
-      <c r="H28" s="223" t="s">
+      <c r="H28" s="229" t="s">
         <v>403</v>
       </c>
-      <c r="I28" s="223"/>
+      <c r="I28" s="229"/>
     </row>
     <row r="39" spans="2:9">
       <c r="B39" t="s">
@@ -13040,10 +13090,10 @@
       </c>
     </row>
     <row r="43" spans="2:9">
-      <c r="H43" s="224" t="s">
+      <c r="H43" s="230" t="s">
         <v>406</v>
       </c>
-      <c r="I43" s="224"/>
+      <c r="I43" s="230"/>
     </row>
     <row r="54" spans="2:9">
       <c r="B54" t="s">
@@ -13051,10 +13101,10 @@
       </c>
     </row>
     <row r="59" spans="2:9">
-      <c r="H59" s="223" t="s">
+      <c r="H59" s="229" t="s">
         <v>403</v>
       </c>
-      <c r="I59" s="223"/>
+      <c r="I59" s="229"/>
     </row>
     <row r="61" spans="2:9">
       <c r="G61" t="s">
@@ -13401,13 +13451,13 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="18">
-      <c r="A2" s="204" t="s">
+      <c r="A2" s="210" t="s">
         <v>505</v>
       </c>
-      <c r="B2" s="204"/>
-      <c r="C2" s="204"/>
-      <c r="D2" s="204"/>
-      <c r="E2" s="204"/>
+      <c r="B2" s="210"/>
+      <c r="C2" s="210"/>
+      <c r="D2" s="210"/>
+      <c r="E2" s="210"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="143" t="s">
@@ -13560,15 +13610,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="205" t="s">
+      <c r="A1" s="211" t="s">
         <v>434</v>
       </c>
-      <c r="B1" s="205"/>
-      <c r="C1" s="205"/>
-      <c r="D1" s="205"/>
-      <c r="E1" s="205"/>
-      <c r="F1" s="205"/>
-      <c r="G1" s="205"/>
+      <c r="B1" s="211"/>
+      <c r="C1" s="211"/>
+      <c r="D1" s="211"/>
+      <c r="E1" s="211"/>
+      <c r="F1" s="211"/>
+      <c r="G1" s="211"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="143" t="s">
@@ -13678,15 +13728,15 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="205" t="s">
+      <c r="A12" s="211" t="s">
         <v>433</v>
       </c>
-      <c r="B12" s="205"/>
-      <c r="C12" s="205"/>
-      <c r="D12" s="205"/>
-      <c r="E12" s="205"/>
-      <c r="F12" s="205"/>
-      <c r="G12" s="205"/>
+      <c r="B12" s="211"/>
+      <c r="C12" s="211"/>
+      <c r="D12" s="211"/>
+      <c r="E12" s="211"/>
+      <c r="F12" s="211"/>
+      <c r="G12" s="211"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="143" t="s">

--- a/doc/android.xlsx
+++ b/doc/android.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10309"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4758A35C-3159-3F4A-839D-E73215587F59}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA0991C-C799-BC4E-A5A5-F630A921B75D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="960" yWindow="460" windowWidth="27840" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12759,7 +12759,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>

--- a/doc/android.xlsx
+++ b/doc/android.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10309"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA0991C-C799-BC4E-A5A5-F630A921B75D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34CD28D5-C7E9-9C49-880B-9DEC494B840E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="960" yWindow="460" windowWidth="27840" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12758,8 +12758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3066BC90-58A1-734D-AE58-036202455225}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>

--- a/doc/android.xlsx
+++ b/doc/android.xlsx
@@ -3,36 +3,37 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10309"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34CD28D5-C7E9-9C49-880B-9DEC494B840E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{704281B2-E63B-8040-860F-1DC73979E0C7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="960" yWindow="460" windowWidth="27840" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="16" r:id="rId1"/>
-    <sheet name="DB" sheetId="23" r:id="rId2"/>
-    <sheet name="ThreeeLevelCache" sheetId="22" r:id="rId3"/>
-    <sheet name="IPC" sheetId="21" r:id="rId4"/>
-    <sheet name="Activity_Lifecycle" sheetId="15" r:id="rId5"/>
-    <sheet name="ContentProvider" sheetId="4" r:id="rId6"/>
-    <sheet name="Android高级应用开发-深入篇" sheetId="5" r:id="rId7"/>
-    <sheet name="反编译" sheetId="8" r:id="rId8"/>
-    <sheet name="Android高级应用开发-基础篇_74UI开发的2+1法则" sheetId="1" r:id="rId9"/>
-    <sheet name="版本控制" sheetId="2" r:id="rId10"/>
-    <sheet name="Adapter" sheetId="3" r:id="rId11"/>
-    <sheet name="消息机制" sheetId="6" r:id="rId12"/>
-    <sheet name="消息机制模型" sheetId="10" r:id="rId13"/>
-    <sheet name="基于监听的事件处理机制" sheetId="12" r:id="rId14"/>
-    <sheet name="==与equals" sheetId="7" r:id="rId15"/>
-    <sheet name="hashCode" sheetId="9" r:id="rId16"/>
-    <sheet name="Bitmap.Config" sheetId="20" r:id="rId17"/>
-    <sheet name="drawable_分辨率" sheetId="19" r:id="rId18"/>
-    <sheet name="drawable_2" sheetId="18" r:id="rId19"/>
-    <sheet name="drawable_缩放" sheetId="17" r:id="rId20"/>
-    <sheet name="IO" sheetId="13" r:id="rId21"/>
+    <sheet name="DB_Room" sheetId="24" r:id="rId2"/>
+    <sheet name="DB" sheetId="23" r:id="rId3"/>
+    <sheet name="ThreeeLevelCache" sheetId="22" r:id="rId4"/>
+    <sheet name="IPC" sheetId="21" r:id="rId5"/>
+    <sheet name="Activity_Lifecycle" sheetId="15" r:id="rId6"/>
+    <sheet name="ContentProvider" sheetId="4" r:id="rId7"/>
+    <sheet name="Android高级应用开发-深入篇" sheetId="5" r:id="rId8"/>
+    <sheet name="反编译" sheetId="8" r:id="rId9"/>
+    <sheet name="Android高级应用开发-基础篇_74UI开发的2+1法则" sheetId="1" r:id="rId10"/>
+    <sheet name="版本控制" sheetId="2" r:id="rId11"/>
+    <sheet name="Adapter" sheetId="3" r:id="rId12"/>
+    <sheet name="消息机制" sheetId="6" r:id="rId13"/>
+    <sheet name="消息机制模型" sheetId="10" r:id="rId14"/>
+    <sheet name="基于监听的事件处理机制" sheetId="12" r:id="rId15"/>
+    <sheet name="==与equals" sheetId="7" r:id="rId16"/>
+    <sheet name="hashCode" sheetId="9" r:id="rId17"/>
+    <sheet name="Bitmap.Config" sheetId="20" r:id="rId18"/>
+    <sheet name="drawable_分辨率" sheetId="19" r:id="rId19"/>
+    <sheet name="drawable_2" sheetId="18" r:id="rId20"/>
+    <sheet name="drawable_缩放" sheetId="17" r:id="rId21"/>
+    <sheet name="IO" sheetId="13" r:id="rId22"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Android高级应用开发-深入篇'!$A$1:$C$222</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">'Android高级应用开发-深入篇'!$A$1:$D$225</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Android高级应用开发-深入篇'!$A$1:$C$222</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">'Android高级应用开发-深入篇'!$A$1:$D$225</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
 </workbook>
@@ -102,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="579">
   <si>
     <t>Activity</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2243,12 +2244,72 @@
     <t>测试设备：SamSung S8 Android 8.0</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>DB_Room</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Course(course)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>course_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>course_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PMP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Primary key</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Foriengin key</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Student(stu)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stu_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stu_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Score</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>score</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Agile</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="46">
+  <fonts count="47">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2589,8 +2650,15 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="0.39997558519241921"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2642,6 +2710,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3361,7 +3441,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="232">
+  <cellXfs count="239">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3750,6 +3830,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3813,7 +3894,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="46" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -10239,10 +10330,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD58857B-D0A1-5746-959D-8AF492D5EE51}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -10272,16 +10363,356 @@
         <v>531</v>
       </c>
     </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>564</v>
+      </c>
+      <c r="B4" s="147" t="s">
+        <v>564</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B3" location="DB!A1" display="DB" xr:uid="{E442FB97-6815-464C-B9AA-C4CE8E614689}"/>
+    <hyperlink ref="B4" location="DB_Room!A1" display="DB_Room" xr:uid="{BB703428-235E-F14D-B13E-18D1983CAF4E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="B1:Q39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J46" sqref="J46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16" width="9" style="1"/>
+    <col min="17" max="17" width="68.6640625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:17">
+      <c r="C1" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" s="2"/>
+    </row>
+    <row r="2" spans="2:17" ht="14" thickBot="1">
+      <c r="D2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17">
+      <c r="C3" s="3"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="5"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="5"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="5"/>
+    </row>
+    <row r="4" spans="2:17">
+      <c r="C4" s="6"/>
+      <c r="E4" s="7"/>
+      <c r="H4" s="6"/>
+      <c r="J4" s="7"/>
+      <c r="M4" s="6"/>
+      <c r="O4" s="7"/>
+    </row>
+    <row r="5" spans="2:17">
+      <c r="C5" s="6"/>
+      <c r="E5" s="7"/>
+      <c r="H5" s="6"/>
+      <c r="J5" s="7"/>
+      <c r="M5" s="6"/>
+      <c r="O5" s="7"/>
+    </row>
+    <row r="6" spans="2:17">
+      <c r="C6" s="6"/>
+      <c r="E6" s="7"/>
+      <c r="H6" s="6"/>
+      <c r="J6" s="7"/>
+      <c r="M6" s="6"/>
+      <c r="O6" s="7"/>
+    </row>
+    <row r="7" spans="2:17">
+      <c r="C7" s="6"/>
+      <c r="E7" s="7"/>
+      <c r="H7" s="6"/>
+      <c r="J7" s="7"/>
+      <c r="M7" s="6"/>
+      <c r="O7" s="7"/>
+    </row>
+    <row r="8" spans="2:17" ht="14" thickBot="1">
+      <c r="C8" s="6"/>
+      <c r="E8" s="7"/>
+      <c r="H8" s="6"/>
+      <c r="J8" s="7"/>
+      <c r="M8" s="6"/>
+      <c r="O8" s="7"/>
+    </row>
+    <row r="9" spans="2:17" ht="29" thickBot="1">
+      <c r="B9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="7"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" s="7"/>
+      <c r="Q9" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17">
+      <c r="C10" s="6"/>
+      <c r="E10" s="7"/>
+      <c r="H10" s="6"/>
+      <c r="J10" s="7"/>
+      <c r="M10" s="6"/>
+      <c r="O10" s="7"/>
+    </row>
+    <row r="11" spans="2:17">
+      <c r="C11" s="6"/>
+      <c r="E11" s="7"/>
+      <c r="H11" s="6"/>
+      <c r="J11" s="7"/>
+      <c r="M11" s="6"/>
+      <c r="O11" s="7"/>
+    </row>
+    <row r="12" spans="2:17">
+      <c r="C12" s="6"/>
+      <c r="E12" s="7"/>
+      <c r="H12" s="6"/>
+      <c r="J12" s="7"/>
+      <c r="M12" s="6"/>
+      <c r="O12" s="7"/>
+    </row>
+    <row r="13" spans="2:17">
+      <c r="C13" s="6"/>
+      <c r="E13" s="7"/>
+      <c r="H13" s="6"/>
+      <c r="J13" s="7"/>
+      <c r="M13" s="6"/>
+      <c r="O13" s="7"/>
+    </row>
+    <row r="14" spans="2:17">
+      <c r="C14" s="6"/>
+      <c r="E14" s="7"/>
+      <c r="H14" s="6"/>
+      <c r="J14" s="7"/>
+      <c r="M14" s="6"/>
+      <c r="O14" s="7"/>
+    </row>
+    <row r="15" spans="2:17">
+      <c r="C15" s="6"/>
+      <c r="E15" s="7"/>
+      <c r="H15" s="6"/>
+      <c r="J15" s="7"/>
+      <c r="M15" s="6"/>
+      <c r="O15" s="7"/>
+    </row>
+    <row r="16" spans="2:17">
+      <c r="C16" s="6"/>
+      <c r="E16" s="7"/>
+      <c r="H16" s="6"/>
+      <c r="J16" s="7"/>
+      <c r="M16" s="6"/>
+      <c r="O16" s="7"/>
+    </row>
+    <row r="17" spans="2:17" ht="14" thickBot="1">
+      <c r="C17" s="9"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="11"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="11"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="11"/>
+    </row>
+    <row r="24" spans="2:17" ht="14" thickBot="1">
+      <c r="D24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17">
+      <c r="C25" s="3"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="5"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="5"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="5"/>
+    </row>
+    <row r="26" spans="2:17">
+      <c r="C26" s="6"/>
+      <c r="E26" s="7"/>
+      <c r="H26" s="6"/>
+      <c r="J26" s="7"/>
+      <c r="M26" s="6"/>
+      <c r="O26" s="7"/>
+    </row>
+    <row r="27" spans="2:17">
+      <c r="C27" s="6"/>
+      <c r="E27" s="7"/>
+      <c r="H27" s="6"/>
+      <c r="J27" s="7"/>
+      <c r="M27" s="6"/>
+      <c r="O27" s="7"/>
+    </row>
+    <row r="28" spans="2:17">
+      <c r="C28" s="6"/>
+      <c r="E28" s="7"/>
+      <c r="H28" s="6"/>
+      <c r="J28" s="7"/>
+      <c r="M28" s="6"/>
+      <c r="O28" s="7"/>
+    </row>
+    <row r="29" spans="2:17">
+      <c r="C29" s="6"/>
+      <c r="E29" s="7"/>
+      <c r="H29" s="6"/>
+      <c r="J29" s="7"/>
+      <c r="M29" s="6"/>
+      <c r="O29" s="7"/>
+    </row>
+    <row r="30" spans="2:17">
+      <c r="C30" s="6"/>
+      <c r="E30" s="7"/>
+      <c r="H30" s="6"/>
+      <c r="J30" s="7"/>
+      <c r="M30" s="6"/>
+      <c r="O30" s="7"/>
+    </row>
+    <row r="31" spans="2:17" ht="42">
+      <c r="B31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="E31" s="7"/>
+      <c r="H31" s="6"/>
+      <c r="J31" s="7"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O31" s="7"/>
+      <c r="Q31" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="2:17">
+      <c r="C32" s="6"/>
+      <c r="E32" s="7"/>
+      <c r="H32" s="6"/>
+      <c r="J32" s="7"/>
+      <c r="M32" s="6"/>
+      <c r="O32" s="7"/>
+    </row>
+    <row r="33" spans="3:15">
+      <c r="C33" s="6"/>
+      <c r="E33" s="7"/>
+      <c r="H33" s="6"/>
+      <c r="J33" s="7"/>
+      <c r="M33" s="6"/>
+      <c r="O33" s="7"/>
+    </row>
+    <row r="34" spans="3:15">
+      <c r="C34" s="6"/>
+      <c r="E34" s="7"/>
+      <c r="H34" s="6"/>
+      <c r="J34" s="7"/>
+      <c r="M34" s="6"/>
+      <c r="O34" s="7"/>
+    </row>
+    <row r="35" spans="3:15">
+      <c r="C35" s="6"/>
+      <c r="E35" s="7"/>
+      <c r="H35" s="6"/>
+      <c r="J35" s="7"/>
+      <c r="M35" s="6"/>
+      <c r="O35" s="7"/>
+    </row>
+    <row r="36" spans="3:15">
+      <c r="C36" s="6"/>
+      <c r="E36" s="7"/>
+      <c r="H36" s="6"/>
+      <c r="J36" s="7"/>
+      <c r="M36" s="6"/>
+      <c r="O36" s="7"/>
+    </row>
+    <row r="37" spans="3:15">
+      <c r="C37" s="6"/>
+      <c r="E37" s="7"/>
+      <c r="H37" s="6"/>
+      <c r="J37" s="7"/>
+      <c r="M37" s="6"/>
+      <c r="O37" s="7"/>
+    </row>
+    <row r="38" spans="3:15">
+      <c r="C38" s="6"/>
+      <c r="E38" s="7"/>
+      <c r="H38" s="6"/>
+      <c r="J38" s="7"/>
+      <c r="M38" s="6"/>
+      <c r="O38" s="7"/>
+    </row>
+    <row r="39" spans="3:15" ht="14" thickBot="1">
+      <c r="C39" s="9"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="11"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="11"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="11"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B3:G13"/>
   <sheetViews>
@@ -10337,7 +10768,7 @@
       <c r="G4" s="15"/>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="212" t="s">
+      <c r="B5" s="213" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="15" t="s">
@@ -10357,7 +10788,7 @@
       </c>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="212"/>
+      <c r="B6" s="213"/>
       <c r="C6" s="15" t="s">
         <v>17</v>
       </c>
@@ -10373,7 +10804,7 @@
       </c>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="212"/>
+      <c r="B7" s="213"/>
       <c r="C7" s="16" t="s">
         <v>31</v>
       </c>
@@ -10391,7 +10822,7 @@
       </c>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="212"/>
+      <c r="B8" s="213"/>
       <c r="C8" s="16" t="s">
         <v>32</v>
       </c>
@@ -10409,7 +10840,7 @@
       </c>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="212"/>
+      <c r="B9" s="213"/>
       <c r="C9" s="16" t="s">
         <v>33</v>
       </c>
@@ -10427,7 +10858,7 @@
       </c>
     </row>
     <row r="10" spans="2:7" ht="28">
-      <c r="B10" s="212"/>
+      <c r="B10" s="213"/>
       <c r="C10" s="16" t="s">
         <v>13</v>
       </c>
@@ -10445,7 +10876,7 @@
       </c>
     </row>
     <row r="11" spans="2:7" ht="42">
-      <c r="B11" s="213" t="s">
+      <c r="B11" s="214" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="18" t="s">
@@ -10465,7 +10896,7 @@
       </c>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="214"/>
+      <c r="B12" s="215"/>
       <c r="C12" s="15" t="s">
         <v>15</v>
       </c>
@@ -10479,7 +10910,7 @@
       </c>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="215"/>
+      <c r="B13" s="216"/>
       <c r="C13" s="15" t="s">
         <v>16</v>
       </c>
@@ -10505,7 +10936,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:N24"/>
   <sheetViews>
@@ -10665,7 +11096,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B2:U32"/>
   <sheetViews>
@@ -10926,7 +11357,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA80C652-EB11-2747-89DA-E4ABA79A811D}">
   <dimension ref="A2:T38"/>
   <sheetViews>
@@ -11035,11 +11466,11 @@
       <c r="C6" s="94"/>
       <c r="D6" s="101"/>
       <c r="E6" s="96"/>
-      <c r="F6" s="216" t="s">
+      <c r="F6" s="217" t="s">
         <v>392</v>
       </c>
-      <c r="G6" s="217"/>
-      <c r="H6" s="218"/>
+      <c r="G6" s="218"/>
+      <c r="H6" s="219"/>
       <c r="I6" s="96"/>
       <c r="J6" s="102"/>
       <c r="K6" s="94"/>
@@ -11059,9 +11490,9 @@
       <c r="C7" s="94"/>
       <c r="D7" s="101"/>
       <c r="E7" s="96"/>
-      <c r="F7" s="219"/>
-      <c r="G7" s="220"/>
-      <c r="H7" s="221"/>
+      <c r="F7" s="220"/>
+      <c r="G7" s="221"/>
+      <c r="H7" s="222"/>
       <c r="I7" s="96"/>
       <c r="J7" s="102"/>
       <c r="K7" s="95"/>
@@ -11081,9 +11512,9 @@
       <c r="C8" s="94"/>
       <c r="D8" s="101"/>
       <c r="E8" s="96"/>
-      <c r="F8" s="219"/>
-      <c r="G8" s="220"/>
-      <c r="H8" s="221"/>
+      <c r="F8" s="220"/>
+      <c r="G8" s="221"/>
+      <c r="H8" s="222"/>
       <c r="I8" s="96"/>
       <c r="J8" s="102"/>
       <c r="K8" s="94"/>
@@ -11102,9 +11533,9 @@
       <c r="B9" s="94"/>
       <c r="C9" s="94"/>
       <c r="D9" s="101"/>
-      <c r="F9" s="219"/>
-      <c r="G9" s="220"/>
-      <c r="H9" s="221"/>
+      <c r="F9" s="220"/>
+      <c r="G9" s="221"/>
+      <c r="H9" s="222"/>
       <c r="I9" s="96"/>
       <c r="J9" s="102"/>
       <c r="K9" s="94"/>
@@ -11123,9 +11554,9 @@
       <c r="B10" s="94"/>
       <c r="C10" s="94"/>
       <c r="D10" s="101"/>
-      <c r="F10" s="222"/>
-      <c r="G10" s="223"/>
-      <c r="H10" s="224"/>
+      <c r="F10" s="223"/>
+      <c r="G10" s="224"/>
+      <c r="H10" s="225"/>
       <c r="I10" s="129"/>
       <c r="J10" s="102"/>
       <c r="K10" s="94"/>
@@ -11718,7 +12149,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E7778B8-D430-A34A-995E-0F83AC473C52}">
   <dimension ref="E8:K35"/>
   <sheetViews>
@@ -11798,16 +12229,16 @@
     </row>
     <row r="18" spans="5:8">
       <c r="E18" s="137"/>
-      <c r="F18" s="225" t="s">
+      <c r="F18" s="226" t="s">
         <v>395</v>
       </c>
-      <c r="G18" s="226"/>
+      <c r="G18" s="227"/>
       <c r="H18" s="135"/>
     </row>
     <row r="19" spans="5:8">
       <c r="E19" s="137"/>
-      <c r="F19" s="227"/>
-      <c r="G19" s="228"/>
+      <c r="F19" s="228"/>
+      <c r="G19" s="229"/>
       <c r="H19" s="135"/>
     </row>
     <row r="20" spans="5:8">
@@ -11904,7 +12335,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B1:K25"/>
   <sheetViews>
@@ -12119,7 +12550,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A3:E21"/>
   <sheetViews>
@@ -12302,7 +12733,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDFDE749-2C0C-C548-8C4F-6EF43EA89AA0}">
   <dimension ref="B2:C9"/>
   <sheetViews>
@@ -12381,7 +12812,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D86ED6A2-BD47-244B-AD18-088367512271}">
   <dimension ref="B2:M10"/>
   <sheetViews>
@@ -12486,7 +12917,163 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{133A9786-8ADA-8C47-8004-675DACA89322}">
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <cols>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="233" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="B2" s="235"/>
+      <c r="C2" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="B3" s="237"/>
+      <c r="C3" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="232" customFormat="1">
+      <c r="B6" s="232" t="s">
+        <v>565</v>
+      </c>
+      <c r="E6" s="232" t="s">
+        <v>571</v>
+      </c>
+      <c r="H6" s="232" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="232" customFormat="1">
+      <c r="B7" s="236" t="s">
+        <v>566</v>
+      </c>
+      <c r="C7" s="236" t="s">
+        <v>567</v>
+      </c>
+      <c r="E7" s="234" t="s">
+        <v>572</v>
+      </c>
+      <c r="F7" s="234" t="s">
+        <v>573</v>
+      </c>
+      <c r="H7" s="236" t="s">
+        <v>566</v>
+      </c>
+      <c r="I7" s="236" t="s">
+        <v>572</v>
+      </c>
+      <c r="J7" s="236" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="B8" s="159">
+        <v>1</v>
+      </c>
+      <c r="C8" s="150" t="s">
+        <v>568</v>
+      </c>
+      <c r="E8" s="150">
+        <v>1</v>
+      </c>
+      <c r="F8" s="150" t="s">
+        <v>577</v>
+      </c>
+      <c r="H8" s="150">
+        <v>1</v>
+      </c>
+      <c r="I8" s="150">
+        <v>1</v>
+      </c>
+      <c r="J8" s="150">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="B9" s="159">
+        <v>2</v>
+      </c>
+      <c r="C9" s="150" t="s">
+        <v>576</v>
+      </c>
+      <c r="E9" s="150">
+        <v>2</v>
+      </c>
+      <c r="F9" s="150" t="s">
+        <v>578</v>
+      </c>
+      <c r="H9" s="150">
+        <v>1</v>
+      </c>
+      <c r="I9" s="150">
+        <v>1</v>
+      </c>
+      <c r="J9" s="150">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="B10" s="235"/>
+      <c r="E10" s="235"/>
+      <c r="H10" s="150">
+        <v>2</v>
+      </c>
+      <c r="I10" s="150">
+        <v>2</v>
+      </c>
+      <c r="J10" s="150">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="H11" s="150">
+        <v>2</v>
+      </c>
+      <c r="I11" s="150">
+        <v>2</v>
+      </c>
+      <c r="J11" s="150">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="H12" s="238"/>
+      <c r="I12" s="235"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="H13" s="237"/>
+      <c r="I13" s="93"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="I14" s="237"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Home!B4" display="Home" xr:uid="{514B2CEF-E7A5-864D-80CF-0C54175C6FEA}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A51D4780-106D-3C46-B51D-1FAF5E0D4E2A}">
   <dimension ref="A1:K27"/>
   <sheetViews>
@@ -12754,11 +13341,205 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{112C5F8E-5AB4-3747-B9CF-9A1C944F7742}">
+  <dimension ref="A1:I35"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="O43" sqref="O43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="152" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="147" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="F5" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="F6" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="I9" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="F10" s="230"/>
+      <c r="G10" s="230"/>
+      <c r="I10" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="G13" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" t="s">
+        <v>441</v>
+      </c>
+      <c r="F17" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="F22" s="149"/>
+      <c r="G22" s="149"/>
+      <c r="I22" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="G24" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9">
+      <c r="F28" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9">
+      <c r="F32" s="230"/>
+      <c r="G32" s="230"/>
+      <c r="I32" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="33" spans="7:9">
+      <c r="I33" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="35" spans="7:9">
+      <c r="G35" t="s">
+        <v>439</v>
+      </c>
+      <c r="I35" t="s">
+        <v>449</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F32:G32"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{8C105A6D-028F-7B45-AB3A-0ACED100F9CD}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{DECB92E9-F7C3-7E48-B60C-768E77C89B1F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDE8B8C4-352E-054D-A843-45DFD254B784}">
+  <dimension ref="B2:J61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R20" sqref="R20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetData>
+    <row r="2" spans="2:10">
+      <c r="H2" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="H12" s="231" t="s">
+        <v>399</v>
+      </c>
+      <c r="I12" s="231"/>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="J14" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="B23" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9">
+      <c r="H28" s="230" t="s">
+        <v>403</v>
+      </c>
+      <c r="I28" s="230"/>
+    </row>
+    <row r="39" spans="2:9">
+      <c r="B39" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9">
+      <c r="H43" s="231" t="s">
+        <v>406</v>
+      </c>
+      <c r="I43" s="231"/>
+    </row>
+    <row r="54" spans="2:9">
+      <c r="B54" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9">
+      <c r="H59" s="230" t="s">
+        <v>403</v>
+      </c>
+      <c r="I59" s="230"/>
+    </row>
+    <row r="61" spans="2:9">
+      <c r="G61" t="s">
+        <v>405</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="H59:I59"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3066BC90-58A1-734D-AE58-036202455225}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -12859,7 +13640,7 @@
       <c r="F7" s="144" t="s">
         <v>548</v>
       </c>
-      <c r="G7" s="231" t="s">
+      <c r="G7" s="210" t="s">
         <v>548</v>
       </c>
     </row>
@@ -12899,7 +13680,7 @@
       <c r="F9" s="144" t="s">
         <v>537</v>
       </c>
-      <c r="G9" s="231" t="s">
+      <c r="G9" s="210" t="s">
         <v>559</v>
       </c>
     </row>
@@ -12930,201 +13711,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{112C5F8E-5AB4-3747-B9CF-9A1C944F7742}">
-  <dimension ref="A1:I35"/>
-  <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="O43" sqref="O43"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
-  <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="152" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="147" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="F5" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="F6" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="I9" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="F10" s="229"/>
-      <c r="G10" s="229"/>
-      <c r="I10" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="G13" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9">
-      <c r="B17" t="s">
-        <v>441</v>
-      </c>
-      <c r="F17" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9">
-      <c r="B18" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9">
-      <c r="F22" s="149"/>
-      <c r="G22" s="149"/>
-      <c r="I22" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9">
-      <c r="G24" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9">
-      <c r="F28" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9">
-      <c r="F32" s="229"/>
-      <c r="G32" s="229"/>
-      <c r="I32" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="33" spans="7:9">
-      <c r="I33" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="35" spans="7:9">
-      <c r="G35" t="s">
-        <v>439</v>
-      </c>
-      <c r="I35" t="s">
-        <v>449</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F32:G32"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{8C105A6D-028F-7B45-AB3A-0ACED100F9CD}"/>
-    <hyperlink ref="A2" r:id="rId2" xr:uid="{DECB92E9-F7C3-7E48-B60C-768E77C89B1F}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDE8B8C4-352E-054D-A843-45DFD254B784}">
-  <dimension ref="B2:J61"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
-  <sheetData>
-    <row r="2" spans="2:10">
-      <c r="H2" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10">
-      <c r="B8" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10">
-      <c r="H12" s="230" t="s">
-        <v>399</v>
-      </c>
-      <c r="I12" s="230"/>
-    </row>
-    <row r="14" spans="2:10">
-      <c r="J14" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9">
-      <c r="B23" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9">
-      <c r="H28" s="229" t="s">
-        <v>403</v>
-      </c>
-      <c r="I28" s="229"/>
-    </row>
-    <row r="39" spans="2:9">
-      <c r="B39" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9">
-      <c r="H43" s="230" t="s">
-        <v>406</v>
-      </c>
-      <c r="I43" s="230"/>
-    </row>
-    <row r="54" spans="2:9">
-      <c r="B54" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9">
-      <c r="H59" s="229" t="s">
-        <v>403</v>
-      </c>
-      <c r="I59" s="229"/>
-    </row>
-    <row r="61" spans="2:9">
-      <c r="G61" t="s">
-        <v>405</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="H59:I59"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E51BCB48-68B0-EF46-B93E-648BAB230ADA}">
   <dimension ref="A1:S28"/>
   <sheetViews>
@@ -13428,7 +14015,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A0C945C-04F2-D147-89E5-6DDFCFB3EEA7}">
   <dimension ref="A1:F11"/>
   <sheetViews>
@@ -13451,13 +14038,13 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="18">
-      <c r="A2" s="210" t="s">
+      <c r="A2" s="211" t="s">
         <v>505</v>
       </c>
-      <c r="B2" s="210"/>
-      <c r="C2" s="210"/>
-      <c r="D2" s="210"/>
-      <c r="E2" s="210"/>
+      <c r="B2" s="211"/>
+      <c r="C2" s="211"/>
+      <c r="D2" s="211"/>
+      <c r="E2" s="211"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="143" t="s">
@@ -13596,7 +14183,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{695F25B9-FD59-DD4E-A097-058E28B48012}">
   <dimension ref="A1:G19"/>
   <sheetViews>
@@ -13610,15 +14197,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="211" t="s">
+      <c r="A1" s="212" t="s">
         <v>434</v>
       </c>
-      <c r="B1" s="211"/>
-      <c r="C1" s="211"/>
-      <c r="D1" s="211"/>
-      <c r="E1" s="211"/>
-      <c r="F1" s="211"/>
-      <c r="G1" s="211"/>
+      <c r="B1" s="212"/>
+      <c r="C1" s="212"/>
+      <c r="D1" s="212"/>
+      <c r="E1" s="212"/>
+      <c r="F1" s="212"/>
+      <c r="G1" s="212"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="143" t="s">
@@ -13728,15 +14315,15 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="211" t="s">
+      <c r="A12" s="212" t="s">
         <v>433</v>
       </c>
-      <c r="B12" s="211"/>
-      <c r="C12" s="211"/>
-      <c r="D12" s="211"/>
-      <c r="E12" s="211"/>
-      <c r="F12" s="211"/>
-      <c r="G12" s="211"/>
+      <c r="B12" s="212"/>
+      <c r="C12" s="212"/>
+      <c r="D12" s="212"/>
+      <c r="E12" s="212"/>
+      <c r="F12" s="212"/>
+      <c r="G12" s="212"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="143" t="s">
@@ -13855,7 +14442,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:Q30"/>
   <sheetViews>
@@ -14271,7 +14858,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:D224"/>
@@ -16252,7 +16839,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:I20"/>
   <sheetViews>
@@ -16364,335 +16951,4 @@
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B1:Q39"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J46" sqref="J46"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
-  <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16" width="9" style="1"/>
-    <col min="17" max="17" width="68.6640625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:17">
-      <c r="C1" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q1" s="2"/>
-    </row>
-    <row r="2" spans="2:17" ht="14" thickBot="1">
-      <c r="D2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="2:17">
-      <c r="C3" s="3"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="5"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="5"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="5"/>
-    </row>
-    <row r="4" spans="2:17">
-      <c r="C4" s="6"/>
-      <c r="E4" s="7"/>
-      <c r="H4" s="6"/>
-      <c r="J4" s="7"/>
-      <c r="M4" s="6"/>
-      <c r="O4" s="7"/>
-    </row>
-    <row r="5" spans="2:17">
-      <c r="C5" s="6"/>
-      <c r="E5" s="7"/>
-      <c r="H5" s="6"/>
-      <c r="J5" s="7"/>
-      <c r="M5" s="6"/>
-      <c r="O5" s="7"/>
-    </row>
-    <row r="6" spans="2:17">
-      <c r="C6" s="6"/>
-      <c r="E6" s="7"/>
-      <c r="H6" s="6"/>
-      <c r="J6" s="7"/>
-      <c r="M6" s="6"/>
-      <c r="O6" s="7"/>
-    </row>
-    <row r="7" spans="2:17">
-      <c r="C7" s="6"/>
-      <c r="E7" s="7"/>
-      <c r="H7" s="6"/>
-      <c r="J7" s="7"/>
-      <c r="M7" s="6"/>
-      <c r="O7" s="7"/>
-    </row>
-    <row r="8" spans="2:17" ht="14" thickBot="1">
-      <c r="C8" s="6"/>
-      <c r="E8" s="7"/>
-      <c r="H8" s="6"/>
-      <c r="J8" s="7"/>
-      <c r="M8" s="6"/>
-      <c r="O8" s="7"/>
-    </row>
-    <row r="9" spans="2:17" ht="29" thickBot="1">
-      <c r="B9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J9" s="7"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="O9" s="7"/>
-      <c r="Q9" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="2:17">
-      <c r="C10" s="6"/>
-      <c r="E10" s="7"/>
-      <c r="H10" s="6"/>
-      <c r="J10" s="7"/>
-      <c r="M10" s="6"/>
-      <c r="O10" s="7"/>
-    </row>
-    <row r="11" spans="2:17">
-      <c r="C11" s="6"/>
-      <c r="E11" s="7"/>
-      <c r="H11" s="6"/>
-      <c r="J11" s="7"/>
-      <c r="M11" s="6"/>
-      <c r="O11" s="7"/>
-    </row>
-    <row r="12" spans="2:17">
-      <c r="C12" s="6"/>
-      <c r="E12" s="7"/>
-      <c r="H12" s="6"/>
-      <c r="J12" s="7"/>
-      <c r="M12" s="6"/>
-      <c r="O12" s="7"/>
-    </row>
-    <row r="13" spans="2:17">
-      <c r="C13" s="6"/>
-      <c r="E13" s="7"/>
-      <c r="H13" s="6"/>
-      <c r="J13" s="7"/>
-      <c r="M13" s="6"/>
-      <c r="O13" s="7"/>
-    </row>
-    <row r="14" spans="2:17">
-      <c r="C14" s="6"/>
-      <c r="E14" s="7"/>
-      <c r="H14" s="6"/>
-      <c r="J14" s="7"/>
-      <c r="M14" s="6"/>
-      <c r="O14" s="7"/>
-    </row>
-    <row r="15" spans="2:17">
-      <c r="C15" s="6"/>
-      <c r="E15" s="7"/>
-      <c r="H15" s="6"/>
-      <c r="J15" s="7"/>
-      <c r="M15" s="6"/>
-      <c r="O15" s="7"/>
-    </row>
-    <row r="16" spans="2:17">
-      <c r="C16" s="6"/>
-      <c r="E16" s="7"/>
-      <c r="H16" s="6"/>
-      <c r="J16" s="7"/>
-      <c r="M16" s="6"/>
-      <c r="O16" s="7"/>
-    </row>
-    <row r="17" spans="2:17" ht="14" thickBot="1">
-      <c r="C17" s="9"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="11"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="11"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="11"/>
-    </row>
-    <row r="24" spans="2:17" ht="14" thickBot="1">
-      <c r="D24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="2:17">
-      <c r="C25" s="3"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="5"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="5"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="5"/>
-    </row>
-    <row r="26" spans="2:17">
-      <c r="C26" s="6"/>
-      <c r="E26" s="7"/>
-      <c r="H26" s="6"/>
-      <c r="J26" s="7"/>
-      <c r="M26" s="6"/>
-      <c r="O26" s="7"/>
-    </row>
-    <row r="27" spans="2:17">
-      <c r="C27" s="6"/>
-      <c r="E27" s="7"/>
-      <c r="H27" s="6"/>
-      <c r="J27" s="7"/>
-      <c r="M27" s="6"/>
-      <c r="O27" s="7"/>
-    </row>
-    <row r="28" spans="2:17">
-      <c r="C28" s="6"/>
-      <c r="E28" s="7"/>
-      <c r="H28" s="6"/>
-      <c r="J28" s="7"/>
-      <c r="M28" s="6"/>
-      <c r="O28" s="7"/>
-    </row>
-    <row r="29" spans="2:17">
-      <c r="C29" s="6"/>
-      <c r="E29" s="7"/>
-      <c r="H29" s="6"/>
-      <c r="J29" s="7"/>
-      <c r="M29" s="6"/>
-      <c r="O29" s="7"/>
-    </row>
-    <row r="30" spans="2:17">
-      <c r="C30" s="6"/>
-      <c r="E30" s="7"/>
-      <c r="H30" s="6"/>
-      <c r="J30" s="7"/>
-      <c r="M30" s="6"/>
-      <c r="O30" s="7"/>
-    </row>
-    <row r="31" spans="2:17" ht="42">
-      <c r="B31" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="6"/>
-      <c r="E31" s="7"/>
-      <c r="H31" s="6"/>
-      <c r="J31" s="7"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="O31" s="7"/>
-      <c r="Q31" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="2:17">
-      <c r="C32" s="6"/>
-      <c r="E32" s="7"/>
-      <c r="H32" s="6"/>
-      <c r="J32" s="7"/>
-      <c r="M32" s="6"/>
-      <c r="O32" s="7"/>
-    </row>
-    <row r="33" spans="3:15">
-      <c r="C33" s="6"/>
-      <c r="E33" s="7"/>
-      <c r="H33" s="6"/>
-      <c r="J33" s="7"/>
-      <c r="M33" s="6"/>
-      <c r="O33" s="7"/>
-    </row>
-    <row r="34" spans="3:15">
-      <c r="C34" s="6"/>
-      <c r="E34" s="7"/>
-      <c r="H34" s="6"/>
-      <c r="J34" s="7"/>
-      <c r="M34" s="6"/>
-      <c r="O34" s="7"/>
-    </row>
-    <row r="35" spans="3:15">
-      <c r="C35" s="6"/>
-      <c r="E35" s="7"/>
-      <c r="H35" s="6"/>
-      <c r="J35" s="7"/>
-      <c r="M35" s="6"/>
-      <c r="O35" s="7"/>
-    </row>
-    <row r="36" spans="3:15">
-      <c r="C36" s="6"/>
-      <c r="E36" s="7"/>
-      <c r="H36" s="6"/>
-      <c r="J36" s="7"/>
-      <c r="M36" s="6"/>
-      <c r="O36" s="7"/>
-    </row>
-    <row r="37" spans="3:15">
-      <c r="C37" s="6"/>
-      <c r="E37" s="7"/>
-      <c r="H37" s="6"/>
-      <c r="J37" s="7"/>
-      <c r="M37" s="6"/>
-      <c r="O37" s="7"/>
-    </row>
-    <row r="38" spans="3:15">
-      <c r="C38" s="6"/>
-      <c r="E38" s="7"/>
-      <c r="H38" s="6"/>
-      <c r="J38" s="7"/>
-      <c r="M38" s="6"/>
-      <c r="O38" s="7"/>
-    </row>
-    <row r="39" spans="3:15" ht="14" thickBot="1">
-      <c r="C39" s="9"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="11"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="11"/>
-      <c r="M39" s="9"/>
-      <c r="N39" s="10"/>
-      <c r="O39" s="11"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/doc/android.xlsx
+++ b/doc/android.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10309"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{704281B2-E63B-8040-860F-1DC73979E0C7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3FBAEA6-7BA1-1F4C-B85E-C53D5C38FF23}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="960" yWindow="460" windowWidth="27840" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2285,10 +2285,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Score</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>score</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2302,6 +2298,10 @@
   </si>
   <si>
     <t>B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Score(score)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3831,6 +3831,17 @@
     </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="46" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3894,17 +3905,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" xfId="2" applyFill="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="46" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -10768,7 +10768,7 @@
       <c r="G4" s="15"/>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="213" t="s">
+      <c r="B5" s="220" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="15" t="s">
@@ -10788,7 +10788,7 @@
       </c>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="213"/>
+      <c r="B6" s="220"/>
       <c r="C6" s="15" t="s">
         <v>17</v>
       </c>
@@ -10804,7 +10804,7 @@
       </c>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="213"/>
+      <c r="B7" s="220"/>
       <c r="C7" s="16" t="s">
         <v>31</v>
       </c>
@@ -10822,7 +10822,7 @@
       </c>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="213"/>
+      <c r="B8" s="220"/>
       <c r="C8" s="16" t="s">
         <v>32</v>
       </c>
@@ -10840,7 +10840,7 @@
       </c>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="213"/>
+      <c r="B9" s="220"/>
       <c r="C9" s="16" t="s">
         <v>33</v>
       </c>
@@ -10858,7 +10858,7 @@
       </c>
     </row>
     <row r="10" spans="2:7" ht="28">
-      <c r="B10" s="213"/>
+      <c r="B10" s="220"/>
       <c r="C10" s="16" t="s">
         <v>13</v>
       </c>
@@ -10876,7 +10876,7 @@
       </c>
     </row>
     <row r="11" spans="2:7" ht="42">
-      <c r="B11" s="214" t="s">
+      <c r="B11" s="221" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="18" t="s">
@@ -10896,7 +10896,7 @@
       </c>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="215"/>
+      <c r="B12" s="222"/>
       <c r="C12" s="15" t="s">
         <v>15</v>
       </c>
@@ -10910,7 +10910,7 @@
       </c>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="216"/>
+      <c r="B13" s="223"/>
       <c r="C13" s="15" t="s">
         <v>16</v>
       </c>
@@ -11466,11 +11466,11 @@
       <c r="C6" s="94"/>
       <c r="D6" s="101"/>
       <c r="E6" s="96"/>
-      <c r="F6" s="217" t="s">
+      <c r="F6" s="224" t="s">
         <v>392</v>
       </c>
-      <c r="G6" s="218"/>
-      <c r="H6" s="219"/>
+      <c r="G6" s="225"/>
+      <c r="H6" s="226"/>
       <c r="I6" s="96"/>
       <c r="J6" s="102"/>
       <c r="K6" s="94"/>
@@ -11490,9 +11490,9 @@
       <c r="C7" s="94"/>
       <c r="D7" s="101"/>
       <c r="E7" s="96"/>
-      <c r="F7" s="220"/>
-      <c r="G7" s="221"/>
-      <c r="H7" s="222"/>
+      <c r="F7" s="227"/>
+      <c r="G7" s="228"/>
+      <c r="H7" s="229"/>
       <c r="I7" s="96"/>
       <c r="J7" s="102"/>
       <c r="K7" s="95"/>
@@ -11512,9 +11512,9 @@
       <c r="C8" s="94"/>
       <c r="D8" s="101"/>
       <c r="E8" s="96"/>
-      <c r="F8" s="220"/>
-      <c r="G8" s="221"/>
-      <c r="H8" s="222"/>
+      <c r="F8" s="227"/>
+      <c r="G8" s="228"/>
+      <c r="H8" s="229"/>
       <c r="I8" s="96"/>
       <c r="J8" s="102"/>
       <c r="K8" s="94"/>
@@ -11533,9 +11533,9 @@
       <c r="B9" s="94"/>
       <c r="C9" s="94"/>
       <c r="D9" s="101"/>
-      <c r="F9" s="220"/>
-      <c r="G9" s="221"/>
-      <c r="H9" s="222"/>
+      <c r="F9" s="227"/>
+      <c r="G9" s="228"/>
+      <c r="H9" s="229"/>
       <c r="I9" s="96"/>
       <c r="J9" s="102"/>
       <c r="K9" s="94"/>
@@ -11554,9 +11554,9 @@
       <c r="B10" s="94"/>
       <c r="C10" s="94"/>
       <c r="D10" s="101"/>
-      <c r="F10" s="223"/>
-      <c r="G10" s="224"/>
-      <c r="H10" s="225"/>
+      <c r="F10" s="230"/>
+      <c r="G10" s="231"/>
+      <c r="H10" s="232"/>
       <c r="I10" s="129"/>
       <c r="J10" s="102"/>
       <c r="K10" s="94"/>
@@ -12229,16 +12229,16 @@
     </row>
     <row r="18" spans="5:8">
       <c r="E18" s="137"/>
-      <c r="F18" s="226" t="s">
+      <c r="F18" s="233" t="s">
         <v>395</v>
       </c>
-      <c r="G18" s="227"/>
+      <c r="G18" s="234"/>
       <c r="H18" s="135"/>
     </row>
     <row r="19" spans="5:8">
       <c r="E19" s="137"/>
-      <c r="F19" s="228"/>
-      <c r="G19" s="229"/>
+      <c r="F19" s="235"/>
+      <c r="G19" s="236"/>
       <c r="H19" s="135"/>
     </row>
     <row r="20" spans="5:8">
@@ -12919,10 +12919,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{133A9786-8ADA-8C47-8004-675DACA89322}">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -12933,54 +12933,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="233" t="s">
+      <c r="A1" s="212" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="B2" s="235"/>
+      <c r="B2" s="214"/>
       <c r="C2" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="B3" s="237"/>
+      <c r="B3" s="216"/>
       <c r="C3" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="232" customFormat="1">
-      <c r="B6" s="232" t="s">
+    <row r="6" spans="1:10" s="211" customFormat="1">
+      <c r="B6" s="211" t="s">
         <v>565</v>
       </c>
-      <c r="E6" s="232" t="s">
+      <c r="E6" s="211" t="s">
         <v>571</v>
       </c>
-      <c r="H6" s="232" t="s">
+      <c r="H6" s="211" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="211" customFormat="1">
+      <c r="B7" s="215" t="s">
+        <v>566</v>
+      </c>
+      <c r="C7" s="215" t="s">
+        <v>567</v>
+      </c>
+      <c r="E7" s="213" t="s">
+        <v>572</v>
+      </c>
+      <c r="F7" s="213" t="s">
+        <v>573</v>
+      </c>
+      <c r="H7" s="215" t="s">
+        <v>566</v>
+      </c>
+      <c r="I7" s="215" t="s">
+        <v>572</v>
+      </c>
+      <c r="J7" s="215" t="s">
         <v>574</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="232" customFormat="1">
-      <c r="B7" s="236" t="s">
-        <v>566</v>
-      </c>
-      <c r="C7" s="236" t="s">
-        <v>567</v>
-      </c>
-      <c r="E7" s="234" t="s">
-        <v>572</v>
-      </c>
-      <c r="F7" s="234" t="s">
-        <v>573</v>
-      </c>
-      <c r="H7" s="236" t="s">
-        <v>566</v>
-      </c>
-      <c r="I7" s="236" t="s">
-        <v>572</v>
-      </c>
-      <c r="J7" s="236" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -12994,7 +12994,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="150" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H8" s="150">
         <v>1</v>
@@ -13011,13 +13011,13 @@
         <v>2</v>
       </c>
       <c r="C9" s="150" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E9" s="150">
         <v>2</v>
       </c>
       <c r="F9" s="150" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H9" s="150">
         <v>1</v>
@@ -13030,8 +13030,8 @@
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="B10" s="235"/>
-      <c r="E10" s="235"/>
+      <c r="B10" s="214"/>
+      <c r="E10" s="214"/>
       <c r="H10" s="150">
         <v>2</v>
       </c>
@@ -13054,15 +13054,12 @@
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="H12" s="238"/>
-      <c r="I12" s="235"/>
+      <c r="H12" s="217"/>
+      <c r="I12" s="214"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="H13" s="237"/>
-      <c r="I13" s="93"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="I14" s="237"/>
+      <c r="H13" s="216"/>
+      <c r="I13" s="216"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -13377,8 +13374,8 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="F10" s="230"/>
-      <c r="G10" s="230"/>
+      <c r="F10" s="237"/>
+      <c r="G10" s="237"/>
       <c r="I10" t="s">
         <v>445</v>
       </c>
@@ -13419,8 +13416,8 @@
       </c>
     </row>
     <row r="32" spans="2:9">
-      <c r="F32" s="230"/>
-      <c r="G32" s="230"/>
+      <c r="F32" s="237"/>
+      <c r="G32" s="237"/>
       <c r="I32" t="s">
         <v>442</v>
       </c>
@@ -13474,10 +13471,10 @@
       </c>
     </row>
     <row r="12" spans="2:10">
-      <c r="H12" s="231" t="s">
+      <c r="H12" s="238" t="s">
         <v>399</v>
       </c>
-      <c r="I12" s="231"/>
+      <c r="I12" s="238"/>
     </row>
     <row r="14" spans="2:10">
       <c r="J14" t="s">
@@ -13490,10 +13487,10 @@
       </c>
     </row>
     <row r="28" spans="2:9">
-      <c r="H28" s="230" t="s">
+      <c r="H28" s="237" t="s">
         <v>403</v>
       </c>
-      <c r="I28" s="230"/>
+      <c r="I28" s="237"/>
     </row>
     <row r="39" spans="2:9">
       <c r="B39" t="s">
@@ -13501,10 +13498,10 @@
       </c>
     </row>
     <row r="43" spans="2:9">
-      <c r="H43" s="231" t="s">
+      <c r="H43" s="238" t="s">
         <v>406</v>
       </c>
-      <c r="I43" s="231"/>
+      <c r="I43" s="238"/>
     </row>
     <row r="54" spans="2:9">
       <c r="B54" t="s">
@@ -13512,10 +13509,10 @@
       </c>
     </row>
     <row r="59" spans="2:9">
-      <c r="H59" s="230" t="s">
+      <c r="H59" s="237" t="s">
         <v>403</v>
       </c>
-      <c r="I59" s="230"/>
+      <c r="I59" s="237"/>
     </row>
     <row r="61" spans="2:9">
       <c r="G61" t="s">
@@ -14038,13 +14035,13 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="18">
-      <c r="A2" s="211" t="s">
+      <c r="A2" s="218" t="s">
         <v>505</v>
       </c>
-      <c r="B2" s="211"/>
-      <c r="C2" s="211"/>
-      <c r="D2" s="211"/>
-      <c r="E2" s="211"/>
+      <c r="B2" s="218"/>
+      <c r="C2" s="218"/>
+      <c r="D2" s="218"/>
+      <c r="E2" s="218"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="143" t="s">
@@ -14197,15 +14194,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="212" t="s">
+      <c r="A1" s="219" t="s">
         <v>434</v>
       </c>
-      <c r="B1" s="212"/>
-      <c r="C1" s="212"/>
-      <c r="D1" s="212"/>
-      <c r="E1" s="212"/>
-      <c r="F1" s="212"/>
-      <c r="G1" s="212"/>
+      <c r="B1" s="219"/>
+      <c r="C1" s="219"/>
+      <c r="D1" s="219"/>
+      <c r="E1" s="219"/>
+      <c r="F1" s="219"/>
+      <c r="G1" s="219"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="143" t="s">
@@ -14315,15 +14312,15 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="212" t="s">
+      <c r="A12" s="219" t="s">
         <v>433</v>
       </c>
-      <c r="B12" s="212"/>
-      <c r="C12" s="212"/>
-      <c r="D12" s="212"/>
-      <c r="E12" s="212"/>
-      <c r="F12" s="212"/>
-      <c r="G12" s="212"/>
+      <c r="B12" s="219"/>
+      <c r="C12" s="219"/>
+      <c r="D12" s="219"/>
+      <c r="E12" s="219"/>
+      <c r="F12" s="219"/>
+      <c r="G12" s="219"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="143" t="s">

--- a/doc/android.xlsx
+++ b/doc/android.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10309"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3FBAEA6-7BA1-1F4C-B85E-C53D5C38FF23}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69EDBEF5-77A2-A547-B4F8-5C17B88215E0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="960" yWindow="460" windowWidth="27840" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12922,7 +12922,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>

--- a/doc/android.xlsx
+++ b/doc/android.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10309"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69EDBEF5-77A2-A547-B4F8-5C17B88215E0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F244A371-D644-6C42-A369-1B2235AD3724}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="960" yWindow="460" windowWidth="27840" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -103,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="580">
   <si>
     <t>Activity</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2293,15 +2293,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>A</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Score(score)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dale Carnegie</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Steve Jobs</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Harvard</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2309,7 +2313,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="47">
+  <fonts count="46">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2649,13 +2653,6 @@
       <name val="Segoe UI Symbol"/>
       <family val="2"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="9" tint="0.39997558519241921"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="12">
@@ -3441,7 +3438,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="239">
+  <cellXfs count="244">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3841,7 +3838,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="46" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3903,6 +3902,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -12919,147 +12933,229 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{133A9786-8ADA-8C47-8004-675DACA89322}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
   <cols>
     <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" style="217" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:3">
       <c r="A1" s="212" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:3">
       <c r="B2" s="214"/>
-      <c r="C2" t="s">
+      <c r="C2" s="217" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:3">
       <c r="B3" s="216"/>
-      <c r="C3" t="s">
+      <c r="C3" s="217" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="211" customFormat="1">
-      <c r="B6" s="211" t="s">
+    <row r="5" spans="1:3">
+      <c r="B5" s="211" t="s">
         <v>565</v>
       </c>
-      <c r="E6" s="211" t="s">
-        <v>571</v>
-      </c>
-      <c r="H6" s="211" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="211" customFormat="1">
-      <c r="B7" s="215" t="s">
+    </row>
+    <row r="6" spans="1:3" s="211" customFormat="1">
+      <c r="C6" s="242"/>
+    </row>
+    <row r="7" spans="1:3" s="211" customFormat="1">
+      <c r="B7" s="239" t="s">
         <v>566</v>
       </c>
       <c r="C7" s="215" t="s">
         <v>567</v>
       </c>
-      <c r="E7" s="213" t="s">
-        <v>572</v>
-      </c>
-      <c r="F7" s="213" t="s">
-        <v>573</v>
-      </c>
-      <c r="H7" s="215" t="s">
-        <v>566</v>
-      </c>
-      <c r="I7" s="215" t="s">
-        <v>572</v>
-      </c>
-      <c r="J7" s="215" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+    </row>
+    <row r="8" spans="1:3">
       <c r="B8" s="159">
         <v>1</v>
       </c>
       <c r="C8" s="150" t="s">
         <v>568</v>
       </c>
-      <c r="E8" s="150">
-        <v>1</v>
-      </c>
-      <c r="F8" s="150" t="s">
-        <v>576</v>
-      </c>
-      <c r="H8" s="150">
-        <v>1</v>
-      </c>
-      <c r="I8" s="150">
-        <v>1</v>
-      </c>
-      <c r="J8" s="150">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+    </row>
+    <row r="9" spans="1:3">
       <c r="B9" s="159">
         <v>2</v>
       </c>
       <c r="C9" s="150" t="s">
         <v>575</v>
       </c>
-      <c r="E9" s="150">
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10" s="93"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="B12" s="211" t="s">
+        <v>571</v>
+      </c>
+      <c r="C12" s="242"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13" s="239" t="s">
+        <v>572</v>
+      </c>
+      <c r="C13" s="213" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" s="150">
+        <v>1</v>
+      </c>
+      <c r="C14" s="240" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15" s="150">
         <v>2</v>
       </c>
-      <c r="F9" s="150" t="s">
+      <c r="C15" s="240" t="s">
         <v>577</v>
       </c>
-      <c r="H9" s="150">
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16" s="159">
+        <v>3</v>
+      </c>
+      <c r="C16" s="150" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="211" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="216"/>
+      <c r="C20" s="243"/>
+      <c r="D20" s="211"/>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="239" t="s">
+        <v>566</v>
+      </c>
+      <c r="C21" s="239" t="s">
+        <v>572</v>
+      </c>
+      <c r="D21" s="215" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="150">
         <v>1</v>
       </c>
-      <c r="I9" s="150">
+      <c r="C22" s="150">
         <v>1</v>
       </c>
-      <c r="J9" s="150">
+      <c r="D22" s="150">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" s="150">
+        <v>1</v>
+      </c>
+      <c r="C23" s="150">
+        <v>2</v>
+      </c>
+      <c r="D23" s="150">
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="B10" s="214"/>
-      <c r="E10" s="214"/>
-      <c r="H10" s="150">
+    <row r="24" spans="2:4">
+      <c r="B24" s="150">
+        <v>1</v>
+      </c>
+      <c r="C24" s="150">
+        <v>3</v>
+      </c>
+      <c r="D24" s="150">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" s="150">
         <v>2</v>
       </c>
-      <c r="I10" s="150">
+      <c r="C25" s="150">
+        <v>1</v>
+      </c>
+      <c r="D25" s="150">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" s="150">
         <v>2</v>
       </c>
-      <c r="J10" s="150">
+      <c r="C26" s="150">
+        <v>2</v>
+      </c>
+      <c r="D26" s="150">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" s="241">
+        <v>2</v>
+      </c>
+      <c r="C27" s="241">
+        <v>3</v>
+      </c>
+      <c r="D27" s="159">
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
-      <c r="H11" s="150">
+    <row r="28" spans="2:4">
+      <c r="B28" s="241">
+        <v>3</v>
+      </c>
+      <c r="C28" s="241">
+        <v>1</v>
+      </c>
+      <c r="D28" s="159">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29" s="241">
+        <v>3</v>
+      </c>
+      <c r="C29" s="241">
         <v>2</v>
       </c>
-      <c r="I11" s="150">
-        <v>2</v>
-      </c>
-      <c r="J11" s="150">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="H12" s="217"/>
-      <c r="I12" s="214"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="H13" s="216"/>
-      <c r="I13" s="216"/>
+      <c r="D29" s="159">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30" s="241">
+        <v>3</v>
+      </c>
+      <c r="C30" s="241">
+        <v>3</v>
+      </c>
+      <c r="D30" s="159">
+        <v>75</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -13067,6 +13163,7 @@
     <hyperlink ref="A1" location="Home!B4" display="Home" xr:uid="{514B2CEF-E7A5-864D-80CF-0C54175C6FEA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 

--- a/doc/android.xlsx
+++ b/doc/android.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10309"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F244A371-D644-6C42-A369-1B2235AD3724}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F209B1D-B3E2-5146-9D82-A491727E662D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="960" yWindow="460" windowWidth="27840" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -103,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="588">
   <si>
     <t>Activity</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2308,12 +2308,44 @@
     <t>Harvard</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>@Insert long[] insertScores(Score score1, Score score2);</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>@Insert List&lt;Long&gt; insertScores(List&lt;Score&gt; scores);</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>@Insert long[] insertScores(Score score1, List&lt;Score&gt; scores);</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9条数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>@Insert(onConflict = OnConflictStrategy.REPLACE) void insertCourses(Course... courses)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>@Insert long insertStudent(Student student)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>@Insert long[] insertStudents(List&lt;Student&gt; students);</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>temp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="46">
+  <fonts count="49">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2654,8 +2686,32 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C5700"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2722,8 +2778,23 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="64">
+  <borders count="66">
     <border>
       <left/>
       <right/>
@@ -3432,13 +3503,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="244">
+  <cellXfs count="259">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3841,6 +3945,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="42" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="12" borderId="0" xfId="3" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="14" borderId="0" xfId="5" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="13" borderId="64" xfId="4" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="47" fillId="13" borderId="0" xfId="4" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="12" borderId="0" xfId="3" quotePrefix="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="47" fillId="13" borderId="10" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3904,24 +4043,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="13" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="6">
+    <cellStyle name="Bad" xfId="4" builtinId="27"/>
+    <cellStyle name="Good" xfId="3" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Neutral" xfId="5" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{66AFF3AD-B4DE-FA4E-AB57-26B45159E82C}"/>
   </cellStyles>
@@ -10347,7 +10495,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -10782,7 +10930,7 @@
       <c r="G4" s="15"/>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="220" t="s">
+      <c r="B5" s="233" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="15" t="s">
@@ -10802,7 +10950,7 @@
       </c>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="220"/>
+      <c r="B6" s="233"/>
       <c r="C6" s="15" t="s">
         <v>17</v>
       </c>
@@ -10818,7 +10966,7 @@
       </c>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="220"/>
+      <c r="B7" s="233"/>
       <c r="C7" s="16" t="s">
         <v>31</v>
       </c>
@@ -10836,7 +10984,7 @@
       </c>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="220"/>
+      <c r="B8" s="233"/>
       <c r="C8" s="16" t="s">
         <v>32</v>
       </c>
@@ -10854,7 +11002,7 @@
       </c>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="220"/>
+      <c r="B9" s="233"/>
       <c r="C9" s="16" t="s">
         <v>33</v>
       </c>
@@ -10872,7 +11020,7 @@
       </c>
     </row>
     <row r="10" spans="2:7" ht="28">
-      <c r="B10" s="220"/>
+      <c r="B10" s="233"/>
       <c r="C10" s="16" t="s">
         <v>13</v>
       </c>
@@ -10890,7 +11038,7 @@
       </c>
     </row>
     <row r="11" spans="2:7" ht="42">
-      <c r="B11" s="221" t="s">
+      <c r="B11" s="234" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="18" t="s">
@@ -10910,7 +11058,7 @@
       </c>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="222"/>
+      <c r="B12" s="235"/>
       <c r="C12" s="15" t="s">
         <v>15</v>
       </c>
@@ -10924,7 +11072,7 @@
       </c>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="223"/>
+      <c r="B13" s="236"/>
       <c r="C13" s="15" t="s">
         <v>16</v>
       </c>
@@ -11480,11 +11628,11 @@
       <c r="C6" s="94"/>
       <c r="D6" s="101"/>
       <c r="E6" s="96"/>
-      <c r="F6" s="224" t="s">
+      <c r="F6" s="237" t="s">
         <v>392</v>
       </c>
-      <c r="G6" s="225"/>
-      <c r="H6" s="226"/>
+      <c r="G6" s="238"/>
+      <c r="H6" s="239"/>
       <c r="I6" s="96"/>
       <c r="J6" s="102"/>
       <c r="K6" s="94"/>
@@ -11504,9 +11652,9 @@
       <c r="C7" s="94"/>
       <c r="D7" s="101"/>
       <c r="E7" s="96"/>
-      <c r="F7" s="227"/>
-      <c r="G7" s="228"/>
-      <c r="H7" s="229"/>
+      <c r="F7" s="240"/>
+      <c r="G7" s="241"/>
+      <c r="H7" s="242"/>
       <c r="I7" s="96"/>
       <c r="J7" s="102"/>
       <c r="K7" s="95"/>
@@ -11526,9 +11674,9 @@
       <c r="C8" s="94"/>
       <c r="D8" s="101"/>
       <c r="E8" s="96"/>
-      <c r="F8" s="227"/>
-      <c r="G8" s="228"/>
-      <c r="H8" s="229"/>
+      <c r="F8" s="240"/>
+      <c r="G8" s="241"/>
+      <c r="H8" s="242"/>
       <c r="I8" s="96"/>
       <c r="J8" s="102"/>
       <c r="K8" s="94"/>
@@ -11547,9 +11695,9 @@
       <c r="B9" s="94"/>
       <c r="C9" s="94"/>
       <c r="D9" s="101"/>
-      <c r="F9" s="227"/>
-      <c r="G9" s="228"/>
-      <c r="H9" s="229"/>
+      <c r="F9" s="240"/>
+      <c r="G9" s="241"/>
+      <c r="H9" s="242"/>
       <c r="I9" s="96"/>
       <c r="J9" s="102"/>
       <c r="K9" s="94"/>
@@ -11568,9 +11716,9 @@
       <c r="B10" s="94"/>
       <c r="C10" s="94"/>
       <c r="D10" s="101"/>
-      <c r="F10" s="230"/>
-      <c r="G10" s="231"/>
-      <c r="H10" s="232"/>
+      <c r="F10" s="243"/>
+      <c r="G10" s="244"/>
+      <c r="H10" s="245"/>
       <c r="I10" s="129"/>
       <c r="J10" s="102"/>
       <c r="K10" s="94"/>
@@ -12243,16 +12391,16 @@
     </row>
     <row r="18" spans="5:8">
       <c r="E18" s="137"/>
-      <c r="F18" s="233" t="s">
+      <c r="F18" s="246" t="s">
         <v>395</v>
       </c>
-      <c r="G18" s="234"/>
+      <c r="G18" s="247"/>
       <c r="H18" s="135"/>
     </row>
     <row r="19" spans="5:8">
       <c r="E19" s="137"/>
-      <c r="F19" s="235"/>
-      <c r="G19" s="236"/>
+      <c r="F19" s="248"/>
+      <c r="G19" s="249"/>
       <c r="H19" s="135"/>
     </row>
     <row r="20" spans="5:8">
@@ -12933,228 +13081,331 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{133A9786-8ADA-8C47-8004-675DACA89322}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
   <cols>
     <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.1640625" style="217" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="112" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:7">
       <c r="A1" s="212" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:7">
       <c r="B2" s="214"/>
       <c r="C2" s="217" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:7">
       <c r="B3" s="216"/>
       <c r="C3" s="217" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:7">
       <c r="B5" s="211" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="211" customFormat="1">
-      <c r="C6" s="242"/>
-    </row>
-    <row r="7" spans="1:3" s="211" customFormat="1">
-      <c r="B7" s="239" t="s">
+    <row r="6" spans="1:7" s="211" customFormat="1">
+      <c r="C6" s="221"/>
+    </row>
+    <row r="7" spans="1:7" s="211" customFormat="1">
+      <c r="B7" s="218" t="s">
         <v>566</v>
       </c>
       <c r="C7" s="215" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:7" ht="16">
       <c r="B8" s="159">
         <v>1</v>
       </c>
       <c r="C8" s="150" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="G8" s="227" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="16">
       <c r="B9" s="159">
         <v>2</v>
       </c>
       <c r="C9" s="150" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="G9" s="227" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="B10" s="93"/>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:7">
       <c r="B12" s="211" t="s">
         <v>571</v>
       </c>
-      <c r="C12" s="242"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="B13" s="239" t="s">
+      <c r="C12" s="221"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="B13" s="218" t="s">
         <v>572</v>
       </c>
       <c r="C13" s="213" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:7" ht="16">
       <c r="B14" s="150">
         <v>1</v>
       </c>
-      <c r="C14" s="240" t="s">
+      <c r="C14" s="219" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="G14" s="227" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15">
       <c r="B15" s="150">
         <v>2</v>
       </c>
-      <c r="C15" s="240" t="s">
+      <c r="C15" s="219" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="G15" s="228" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15">
       <c r="B16" s="159">
         <v>3</v>
       </c>
       <c r="C16" s="150" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="19" spans="2:4">
+      <c r="G16" s="228" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
       <c r="B19" s="211" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="20" spans="2:4">
+    <row r="20" spans="2:7">
       <c r="B20" s="216"/>
-      <c r="C20" s="243"/>
+      <c r="C20" s="222"/>
       <c r="D20" s="211"/>
-    </row>
-    <row r="21" spans="2:4">
-      <c r="B21" s="239" t="s">
+      <c r="E20" s="211"/>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="218" t="s">
         <v>566</v>
       </c>
-      <c r="C21" s="239" t="s">
+      <c r="C21" s="218" t="s">
         <v>572</v>
       </c>
       <c r="D21" s="215" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="22" spans="2:4">
-      <c r="B22" s="150">
+      <c r="E21" s="253" t="s">
+        <v>587</v>
+      </c>
+      <c r="F21" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="16">
+      <c r="B22" s="230">
         <v>1</v>
       </c>
-      <c r="C22" s="150">
+      <c r="C22" s="230">
         <v>1</v>
       </c>
-      <c r="D22" s="150">
+      <c r="D22" s="230">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="2:4">
-      <c r="B23" s="150">
+      <c r="E22" s="254">
         <v>1</v>
       </c>
-      <c r="C23" s="150">
+      <c r="F22" s="223">
+        <v>1</v>
+      </c>
+      <c r="G22" s="224" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="16">
+      <c r="B23" s="230">
+        <v>1</v>
+      </c>
+      <c r="C23" s="230">
         <v>2</v>
       </c>
-      <c r="D23" s="150">
+      <c r="D23" s="230">
         <v>97</v>
       </c>
-    </row>
-    <row r="24" spans="2:4">
-      <c r="B24" s="150">
+      <c r="E23" s="254">
+        <v>2</v>
+      </c>
+      <c r="F23" s="223">
+        <v>2</v>
+      </c>
+      <c r="G23" s="224" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="16">
+      <c r="B24" s="252">
         <v>1</v>
       </c>
-      <c r="C24" s="150">
+      <c r="C24" s="252">
         <v>3</v>
       </c>
-      <c r="D24" s="150">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4">
-      <c r="B25" s="150">
+      <c r="D24" s="252">
+        <v>75</v>
+      </c>
+      <c r="E24" s="255">
         <v>2</v>
       </c>
-      <c r="C25" s="150">
+      <c r="F24" s="223">
+        <v>3</v>
+      </c>
+      <c r="G24" s="225" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="16">
+      <c r="B25" s="252">
+        <v>2</v>
+      </c>
+      <c r="C25" s="252">
         <v>1</v>
       </c>
-      <c r="D25" s="150">
+      <c r="D25" s="252">
         <v>99</v>
       </c>
-    </row>
-    <row r="26" spans="2:4">
-      <c r="B26" s="150">
+      <c r="E25" s="256">
+        <v>4</v>
+      </c>
+      <c r="F25" s="185">
+        <v>4</v>
+      </c>
+      <c r="G25" s="225" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="15">
+      <c r="B26" s="252">
         <v>2</v>
       </c>
-      <c r="C26" s="150">
+      <c r="C26" s="252">
         <v>2</v>
       </c>
-      <c r="D26" s="150">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4">
-      <c r="B27" s="241">
+      <c r="D26" s="252">
+        <v>60</v>
+      </c>
+      <c r="E26" s="256">
+        <v>5</v>
+      </c>
+      <c r="F26" s="185">
+        <v>5</v>
+      </c>
+      <c r="G26" s="226" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="15">
+      <c r="B27" s="220">
         <v>2</v>
       </c>
-      <c r="C27" s="241">
+      <c r="C27" s="220">
         <v>3</v>
       </c>
-      <c r="D27" s="159">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4">
-      <c r="B28" s="241">
+      <c r="D27" s="220">
+        <v>85</v>
+      </c>
+      <c r="E27" s="257">
+        <v>6</v>
+      </c>
+      <c r="F27" s="185">
+        <v>6</v>
+      </c>
+      <c r="G27" s="226" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" ht="15">
+      <c r="B28" s="229">
         <v>3</v>
       </c>
-      <c r="C28" s="241">
+      <c r="C28" s="229">
         <v>1</v>
       </c>
-      <c r="D28" s="159">
+      <c r="D28" s="229">
         <v>88</v>
       </c>
-    </row>
-    <row r="29" spans="2:4">
-      <c r="B29" s="241">
+      <c r="E28" s="258">
+        <v>7</v>
+      </c>
+      <c r="F28" s="185">
+        <v>7</v>
+      </c>
+      <c r="G28" s="226" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" ht="15">
+      <c r="B29" s="229">
         <v>3</v>
       </c>
-      <c r="C29" s="241">
+      <c r="C29" s="229">
         <v>2</v>
       </c>
-      <c r="D29" s="159">
+      <c r="D29" s="229">
         <v>95</v>
       </c>
-    </row>
-    <row r="30" spans="2:4">
-      <c r="B30" s="241">
+      <c r="E29" s="258">
+        <v>8</v>
+      </c>
+      <c r="F29" s="185">
+        <v>8</v>
+      </c>
+      <c r="G29" s="226" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" ht="15">
+      <c r="B30" s="229">
         <v>3</v>
       </c>
-      <c r="C30" s="241">
+      <c r="C30" s="229">
         <v>3</v>
       </c>
-      <c r="D30" s="159">
+      <c r="D30" s="229">
         <v>75</v>
+      </c>
+      <c r="E30" s="258">
+        <v>9</v>
+      </c>
+      <c r="F30" s="185">
+        <v>9</v>
+      </c>
+      <c r="G30" s="226" t="s">
+        <v>582</v>
       </c>
     </row>
   </sheetData>
@@ -13471,8 +13722,8 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="F10" s="237"/>
-      <c r="G10" s="237"/>
+      <c r="F10" s="250"/>
+      <c r="G10" s="250"/>
       <c r="I10" t="s">
         <v>445</v>
       </c>
@@ -13513,8 +13764,8 @@
       </c>
     </row>
     <row r="32" spans="2:9">
-      <c r="F32" s="237"/>
-      <c r="G32" s="237"/>
+      <c r="F32" s="250"/>
+      <c r="G32" s="250"/>
       <c r="I32" t="s">
         <v>442</v>
       </c>
@@ -13568,10 +13819,10 @@
       </c>
     </row>
     <row r="12" spans="2:10">
-      <c r="H12" s="238" t="s">
+      <c r="H12" s="251" t="s">
         <v>399</v>
       </c>
-      <c r="I12" s="238"/>
+      <c r="I12" s="251"/>
     </row>
     <row r="14" spans="2:10">
       <c r="J14" t="s">
@@ -13584,10 +13835,10 @@
       </c>
     </row>
     <row r="28" spans="2:9">
-      <c r="H28" s="237" t="s">
+      <c r="H28" s="250" t="s">
         <v>403</v>
       </c>
-      <c r="I28" s="237"/>
+      <c r="I28" s="250"/>
     </row>
     <row r="39" spans="2:9">
       <c r="B39" t="s">
@@ -13595,10 +13846,10 @@
       </c>
     </row>
     <row r="43" spans="2:9">
-      <c r="H43" s="238" t="s">
+      <c r="H43" s="251" t="s">
         <v>406</v>
       </c>
-      <c r="I43" s="238"/>
+      <c r="I43" s="251"/>
     </row>
     <row r="54" spans="2:9">
       <c r="B54" t="s">
@@ -13606,10 +13857,10 @@
       </c>
     </row>
     <row r="59" spans="2:9">
-      <c r="H59" s="237" t="s">
+      <c r="H59" s="250" t="s">
         <v>403</v>
       </c>
-      <c r="I59" s="237"/>
+      <c r="I59" s="250"/>
     </row>
     <row r="61" spans="2:9">
       <c r="G61" t="s">
@@ -14132,13 +14383,13 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="18">
-      <c r="A2" s="218" t="s">
+      <c r="A2" s="231" t="s">
         <v>505</v>
       </c>
-      <c r="B2" s="218"/>
-      <c r="C2" s="218"/>
-      <c r="D2" s="218"/>
-      <c r="E2" s="218"/>
+      <c r="B2" s="231"/>
+      <c r="C2" s="231"/>
+      <c r="D2" s="231"/>
+      <c r="E2" s="231"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="143" t="s">
@@ -14291,15 +14542,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="219" t="s">
+      <c r="A1" s="232" t="s">
         <v>434</v>
       </c>
-      <c r="B1" s="219"/>
-      <c r="C1" s="219"/>
-      <c r="D1" s="219"/>
-      <c r="E1" s="219"/>
-      <c r="F1" s="219"/>
-      <c r="G1" s="219"/>
+      <c r="B1" s="232"/>
+      <c r="C1" s="232"/>
+      <c r="D1" s="232"/>
+      <c r="E1" s="232"/>
+      <c r="F1" s="232"/>
+      <c r="G1" s="232"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="143" t="s">
@@ -14409,15 +14660,15 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="219" t="s">
+      <c r="A12" s="232" t="s">
         <v>433</v>
       </c>
-      <c r="B12" s="219"/>
-      <c r="C12" s="219"/>
-      <c r="D12" s="219"/>
-      <c r="E12" s="219"/>
-      <c r="F12" s="219"/>
-      <c r="G12" s="219"/>
+      <c r="B12" s="232"/>
+      <c r="C12" s="232"/>
+      <c r="D12" s="232"/>
+      <c r="E12" s="232"/>
+      <c r="F12" s="232"/>
+      <c r="G12" s="232"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="143" t="s">

--- a/doc/android.xlsx
+++ b/doc/android.xlsx
@@ -3,37 +3,38 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10309"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F209B1D-B3E2-5146-9D82-A491727E662D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F62CBA-5B02-494D-8D2B-14866B1F9905}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="460" windowWidth="27840" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="-3600" windowWidth="38400" windowHeight="21600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="16" r:id="rId1"/>
     <sheet name="DB_Room" sheetId="24" r:id="rId2"/>
-    <sheet name="DB" sheetId="23" r:id="rId3"/>
-    <sheet name="ThreeeLevelCache" sheetId="22" r:id="rId4"/>
-    <sheet name="IPC" sheetId="21" r:id="rId5"/>
-    <sheet name="Activity_Lifecycle" sheetId="15" r:id="rId6"/>
-    <sheet name="ContentProvider" sheetId="4" r:id="rId7"/>
-    <sheet name="Android高级应用开发-深入篇" sheetId="5" r:id="rId8"/>
-    <sheet name="反编译" sheetId="8" r:id="rId9"/>
-    <sheet name="Android高级应用开发-基础篇_74UI开发的2+1法则" sheetId="1" r:id="rId10"/>
-    <sheet name="版本控制" sheetId="2" r:id="rId11"/>
-    <sheet name="Adapter" sheetId="3" r:id="rId12"/>
-    <sheet name="消息机制" sheetId="6" r:id="rId13"/>
-    <sheet name="消息机制模型" sheetId="10" r:id="rId14"/>
-    <sheet name="基于监听的事件处理机制" sheetId="12" r:id="rId15"/>
-    <sheet name="==与equals" sheetId="7" r:id="rId16"/>
-    <sheet name="hashCode" sheetId="9" r:id="rId17"/>
-    <sheet name="Bitmap.Config" sheetId="20" r:id="rId18"/>
-    <sheet name="drawable_分辨率" sheetId="19" r:id="rId19"/>
-    <sheet name="drawable_2" sheetId="18" r:id="rId20"/>
-    <sheet name="drawable_缩放" sheetId="17" r:id="rId21"/>
-    <sheet name="IO" sheetId="13" r:id="rId22"/>
+    <sheet name="DB_Room_AnnotationList" sheetId="25" r:id="rId3"/>
+    <sheet name="DB" sheetId="23" r:id="rId4"/>
+    <sheet name="ThreeeLevelCache" sheetId="22" r:id="rId5"/>
+    <sheet name="IPC" sheetId="21" r:id="rId6"/>
+    <sheet name="Activity_Lifecycle" sheetId="15" r:id="rId7"/>
+    <sheet name="ContentProvider" sheetId="4" r:id="rId8"/>
+    <sheet name="Android高级应用开发-深入篇" sheetId="5" r:id="rId9"/>
+    <sheet name="反编译" sheetId="8" r:id="rId10"/>
+    <sheet name="Android高级应用开发-基础篇_74UI开发的2+1法则" sheetId="1" r:id="rId11"/>
+    <sheet name="版本控制" sheetId="2" r:id="rId12"/>
+    <sheet name="Adapter" sheetId="3" r:id="rId13"/>
+    <sheet name="消息机制" sheetId="6" r:id="rId14"/>
+    <sheet name="消息机制模型" sheetId="10" r:id="rId15"/>
+    <sheet name="基于监听的事件处理机制" sheetId="12" r:id="rId16"/>
+    <sheet name="==与equals" sheetId="7" r:id="rId17"/>
+    <sheet name="hashCode" sheetId="9" r:id="rId18"/>
+    <sheet name="Bitmap.Config" sheetId="20" r:id="rId19"/>
+    <sheet name="drawable_分辨率" sheetId="19" r:id="rId20"/>
+    <sheet name="drawable_2" sheetId="18" r:id="rId21"/>
+    <sheet name="drawable_缩放" sheetId="17" r:id="rId22"/>
+    <sheet name="IO" sheetId="13" r:id="rId23"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Android高级应用开发-深入篇'!$A$1:$C$222</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">'Android高级应用开发-深入篇'!$A$1:$D$225</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Android高级应用开发-深入篇'!$A$1:$C$222</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">'Android高级应用开发-深入篇'!$A$1:$D$225</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
 </workbook>
@@ -103,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="634">
   <si>
     <t>Activity</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2339,6 +2340,191 @@
   <si>
     <t>temp</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Index specific columns</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>@PrimaryKey</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>@PrimaryKey(autoGenerate = true)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>@Entity(primaryKeys = {"stu_id", "course_id"}))</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Entity has a cmposite primary key</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Entity has a single primary key,and want Room to assign automatic IDs to entities</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Entity has a single primary key</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>@Entity(tableName = "course")</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Entity use a different table name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>@ColumnInfo(name = "course_name"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Entity fileld use a dfferemt table column name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Entity has fields that don't want to persist</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ignoredColumns</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>@@Entity(ignoredColumns = "picture")</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>An entity inherits fields from a parent entity,and don't want to persist</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>@Fts4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>@Fts3</t>
+  </si>
+  <si>
+    <t>@Fts4(languageId = "lid")</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Support full-text search(FTS,FTS4 SQLite extension module)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Support full-text search(FTS,FTS3 SQLite extension module)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>@Fts3(languageId = "lid")</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>@Entity(indices = {@Index("name"),@Index(value = {"last_name", "address"})})</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>use Java-based immutable value classes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Support full-text search(FTS,FTS4 SQLite extension module).
+A table supports content in multiple languages, use the languageId option to specify 
+the column that stores language information for each row</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Support full-text search(FTS,FTS3 SQLite extension module).
+A table supports content in multiple languages, use the languageId option to specify 
+the column that stores language information for each row</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Room Version</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;=2.1.0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>@AutoValue and @CopyAnnotations</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>@ForeignKey</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Define foreign key.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>@Embedded</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Create nested objects</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Desc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Annotation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>@Insert</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>@Update</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>@Delete</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>@Query</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Delete Dao</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Insert Dao</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Update Dao</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>@Dao</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data access objects.To access DB data</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Insert/delete/update/select Dao</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB_Room_AnnotationList</t>
+  </si>
+  <si>
+    <t>DB_Room_AnnotationList!A1</t>
   </si>
 </sst>
 </file>
@@ -3542,7 +3728,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="259">
+  <cellXfs count="266">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3980,6 +4166,27 @@
     <xf numFmtId="0" fontId="39" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="13" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4043,26 +4250,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="36" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="48" fillId="14" borderId="10" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="13" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -10492,10 +10689,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD58857B-D0A1-5746-959D-8AF492D5EE51}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -10533,17 +10730,140 @@
         <v>564</v>
       </c>
     </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>632</v>
+      </c>
+      <c r="B5" s="147" t="s">
+        <v>633</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B3" location="DB!A1" display="DB" xr:uid="{E442FB97-6815-464C-B9AA-C4CE8E614689}"/>
     <hyperlink ref="B4" location="DB_Room!A1" display="DB_Room" xr:uid="{BB703428-235E-F14D-B13E-18D1983CAF4E}"/>
+    <hyperlink ref="B5" location="DB_Room_AnnotationList!A1" display="DB_Room_AnnotationList!A1" xr:uid="{63CEB622-E640-DF41-A3D7-6358F5FDE168}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B1:I20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" spans="2:9">
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+    </row>
+    <row r="2" spans="2:9">
+      <c r="D2" s="70" t="s">
+        <v>348</v>
+      </c>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="D3" s="70" t="s">
+        <v>349</v>
+      </c>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="D4" s="70" t="s">
+        <v>350</v>
+      </c>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="C6" s="80" t="s">
+        <v>342</v>
+      </c>
+      <c r="E6" s="80" t="s">
+        <v>340</v>
+      </c>
+      <c r="G6" s="80" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" t="s">
+        <v>336</v>
+      </c>
+      <c r="D7" t="s">
+        <v>337</v>
+      </c>
+      <c r="F7" t="s">
+        <v>341</v>
+      </c>
+      <c r="H7" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="H9" s="79" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="E14" s="79" t="s">
+        <v>352</v>
+      </c>
+      <c r="G14" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="E15" s="79" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6">
+      <c r="E19" s="79" t="s">
+        <v>347</v>
+      </c>
+      <c r="F19" s="79"/>
+    </row>
+    <row r="20" spans="4:6">
+      <c r="D20" t="s">
+        <v>339</v>
+      </c>
+      <c r="F20" t="s">
+        <v>344</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:Q39"/>
   <sheetViews>
@@ -10874,7 +11194,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B3:G13"/>
   <sheetViews>
@@ -10930,7 +11250,7 @@
       <c r="G4" s="15"/>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="233" t="s">
+      <c r="B5" s="240" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="15" t="s">
@@ -10950,7 +11270,7 @@
       </c>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="233"/>
+      <c r="B6" s="240"/>
       <c r="C6" s="15" t="s">
         <v>17</v>
       </c>
@@ -10966,7 +11286,7 @@
       </c>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="233"/>
+      <c r="B7" s="240"/>
       <c r="C7" s="16" t="s">
         <v>31</v>
       </c>
@@ -10984,7 +11304,7 @@
       </c>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="233"/>
+      <c r="B8" s="240"/>
       <c r="C8" s="16" t="s">
         <v>32</v>
       </c>
@@ -11002,7 +11322,7 @@
       </c>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="233"/>
+      <c r="B9" s="240"/>
       <c r="C9" s="16" t="s">
         <v>33</v>
       </c>
@@ -11020,7 +11340,7 @@
       </c>
     </row>
     <row r="10" spans="2:7" ht="28">
-      <c r="B10" s="233"/>
+      <c r="B10" s="240"/>
       <c r="C10" s="16" t="s">
         <v>13</v>
       </c>
@@ -11038,7 +11358,7 @@
       </c>
     </row>
     <row r="11" spans="2:7" ht="42">
-      <c r="B11" s="234" t="s">
+      <c r="B11" s="241" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="18" t="s">
@@ -11058,7 +11378,7 @@
       </c>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="235"/>
+      <c r="B12" s="242"/>
       <c r="C12" s="15" t="s">
         <v>15</v>
       </c>
@@ -11072,7 +11392,7 @@
       </c>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="236"/>
+      <c r="B13" s="243"/>
       <c r="C13" s="15" t="s">
         <v>16</v>
       </c>
@@ -11098,7 +11418,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:N24"/>
   <sheetViews>
@@ -11258,7 +11578,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B2:U32"/>
   <sheetViews>
@@ -11519,7 +11839,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA80C652-EB11-2747-89DA-E4ABA79A811D}">
   <dimension ref="A2:T38"/>
   <sheetViews>
@@ -11628,11 +11948,11 @@
       <c r="C6" s="94"/>
       <c r="D6" s="101"/>
       <c r="E6" s="96"/>
-      <c r="F6" s="237" t="s">
+      <c r="F6" s="244" t="s">
         <v>392</v>
       </c>
-      <c r="G6" s="238"/>
-      <c r="H6" s="239"/>
+      <c r="G6" s="245"/>
+      <c r="H6" s="246"/>
       <c r="I6" s="96"/>
       <c r="J6" s="102"/>
       <c r="K6" s="94"/>
@@ -11652,9 +11972,9 @@
       <c r="C7" s="94"/>
       <c r="D7" s="101"/>
       <c r="E7" s="96"/>
-      <c r="F7" s="240"/>
-      <c r="G7" s="241"/>
-      <c r="H7" s="242"/>
+      <c r="F7" s="247"/>
+      <c r="G7" s="248"/>
+      <c r="H7" s="249"/>
       <c r="I7" s="96"/>
       <c r="J7" s="102"/>
       <c r="K7" s="95"/>
@@ -11674,9 +11994,9 @@
       <c r="C8" s="94"/>
       <c r="D8" s="101"/>
       <c r="E8" s="96"/>
-      <c r="F8" s="240"/>
-      <c r="G8" s="241"/>
-      <c r="H8" s="242"/>
+      <c r="F8" s="247"/>
+      <c r="G8" s="248"/>
+      <c r="H8" s="249"/>
       <c r="I8" s="96"/>
       <c r="J8" s="102"/>
       <c r="K8" s="94"/>
@@ -11695,9 +12015,9 @@
       <c r="B9" s="94"/>
       <c r="C9" s="94"/>
       <c r="D9" s="101"/>
-      <c r="F9" s="240"/>
-      <c r="G9" s="241"/>
-      <c r="H9" s="242"/>
+      <c r="F9" s="247"/>
+      <c r="G9" s="248"/>
+      <c r="H9" s="249"/>
       <c r="I9" s="96"/>
       <c r="J9" s="102"/>
       <c r="K9" s="94"/>
@@ -11716,9 +12036,9 @@
       <c r="B10" s="94"/>
       <c r="C10" s="94"/>
       <c r="D10" s="101"/>
-      <c r="F10" s="243"/>
-      <c r="G10" s="244"/>
-      <c r="H10" s="245"/>
+      <c r="F10" s="250"/>
+      <c r="G10" s="251"/>
+      <c r="H10" s="252"/>
       <c r="I10" s="129"/>
       <c r="J10" s="102"/>
       <c r="K10" s="94"/>
@@ -12311,7 +12631,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E7778B8-D430-A34A-995E-0F83AC473C52}">
   <dimension ref="E8:K35"/>
   <sheetViews>
@@ -12391,16 +12711,16 @@
     </row>
     <row r="18" spans="5:8">
       <c r="E18" s="137"/>
-      <c r="F18" s="246" t="s">
+      <c r="F18" s="253" t="s">
         <v>395</v>
       </c>
-      <c r="G18" s="247"/>
+      <c r="G18" s="254"/>
       <c r="H18" s="135"/>
     </row>
     <row r="19" spans="5:8">
       <c r="E19" s="137"/>
-      <c r="F19" s="248"/>
-      <c r="G19" s="249"/>
+      <c r="F19" s="255"/>
+      <c r="G19" s="256"/>
       <c r="H19" s="135"/>
     </row>
     <row r="20" spans="5:8">
@@ -12497,7 +12817,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B1:K25"/>
   <sheetViews>
@@ -12712,7 +13032,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A3:E21"/>
   <sheetViews>
@@ -12895,7 +13215,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDFDE749-2C0C-C548-8C4F-6EF43EA89AA0}">
   <dimension ref="B2:C9"/>
   <sheetViews>
@@ -12974,117 +13294,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D86ED6A2-BD47-244B-AD18-088367512271}">
-  <dimension ref="B2:M10"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="AY40" sqref="AY40"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="14"/>
-  <sheetData>
-    <row r="2" spans="2:13">
-      <c r="F2" s="65" t="s">
-        <v>495</v>
-      </c>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-    </row>
-    <row r="3" spans="2:13">
-      <c r="F3" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" ht="15" thickBot="1">
-      <c r="F4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13">
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5" s="165"/>
-      <c r="G5" s="166"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="21"/>
-    </row>
-    <row r="6" spans="2:13">
-      <c r="F6" s="167"/>
-      <c r="G6" s="168"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="24"/>
-    </row>
-    <row r="7" spans="2:13" ht="15" thickBot="1">
-      <c r="F7" s="169"/>
-      <c r="G7" s="170"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="27"/>
-    </row>
-    <row r="8" spans="2:13">
-      <c r="B8" t="s">
-        <v>493</v>
-      </c>
-      <c r="F8" s="19"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="21"/>
-    </row>
-    <row r="9" spans="2:13">
-      <c r="F9" s="22"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="24"/>
-    </row>
-    <row r="10" spans="2:13" ht="15" thickBot="1">
-      <c r="F10" s="25"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="27"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{133A9786-8ADA-8C47-8004-675DACA89322}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -13221,7 +13436,7 @@
       <c r="D21" s="215" t="s">
         <v>574</v>
       </c>
-      <c r="E21" s="253" t="s">
+      <c r="E21" s="232" t="s">
         <v>587</v>
       </c>
       <c r="F21" t="s">
@@ -13238,7 +13453,7 @@
       <c r="D22" s="230">
         <v>100</v>
       </c>
-      <c r="E22" s="254">
+      <c r="E22" s="233">
         <v>1</v>
       </c>
       <c r="F22" s="223">
@@ -13258,7 +13473,7 @@
       <c r="D23" s="230">
         <v>97</v>
       </c>
-      <c r="E23" s="254">
+      <c r="E23" s="233">
         <v>2</v>
       </c>
       <c r="F23" s="223">
@@ -13269,16 +13484,16 @@
       </c>
     </row>
     <row r="24" spans="2:7" ht="16">
-      <c r="B24" s="252">
+      <c r="B24" s="231">
         <v>1</v>
       </c>
-      <c r="C24" s="252">
+      <c r="C24" s="231">
         <v>3</v>
       </c>
-      <c r="D24" s="252">
+      <c r="D24" s="231">
         <v>75</v>
       </c>
-      <c r="E24" s="255">
+      <c r="E24" s="234">
         <v>2</v>
       </c>
       <c r="F24" s="223">
@@ -13289,16 +13504,16 @@
       </c>
     </row>
     <row r="25" spans="2:7" ht="16">
-      <c r="B25" s="252">
+      <c r="B25" s="231">
         <v>2</v>
       </c>
-      <c r="C25" s="252">
+      <c r="C25" s="231">
         <v>1</v>
       </c>
-      <c r="D25" s="252">
+      <c r="D25" s="231">
         <v>99</v>
       </c>
-      <c r="E25" s="256">
+      <c r="E25" s="235">
         <v>4</v>
       </c>
       <c r="F25" s="185">
@@ -13309,16 +13524,16 @@
       </c>
     </row>
     <row r="26" spans="2:7" ht="15">
-      <c r="B26" s="252">
+      <c r="B26" s="231">
         <v>2</v>
       </c>
-      <c r="C26" s="252">
+      <c r="C26" s="231">
         <v>2</v>
       </c>
-      <c r="D26" s="252">
+      <c r="D26" s="231">
         <v>60</v>
       </c>
-      <c r="E26" s="256">
+      <c r="E26" s="235">
         <v>5</v>
       </c>
       <c r="F26" s="185">
@@ -13338,7 +13553,7 @@
       <c r="D27" s="220">
         <v>85</v>
       </c>
-      <c r="E27" s="257">
+      <c r="E27" s="236">
         <v>6</v>
       </c>
       <c r="F27" s="185">
@@ -13358,7 +13573,7 @@
       <c r="D28" s="229">
         <v>88</v>
       </c>
-      <c r="E28" s="258">
+      <c r="E28" s="237">
         <v>7</v>
       </c>
       <c r="F28" s="185">
@@ -13378,7 +13593,7 @@
       <c r="D29" s="229">
         <v>95</v>
       </c>
-      <c r="E29" s="258">
+      <c r="E29" s="237">
         <v>8</v>
       </c>
       <c r="F29" s="185">
@@ -13398,7 +13613,7 @@
       <c r="D30" s="229">
         <v>75</v>
       </c>
-      <c r="E30" s="258">
+      <c r="E30" s="237">
         <v>9</v>
       </c>
       <c r="F30" s="185">
@@ -13419,6 +13634,111 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D86ED6A2-BD47-244B-AD18-088367512271}">
+  <dimension ref="B2:M10"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="AY40" sqref="AY40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="14"/>
+  <sheetData>
+    <row r="2" spans="2:13">
+      <c r="F2" s="65" t="s">
+        <v>495</v>
+      </c>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="65"/>
+    </row>
+    <row r="3" spans="2:13">
+      <c r="F3" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" ht="15" thickBot="1">
+      <c r="F4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13">
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5" s="165"/>
+      <c r="G5" s="166"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="21"/>
+    </row>
+    <row r="6" spans="2:13">
+      <c r="F6" s="167"/>
+      <c r="G6" s="168"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="24"/>
+    </row>
+    <row r="7" spans="2:13" ht="15" thickBot="1">
+      <c r="F7" s="169"/>
+      <c r="G7" s="170"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="27"/>
+    </row>
+    <row r="8" spans="2:13">
+      <c r="B8" t="s">
+        <v>493</v>
+      </c>
+      <c r="F8" s="19"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="21"/>
+    </row>
+    <row r="9" spans="2:13">
+      <c r="F9" s="22"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="24"/>
+    </row>
+    <row r="10" spans="2:13" ht="15" thickBot="1">
+      <c r="F10" s="25"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="27"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A51D4780-106D-3C46-B51D-1FAF5E0D4E2A}">
   <dimension ref="A1:K27"/>
   <sheetViews>
@@ -13686,7 +14006,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{112C5F8E-5AB4-3747-B9CF-9A1C944F7742}">
   <dimension ref="A1:I35"/>
   <sheetViews>
@@ -13722,8 +14042,8 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="F10" s="250"/>
-      <c r="G10" s="250"/>
+      <c r="F10" s="257"/>
+      <c r="G10" s="257"/>
       <c r="I10" t="s">
         <v>445</v>
       </c>
@@ -13764,8 +14084,8 @@
       </c>
     </row>
     <row r="32" spans="2:9">
-      <c r="F32" s="250"/>
-      <c r="G32" s="250"/>
+      <c r="F32" s="257"/>
+      <c r="G32" s="257"/>
       <c r="I32" t="s">
         <v>442</v>
       </c>
@@ -13798,7 +14118,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDE8B8C4-352E-054D-A843-45DFD254B784}">
   <dimension ref="B2:J61"/>
   <sheetViews>
@@ -13819,10 +14139,10 @@
       </c>
     </row>
     <row r="12" spans="2:10">
-      <c r="H12" s="251" t="s">
+      <c r="H12" s="258" t="s">
         <v>399</v>
       </c>
-      <c r="I12" s="251"/>
+      <c r="I12" s="258"/>
     </row>
     <row r="14" spans="2:10">
       <c r="J14" t="s">
@@ -13835,10 +14155,10 @@
       </c>
     </row>
     <row r="28" spans="2:9">
-      <c r="H28" s="250" t="s">
+      <c r="H28" s="257" t="s">
         <v>403</v>
       </c>
-      <c r="I28" s="250"/>
+      <c r="I28" s="257"/>
     </row>
     <row r="39" spans="2:9">
       <c r="B39" t="s">
@@ -13846,10 +14166,10 @@
       </c>
     </row>
     <row r="43" spans="2:9">
-      <c r="H43" s="251" t="s">
+      <c r="H43" s="258" t="s">
         <v>406</v>
       </c>
-      <c r="I43" s="251"/>
+      <c r="I43" s="258"/>
     </row>
     <row r="54" spans="2:9">
       <c r="B54" t="s">
@@ -13857,10 +14177,10 @@
       </c>
     </row>
     <row r="59" spans="2:9">
-      <c r="H59" s="250" t="s">
+      <c r="H59" s="257" t="s">
         <v>403</v>
       </c>
-      <c r="I59" s="250"/>
+      <c r="I59" s="257"/>
     </row>
     <row r="61" spans="2:9">
       <c r="G61" t="s">
@@ -13881,6 +14201,270 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{106A6BD3-6660-394A-B18B-30A6EDF09F88}">
+  <dimension ref="A1:D30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="259"/>
+    <col min="2" max="2" width="75" style="259" customWidth="1"/>
+    <col min="3" max="3" width="82.83203125" style="259" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" style="259" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="259"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="260" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15">
+      <c r="B2" s="261" t="s">
+        <v>621</v>
+      </c>
+      <c r="C2" s="261" t="s">
+        <v>620</v>
+      </c>
+      <c r="D2" s="261" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="B3" s="262" t="s">
+        <v>589</v>
+      </c>
+      <c r="C3" s="263" t="s">
+        <v>594</v>
+      </c>
+      <c r="D3" s="263"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="B4" s="262" t="s">
+        <v>590</v>
+      </c>
+      <c r="C4" s="263" t="s">
+        <v>593</v>
+      </c>
+      <c r="D4" s="263"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="B5" s="262" t="s">
+        <v>591</v>
+      </c>
+      <c r="C5" s="263" t="s">
+        <v>592</v>
+      </c>
+      <c r="D5" s="263"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="B6" s="262" t="s">
+        <v>595</v>
+      </c>
+      <c r="C6" s="263" t="s">
+        <v>596</v>
+      </c>
+      <c r="D6" s="263"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="B7" s="262" t="s">
+        <v>597</v>
+      </c>
+      <c r="C7" s="263" t="s">
+        <v>598</v>
+      </c>
+      <c r="D7" s="263"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="B8" s="262" t="s">
+        <v>601</v>
+      </c>
+      <c r="C8" s="263" t="s">
+        <v>599</v>
+      </c>
+      <c r="D8" s="263"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="B9" s="262" t="s">
+        <v>600</v>
+      </c>
+      <c r="C9" s="263" t="s">
+        <v>602</v>
+      </c>
+      <c r="D9" s="263"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="B10" s="262" t="s">
+        <v>603</v>
+      </c>
+      <c r="C10" s="263" t="s">
+        <v>606</v>
+      </c>
+      <c r="D10" s="263"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="B11" s="262" t="s">
+        <v>604</v>
+      </c>
+      <c r="C11" s="263" t="s">
+        <v>607</v>
+      </c>
+      <c r="D11" s="263"/>
+    </row>
+    <row r="12" spans="1:4" ht="45">
+      <c r="B12" s="262" t="s">
+        <v>605</v>
+      </c>
+      <c r="C12" s="264" t="s">
+        <v>611</v>
+      </c>
+      <c r="D12" s="263"/>
+    </row>
+    <row r="13" spans="1:4" ht="45">
+      <c r="B13" s="262" t="s">
+        <v>608</v>
+      </c>
+      <c r="C13" s="264" t="s">
+        <v>612</v>
+      </c>
+      <c r="D13" s="263"/>
+    </row>
+    <row r="14" spans="1:4" ht="15">
+      <c r="B14" s="265" t="s">
+        <v>609</v>
+      </c>
+      <c r="C14" s="263" t="s">
+        <v>588</v>
+      </c>
+      <c r="D14" s="263"/>
+    </row>
+    <row r="15" spans="1:4" ht="15">
+      <c r="B15" s="264" t="s">
+        <v>615</v>
+      </c>
+      <c r="C15" s="263" t="s">
+        <v>610</v>
+      </c>
+      <c r="D15" s="263" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15">
+      <c r="B16" s="264" t="s">
+        <v>616</v>
+      </c>
+      <c r="C16" s="263" t="s">
+        <v>617</v>
+      </c>
+      <c r="D16" s="263"/>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="263" t="s">
+        <v>618</v>
+      </c>
+      <c r="C17" s="263" t="s">
+        <v>619</v>
+      </c>
+      <c r="D17" s="263"/>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="263" t="s">
+        <v>629</v>
+      </c>
+      <c r="C18" s="263" t="s">
+        <v>630</v>
+      </c>
+      <c r="D18" s="263"/>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="263" t="s">
+        <v>622</v>
+      </c>
+      <c r="C19" s="263" t="s">
+        <v>627</v>
+      </c>
+      <c r="D19" s="263"/>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="263" t="s">
+        <v>624</v>
+      </c>
+      <c r="C20" s="263" t="s">
+        <v>626</v>
+      </c>
+      <c r="D20" s="263"/>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="263" t="s">
+        <v>623</v>
+      </c>
+      <c r="C21" s="263" t="s">
+        <v>628</v>
+      </c>
+      <c r="D21" s="263"/>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="263" t="s">
+        <v>625</v>
+      </c>
+      <c r="C22" s="263" t="s">
+        <v>631</v>
+      </c>
+      <c r="D22" s="263"/>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" s="263"/>
+      <c r="C23" s="263"/>
+      <c r="D23" s="263"/>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" s="263"/>
+      <c r="C24" s="263"/>
+      <c r="D24" s="263"/>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" s="263"/>
+      <c r="C25" s="263"/>
+      <c r="D25" s="263"/>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" s="263"/>
+      <c r="C26" s="263"/>
+      <c r="D26" s="263"/>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" s="263"/>
+      <c r="C27" s="263"/>
+      <c r="D27" s="263"/>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" s="263"/>
+      <c r="C28" s="263"/>
+      <c r="D28" s="263"/>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29" s="263"/>
+      <c r="C29" s="263"/>
+      <c r="D29" s="263"/>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30" s="263"/>
+      <c r="C30" s="263"/>
+      <c r="D30" s="263"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Home!B5" display="Home" xr:uid="{BAAAB34A-AE68-4444-B42E-3243836EB302}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3066BC90-58A1-734D-AE58-036202455225}">
   <dimension ref="A1:G18"/>
   <sheetViews>
@@ -14056,7 +14640,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E51BCB48-68B0-EF46-B93E-648BAB230ADA}">
   <dimension ref="A1:S28"/>
   <sheetViews>
@@ -14360,7 +14944,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A0C945C-04F2-D147-89E5-6DDFCFB3EEA7}">
   <dimension ref="A1:F11"/>
   <sheetViews>
@@ -14383,13 +14967,13 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="18">
-      <c r="A2" s="231" t="s">
+      <c r="A2" s="238" t="s">
         <v>505</v>
       </c>
-      <c r="B2" s="231"/>
-      <c r="C2" s="231"/>
-      <c r="D2" s="231"/>
-      <c r="E2" s="231"/>
+      <c r="B2" s="238"/>
+      <c r="C2" s="238"/>
+      <c r="D2" s="238"/>
+      <c r="E2" s="238"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="143" t="s">
@@ -14528,7 +15112,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{695F25B9-FD59-DD4E-A097-058E28B48012}">
   <dimension ref="A1:G19"/>
   <sheetViews>
@@ -14542,15 +15126,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="232" t="s">
+      <c r="A1" s="239" t="s">
         <v>434</v>
       </c>
-      <c r="B1" s="232"/>
-      <c r="C1" s="232"/>
-      <c r="D1" s="232"/>
-      <c r="E1" s="232"/>
-      <c r="F1" s="232"/>
-      <c r="G1" s="232"/>
+      <c r="B1" s="239"/>
+      <c r="C1" s="239"/>
+      <c r="D1" s="239"/>
+      <c r="E1" s="239"/>
+      <c r="F1" s="239"/>
+      <c r="G1" s="239"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="143" t="s">
@@ -14660,15 +15244,15 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="232" t="s">
+      <c r="A12" s="239" t="s">
         <v>433</v>
       </c>
-      <c r="B12" s="232"/>
-      <c r="C12" s="232"/>
-      <c r="D12" s="232"/>
-      <c r="E12" s="232"/>
-      <c r="F12" s="232"/>
-      <c r="G12" s="232"/>
+      <c r="B12" s="239"/>
+      <c r="C12" s="239"/>
+      <c r="D12" s="239"/>
+      <c r="E12" s="239"/>
+      <c r="F12" s="239"/>
+      <c r="G12" s="239"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="143" t="s">
@@ -14787,7 +15371,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:Q30"/>
   <sheetViews>
@@ -15203,7 +15787,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:D224"/>
@@ -17182,118 +17766,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B1:I20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
-  <sheetData>
-    <row r="1" spans="2:9">
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-    </row>
-    <row r="2" spans="2:9">
-      <c r="D2" s="70" t="s">
-        <v>348</v>
-      </c>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-    </row>
-    <row r="3" spans="2:9">
-      <c r="D3" s="70" t="s">
-        <v>349</v>
-      </c>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-    </row>
-    <row r="4" spans="2:9">
-      <c r="D4" s="70" t="s">
-        <v>350</v>
-      </c>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-    </row>
-    <row r="6" spans="2:9">
-      <c r="C6" s="80" t="s">
-        <v>342</v>
-      </c>
-      <c r="E6" s="80" t="s">
-        <v>340</v>
-      </c>
-      <c r="G6" s="80" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9">
-      <c r="B7" t="s">
-        <v>336</v>
-      </c>
-      <c r="D7" t="s">
-        <v>337</v>
-      </c>
-      <c r="F7" t="s">
-        <v>341</v>
-      </c>
-      <c r="H7" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9">
-      <c r="H9" s="79" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9">
-      <c r="E14" s="79" t="s">
-        <v>352</v>
-      </c>
-      <c r="G14" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9">
-      <c r="E15" s="79" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="19" spans="4:6">
-      <c r="E19" s="79" t="s">
-        <v>347</v>
-      </c>
-      <c r="F19" s="79"/>
-    </row>
-    <row r="20" spans="4:6">
-      <c r="D20" t="s">
-        <v>339</v>
-      </c>
-      <c r="F20" t="s">
-        <v>344</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-</worksheet>
 </file>